--- a/all_firm_case.xlsx
+++ b/all_firm_case.xlsx
@@ -8,13 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliciawongel/Library/Group Containers/G69SCX94XU.duck/Library/Application Support/duck/Volumes.noindex/DPB-DGE Data Transfer Node/nobackup/scratch/awongel/clab_all_firm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626400AE-7EFB-4445-9FEF-B30DFB9F4317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECB34B9-06D4-4F48-89A7-892D3DEE3C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="500" windowWidth="27920" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="700" yWindow="500" windowWidth="27920" windowHeight="15020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case_input_intermodel_one_node_" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="Btu_per_kWh">'[1]Generation Techs'!$B$12</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="134">
   <si>
     <t>Note that demand has no decisions.</t>
   </si>
@@ -185,15 +191,6 @@
     <t>warning</t>
   </si>
   <si>
-    <t>solar.csv</t>
-  </si>
-  <si>
-    <t>demand.csv</t>
-  </si>
-  <si>
-    <t>wind.csv</t>
-  </si>
-  <si>
     <t>time_series_file</t>
   </si>
   <si>
@@ -314,9 +311,6 @@
     <t>Note: Capital costs are the product of hourly fixed costs and time_range</t>
   </si>
   <si>
-    <t>Note: This is a test case, the costs aren't meant to be very realistic but provide reproducibility in tests</t>
-  </si>
-  <si>
     <t>2017-01-01 0:00:00</t>
   </si>
   <si>
@@ -347,27 +341,12 @@
     <t>END_COMPONENT_DATA</t>
   </si>
   <si>
-    <t>test_prefix</t>
-  </si>
-  <si>
-    <t>test_case</t>
-  </si>
-  <si>
-    <t>/carnegie/data/Shared/Labs/Caldeira Lab/Everyone/energy_demand_capacity_data/test_case_solar_wind_demand/</t>
-  </si>
-  <si>
-    <t>bus2</t>
-  </si>
-  <si>
     <t>DAC</t>
   </si>
   <si>
     <t>co2_stored</t>
   </si>
   <si>
-    <t>co2_atmosphere</t>
-  </si>
-  <si>
     <t>bioenergy</t>
   </si>
   <si>
@@ -375,6 +354,93 @@
   </si>
   <si>
     <t>geothermal</t>
+  </si>
+  <si>
+    <t>Variable cost</t>
+  </si>
+  <si>
+    <t>natgas_ccs</t>
+  </si>
+  <si>
+    <t>NREL (National Renewable Energy Laboratory). 2021. "2021 Annual Technology Baseline." Golden, CO: National Renewable Energy Laboratory. https://atb.nrel.gov/. </t>
+  </si>
+  <si>
+    <t>Source generation costs</t>
+  </si>
+  <si>
+    <t>Data generation costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://atb.nrel.gov/electricity/2022/data </t>
+  </si>
+  <si>
+    <t>Source storage costs</t>
+  </si>
+  <si>
+    <t>Hunter et al. Techno-Economic Analysis of Long-Duration Energy Storage and Flexible Power Generation Technologies to Support High-Variable Renewable Energy Grids. Joule 2021, 5 (8), 2077–2101.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doi.org/10.1016/j.joule.2021.06.018.</t>
+  </si>
+  <si>
+    <t>battery energy</t>
+  </si>
+  <si>
+    <t>battery power</t>
+  </si>
+  <si>
+    <t>All Costs in $2019 USD</t>
+  </si>
+  <si>
+    <t>2018 USD to 2019 USD</t>
+  </si>
+  <si>
+    <t>Other fixed cost* (% of capital cost)</t>
+  </si>
+  <si>
+    <t>* includes property, tax, insurance, licensing, permiting costs</t>
+  </si>
+  <si>
+    <t>pumped_hydro_storage energy</t>
+  </si>
+  <si>
+    <t>pumped_hydro_storage power</t>
+  </si>
+  <si>
+    <t>biopower</t>
+  </si>
+  <si>
+    <t>phs_energy</t>
+  </si>
+  <si>
+    <t>phs_power</t>
+  </si>
+  <si>
+    <t>#Link</t>
+  </si>
+  <si>
+    <t>US_capacity_solar_25pctTop_unnormalized.csv</t>
+  </si>
+  <si>
+    <t>US_capacity_wind_25pctTop_unnormalized.csv</t>
+  </si>
+  <si>
+    <t>US_demand_unnormalized.csv</t>
+  </si>
+  <si>
+    <t>/carnegie/data/Shared/Labs/Caldeira Lab/Everyone/energy_demand_capacity_data/US_solar_wind_demand/</t>
+  </si>
+  <si>
+    <t>all_firm_case</t>
+  </si>
+  <si>
+    <t>all_firm</t>
+  </si>
+  <si>
+    <t>#Generator</t>
+  </si>
+  <si>
+    <t>Decay rate</t>
   </si>
 </sst>
 </file>
@@ -384,7 +450,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,6 +597,42 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="36">
@@ -866,7 +968,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -909,8 +1011,10 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -948,8 +1052,63 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="43" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -983,6 +1142,8 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="43" xr:uid="{7A02E8E7-1985-254B-A613-AE36939A1A5A}"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1004,6 +1165,31 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Storage Techs"/>
+      <sheetName val="Gravitational"/>
+      <sheetName val="Generation Techs"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="12">
+          <cell r="B12">
+            <v>3412.141633127942</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1303,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T81"/>
+  <dimension ref="A1:S103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:XFD62"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O61" sqref="O61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1314,16 +1500,16 @@
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" customWidth="1"/>
     <col min="8" max="9" width="11.33203125" customWidth="1"/>
     <col min="10" max="10" width="13.5" customWidth="1"/>
     <col min="11" max="11" width="14.83203125" customWidth="1"/>
     <col min="12" max="12" width="13.5" customWidth="1"/>
     <col min="13" max="13" width="11.1640625" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" customWidth="1"/>
-    <col min="15" max="15" width="22.33203125" customWidth="1"/>
+    <col min="14" max="14" width="12.83203125" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" customWidth="1"/>
     <col min="16" max="17" width="11.5" customWidth="1"/>
     <col min="18" max="18" width="14.1640625" customWidth="1"/>
     <col min="19" max="19" width="11.1640625" customWidth="1"/>
@@ -1331,7 +1517,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1351,7 +1537,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1393,7 +1579,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1427,7 +1613,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1440,7 +1626,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1453,7 +1639,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1483,10 +1669,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1499,7 +1685,7 @@
         <v>24</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1512,7 +1698,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1525,7 +1711,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1538,7 +1724,7 @@
         <v>35</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1551,7 +1737,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1564,7 +1750,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1582,7 +1768,7 @@
         <v>45</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1598,7 +1784,7 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1606,7 +1792,7 @@
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1614,7 +1800,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" t="s">
@@ -1626,13 +1812,13 @@
         <v>43</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C30" s="8"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1641,30 +1827,30 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B32" s="21">
         <f>(B30-B29)*24/B31</f>
         <v>8784</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B33" s="21">
         <f>B32*B31</f>
         <v>8784</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -1673,81 +1859,81 @@
       </c>
       <c r="C35" s="7"/>
       <c r="D35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>14</v>
       </c>
       <c r="B36" s="1">
-        <v>10000000000</v>
+        <v>1</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>18</v>
       </c>
       <c r="J42" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I43" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P43" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>4</v>
       </c>
@@ -1775,17 +1961,17 @@
       <c r="P45" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5" t="s">
+      <c r="Q45" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R45" s="5"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>20</v>
       </c>
@@ -1793,7 +1979,7 @@
         <v>21</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>22</v>
@@ -1802,42 +1988,39 @@
         <v>37</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="G47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q47" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="R47" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="B48" t="s">
         <v>19</v>
@@ -1848,15 +2031,22 @@
       <c r="D48" t="s">
         <v>22</v>
       </c>
-      <c r="G48" t="s">
-        <v>51</v>
-      </c>
-      <c r="J48" s="15"/>
-      <c r="L48" s="15"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>128</v>
+      </c>
+      <c r="I48" s="26"/>
+      <c r="K48" s="15"/>
+      <c r="R48" t="str">
+        <f xml:space="preserve"> 1 &amp; "/" &amp; B38</f>
+        <v>1/h</v>
+      </c>
+      <c r="S48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
         <v>28</v>
@@ -1867,26 +2057,26 @@
       <c r="D49" t="s">
         <v>22</v>
       </c>
-      <c r="G49" t="s">
-        <v>50</v>
-      </c>
-      <c r="J49" s="21">
-        <f>M73*B33</f>
-        <v>171.65443408509168</v>
-      </c>
-      <c r="K49" t="str">
+      <c r="F49" t="s">
+        <v>126</v>
+      </c>
+      <c r="I49" s="26">
+        <f>N85*B33</f>
+        <v>135.46581245459663</v>
+      </c>
+      <c r="J49" t="str">
         <f>B40 &amp; "/time range/" &amp; B39</f>
         <v>$/time range/kW</v>
       </c>
-      <c r="L49" s="15"/>
-      <c r="M49" t="str">
+      <c r="K49" s="15"/>
+      <c r="L49" t="str">
         <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
         <v>34</v>
@@ -1897,26 +2087,26 @@
       <c r="D50" t="s">
         <v>22</v>
       </c>
-      <c r="G50" t="s">
-        <v>52</v>
-      </c>
-      <c r="J50" s="21">
-        <f>M77*B33</f>
-        <v>181.49756560590552</v>
-      </c>
-      <c r="K50" t="str">
+      <c r="F50" t="s">
+        <v>127</v>
+      </c>
+      <c r="I50" s="26">
+        <f>N86*B33</f>
+        <v>159.15693044316652</v>
+      </c>
+      <c r="J50" t="str">
         <f>B40 &amp; "/time range/" &amp; B39</f>
         <v>$/time range/kW</v>
       </c>
-      <c r="L50" s="15"/>
-      <c r="M50" t="str">
+      <c r="K50" s="15"/>
+      <c r="L50" t="str">
         <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="B51" t="s">
         <v>29</v>
@@ -1927,612 +2117,1394 @@
       <c r="D51" t="s">
         <v>22</v>
       </c>
-      <c r="J51" s="21">
-        <f>M74*B33</f>
-        <v>104.08824719790415</v>
-      </c>
-      <c r="K51" t="str">
+      <c r="I51" s="26">
+        <f>N87*B33</f>
+        <v>112.24474894263096</v>
+      </c>
+      <c r="J51" t="str">
         <f>B40 &amp; "/time range/" &amp; B39</f>
         <v>$/time range/kW</v>
       </c>
-      <c r="L51" s="15">
-        <f>I74 + J74/K74</f>
-        <v>3.9088110924995347E-2</v>
-      </c>
-      <c r="M51" t="str">
+      <c r="K51" s="15">
+        <f>I87 + J87/L87</f>
+        <v>1.6911456050362664E-2</v>
+      </c>
+      <c r="L51" t="str">
         <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="D52" t="s">
         <v>22</v>
       </c>
-      <c r="J52" s="21">
-        <f>M76*B33</f>
-        <v>548.78374889246641</v>
-      </c>
-      <c r="K52" t="str">
+      <c r="I52" s="27">
+        <f>N88*B33</f>
+        <v>280.93327462774823</v>
+      </c>
+      <c r="J52" t="str">
         <f>B40 &amp; "/time range/" &amp; B39</f>
         <v>$/time range/kW</v>
       </c>
-      <c r="L52" s="15">
-        <f>I76 + J76/K76</f>
-        <v>2.5047272727272724E-2</v>
-      </c>
-      <c r="M52" t="str">
+      <c r="K52" s="15">
+        <f>I88 + J88/L88</f>
+        <v>1.8144865147936888E-2</v>
+      </c>
+      <c r="L52" t="str">
         <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
-      </c>
-      <c r="J53" s="21"/>
-      <c r="L53" s="15"/>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="C53" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" s="26">
+        <f>N89*B33</f>
+        <v>742.40076653499398</v>
+      </c>
+      <c r="J53" t="str">
+        <f>B40 &amp; "/time range/" &amp; B39</f>
+        <v>$/time range/kW</v>
+      </c>
+      <c r="K53" s="15">
+        <f>I89 + J89/L89</f>
+        <v>2.3458663758010111E-2</v>
+      </c>
+      <c r="L53" t="str">
+        <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
+        <v>$/kWh</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
-      </c>
-      <c r="J54" s="21"/>
-      <c r="L54" s="15"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="C54" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" t="s">
+        <v>22</v>
+      </c>
+      <c r="I54" s="26">
+        <f>N90*B33</f>
+        <v>501.59899872684895</v>
+      </c>
+      <c r="J54" t="str">
+        <f>B40 &amp; "/time range/" &amp; B39</f>
+        <v>$/time range/kW</v>
+      </c>
+      <c r="K54" s="15"/>
+      <c r="L54" t="str">
+        <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
+        <v>$/kWh</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
-      </c>
-      <c r="J55" s="21"/>
-      <c r="L55" s="15"/>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="C55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" t="s">
+        <v>22</v>
+      </c>
+      <c r="I55" s="26"/>
+      <c r="K55" s="15"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="D56" t="s">
         <v>22</v>
       </c>
-      <c r="J56" s="21">
-        <f>M75*N56*B33</f>
-        <v>223.87212597208145</v>
-      </c>
-      <c r="K56" t="str">
+      <c r="I56" s="27">
+        <f>N92*B33</f>
+        <v>1883.019444812541</v>
+      </c>
+      <c r="J56" t="str">
         <f>B40 &amp; "/time range/" &amp; B39</f>
         <v>$/time range/kW</v>
       </c>
-      <c r="L56" s="15"/>
-      <c r="M56" t="str">
+      <c r="K56" s="15"/>
+      <c r="L56" t="str">
         <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
-      <c r="N56">
-        <v>6.008</v>
-      </c>
-      <c r="O56" t="b">
-        <v>1</v>
-      </c>
-      <c r="P56">
-        <v>0.9</v>
-      </c>
-      <c r="R56">
-        <v>1.1400000000000001E-6</v>
-      </c>
-      <c r="S56" t="str">
-        <f xml:space="preserve"> 1 &amp; "/" &amp; B38</f>
-        <v>1/h</v>
-      </c>
-      <c r="T56" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C57" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D57" t="s">
         <v>22</v>
       </c>
-      <c r="E57" t="s">
-        <v>38</v>
-      </c>
-      <c r="J57" s="21">
-        <f>M78*B33</f>
-        <v>43.92</v>
-      </c>
-      <c r="K57" t="str">
+      <c r="I57" s="27">
+        <f>(N93+N94)*B33</f>
+        <v>56.563262262275956</v>
+      </c>
+      <c r="J57" t="str">
         <f>B40 &amp; "/time range/" &amp; B39</f>
         <v>$/time range/kW</v>
       </c>
-      <c r="L57" s="15"/>
-      <c r="M57" t="str">
+      <c r="K57" s="15">
+        <f>P94</f>
+        <v>3.1E-6</v>
+      </c>
+      <c r="L57" t="str">
         <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
-      <c r="P57">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M57">
+        <v>4</v>
+      </c>
+      <c r="N57" t="b">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <f>L94</f>
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B58" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" t="s">
+        <v>38</v>
+      </c>
+      <c r="I58" s="26">
+        <f>N95*B33</f>
+        <v>153.0544177167759</v>
+      </c>
+      <c r="J58" t="str">
+        <f>B40 &amp; "/time range/" &amp; B39</f>
+        <v>$/time range/kW</v>
+      </c>
+      <c r="K58" s="15">
+        <f>P95</f>
+        <v>1.2999999999999998E-6</v>
+      </c>
+      <c r="L58" t="str">
+        <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
+        <v>$/kWh</v>
+      </c>
+      <c r="O58">
+        <f>L95</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59" t="s">
         <v>39</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>39</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D59" t="s">
         <v>38</v>
       </c>
-      <c r="J58" s="21">
-        <f>M79*B33</f>
-        <v>0.140544</v>
-      </c>
-      <c r="K58" t="str">
+      <c r="I59" s="26">
+        <f>N96*B33</f>
+        <v>0.16397297656507703</v>
+      </c>
+      <c r="J59" t="str">
         <f>B40 &amp; "/time range/" &amp; B39 &amp; B38</f>
         <v>$/time range/kWh</v>
       </c>
-      <c r="L58" s="15"/>
-      <c r="M58" t="str">
+      <c r="K59" s="15"/>
+      <c r="L59" t="str">
         <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="Q59">
+        <f>M96</f>
+        <v>4.1666666666666665E-5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" t="s">
         <v>40</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>40</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D60" t="s">
         <v>38</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E60" t="s">
         <v>22</v>
       </c>
-      <c r="J59" s="21">
-        <f>M80*B33</f>
-        <v>17.568000000000001</v>
-      </c>
-      <c r="K59" t="str">
+      <c r="I60" s="26">
+        <f>N97*B33</f>
+        <v>129.12774868738202</v>
+      </c>
+      <c r="J60" t="str">
         <f>B40 &amp; "/time range/" &amp; B39</f>
         <v>$/time range/kW</v>
       </c>
-      <c r="L59" s="15"/>
-      <c r="M59" t="str">
+      <c r="K60" s="15">
+        <f>P97</f>
+        <v>5.1249999999999993E-4</v>
+      </c>
+      <c r="L60" t="str">
         <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
-      <c r="P59">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A60" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B60" t="s">
-        <v>108</v>
-      </c>
-      <c r="C60" t="s">
-        <v>108</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="O60">
+        <f>L97</f>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A61" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" t="s">
         <v>22</v>
       </c>
-      <c r="E60" t="s">
-        <v>109</v>
-      </c>
-      <c r="F60" t="s">
-        <v>110</v>
-      </c>
-      <c r="J60" s="21"/>
-      <c r="L60" s="15"/>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>47</v>
-      </c>
+      <c r="I61" s="27">
+        <f>N98*B33</f>
+        <v>8.6253132060507376</v>
+      </c>
+      <c r="J61" t="str">
+        <f>B40 &amp; "/time range/" &amp; B39 &amp; B38</f>
+        <v>$/time range/kWh</v>
+      </c>
+      <c r="K61" s="15"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D62" t="s">
+        <v>22</v>
+      </c>
+      <c r="I62" s="27">
+        <f>N99*B33</f>
+        <v>147.6443387634331</v>
+      </c>
+      <c r="J62" t="str">
+        <f>B40 &amp; "/time range/" &amp; B39</f>
+        <v>$/time range/kW</v>
+      </c>
+      <c r="K62" s="15">
+        <f>P99</f>
+        <v>2.9999999999999999E-7</v>
+      </c>
+      <c r="L62" t="str">
+        <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
+        <v>$/kWh</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" t="s">
+        <v>100</v>
+      </c>
+      <c r="D63" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" t="s">
+        <v>101</v>
+      </c>
+      <c r="I63" s="26"/>
+      <c r="K63" s="15"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="9"/>
+        <v>99</v>
+      </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>89</v>
-      </c>
-      <c r="M68" s="9"/>
-      <c r="N68" s="9"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
-      <c r="L70" s="11"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+      <c r="A70" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="12"/>
-      <c r="B71" s="16" t="s">
+      <c r="A71" t="s">
         <v>86</v>
       </c>
-      <c r="C71" s="14">
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74" s="12"/>
+      <c r="B74" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C74" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75" s="12"/>
+      <c r="B75" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" s="12"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="29"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+    </row>
+    <row r="77" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="12"/>
+      <c r="B77" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C77" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78" s="12"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79" s="12"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="32"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+    </row>
+    <row r="80" spans="1:14" s="40" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="37"/>
+      <c r="B80" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C80" s="39"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="41"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="41"/>
+      <c r="I80" s="41"/>
+      <c r="J80" s="41"/>
+      <c r="K80" s="41"/>
+      <c r="L80" s="41"/>
+      <c r="M80" s="42"/>
+      <c r="N80" s="42"/>
+    </row>
+    <row r="81" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="12"/>
+      <c r="B81" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C81" s="36">
+        <v>1.02</v>
+      </c>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="16"/>
+      <c r="N81" s="16"/>
+      <c r="O81" s="13"/>
+      <c r="P81" s="13"/>
+      <c r="Q81" s="14"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A82" s="12"/>
+      <c r="B82" s="16" t="str">
+        <f xml:space="preserve"> "Btu/" &amp; B39 &amp; B38</f>
+        <v>Btu/kWh</v>
+      </c>
+      <c r="C82" s="14">
+        <v>3412.141633127942</v>
+      </c>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="16"/>
+      <c r="L82" s="16"/>
+      <c r="M82" s="16"/>
+      <c r="N82" s="16"/>
+      <c r="O82" s="13"/>
+      <c r="P82" s="13"/>
+      <c r="Q82" s="14"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A83" s="12"/>
+      <c r="B83" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16"/>
-    </row>
-    <row r="72" spans="1:14" ht="64" x14ac:dyDescent="0.2">
-      <c r="A72" s="2"/>
-      <c r="B72" s="13" t="s">
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="16"/>
+      <c r="J83" s="16"/>
+      <c r="K83" s="16"/>
+      <c r="L83" s="16"/>
+      <c r="M83" s="16"/>
+      <c r="N83" s="16"/>
+      <c r="O83" s="16"/>
+      <c r="P83" s="16"/>
+      <c r="Q83" s="14"/>
+    </row>
+    <row r="84" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="2"/>
+      <c r="B84" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C72" s="19" t="str">
+      <c r="C84" s="19" t="str">
         <f xml:space="preserve"> "Overnight cost [" &amp; B40 &amp; "/" &amp; B39 &amp; "]"</f>
         <v>Overnight cost [$/kW]</v>
       </c>
-      <c r="D72" s="13" t="str">
+      <c r="D84" s="13" t="str">
         <f xml:space="preserve"> "Fixed O&amp;M cost ["  &amp; B40 &amp; "/" &amp; B39 &amp; "year]"</f>
         <v>Fixed O&amp;M cost [$/kWyear]</v>
       </c>
-      <c r="E72" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="H72" s="17" t="str">
+      <c r="E84" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H84" s="17" t="str">
         <f xml:space="preserve"> "Annual fixed costs [" &amp;B40 &amp; "/year]"</f>
         <v>Annual fixed costs [$/year]</v>
       </c>
-      <c r="I72" s="13" t="str">
+      <c r="I84" s="13" t="str">
         <f xml:space="preserve"> "Variable O&amp;M [" &amp; B40 &amp; "/" &amp; B39 &amp; B38 &amp; "]"</f>
         <v>Variable O&amp;M [$/kWh]</v>
       </c>
-      <c r="J72" s="13" t="str">
+      <c r="J84" s="13" t="str">
         <f xml:space="preserve"> "Fuel cost [" &amp; B40 &amp; "/" &amp; B39 &amp; B38 &amp; "]"</f>
         <v>Fuel cost [$/kWh]</v>
       </c>
-      <c r="K72" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="L72" s="19"/>
-      <c r="M72" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="N72" s="13"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B73" s="14" t="s">
+      <c r="K84" s="13" t="str">
+        <f xml:space="preserve"> "Heat rate [btu/" &amp; B39 &amp; B38 &amp; "]"</f>
+        <v>Heat rate [btu/kWh]</v>
+      </c>
+      <c r="L84" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M84" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="N84" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="O84" s="13"/>
+      <c r="P84" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B85" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C73" s="20">
-        <v>1851</v>
-      </c>
-      <c r="D73" s="14">
-        <v>22.02</v>
-      </c>
-      <c r="E73" s="14">
-        <f>C71*(1+C71)^G73/((1+C71)^G73-1)</f>
+      <c r="C85" s="20">
+        <v>1391</v>
+      </c>
+      <c r="D85" s="14">
+        <v>23</v>
+      </c>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14">
+        <v>30</v>
+      </c>
+      <c r="G85" s="14">
+        <f>C83*(1+C83)^F85/((1+C83)^F85-1)</f>
         <v>8.0586403511111196E-2</v>
       </c>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14">
-        <v>30</v>
-      </c>
-      <c r="H73" s="18">
-        <f>C73*E73+D73</f>
-        <v>171.18543289906683</v>
-      </c>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="20"/>
-      <c r="M73" s="14">
-        <f>H73/8760</f>
-        <v>1.954171608436836E-2</v>
-      </c>
-      <c r="N73" s="14" t="str">
+      <c r="H85" s="18">
+        <f>C85*G85+D85</f>
+        <v>135.09568728395567</v>
+      </c>
+      <c r="I85" s="14"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="14"/>
+      <c r="L85" s="14"/>
+      <c r="M85" s="14"/>
+      <c r="N85" s="20">
+        <f>H85/8760</f>
+        <v>1.5421882110040601E-2</v>
+      </c>
+      <c r="O85" s="14" t="str">
         <f>B40&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
         <v>$/h/kW</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B74" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C74" s="20">
-        <v>982</v>
-      </c>
-      <c r="D74" s="14">
-        <v>11.11</v>
-      </c>
-      <c r="E74" s="14">
-        <f>C71*(1+C71)^G74/((1+C71)^G74-1)</f>
-        <v>9.4392925743255696E-2</v>
-      </c>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14">
-        <v>20</v>
-      </c>
-      <c r="H74" s="18">
-        <f>C74*E74+D74</f>
-        <v>103.80385307987709</v>
-      </c>
-      <c r="I74" s="14">
-        <v>3.5400000000000002E-3</v>
-      </c>
-      <c r="J74" s="14">
-        <v>1.9099999999999999E-2</v>
-      </c>
-      <c r="K74" s="14">
-        <v>0.5373</v>
-      </c>
-      <c r="L74" s="20"/>
-      <c r="M74" s="14">
-        <f>H74/8760</f>
-        <v>1.1849754917794188E-2</v>
-      </c>
-      <c r="N74" s="14" t="str">
+      <c r="P85" s="20"/>
+      <c r="Q85" s="14" t="str">
+        <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
+        <v>$/kWh</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B86" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C86" s="20">
+        <v>1436</v>
+      </c>
+      <c r="D86" s="14">
+        <v>43</v>
+      </c>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14">
+        <v>30</v>
+      </c>
+      <c r="G86" s="14">
+        <f>C83*(1+C83)^F86/((1+C83)^F86-1)</f>
+        <v>8.0586403511111196E-2</v>
+      </c>
+      <c r="H86" s="18">
+        <f>C86*G86+D86</f>
+        <v>158.72207544195567</v>
+      </c>
+      <c r="I86" s="14"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="14"/>
+      <c r="N86" s="20">
+        <f>H86/8760</f>
+        <v>1.8118958383784894E-2</v>
+      </c>
+      <c r="O86" s="14" t="str">
         <f>B40&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
         <v>$/h/kW</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B75" s="14" t="s">
+      <c r="P86" s="20"/>
+      <c r="Q86" s="14" t="str">
+        <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
+        <v>$/kWh</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B87" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C87" s="20">
+        <v>1054</v>
+      </c>
+      <c r="D87" s="14">
+        <v>27</v>
+      </c>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14">
         <v>30</v>
       </c>
-      <c r="C75" s="20">
-        <v>261</v>
-      </c>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14">
-        <f>C71*(1+C71)^G75/((1+C71)^G75-1)</f>
-        <v>0.14237750272736471</v>
-      </c>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14">
-        <v>10</v>
-      </c>
-      <c r="H75" s="18">
-        <f>C75*E75+D75</f>
-        <v>37.160528211842191</v>
-      </c>
-      <c r="I75" s="14"/>
-      <c r="J75" s="14"/>
-      <c r="K75" s="14"/>
-      <c r="L75" s="20"/>
-      <c r="M75" s="14">
-        <f>H75/8760</f>
-        <v>4.2420694305755928E-3</v>
-      </c>
-      <c r="N75" s="14" t="str">
+      <c r="G87" s="14">
+        <f>C83*(1+C83)^F87/((1+C83)^F87-1)</f>
+        <v>8.0586403511111196E-2</v>
+      </c>
+      <c r="H87" s="18">
+        <f>C87*G87+D87</f>
+        <v>111.93806930071121</v>
+      </c>
+      <c r="I87" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="J87" s="14">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K87" s="14">
+        <v>6360</v>
+      </c>
+      <c r="L87" s="14">
+        <f>C82/K87</f>
+        <v>0.53650025678112301</v>
+      </c>
+      <c r="M87" s="14"/>
+      <c r="N87" s="20">
+        <f>H87/8760</f>
+        <v>1.2778318413323197E-2</v>
+      </c>
+      <c r="O87" s="14" t="str">
         <f>B40&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
         <v>$/h/kW</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B76" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C76" s="20">
-        <v>5946</v>
-      </c>
-      <c r="D76" s="14">
-        <v>101.28</v>
-      </c>
-      <c r="E76" s="14">
-        <f>C71*(1+C71)^G76/((1+C71)^G76-1)</f>
-        <v>7.5009138873610326E-2</v>
-      </c>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14">
-        <v>40</v>
-      </c>
-      <c r="H76" s="18">
-        <f>C76*E76+D76</f>
-        <v>547.28433974248696</v>
-      </c>
-      <c r="I76" s="14">
-        <v>2.32E-3</v>
-      </c>
-      <c r="J76" s="14">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="K76" s="14">
-        <v>0.33</v>
-      </c>
-      <c r="L76" s="20"/>
-      <c r="M76" s="14">
-        <f>H76/8760</f>
-        <v>6.2475381249142349E-2</v>
-      </c>
-      <c r="N76" s="14" t="str">
+      <c r="P87" s="20">
+        <f>I87+J87/L87</f>
+        <v>1.6911456050362664E-2</v>
+      </c>
+      <c r="Q87" s="14" t="str">
+        <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
+        <v>$/kWh</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B88" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C88" s="33">
+        <v>2670</v>
+      </c>
+      <c r="D88" s="28">
+        <v>65</v>
+      </c>
+      <c r="E88" s="28"/>
+      <c r="F88" s="28">
+        <v>30</v>
+      </c>
+      <c r="G88" s="14">
+        <f>C83*(1+C83)^F88/((1+C83)^F88-1)</f>
+        <v>8.0586403511111196E-2</v>
+      </c>
+      <c r="H88" s="18">
+        <f>C88*G88+D88</f>
+        <v>280.16569737466693</v>
+      </c>
+      <c r="I88" s="14">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J88" s="14">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K88" s="14">
+        <v>5180</v>
+      </c>
+      <c r="L88" s="14">
+        <f>C82/K88</f>
+        <v>0.65871460098995016</v>
+      </c>
+      <c r="M88" s="14"/>
+      <c r="N88" s="20">
+        <f>H88/8760</f>
+        <v>3.1982385545053303E-2</v>
+      </c>
+      <c r="O88" s="14" t="str">
         <f>B40&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
         <v>$/h/kW</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B77" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C77" s="20">
-        <v>1657</v>
-      </c>
-      <c r="D77" s="14">
-        <v>47.47</v>
-      </c>
-      <c r="E77" s="14">
-        <f>C71*(1+C71)^G77/((1+C71)^G77-1)</f>
+      <c r="P88" s="20">
+        <f>I88+J88/L88</f>
+        <v>1.8144865147936888E-2</v>
+      </c>
+      <c r="Q88" s="14" t="str">
+        <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
+        <v>$/kWh</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B89" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C89" s="20">
+        <v>7388</v>
+      </c>
+      <c r="D89" s="14">
+        <v>145</v>
+      </c>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14">
+        <v>30</v>
+      </c>
+      <c r="G89" s="14">
+        <f>C83*(1+C83)^F89/((1+C83)^F89-1)</f>
         <v>8.0586403511111196E-2</v>
       </c>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14">
-        <v>30</v>
-      </c>
-      <c r="H77" s="18">
-        <f>C77*E77+D77</f>
-        <v>181.00167061791126</v>
-      </c>
-      <c r="I77" s="14"/>
-      <c r="J77" s="14"/>
-      <c r="K77" s="14"/>
-      <c r="L77" s="20"/>
-      <c r="M77" s="14">
-        <f>H77/8760</f>
-        <v>2.0662291166428225E-2</v>
-      </c>
-      <c r="N77" s="14" t="str">
+      <c r="H89" s="18">
+        <f>C89*G89+D89</f>
+        <v>740.37234914008957</v>
+      </c>
+      <c r="I89" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="J89" s="14">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="K89" s="25">
+        <v>10460</v>
+      </c>
+      <c r="L89" s="14">
+        <f>C82/K89</f>
+        <v>0.32620856913269042</v>
+      </c>
+      <c r="M89" s="14"/>
+      <c r="N89" s="20">
+        <f>H89/8760</f>
+        <v>8.4517391454348126E-2</v>
+      </c>
+      <c r="O89" s="14" t="str">
         <f>B40&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
         <v>$/h/kW</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B78" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C78" s="20"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="14"/>
-      <c r="K78" s="18"/>
-      <c r="L78" s="14"/>
-      <c r="M78" s="14">
+      <c r="P89" s="20">
+        <f>I89+J89/L89</f>
+        <v>2.3458663758010111E-2</v>
+      </c>
+      <c r="Q89" s="14" t="str">
+        <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
+        <v>$/kWh</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B90" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C90" s="20">
+        <v>4346</v>
+      </c>
+      <c r="D90" s="14">
+        <v>150</v>
+      </c>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14">
+        <v>30</v>
+      </c>
+      <c r="G90" s="14">
+        <f>C83*(1+C83)^F89/((1+C83)^F89-1)</f>
+        <v>8.0586403511111196E-2</v>
+      </c>
+      <c r="H90" s="18">
+        <f>C90*G90+D90</f>
+        <v>500.22850965928927</v>
+      </c>
+      <c r="I90" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N78" s="14" t="str">
+      <c r="J90" s="14">
+        <v>0.25275123208355127</v>
+      </c>
+      <c r="K90" s="25">
+        <v>13500</v>
+      </c>
+      <c r="L90" s="14">
+        <f>C82/K90</f>
+        <v>0.25275123208355127</v>
+      </c>
+      <c r="M90" s="14"/>
+      <c r="N90" s="20">
+        <f>H90/8760</f>
+        <v>5.7103711148320691E-2</v>
+      </c>
+      <c r="O90" s="14" t="str">
         <f>B40&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
         <v>$/h/kW</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B79" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C79" s="20"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="14"/>
-      <c r="K79" s="18"/>
-      <c r="L79" s="14"/>
-      <c r="M79" s="14">
-        <v>1.5999999999999999E-5</v>
-      </c>
-      <c r="N79" s="14" t="str">
+      <c r="P90" s="20">
+        <f>I90+J90/L90</f>
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="Q90" s="14" t="str">
+        <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
+        <v>$/kWh</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B91" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C91" s="20"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="14"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="14"/>
+      <c r="M91" s="14"/>
+      <c r="N91" s="20"/>
+      <c r="O91" s="14" t="str">
         <f>B40&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
         <v>$/h/kW</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B80" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C80" s="20"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="14"/>
-      <c r="M80" s="14">
-        <v>2E-3</v>
-      </c>
-      <c r="N80" s="14" t="str">
+      <c r="P91" s="20"/>
+      <c r="Q91" s="14" t="str">
+        <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
+        <v>$/kWh</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B92" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C92" s="20">
+        <v>19977</v>
+      </c>
+      <c r="D92" s="14">
+        <v>268</v>
+      </c>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14">
+        <v>30</v>
+      </c>
+      <c r="G92" s="14">
+        <f>C83*(1+C83)^F92/((1+C83)^F92-1)</f>
+        <v>8.0586403511111196E-2</v>
+      </c>
+      <c r="H92" s="18">
+        <f>C92*G92+D92</f>
+        <v>1877.8745829414684</v>
+      </c>
+      <c r="I92" s="14"/>
+      <c r="J92" s="14"/>
+      <c r="K92" s="14"/>
+      <c r="L92" s="14"/>
+      <c r="M92" s="14"/>
+      <c r="N92" s="20">
+        <f>H92/8760</f>
+        <v>0.21436924462802151</v>
+      </c>
+      <c r="O92" s="14" t="str">
         <f>B40&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
         <v>$/h/kW</v>
       </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
-        <v>93</v>
-      </c>
+      <c r="P92" s="20"/>
+      <c r="Q92" s="14" t="str">
+        <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
+        <v>$/kWh</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B93" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C93" s="20">
+        <f>320*C81</f>
+        <v>326.39999999999998</v>
+      </c>
+      <c r="D93" s="14">
+        <f>0.0424*C93</f>
+        <v>13.839359999999999</v>
+      </c>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14">
+        <v>30</v>
+      </c>
+      <c r="G93" s="14">
+        <f>C83*(1+C83)^F93/((1+C83)^F93-1)</f>
+        <v>8.0586403511111196E-2</v>
+      </c>
+      <c r="H93" s="18">
+        <f>(C93+D93)*G93</f>
+        <v>27.418666355322223</v>
+      </c>
+      <c r="I93" s="14"/>
+      <c r="J93" s="14"/>
+      <c r="K93" s="14"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="14"/>
+      <c r="N93" s="20">
+        <f>H93/8760</f>
+        <v>3.1299847437582448E-3</v>
+      </c>
+      <c r="O93" s="14" t="str">
+        <f>B40&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
+        <v>$/h/kW</v>
+      </c>
+      <c r="P93" s="20"/>
+      <c r="Q93" s="14" t="str">
+        <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
+        <v>$/kWh</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B94" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C94" s="20">
+        <f>246*C81</f>
+        <v>250.92000000000002</v>
+      </c>
+      <c r="D94" s="14">
+        <f>8.3*C81</f>
+        <v>8.4660000000000011</v>
+      </c>
+      <c r="E94" s="43">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F94" s="14">
+        <v>30</v>
+      </c>
+      <c r="G94" s="14">
+        <f>C83*(1+C83)^F94/((1+C83)^F94-1)</f>
+        <v>8.0586403511111196E-2</v>
+      </c>
+      <c r="H94" s="18">
+        <f>(C94+E94*C94)*G94+D94</f>
+        <v>28.990051474543144</v>
+      </c>
+      <c r="I94" s="14"/>
+      <c r="J94" s="14"/>
+      <c r="K94" s="14"/>
+      <c r="L94" s="14">
+        <v>0.86</v>
+      </c>
+      <c r="M94" s="14"/>
+      <c r="N94" s="20">
+        <f>H94/8760</f>
+        <v>3.3093666066830074E-3</v>
+      </c>
+      <c r="O94" s="14" t="str">
+        <f>B40&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
+        <v>$/h/kW</v>
+      </c>
+      <c r="P94" s="20">
+        <v>3.1E-6</v>
+      </c>
+      <c r="Q94" s="14" t="str">
+        <f xml:space="preserve"> B40 &amp; "/" &amp; B39</f>
+        <v>$/kW</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B95" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C95" s="20">
+        <f>1673*C81</f>
+        <v>1706.46</v>
+      </c>
+      <c r="D95" s="14">
+        <f>12.8*C81</f>
+        <v>13.056000000000001</v>
+      </c>
+      <c r="E95" s="43">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F95" s="14">
+        <v>30</v>
+      </c>
+      <c r="G95" s="14">
+        <f>C83*(1+C83)^F94/((1+C83)^F94-1)</f>
+        <v>8.0586403511111196E-2</v>
+      </c>
+      <c r="H95" s="18">
+        <f t="shared" ref="H95:H99" si="0">(C95+E95*C95)*G95+D95</f>
+        <v>152.63623624760439</v>
+      </c>
+      <c r="I95" s="14"/>
+      <c r="J95" s="14"/>
+      <c r="K95" s="14"/>
+      <c r="L95" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="M95" s="14"/>
+      <c r="N95" s="20">
+        <f t="shared" ref="N95:N99" si="1">H95/8760</f>
+        <v>1.742422788214662E-2</v>
+      </c>
+      <c r="O95" s="14" t="str">
+        <f>B40&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
+        <v>$/h/kW</v>
+      </c>
+      <c r="P95" s="20">
+        <v>1.2999999999999998E-6</v>
+      </c>
+      <c r="Q95" s="14" t="str">
+        <f xml:space="preserve"> B40 &amp; "/" &amp; B39</f>
+        <v>$/kW</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B96" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C96" s="20">
+        <f>1.96*C81</f>
+        <v>1.9992000000000001</v>
+      </c>
+      <c r="D96" s="14">
+        <f>1.5%*C96</f>
+        <v>2.9988000000000001E-2</v>
+      </c>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14">
+        <v>30</v>
+      </c>
+      <c r="G96" s="14">
+        <f>C83*(1+C83)^F94/((1+C83)^F94-1)</f>
+        <v>8.0586403511111196E-2</v>
+      </c>
+      <c r="H96" s="18">
+        <f>(C96+D96)*G96</f>
+        <v>0.1635249629679047</v>
+      </c>
+      <c r="I96" s="14"/>
+      <c r="J96" s="14"/>
+      <c r="K96" s="14"/>
+      <c r="L96" s="14"/>
+      <c r="M96" s="14">
+        <f>0.1%/24</f>
+        <v>4.1666666666666665E-5</v>
+      </c>
+      <c r="N96" s="20">
+        <f t="shared" si="1"/>
+        <v>1.8667233215514235E-5</v>
+      </c>
+      <c r="O96" s="14" t="str">
+        <f>B40&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
+        <v>$/h/kW</v>
+      </c>
+      <c r="P96" s="20"/>
+      <c r="Q96" s="14" t="str">
+        <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
+        <v>$/kWh</v>
+      </c>
+    </row>
+    <row r="97" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B97" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C97" s="20">
+        <f>1387*C81</f>
+        <v>1414.74</v>
+      </c>
+      <c r="D97" s="14">
+        <f>12.8*C81</f>
+        <v>13.056000000000001</v>
+      </c>
+      <c r="E97" s="43">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F97" s="14">
+        <v>30</v>
+      </c>
+      <c r="G97" s="14">
+        <f>C83*(1+C83)^F94/((1+C83)^F94-1)</f>
+        <v>8.0586403511111196E-2</v>
+      </c>
+      <c r="H97" s="18">
+        <f t="shared" si="0"/>
+        <v>128.77494063085911</v>
+      </c>
+      <c r="I97" s="14"/>
+      <c r="J97" s="14"/>
+      <c r="K97" s="14"/>
+      <c r="L97" s="14">
+        <v>0.71</v>
+      </c>
+      <c r="M97" s="14"/>
+      <c r="N97" s="20">
+        <f t="shared" si="1"/>
+        <v>1.4700335688454236E-2</v>
+      </c>
+      <c r="O97" s="14" t="str">
+        <f>B40&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
+        <v>$/h/kW</v>
+      </c>
+      <c r="P97" s="20">
+        <v>5.1249999999999993E-4</v>
+      </c>
+      <c r="Q97" s="14" t="str">
+        <f xml:space="preserve"> B40 &amp; "/" &amp; B39</f>
+        <v>$/kW</v>
+      </c>
+    </row>
+    <row r="98" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B98" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C98" s="20">
+        <f>103.1*C81</f>
+        <v>105.16199999999999</v>
+      </c>
+      <c r="D98" s="14">
+        <f>1.5%*C98</f>
+        <v>1.5774299999999999</v>
+      </c>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14">
+        <v>30</v>
+      </c>
+      <c r="G98" s="14">
+        <f>C83*(1+C83)^F94/((1+C83)^F94-1)</f>
+        <v>8.0586403511111196E-2</v>
+      </c>
+      <c r="H98" s="18">
+        <f>(C98+D98)*G98</f>
+        <v>8.6017467765260083</v>
+      </c>
+      <c r="I98" s="20"/>
+      <c r="J98" s="14"/>
+      <c r="K98" s="14"/>
+      <c r="L98" s="14"/>
+      <c r="M98" s="14"/>
+      <c r="N98" s="20">
+        <f t="shared" si="1"/>
+        <v>9.8193456353036631E-4</v>
+      </c>
+      <c r="O98" s="14"/>
+      <c r="P98" s="20"/>
+      <c r="Q98" s="14" t="str">
+        <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
+        <v>$/kWh</v>
+      </c>
+    </row>
+    <row r="99" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B99" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C99" s="20">
+        <f>1612*C81</f>
+        <v>1644.24</v>
+      </c>
+      <c r="D99" s="14">
+        <f>12.5*C81</f>
+        <v>12.75</v>
+      </c>
+      <c r="E99" s="43">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F99" s="14">
+        <v>30</v>
+      </c>
+      <c r="G99" s="14">
+        <f>C83*(1+C83)^F94/((1+C83)^F94-1)</f>
+        <v>8.0586403511111196E-2</v>
+      </c>
+      <c r="H99" s="18">
+        <f t="shared" si="0"/>
+        <v>147.24093893074613</v>
+      </c>
+      <c r="I99" s="20"/>
+      <c r="J99" s="14"/>
+      <c r="K99" s="14"/>
+      <c r="L99" s="14">
+        <v>0.81</v>
+      </c>
+      <c r="M99" s="14"/>
+      <c r="N99" s="20">
+        <f t="shared" si="1"/>
+        <v>1.680832636195732E-2</v>
+      </c>
+      <c r="O99" s="14"/>
+      <c r="P99" s="20">
+        <v>2.9999999999999999E-7</v>
+      </c>
+      <c r="Q99" s="14" t="str">
+        <f xml:space="preserve"> B40 &amp; "/" &amp; B39</f>
+        <v>$/kW</v>
+      </c>
+    </row>
+    <row r="100" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B100" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100" s="20"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="14"/>
+      <c r="K100" s="14"/>
+      <c r="L100" s="14"/>
+      <c r="M100" s="14"/>
+      <c r="N100" s="20"/>
+      <c r="O100" s="14"/>
+      <c r="P100" s="20"/>
+      <c r="Q100" s="14" t="str">
+        <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
+        <v>$/kWh</v>
+      </c>
+    </row>
+    <row r="102" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="103" spans="2:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="F103" s="23"/>
+      <c r="G103" s="23"/>
+      <c r="H103" s="23"/>
+      <c r="I103" s="23"/>
+      <c r="J103" s="23"/>
+      <c r="K103" s="23"/>
+      <c r="L103" s="23"/>
+      <c r="M103" s="23"/>
+      <c r="N103" s="23"/>
+      <c r="O103" s="23"/>
+      <c r="P103" s="23"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C74" r:id="rId1" display="https://atb.nrel.gov/" xr:uid="{FDAACE4C-EEBF-8245-B992-53B8086970DC}"/>
+    <hyperlink ref="C75" r:id="rId2" xr:uid="{CDACD0CF-3E87-1D48-85AE-004D57BDEA41}"/>
+    <hyperlink ref="C78" r:id="rId3" xr:uid="{53E5629A-906B-1C43-957A-88DBCCC90896}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
+  <ignoredErrors>
+    <ignoredError sqref="H96" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/all_firm_case.xlsx
+++ b/all_firm_case.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliciawongel/Library/Group Containers/G69SCX94XU.duck/Library/Application Support/duck/Volumes.noindex/DPB-DGE Data Transfer Node/nobackup/scratch/awongel/clab_all_firm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliciawongel/CLab/clab_all_firm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECB34B9-06D4-4F48-89A7-892D3DEE3C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB61AB0-215F-EC4F-8C60-F457E29E2856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="500" windowWidth="27920" windowHeight="15020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case_input_intermodel_one_node_" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="137">
   <si>
     <t>Note that demand has no decisions.</t>
   </si>
@@ -410,9 +410,6 @@
     <t>biopower</t>
   </si>
   <si>
-    <t>phs_energy</t>
-  </si>
-  <si>
     <t>phs_power</t>
   </si>
   <si>
@@ -428,19 +425,31 @@
     <t>US_demand_unnormalized.csv</t>
   </si>
   <si>
-    <t>/carnegie/data/Shared/Labs/Caldeira Lab/Everyone/energy_demand_capacity_data/US_solar_wind_demand/</t>
-  </si>
-  <si>
     <t>all_firm_case</t>
   </si>
   <si>
-    <t>all_firm</t>
-  </si>
-  <si>
     <t>#Generator</t>
   </si>
   <si>
     <t>Decay rate</t>
+  </si>
+  <si>
+    <t>/Volumes/Shared/Labs/Caldeira Lab/Everyone/energy_demand_capacity_data/US_solar_wind_demand/</t>
+  </si>
+  <si>
+    <t>all_firm_all</t>
+  </si>
+  <si>
+    <t>third_storage</t>
+  </si>
+  <si>
+    <t>p_min_pu</t>
+  </si>
+  <si>
+    <t>Note: p_min_mu sets uni/bidirectionality</t>
+  </si>
+  <si>
+    <t>phs</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1023,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1067,7 +1076,6 @@
     <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1078,7 +1086,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="43"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1489,10 +1496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S103"/>
+  <dimension ref="A1:T103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O61" sqref="O61"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1768,7 +1775,7 @@
         <v>45</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1784,7 +1791,7 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1792,7 +1799,7 @@
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1837,7 +1844,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -1846,11 +1853,11 @@
         <v>8784</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -1862,7 +1869,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -1874,11 +1881,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -1887,7 +1894,7 @@
       </c>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -1896,7 +1903,7 @@
       </c>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -1905,19 +1912,22 @@
       </c>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>18</v>
       </c>
+      <c r="F42" t="s">
+        <v>135</v>
+      </c>
       <c r="J42" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
         <v>73</v>
       </c>
@@ -1928,12 +1938,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>4</v>
       </c>
@@ -1943,35 +1953,35 @@
       <c r="D45" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="I45" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="J45" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="K45" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L45" s="4" t="s">
+      <c r="M45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N45" s="4" t="s">
+      <c r="O45" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="P45" s="5" t="s">
+      <c r="Q45" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q45" s="5" t="s">
+      <c r="R45" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="R45" s="5"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S45" s="5"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:19" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>20</v>
       </c>
@@ -1988,37 +1998,40 @@
         <v>37</v>
       </c>
       <c r="F47" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="H47" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="I47" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="J47" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="L47" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M47" s="2" t="s">
+      <c r="N47" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N47" s="2" t="s">
+      <c r="O47" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O47" s="2" t="s">
+      <c r="P47" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P47" s="2" t="s">
+      <c r="Q47" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Q47" s="2" t="s">
+      <c r="R47" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>53</v>
       </c>
@@ -2031,20 +2044,20 @@
       <c r="D48" t="s">
         <v>22</v>
       </c>
-      <c r="F48" t="s">
-        <v>128</v>
-      </c>
-      <c r="I48" s="26"/>
-      <c r="K48" s="15"/>
-      <c r="R48" t="str">
+      <c r="G48" t="s">
+        <v>127</v>
+      </c>
+      <c r="J48" s="26"/>
+      <c r="L48" s="15"/>
+      <c r="S48" t="str">
         <f xml:space="preserve"> 1 &amp; "/" &amp; B38</f>
         <v>1/h</v>
       </c>
-      <c r="S48" t="s">
+      <c r="T48" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>52</v>
       </c>
@@ -2057,24 +2070,24 @@
       <c r="D49" t="s">
         <v>22</v>
       </c>
-      <c r="F49" t="s">
-        <v>126</v>
-      </c>
-      <c r="I49" s="26">
+      <c r="G49" t="s">
+        <v>125</v>
+      </c>
+      <c r="J49" s="26">
         <f>N85*B33</f>
         <v>135.46581245459663</v>
       </c>
-      <c r="J49" t="str">
+      <c r="K49" t="str">
         <f>B40 &amp; "/time range/" &amp; B39</f>
         <v>$/time range/kW</v>
       </c>
-      <c r="K49" s="15"/>
-      <c r="L49" t="str">
+      <c r="L49" s="15"/>
+      <c r="M49" t="str">
         <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>52</v>
       </c>
@@ -2087,26 +2100,26 @@
       <c r="D50" t="s">
         <v>22</v>
       </c>
-      <c r="F50" t="s">
-        <v>127</v>
-      </c>
-      <c r="I50" s="26">
+      <c r="G50" t="s">
+        <v>126</v>
+      </c>
+      <c r="J50" s="26">
         <f>N86*B33</f>
         <v>159.15693044316652</v>
       </c>
-      <c r="J50" t="str">
+      <c r="K50" t="str">
         <f>B40 &amp; "/time range/" &amp; B39</f>
         <v>$/time range/kW</v>
       </c>
-      <c r="K50" s="15"/>
-      <c r="L50" t="str">
+      <c r="L50" s="15"/>
+      <c r="M50" t="str">
         <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B51" t="s">
         <v>29</v>
@@ -2117,24 +2130,24 @@
       <c r="D51" t="s">
         <v>22</v>
       </c>
-      <c r="I51" s="26">
+      <c r="J51" s="26">
         <f>N87*B33</f>
         <v>112.24474894263096</v>
       </c>
-      <c r="J51" t="str">
+      <c r="K51" t="str">
         <f>B40 &amp; "/time range/" &amp; B39</f>
         <v>$/time range/kW</v>
       </c>
-      <c r="K51" s="15">
+      <c r="L51" s="15">
         <f>I87 + J87/L87</f>
         <v>1.6911456050362664E-2</v>
       </c>
-      <c r="L51" t="str">
+      <c r="M51" t="str">
         <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>52</v>
       </c>
@@ -2147,24 +2160,24 @@
       <c r="D52" t="s">
         <v>22</v>
       </c>
-      <c r="I52" s="27">
+      <c r="J52" s="27">
         <f>N88*B33</f>
         <v>280.93327462774823</v>
       </c>
-      <c r="J52" t="str">
+      <c r="K52" t="str">
         <f>B40 &amp; "/time range/" &amp; B39</f>
         <v>$/time range/kW</v>
       </c>
-      <c r="K52" s="15">
+      <c r="L52" s="15">
         <f>I88 + J88/L88</f>
         <v>1.8144865147936888E-2</v>
       </c>
-      <c r="L52" t="str">
+      <c r="M52" t="str">
         <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>52</v>
       </c>
@@ -2177,24 +2190,24 @@
       <c r="D53" t="s">
         <v>22</v>
       </c>
-      <c r="I53" s="26">
+      <c r="J53" s="26">
         <f>N89*B33</f>
         <v>742.40076653499398</v>
       </c>
-      <c r="J53" t="str">
+      <c r="K53" t="str">
         <f>B40 &amp; "/time range/" &amp; B39</f>
         <v>$/time range/kW</v>
       </c>
-      <c r="K53" s="15">
+      <c r="L53" s="15">
         <f>I89 + J89/L89</f>
         <v>2.3458663758010111E-2</v>
       </c>
-      <c r="L53" t="str">
+      <c r="M53" t="str">
         <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>52</v>
       </c>
@@ -2207,23 +2220,23 @@
       <c r="D54" t="s">
         <v>22</v>
       </c>
-      <c r="I54" s="26">
+      <c r="J54" s="26">
         <f>N90*B33</f>
         <v>501.59899872684895</v>
       </c>
-      <c r="J54" t="str">
+      <c r="K54" t="str">
         <f>B40 &amp; "/time range/" &amp; B39</f>
         <v>$/time range/kW</v>
       </c>
-      <c r="K54" s="15"/>
-      <c r="L54" t="str">
+      <c r="L54" s="15"/>
+      <c r="M54" t="str">
         <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B55" t="s">
         <v>103</v>
@@ -2234,10 +2247,10 @@
       <c r="D55" t="s">
         <v>22</v>
       </c>
-      <c r="I55" s="26"/>
-      <c r="K55" s="15"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J55" s="26"/>
+      <c r="L55" s="15"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>52</v>
       </c>
@@ -2250,21 +2263,21 @@
       <c r="D56" t="s">
         <v>22</v>
       </c>
-      <c r="I56" s="27">
+      <c r="J56" s="27">
         <f>N92*B33</f>
         <v>1883.019444812541</v>
       </c>
-      <c r="J56" t="str">
+      <c r="K56" t="str">
         <f>B40 &amp; "/time range/" &amp; B39</f>
         <v>$/time range/kW</v>
       </c>
-      <c r="K56" s="15"/>
-      <c r="L56" t="str">
+      <c r="L56" s="15"/>
+      <c r="M56" t="str">
         <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>54</v>
       </c>
@@ -2277,34 +2290,34 @@
       <c r="D57" t="s">
         <v>22</v>
       </c>
-      <c r="I57" s="27">
+      <c r="J57" s="27">
         <f>(N93+N94)*B33</f>
         <v>56.563262262275956</v>
       </c>
-      <c r="J57" t="str">
+      <c r="K57" t="str">
         <f>B40 &amp; "/time range/" &amp; B39</f>
         <v>$/time range/kW</v>
       </c>
-      <c r="K57" s="15">
+      <c r="L57" s="15">
         <f>P94</f>
         <v>3.1E-6</v>
       </c>
-      <c r="L57" t="str">
+      <c r="M57" t="str">
         <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>4</v>
       </c>
-      <c r="N57" t="b">
+      <c r="O57" t="b">
         <v>1</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <f>L94</f>
         <v>0.86</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>91</v>
       </c>
@@ -2320,28 +2333,31 @@
       <c r="E58" t="s">
         <v>38</v>
       </c>
-      <c r="I58" s="26">
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="J58" s="26">
         <f>N95*B33</f>
         <v>153.0544177167759</v>
       </c>
-      <c r="J58" t="str">
+      <c r="K58" t="str">
         <f>B40 &amp; "/time range/" &amp; B39</f>
         <v>$/time range/kW</v>
       </c>
-      <c r="K58" s="15">
+      <c r="L58" s="15">
         <f>P95</f>
         <v>1.2999999999999998E-6</v>
       </c>
-      <c r="L58" t="str">
+      <c r="M58" t="str">
         <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
-      <c r="O58">
+      <c r="P58">
         <f>L95</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>92</v>
       </c>
@@ -2354,25 +2370,25 @@
       <c r="D59" t="s">
         <v>38</v>
       </c>
-      <c r="I59" s="26">
+      <c r="J59" s="26">
         <f>N96*B33</f>
         <v>0.16397297656507703</v>
       </c>
-      <c r="J59" t="str">
+      <c r="K59" t="str">
         <f>B40 &amp; "/time range/" &amp; B39 &amp; B38</f>
         <v>$/time range/kWh</v>
       </c>
-      <c r="K59" s="15"/>
-      <c r="L59" t="str">
+      <c r="L59" s="15"/>
+      <c r="M59" t="str">
         <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
-      <c r="Q59">
+      <c r="R59">
         <f>M96</f>
         <v>4.1666666666666665E-5</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>91</v>
       </c>
@@ -2388,83 +2404,96 @@
       <c r="E60" t="s">
         <v>22</v>
       </c>
-      <c r="I60" s="26">
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="J60" s="26">
         <f>N97*B33</f>
         <v>129.12774868738202</v>
       </c>
-      <c r="J60" t="str">
+      <c r="K60" t="str">
         <f>B40 &amp; "/time range/" &amp; B39</f>
         <v>$/time range/kW</v>
       </c>
-      <c r="K60" s="15">
+      <c r="L60" s="15">
         <f>P97</f>
         <v>5.1249999999999993E-4</v>
       </c>
-      <c r="L60" t="str">
+      <c r="M60" t="str">
         <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
-      <c r="O60">
+      <c r="P60">
         <f>L97</f>
         <v>0.71</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C61" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="D61" t="s">
         <v>22</v>
       </c>
-      <c r="I61" s="27">
+      <c r="J61" s="27">
         <f>N98*B33</f>
         <v>8.6253132060507376</v>
       </c>
-      <c r="J61" t="str">
+      <c r="K61" t="str">
         <f>B40 &amp; "/time range/" &amp; B39 &amp; B38</f>
         <v>$/time range/kWh</v>
       </c>
-      <c r="K61" s="15"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L61" s="15"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D62" t="s">
         <v>22</v>
       </c>
-      <c r="I62" s="27">
+      <c r="E62" t="s">
+        <v>133</v>
+      </c>
+      <c r="F62">
+        <v>-1</v>
+      </c>
+      <c r="J62" s="27">
         <f>N99*B33</f>
         <v>147.6443387634331</v>
       </c>
-      <c r="J62" t="str">
+      <c r="K62" t="str">
         <f>B40 &amp; "/time range/" &amp; B39</f>
         <v>$/time range/kW</v>
       </c>
-      <c r="K62" s="15">
+      <c r="L62" s="15">
         <f>P99</f>
         <v>2.9999999999999999E-7</v>
       </c>
-      <c r="L62" t="str">
+      <c r="M62" t="str">
         <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P62">
+        <f>L99</f>
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B63" t="s">
         <v>100</v>
@@ -2478,8 +2507,8 @@
       <c r="E63" t="s">
         <v>101</v>
       </c>
-      <c r="I63" s="26"/>
-      <c r="K63" s="15"/>
+      <c r="J63" s="26"/>
+      <c r="L63" s="15"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
@@ -2529,10 +2558,10 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="12"/>
-      <c r="B74" s="30" t="s">
+      <c r="B74" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="C74" s="29" t="s">
+      <c r="C74" s="28" t="s">
         <v>107</v>
       </c>
       <c r="E74" s="11"/>
@@ -2548,10 +2577,10 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="12"/>
-      <c r="B75" s="30" t="s">
+      <c r="B75" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="C75" s="29" t="s">
+      <c r="C75" s="28" t="s">
         <v>110</v>
       </c>
       <c r="E75" s="11"/>
@@ -2567,8 +2596,8 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="12"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="29"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="28"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
@@ -2582,10 +2611,10 @@
     </row>
     <row r="77" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="12"/>
-      <c r="B77" s="30" t="s">
+      <c r="B77" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="C77" s="31" t="s">
+      <c r="C77" s="30" t="s">
         <v>112</v>
       </c>
       <c r="E77" s="11"/>
@@ -2601,8 +2630,8 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="12"/>
-      <c r="B78" s="29"/>
-      <c r="C78" s="32" t="s">
+      <c r="B78" s="28"/>
+      <c r="C78" s="31" t="s">
         <v>113</v>
       </c>
       <c r="E78" s="11"/>
@@ -2618,8 +2647,8 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="12"/>
-      <c r="B79" s="29"/>
-      <c r="C79" s="32"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="31"/>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
@@ -2631,34 +2660,34 @@
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
     </row>
-    <row r="80" spans="1:14" s="40" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="37"/>
-      <c r="B80" s="38" t="s">
+    <row r="80" spans="1:14" s="38" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="35"/>
+      <c r="B80" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="C80" s="39"/>
-      <c r="E80" s="41"/>
-      <c r="F80" s="41"/>
-      <c r="G80" s="41"/>
-      <c r="H80" s="41"/>
-      <c r="I80" s="41"/>
-      <c r="J80" s="41"/>
-      <c r="K80" s="41"/>
-      <c r="L80" s="41"/>
-      <c r="M80" s="42"/>
-      <c r="N80" s="42"/>
+      <c r="C80" s="37"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="39"/>
+      <c r="H80" s="39"/>
+      <c r="I80" s="39"/>
+      <c r="J80" s="39"/>
+      <c r="K80" s="39"/>
+      <c r="L80" s="39"/>
+      <c r="M80" s="40"/>
+      <c r="N80" s="40"/>
     </row>
     <row r="81" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="12"/>
-      <c r="B81" s="35" t="s">
+      <c r="B81" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="C81" s="36">
+      <c r="C81" s="34">
         <v>1.02</v>
       </c>
-      <c r="D81" s="34"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="34"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="32"/>
       <c r="G81" s="14"/>
       <c r="H81" s="16"/>
       <c r="I81" s="16"/>
@@ -2760,7 +2789,7 @@
         <v>85</v>
       </c>
       <c r="M84" s="16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N84" s="19" t="s">
         <v>51</v>
@@ -2790,7 +2819,7 @@
         <v>8.0586403511111196E-2</v>
       </c>
       <c r="H85" s="18">
-        <f>C85*G85+D85</f>
+        <f t="shared" ref="H85:H90" si="0">C85*G85+D85</f>
         <v>135.09568728395567</v>
       </c>
       <c r="I85" s="14"/>
@@ -2799,7 +2828,7 @@
       <c r="L85" s="14"/>
       <c r="M85" s="14"/>
       <c r="N85" s="20">
-        <f>H85/8760</f>
+        <f t="shared" ref="N85:N90" si="1">H85/8760</f>
         <v>1.5421882110040601E-2</v>
       </c>
       <c r="O85" s="14" t="str">
@@ -2831,7 +2860,7 @@
         <v>8.0586403511111196E-2</v>
       </c>
       <c r="H86" s="18">
-        <f>C86*G86+D86</f>
+        <f t="shared" si="0"/>
         <v>158.72207544195567</v>
       </c>
       <c r="I86" s="14"/>
@@ -2840,7 +2869,7 @@
       <c r="L86" s="14"/>
       <c r="M86" s="14"/>
       <c r="N86" s="20">
-        <f>H86/8760</f>
+        <f t="shared" si="1"/>
         <v>1.8118958383784894E-2</v>
       </c>
       <c r="O86" s="14" t="str">
@@ -2872,7 +2901,7 @@
         <v>8.0586403511111196E-2</v>
       </c>
       <c r="H87" s="18">
-        <f>C87*G87+D87</f>
+        <f t="shared" si="0"/>
         <v>111.93806930071121</v>
       </c>
       <c r="I87" s="14">
@@ -2890,7 +2919,7 @@
       </c>
       <c r="M87" s="14"/>
       <c r="N87" s="20">
-        <f>H87/8760</f>
+        <f t="shared" si="1"/>
         <v>1.2778318413323197E-2</v>
       </c>
       <c r="O87" s="14" t="str">
@@ -2910,14 +2939,14 @@
       <c r="B88" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C88" s="33">
+      <c r="C88" s="20">
         <v>2670</v>
       </c>
-      <c r="D88" s="28">
+      <c r="D88" s="14">
         <v>65</v>
       </c>
-      <c r="E88" s="28"/>
-      <c r="F88" s="28">
+      <c r="E88" s="14"/>
+      <c r="F88" s="14">
         <v>30</v>
       </c>
       <c r="G88" s="14">
@@ -2925,7 +2954,7 @@
         <v>8.0586403511111196E-2</v>
       </c>
       <c r="H88" s="18">
-        <f>C88*G88+D88</f>
+        <f t="shared" si="0"/>
         <v>280.16569737466693</v>
       </c>
       <c r="I88" s="14">
@@ -2943,7 +2972,7 @@
       </c>
       <c r="M88" s="14"/>
       <c r="N88" s="20">
-        <f>H88/8760</f>
+        <f t="shared" si="1"/>
         <v>3.1982385545053303E-2</v>
       </c>
       <c r="O88" s="14" t="str">
@@ -2978,7 +3007,7 @@
         <v>8.0586403511111196E-2</v>
       </c>
       <c r="H89" s="18">
-        <f>C89*G89+D89</f>
+        <f t="shared" si="0"/>
         <v>740.37234914008957</v>
       </c>
       <c r="I89" s="14">
@@ -2996,7 +3025,7 @@
       </c>
       <c r="M89" s="14"/>
       <c r="N89" s="20">
-        <f>H89/8760</f>
+        <f t="shared" si="1"/>
         <v>8.4517391454348126E-2</v>
       </c>
       <c r="O89" s="14" t="str">
@@ -3031,7 +3060,7 @@
         <v>8.0586403511111196E-2</v>
       </c>
       <c r="H90" s="18">
-        <f>C90*G90+D90</f>
+        <f t="shared" si="0"/>
         <v>500.22850965928927</v>
       </c>
       <c r="I90" s="14">
@@ -3049,7 +3078,7 @@
       </c>
       <c r="M90" s="14"/>
       <c r="N90" s="20">
-        <f>H90/8760</f>
+        <f t="shared" si="1"/>
         <v>5.7103711148320691E-2</v>
       </c>
       <c r="O90" s="14" t="str">
@@ -3187,7 +3216,7 @@
         <f>8.3*C81</f>
         <v>8.4660000000000011</v>
       </c>
-      <c r="E94" s="43">
+      <c r="E94" s="41">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F94" s="14">
@@ -3236,7 +3265,7 @@
         <f>12.8*C81</f>
         <v>13.056000000000001</v>
       </c>
-      <c r="E95" s="43">
+      <c r="E95" s="41">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F95" s="14">
@@ -3247,7 +3276,7 @@
         <v>8.0586403511111196E-2</v>
       </c>
       <c r="H95" s="18">
-        <f t="shared" ref="H95:H99" si="0">(C95+E95*C95)*G95+D95</f>
+        <f t="shared" ref="H95:H99" si="2">(C95+E95*C95)*G95+D95</f>
         <v>152.63623624760439</v>
       </c>
       <c r="I95" s="14"/>
@@ -3258,7 +3287,7 @@
       </c>
       <c r="M95" s="14"/>
       <c r="N95" s="20">
-        <f t="shared" ref="N95:N99" si="1">H95/8760</f>
+        <f t="shared" ref="N95:N99" si="3">H95/8760</f>
         <v>1.742422788214662E-2</v>
       </c>
       <c r="O95" s="14" t="str">
@@ -3306,7 +3335,7 @@
         <v>4.1666666666666665E-5</v>
       </c>
       <c r="N96" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.8667233215514235E-5</v>
       </c>
       <c r="O96" s="14" t="str">
@@ -3331,7 +3360,7 @@
         <f>12.8*C81</f>
         <v>13.056000000000001</v>
       </c>
-      <c r="E97" s="43">
+      <c r="E97" s="41">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F97" s="14">
@@ -3342,7 +3371,7 @@
         <v>8.0586403511111196E-2</v>
       </c>
       <c r="H97" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>128.77494063085911</v>
       </c>
       <c r="I97" s="14"/>
@@ -3353,7 +3382,7 @@
       </c>
       <c r="M97" s="14"/>
       <c r="N97" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.4700335688454236E-2</v>
       </c>
       <c r="O97" s="14" t="str">
@@ -3398,7 +3427,7 @@
       <c r="L98" s="14"/>
       <c r="M98" s="14"/>
       <c r="N98" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.8193456353036631E-4</v>
       </c>
       <c r="O98" s="14"/>
@@ -3420,7 +3449,7 @@
         <f>12.5*C81</f>
         <v>12.75</v>
       </c>
-      <c r="E99" s="43">
+      <c r="E99" s="41">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F99" s="14">
@@ -3431,7 +3460,7 @@
         <v>8.0586403511111196E-2</v>
       </c>
       <c r="H99" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>147.24093893074613</v>
       </c>
       <c r="I99" s="20"/>
@@ -3442,7 +3471,7 @@
       </c>
       <c r="M99" s="14"/>
       <c r="N99" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.680832636195732E-2</v>
       </c>
       <c r="O99" s="14"/>

--- a/all_firm_case.xlsx
+++ b/all_firm_case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliciawongel/CLab/clab_all_firm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcaldeira\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB61AB0-215F-EC4F-8C60-F457E29E2856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C728D546-9B77-45C1-B0AF-E4DA4E0D322F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3765" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case_input_intermodel_one_node_" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="140">
   <si>
     <t>Note that demand has no decisions.</t>
   </si>
@@ -440,16 +438,25 @@
     <t>all_firm_all</t>
   </si>
   <si>
-    <t>third_storage</t>
-  </si>
-  <si>
     <t>p_min_pu</t>
   </si>
   <si>
     <t>Note: p_min_mu sets uni/bidirectionality</t>
   </si>
   <si>
-    <t>phs</t>
+    <t>h2o</t>
+  </si>
+  <si>
+    <t>Note: one way efficiency should be square root of round-trip efficiecy</t>
+  </si>
+  <si>
+    <t>Note: Be careful when designating storage costs that the source is for kWh stored and not what you get out after accounting for pump inefficiency.</t>
+  </si>
+  <si>
+    <t>phs_energy</t>
+  </si>
+  <si>
+    <t>electricity</t>
   </si>
 </sst>
 </file>
@@ -459,7 +466,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,7 +651,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -839,6 +846,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,7 +1042,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1070,12 +1089,6 @@
     <xf numFmtId="2" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1114,6 +1127,22 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1175,25 +1204,13 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Storage Techs"/>
-      <sheetName val="Gravitational"/>
       <sheetName val="Generation Techs"/>
-      <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="12">
-          <cell r="B12">
-            <v>3412.141633127942</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1498,31 +1515,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" customWidth="1"/>
-    <col min="8" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="13.5" customWidth="1"/>
-    <col min="11" max="11" width="14.83203125" customWidth="1"/>
-    <col min="12" max="12" width="13.5" customWidth="1"/>
-    <col min="13" max="13" width="11.1640625" customWidth="1"/>
-    <col min="14" max="14" width="12.83203125" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" customWidth="1"/>
-    <col min="16" max="17" width="11.5" customWidth="1"/>
-    <col min="18" max="18" width="14.1640625" customWidth="1"/>
-    <col min="19" max="19" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" customWidth="1"/>
+    <col min="16" max="17" width="11.42578125" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>59</v>
       </c>
@@ -1533,7 +1550,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1542,7 +1559,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>97</v>
       </c>
@@ -1553,7 +1570,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1562,7 +1579,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -1573,7 +1590,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1584,7 +1601,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>70</v>
       </c>
@@ -1595,7 +1612,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1604,7 +1621,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -1615,7 +1632,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -1628,7 +1645,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -1641,7 +1658,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -1654,7 +1671,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1663,7 +1680,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1674,7 +1691,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>50</v>
       </c>
@@ -1687,7 +1704,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
@@ -1700,7 +1717,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
@@ -1713,7 +1730,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
@@ -1726,7 +1743,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
@@ -1739,7 +1756,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
@@ -1752,7 +1769,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
@@ -1765,12 +1782,12 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -1778,7 +1795,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1786,7 +1803,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1794,7 +1811,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -1802,7 +1819,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -1814,7 +1831,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -1823,7 +1840,7 @@
       </c>
       <c r="C30" s="8"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>88</v>
       </c>
@@ -1832,7 +1849,7 @@
       </c>
       <c r="C31" s="10"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>95</v>
       </c>
@@ -1844,7 +1861,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -1853,11 +1870,11 @@
         <v>8784</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20">
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -1869,7 +1886,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -1881,11 +1898,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -1894,7 +1911,7 @@
       </c>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -1903,7 +1920,7 @@
       </c>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -1912,22 +1929,22 @@
       </c>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20">
       <c r="A42" t="s">
         <v>18</v>
       </c>
       <c r="F42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J42" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20">
       <c r="D43" t="s">
         <v>73</v>
       </c>
@@ -1938,12 +1955,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" s="3" customFormat="1">
       <c r="A44" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:20" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" s="4" customFormat="1">
       <c r="A45" s="4" t="s">
         <v>4</v>
       </c>
@@ -1976,12 +1993,12 @@
       </c>
       <c r="S45" s="5"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20">
       <c r="A46" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:20" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" s="2" customFormat="1" ht="30">
       <c r="A47" s="2" t="s">
         <v>20</v>
       </c>
@@ -1998,7 +2015,7 @@
         <v>37</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>50</v>
@@ -2031,501 +2048,502 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:20" s="41" customFormat="1">
+      <c r="A48" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="D48" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="G48" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="J48" s="26"/>
-      <c r="L48" s="15"/>
-      <c r="S48" t="str">
+      <c r="J48" s="42"/>
+      <c r="S48" s="41" t="str">
         <f xml:space="preserve"> 1 &amp; "/" &amp; B38</f>
         <v>1/h</v>
       </c>
-      <c r="T48" t="s">
+      <c r="T48" s="41" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
+    <row r="49" spans="1:20" s="41" customFormat="1">
+      <c r="A49" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="D49" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="G49" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="J49" s="26">
+      <c r="J49" s="42">
         <f>N85*B33</f>
         <v>135.46581245459663</v>
       </c>
-      <c r="K49" t="str">
+      <c r="K49" s="41" t="str">
         <f>B40 &amp; "/time range/" &amp; B39</f>
         <v>$/time range/kW</v>
       </c>
-      <c r="L49" s="15"/>
-      <c r="M49" t="str">
+      <c r="M49" s="41" t="str">
         <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
+    <row r="50" spans="1:20" s="45" customFormat="1">
+      <c r="A50" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="D50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="D50" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G50" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="J50" s="26">
+      <c r="J50" s="46">
         <f>N86*B33</f>
         <v>159.15693044316652</v>
       </c>
-      <c r="K50" t="str">
+      <c r="K50" s="45" t="str">
         <f>B40 &amp; "/time range/" &amp; B39</f>
         <v>$/time range/kW</v>
       </c>
-      <c r="L50" s="15"/>
-      <c r="M50" t="str">
+      <c r="M50" s="45" t="str">
         <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
+    <row r="51" spans="1:20" s="41" customFormat="1">
+      <c r="A51" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D51" t="s">
-        <v>22</v>
-      </c>
-      <c r="J51" s="26">
+      <c r="D51" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="J51" s="42">
         <f>N87*B33</f>
         <v>112.24474894263096</v>
       </c>
-      <c r="K51" t="str">
+      <c r="K51" s="41" t="str">
         <f>B40 &amp; "/time range/" &amp; B39</f>
         <v>$/time range/kW</v>
       </c>
-      <c r="L51" s="15">
+      <c r="L51" s="41">
         <f>I87 + J87/L87</f>
         <v>1.6911456050362664E-2</v>
       </c>
-      <c r="M51" t="str">
+      <c r="M51" s="41" t="str">
         <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="8" t="s">
+    <row r="52" spans="1:20" s="45" customFormat="1">
+      <c r="A52" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="D52" t="s">
-        <v>22</v>
-      </c>
-      <c r="J52" s="27">
+      <c r="D52" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="J52" s="47">
         <f>N88*B33</f>
         <v>280.93327462774823</v>
       </c>
-      <c r="K52" t="str">
+      <c r="K52" s="45" t="str">
         <f>B40 &amp; "/time range/" &amp; B39</f>
         <v>$/time range/kW</v>
       </c>
-      <c r="L52" s="15">
+      <c r="L52" s="45">
         <f>I88 + J88/L88</f>
         <v>1.8144865147936888E-2</v>
       </c>
-      <c r="M52" t="str">
+      <c r="M52" s="45" t="str">
         <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
+    <row r="53" spans="1:20" s="41" customFormat="1">
+      <c r="A53" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="D53" t="s">
-        <v>22</v>
-      </c>
-      <c r="J53" s="26">
+      <c r="D53" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="J53" s="42">
         <f>N89*B33</f>
         <v>742.40076653499398</v>
       </c>
-      <c r="K53" t="str">
+      <c r="K53" s="41" t="str">
         <f>B40 &amp; "/time range/" &amp; B39</f>
         <v>$/time range/kW</v>
       </c>
-      <c r="L53" s="15">
+      <c r="L53" s="41">
         <f>I89 + J89/L89</f>
         <v>2.3458663758010111E-2</v>
       </c>
-      <c r="M53" t="str">
+      <c r="M53" s="41" t="str">
         <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A54" s="8" t="s">
+    <row r="54" spans="1:20" s="45" customFormat="1">
+      <c r="A54" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="D54" t="s">
-        <v>22</v>
-      </c>
-      <c r="J54" s="26">
+      <c r="D54" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="J54" s="46">
         <f>N90*B33</f>
         <v>501.59899872684895</v>
       </c>
-      <c r="K54" t="str">
+      <c r="K54" s="45" t="str">
         <f>B40 &amp; "/time range/" &amp; B39</f>
         <v>$/time range/kW</v>
       </c>
-      <c r="L54" s="15"/>
-      <c r="M54" t="str">
+      <c r="M54" s="45" t="str">
         <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
+    <row r="55" spans="1:20" s="41" customFormat="1">
+      <c r="A55" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="D55" t="s">
-        <v>22</v>
-      </c>
-      <c r="J55" s="26"/>
-      <c r="L55" s="15"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A56" s="8" t="s">
+      <c r="D55" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="J55" s="42"/>
+    </row>
+    <row r="56" spans="1:20" s="45" customFormat="1">
+      <c r="A56" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="D56" t="s">
-        <v>22</v>
-      </c>
-      <c r="J56" s="27">
+      <c r="D56" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="J56" s="47">
         <f>N92*B33</f>
         <v>1883.019444812541</v>
       </c>
-      <c r="K56" t="str">
+      <c r="K56" s="45" t="str">
         <f>B40 &amp; "/time range/" &amp; B39</f>
         <v>$/time range/kW</v>
       </c>
-      <c r="L56" s="15"/>
-      <c r="M56" t="str">
+      <c r="M56" s="45" t="str">
         <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
+    <row r="57" spans="1:20" s="41" customFormat="1">
+      <c r="A57" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D57" t="s">
-        <v>22</v>
-      </c>
-      <c r="J57" s="27">
+      <c r="D57" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="J57" s="43">
         <f>(N93+N94)*B33</f>
         <v>56.563262262275956</v>
       </c>
-      <c r="K57" t="str">
+      <c r="K57" s="41" t="str">
         <f>B40 &amp; "/time range/" &amp; B39</f>
         <v>$/time range/kW</v>
       </c>
-      <c r="L57" s="15">
+      <c r="L57" s="41">
         <f>P94</f>
         <v>3.1E-6</v>
       </c>
-      <c r="M57" t="str">
+      <c r="M57" s="41" t="str">
         <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="41">
         <v>4</v>
       </c>
-      <c r="O57" t="b">
+      <c r="O57" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="P57">
+      <c r="P57" s="41">
         <f>L94</f>
         <v>0.86</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A58" s="8" t="s">
+    <row r="58" spans="1:20" s="45" customFormat="1">
+      <c r="A58" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="D58" t="s">
-        <v>22</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="D58" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="E58" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="45">
         <v>0</v>
       </c>
-      <c r="J58" s="26">
+      <c r="J58" s="46">
         <f>N95*B33</f>
         <v>153.0544177167759</v>
       </c>
-      <c r="K58" t="str">
+      <c r="K58" s="45" t="str">
         <f>B40 &amp; "/time range/" &amp; B39</f>
         <v>$/time range/kW</v>
       </c>
-      <c r="L58" s="15">
+      <c r="L58" s="45">
         <f>P95</f>
         <v>1.2999999999999998E-6</v>
       </c>
-      <c r="M58" t="str">
+      <c r="M58" s="45" t="str">
         <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
-      <c r="P58">
+      <c r="P58" s="45">
         <f>L95</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
+    <row r="59" spans="1:20" s="45" customFormat="1">
+      <c r="A59" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="J59" s="26">
+      <c r="J59" s="46">
         <f>N96*B33</f>
         <v>0.16397297656507703</v>
       </c>
-      <c r="K59" t="str">
+      <c r="K59" s="45" t="str">
         <f>B40 &amp; "/time range/" &amp; B39 &amp; B38</f>
         <v>$/time range/kWh</v>
       </c>
-      <c r="L59" s="15"/>
-      <c r="M59" t="str">
+      <c r="M59" s="45" t="str">
         <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
-      <c r="R59">
+      <c r="R59" s="45">
         <f>M96</f>
         <v>4.1666666666666665E-5</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A60" s="8" t="s">
+    <row r="60" spans="1:20" s="45" customFormat="1">
+      <c r="A60" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="E60" t="s">
-        <v>22</v>
-      </c>
-      <c r="F60">
+      <c r="E60" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="F60" s="45">
         <v>0</v>
       </c>
-      <c r="J60" s="26">
+      <c r="J60" s="46">
         <f>N97*B33</f>
         <v>129.12774868738202</v>
       </c>
-      <c r="K60" t="str">
+      <c r="K60" s="45" t="str">
         <f>B40 &amp; "/time range/" &amp; B39</f>
         <v>$/time range/kW</v>
       </c>
-      <c r="L60" s="15">
+      <c r="L60" s="45">
         <f>P97</f>
         <v>5.1249999999999993E-4</v>
       </c>
-      <c r="M60" t="str">
+      <c r="M60" s="45" t="str">
         <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
-      <c r="P60">
+      <c r="P60" s="45">
         <f>L97</f>
         <v>0.71</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A61" s="8" t="s">
+    <row r="61" spans="1:20" s="41" customFormat="1">
+      <c r="A61" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="B61" t="s">
-        <v>136</v>
-      </c>
-      <c r="C61" t="s">
-        <v>136</v>
-      </c>
-      <c r="D61" t="s">
-        <v>22</v>
-      </c>
-      <c r="J61" s="27">
+      <c r="B61" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="D61" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="J61" s="43">
         <f>N98*B33</f>
         <v>8.6253132060507376</v>
       </c>
-      <c r="K61" t="str">
+      <c r="K61" s="41" t="str">
         <f>B40 &amp; "/time range/" &amp; B39 &amp; B38</f>
         <v>$/time range/kWh</v>
       </c>
-      <c r="L61" s="15"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A62" s="8" t="s">
+      <c r="T61" s="41" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" s="41" customFormat="1">
+      <c r="A62" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D62" t="s">
-        <v>22</v>
-      </c>
-      <c r="E62" t="s">
-        <v>133</v>
-      </c>
-      <c r="F62">
+      <c r="D62" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="E62" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="F62" s="41">
         <v>-1</v>
       </c>
-      <c r="J62" s="27">
+      <c r="J62" s="43">
         <f>N99*B33</f>
         <v>147.6443387634331</v>
       </c>
-      <c r="K62" t="str">
+      <c r="K62" s="41" t="str">
         <f>B40 &amp; "/time range/" &amp; B39</f>
         <v>$/time range/kW</v>
       </c>
-      <c r="L62" s="15">
+      <c r="L62" s="41">
         <f>P99</f>
         <v>2.9999999999999999E-7</v>
       </c>
-      <c r="M62" t="str">
+      <c r="M62" s="41" t="str">
         <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
-      <c r="P62">
-        <f>L99</f>
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A63" s="8" t="s">
+      <c r="P62" s="41">
+        <f>L99^0.5</f>
+        <v>0.9</v>
+      </c>
+      <c r="Q62" s="41">
+        <f>P62</f>
+        <v>0.9</v>
+      </c>
+      <c r="T62" s="41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" s="45" customFormat="1">
+      <c r="A63" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="D63" t="s">
-        <v>22</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="D63" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="E63" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="J63" s="26"/>
-      <c r="L63" s="15"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J63" s="46"/>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14">
       <c r="A68" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14">
       <c r="A69" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14">
       <c r="A70" s="15" t="s">
         <v>55</v>
       </c>
@@ -2534,14 +2552,14 @@
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14">
       <c r="A71" t="s">
         <v>86</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14">
       <c r="A73" s="12" t="s">
         <v>81</v>
       </c>
@@ -2556,12 +2574,12 @@
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14">
       <c r="A74" s="12"/>
-      <c r="B74" s="29" t="s">
+      <c r="B74" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="C74" s="28" t="s">
+      <c r="C74" s="26" t="s">
         <v>107</v>
       </c>
       <c r="E74" s="11"/>
@@ -2575,12 +2593,12 @@
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14">
       <c r="A75" s="12"/>
-      <c r="B75" s="29" t="s">
+      <c r="B75" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C75" s="28" t="s">
+      <c r="C75" s="26" t="s">
         <v>110</v>
       </c>
       <c r="E75" s="11"/>
@@ -2594,10 +2612,10 @@
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14">
       <c r="A76" s="12"/>
-      <c r="B76" s="29"/>
-      <c r="C76" s="28"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="26"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
@@ -2609,12 +2627,12 @@
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
     </row>
-    <row r="77" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" ht="15" customHeight="1">
       <c r="A77" s="12"/>
-      <c r="B77" s="29" t="s">
+      <c r="B77" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="C77" s="30" t="s">
+      <c r="C77" s="28" t="s">
         <v>112</v>
       </c>
       <c r="E77" s="11"/>
@@ -2628,10 +2646,10 @@
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14">
       <c r="A78" s="12"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="31" t="s">
+      <c r="B78" s="26"/>
+      <c r="C78" s="29" t="s">
         <v>113</v>
       </c>
       <c r="E78" s="11"/>
@@ -2645,10 +2663,10 @@
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14">
       <c r="A79" s="12"/>
-      <c r="B79" s="28"/>
-      <c r="C79" s="31"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="29"/>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
@@ -2660,34 +2678,34 @@
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
     </row>
-    <row r="80" spans="1:14" s="38" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="35"/>
-      <c r="B80" s="36" t="s">
+    <row r="80" spans="1:14" s="36" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A80" s="33"/>
+      <c r="B80" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="C80" s="37"/>
-      <c r="E80" s="39"/>
-      <c r="F80" s="39"/>
-      <c r="G80" s="39"/>
-      <c r="H80" s="39"/>
-      <c r="I80" s="39"/>
-      <c r="J80" s="39"/>
-      <c r="K80" s="39"/>
-      <c r="L80" s="39"/>
-      <c r="M80" s="40"/>
-      <c r="N80" s="40"/>
-    </row>
-    <row r="81" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C80" s="35"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="37"/>
+      <c r="I80" s="37"/>
+      <c r="J80" s="37"/>
+      <c r="K80" s="37"/>
+      <c r="L80" s="37"/>
+      <c r="M80" s="38"/>
+      <c r="N80" s="38"/>
+    </row>
+    <row r="81" spans="1:17" ht="15" customHeight="1">
       <c r="A81" s="12"/>
-      <c r="B81" s="33" t="s">
+      <c r="B81" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="C81" s="34">
+      <c r="C81" s="32">
         <v>1.02</v>
       </c>
-      <c r="D81" s="32"/>
-      <c r="E81" s="32"/>
-      <c r="F81" s="32"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30"/>
       <c r="G81" s="14"/>
       <c r="H81" s="16"/>
       <c r="I81" s="16"/>
@@ -2700,7 +2718,7 @@
       <c r="P81" s="13"/>
       <c r="Q81" s="14"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17">
       <c r="A82" s="12"/>
       <c r="B82" s="16" t="str">
         <f xml:space="preserve"> "Btu/" &amp; B39 &amp; B38</f>
@@ -2724,7 +2742,7 @@
       <c r="P82" s="13"/>
       <c r="Q82" s="14"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17">
       <c r="A83" s="12"/>
       <c r="B83" s="16" t="s">
         <v>83</v>
@@ -2747,7 +2765,7 @@
       <c r="P83" s="16"/>
       <c r="Q83" s="14"/>
     </row>
-    <row r="84" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" ht="60" customHeight="1">
       <c r="A84" s="2"/>
       <c r="B84" s="13" t="s">
         <v>21</v>
@@ -2800,7 +2818,7 @@
       </c>
       <c r="Q84" s="13"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17">
       <c r="B85" s="14" t="s">
         <v>28</v>
       </c>
@@ -2841,7 +2859,7 @@
         <v>$/kWh</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17">
       <c r="B86" s="14" t="s">
         <v>34</v>
       </c>
@@ -2882,7 +2900,7 @@
         <v>$/kWh</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17">
       <c r="B87" s="14" t="s">
         <v>29</v>
       </c>
@@ -2935,7 +2953,7 @@
         <v>$/kWh</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17">
       <c r="B88" s="14" t="s">
         <v>106</v>
       </c>
@@ -2988,7 +3006,7 @@
         <v>$/kWh</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17">
       <c r="B89" s="14" t="s">
         <v>33</v>
       </c>
@@ -3041,7 +3059,7 @@
         <v>$/kWh</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17">
       <c r="B90" s="14" t="s">
         <v>122</v>
       </c>
@@ -3094,7 +3112,7 @@
         <v>$/kWh</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17">
       <c r="B91" s="14" t="s">
         <v>103</v>
       </c>
@@ -3120,7 +3138,7 @@
         <v>$/kWh</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17">
       <c r="B92" s="14" t="s">
         <v>104</v>
       </c>
@@ -3161,7 +3179,7 @@
         <v>$/kWh</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17">
       <c r="B93" s="14" t="s">
         <v>114</v>
       </c>
@@ -3204,7 +3222,7 @@
         <v>$/kWh</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17">
       <c r="B94" s="14" t="s">
         <v>115</v>
       </c>
@@ -3216,7 +3234,7 @@
         <f>8.3*C81</f>
         <v>8.4660000000000011</v>
       </c>
-      <c r="E94" s="41">
+      <c r="E94" s="39">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F94" s="14">
@@ -3253,7 +3271,7 @@
         <v>$/kW</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17">
       <c r="B95" s="14" t="s">
         <v>36</v>
       </c>
@@ -3265,7 +3283,7 @@
         <f>12.8*C81</f>
         <v>13.056000000000001</v>
       </c>
-      <c r="E95" s="41">
+      <c r="E95" s="39">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F95" s="14">
@@ -3302,7 +3320,7 @@
         <v>$/kW</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17">
       <c r="B96" s="14" t="s">
         <v>39</v>
       </c>
@@ -3348,7 +3366,7 @@
         <v>$/kWh</v>
       </c>
     </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:17">
       <c r="B97" s="14" t="s">
         <v>40</v>
       </c>
@@ -3360,7 +3378,7 @@
         <f>12.8*C81</f>
         <v>13.056000000000001</v>
       </c>
-      <c r="E97" s="41">
+      <c r="E97" s="39">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F97" s="14">
@@ -3397,7 +3415,7 @@
         <v>$/kW</v>
       </c>
     </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:17">
       <c r="B98" s="14" t="s">
         <v>120</v>
       </c>
@@ -3437,7 +3455,7 @@
         <v>$/kWh</v>
       </c>
     </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:17">
       <c r="B99" s="14" t="s">
         <v>121</v>
       </c>
@@ -3449,7 +3467,7 @@
         <f>12.5*C81</f>
         <v>12.75</v>
       </c>
-      <c r="E99" s="41">
+      <c r="E99" s="39">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F99" s="14">
@@ -3483,7 +3501,7 @@
         <v>$/kW</v>
       </c>
     </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:17">
       <c r="B100" s="14" t="s">
         <v>100</v>
       </c>
@@ -3506,12 +3524,12 @@
         <v>$/kWh</v>
       </c>
     </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:17">
       <c r="B102" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="103" spans="2:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:17" ht="15.75">
       <c r="F103" s="23"/>
       <c r="G103" s="23"/>
       <c r="H103" s="23"/>

--- a/all_firm_case.xlsx
+++ b/all_firm_case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcaldeira\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliciawongel/CLab/clab_all_firm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C728D546-9B77-45C1-B0AF-E4DA4E0D322F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D0D9A9-8B85-EE4A-AC13-D51516FE16FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3765" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="1180" windowWidth="38400" windowHeight="21540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case_input_intermodel_one_node_" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="154">
   <si>
     <t>Note that demand has no decisions.</t>
   </si>
@@ -201,9 +201,6 @@
     <t>Load</t>
   </si>
   <si>
-    <t>StorageUnit</t>
-  </si>
-  <si>
     <t>Note that H46-H52  contain formulas, and our PyPSA front end will read this in as a value.</t>
   </si>
   <si>
@@ -264,9 +261,6 @@
     <t>time_unit</t>
   </si>
   <si>
-    <t>power unit</t>
-  </si>
-  <si>
     <t>currency</t>
   </si>
   <si>
@@ -457,6 +451,54 @@
   </si>
   <si>
     <t>electricity</t>
+  </si>
+  <si>
+    <t>Carrier</t>
+  </si>
+  <si>
+    <t>co2</t>
+  </si>
+  <si>
+    <t>co2_atmosphere</t>
+  </si>
+  <si>
+    <t>natgas_out</t>
+  </si>
+  <si>
+    <t>#StorageUnit</t>
+  </si>
+  <si>
+    <t>#Store</t>
+  </si>
+  <si>
+    <t>natgas_electricity</t>
+  </si>
+  <si>
+    <t>bus2</t>
+  </si>
+  <si>
+    <t>efficiency2</t>
+  </si>
+  <si>
+    <t>power_unit</t>
+  </si>
+  <si>
+    <t>mass_unit</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>GlobalConstraint</t>
+  </si>
+  <si>
+    <t>co2_emissions==0</t>
+  </si>
+  <si>
+    <t>co2_atmosphere_out</t>
+  </si>
+  <si>
+    <t>Note: Negative means it consumes</t>
   </si>
 </sst>
 </file>
@@ -466,7 +508,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1042,7 +1084,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1061,7 +1103,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1143,6 +1184,8 @@
     <xf numFmtId="49" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1204,13 +1247,25 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Storage Techs"/>
+      <sheetName val="Gravitational"/>
       <sheetName val="Generation Techs"/>
+      <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="12">
+          <cell r="B12">
+            <v>3412.141633127942</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1513,35 +1568,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T103"/>
+  <dimension ref="A1:W110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" customWidth="1"/>
-    <col min="16" max="17" width="11.42578125" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="10" width="11.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" customWidth="1"/>
+    <col min="13" max="13" width="13.5" customWidth="1"/>
+    <col min="14" max="14" width="9.1640625" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" customWidth="1"/>
+    <col min="16" max="16" width="18.6640625" customWidth="1"/>
+    <col min="17" max="20" width="11.5" customWidth="1"/>
+    <col min="21" max="21" width="14.1640625" customWidth="1"/>
+    <col min="22" max="22" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1549,8 +1605,9 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1558,10 +1615,11 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1569,8 +1627,9 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1578,8 +1637,9 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -1589,8 +1649,9 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1600,10 +1661,11 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1611,8 +1673,9 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1620,8 +1683,9 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -1631,47 +1695,51 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1679,8 +1747,9 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1690,112 +1759,120 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H21" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="B25" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1803,1755 +1880,1934 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>42</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="8"/>
+        <v>92</v>
+      </c>
       <c r="D29" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>43</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="8"/>
-    </row>
-    <row r="31" spans="1:7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
-      <c r="C31" s="10"/>
-    </row>
-    <row r="32" spans="1:7">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" s="21">
+        <v>93</v>
+      </c>
+      <c r="B32" s="20">
         <f>(B30-B29)*24/B31</f>
         <v>8784</v>
       </c>
-      <c r="C32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="D32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" s="21">
+        <v>94</v>
+      </c>
+      <c r="B33" s="20">
         <f>B32*B31</f>
         <v>8784</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:20">
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>48</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="7"/>
       <c r="D35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>14</v>
       </c>
       <c r="B36" s="1">
         <v>1</v>
       </c>
-      <c r="C36" s="1"/>
       <c r="D36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:20">
-      <c r="A39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s">
+        <v>132</v>
+      </c>
+      <c r="K46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>72</v>
+      </c>
+      <c r="J47" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:20">
-      <c r="A40" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="1:20">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:20">
-      <c r="A42" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" t="s">
-        <v>134</v>
-      </c>
-      <c r="J42" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20">
-      <c r="D43" t="s">
-        <v>73</v>
-      </c>
-      <c r="I43" t="s">
-        <v>80</v>
-      </c>
-      <c r="P43" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" s="3" customFormat="1">
-      <c r="A44" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" s="4" customFormat="1">
-      <c r="A45" s="4" t="s">
+      <c r="Q47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="J49" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="K49" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K45" s="4" t="s">
+      <c r="L49" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M45" s="4" t="s">
+      <c r="N49" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O45" s="4" t="s">
+      <c r="P49" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Q45" s="5" t="s">
+      <c r="R49" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R45" s="5" t="s">
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="S45" s="5"/>
-    </row>
-    <row r="46" spans="1:20">
-      <c r="A46" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" s="2" customFormat="1" ht="30">
-      <c r="A47" s="2" t="s">
+      <c r="V49" s="5"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="C51" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G47" s="2" t="s">
+      <c r="F51" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="I51" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="J51" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="K51" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L47" s="2" t="s">
+      <c r="M51" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N47" s="2" t="s">
+      <c r="O51" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O47" s="2" t="s">
+      <c r="P51" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P47" s="2" t="s">
+      <c r="Q51" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q47" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="R47" s="2" t="s">
+      <c r="R51" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="S51" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="U51" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="41" customFormat="1">
-      <c r="A48" s="40" t="s">
+    <row r="52" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B52" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="41" t="s">
+      <c r="C52" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="G48" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="J48" s="42"/>
-      <c r="S48" s="41" t="str">
+      <c r="D52" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="H52" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="K52" s="41"/>
+      <c r="V52" s="40" t="str">
         <f xml:space="preserve"> 1 &amp; "/" &amp; B38</f>
         <v>1/h</v>
       </c>
-      <c r="T48" s="41" t="s">
+      <c r="W52" s="40" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:20" s="41" customFormat="1">
-      <c r="A49" s="40" t="s">
+    <row r="53" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="H53" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="K53" s="41">
+        <f>O92*B33</f>
+        <v>135.46581245459663</v>
+      </c>
+      <c r="L53" s="40" t="str">
+        <f>B41 &amp; "/time range/" &amp; B39</f>
+        <v>$/time range/kW</v>
+      </c>
+      <c r="N53" s="40" t="str">
+        <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
+        <v>$/kWh</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="H54" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="K54" s="45">
+        <f>O93*B33</f>
+        <v>159.15693044316652</v>
+      </c>
+      <c r="L54" s="44" t="str">
+        <f>B41 &amp; "/time range/" &amp; B39</f>
+        <v>$/time range/kW</v>
+      </c>
+      <c r="N54" s="44" t="str">
+        <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
+        <v>$/kWh</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="D49" s="41" t="s">
+      <c r="B55" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="K55" s="41">
+        <f>O94*B33</f>
+        <v>112.24474894263096</v>
+      </c>
+      <c r="L55" s="40" t="str">
+        <f>B41 &amp; "/time range/" &amp; B39</f>
+        <v>$/time range/kW</v>
+      </c>
+      <c r="M55" s="40">
+        <f>J94 + K94/M94</f>
+        <v>1.6911456050362664E-2</v>
+      </c>
+      <c r="N55" s="40" t="str">
+        <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
+        <v>$/kWh</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="K56" s="46">
+        <f>O95*B33</f>
+        <v>280.93327462774823</v>
+      </c>
+      <c r="L56" s="44" t="str">
+        <f>B41 &amp; "/time range/" &amp; B39</f>
+        <v>$/time range/kW</v>
+      </c>
+      <c r="M56" s="44">
+        <f>J95 + K95/M95</f>
+        <v>1.8144865147936888E-2</v>
+      </c>
+      <c r="N56" s="44" t="str">
+        <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
+        <v>$/kWh</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="K57" s="41">
+        <f>O96*B33</f>
+        <v>742.40076653499398</v>
+      </c>
+      <c r="L57" s="40" t="str">
+        <f>B41 &amp; "/time range/" &amp; B39</f>
+        <v>$/time range/kW</v>
+      </c>
+      <c r="M57" s="40">
+        <f>J96 + K96/M96</f>
+        <v>2.3458663758010111E-2</v>
+      </c>
+      <c r="N57" s="40" t="str">
+        <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
+        <v>$/kWh</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="K58" s="45">
+        <f>O97*B33</f>
+        <v>501.59899872684895</v>
+      </c>
+      <c r="L58" s="44" t="str">
+        <f>B41 &amp; "/time range/" &amp; B39</f>
+        <v>$/time range/kW</v>
+      </c>
+      <c r="N58" s="44" t="str">
+        <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
+        <v>$/kWh</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="D59" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="K59" s="41"/>
+    </row>
+    <row r="60" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D60" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="K60" s="46">
+        <f>O99*B33</f>
+        <v>1883.019444812541</v>
+      </c>
+      <c r="L60" s="44" t="str">
+        <f>B41 &amp; "/time range/" &amp; B39</f>
+        <v>$/time range/kW</v>
+      </c>
+      <c r="N60" s="44" t="str">
+        <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
+        <v>$/kWh</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="B61" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="K61" s="42">
+        <f>(O100+O101)*B33</f>
+        <v>56.563262262275956</v>
+      </c>
+      <c r="L61" s="40" t="str">
+        <f>B41 &amp; "/time range/" &amp; B39</f>
+        <v>$/time range/kW</v>
+      </c>
+      <c r="M61" s="40">
+        <f>Q101</f>
+        <v>3.1E-6</v>
+      </c>
+      <c r="N61" s="40" t="str">
+        <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
+        <v>$/kWh</v>
+      </c>
+      <c r="O61" s="40">
+        <v>4</v>
+      </c>
+      <c r="P61" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="40">
+        <f>M101</f>
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="E62" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G62" s="44">
+        <v>0</v>
+      </c>
+      <c r="K62" s="45">
+        <f>O102*B33</f>
+        <v>153.0544177167759</v>
+      </c>
+      <c r="L62" s="44" t="str">
+        <f>B41 &amp; "/time range/" &amp; B39</f>
+        <v>$/time range/kW</v>
+      </c>
+      <c r="M62" s="44">
+        <f>Q102</f>
+        <v>1.2999999999999998E-6</v>
+      </c>
+      <c r="N62" s="44" t="str">
+        <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
+        <v>$/kWh</v>
+      </c>
+      <c r="Q62" s="44">
+        <f>M102</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="B63" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="K63" s="45">
+        <f>O103*B33</f>
+        <v>0.16397297656507703</v>
+      </c>
+      <c r="L63" s="44" t="str">
+        <f>B41 &amp; "/time range/" &amp; B39 &amp; B38</f>
+        <v>$/time range/kWh</v>
+      </c>
+      <c r="N63" s="44" t="str">
+        <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
+        <v>$/kWh</v>
+      </c>
+      <c r="U63" s="44">
+        <f>N103</f>
+        <v>4.1666666666666665E-5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D64" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E64" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="G64" s="44">
+        <v>0</v>
+      </c>
+      <c r="K64" s="45">
+        <f>O104*B33</f>
+        <v>129.12774868738202</v>
+      </c>
+      <c r="L64" s="44" t="str">
+        <f>B41 &amp; "/time range/" &amp; B39</f>
+        <v>$/time range/kW</v>
+      </c>
+      <c r="M64" s="44">
+        <f>Q104</f>
+        <v>5.1249999999999993E-4</v>
+      </c>
+      <c r="N64" s="44" t="str">
+        <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
+        <v>$/kWh</v>
+      </c>
+      <c r="Q64" s="44">
+        <f>M104</f>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="K65" s="42">
+        <f>O105*B33</f>
+        <v>8.6253132060507376</v>
+      </c>
+      <c r="L65" s="40" t="str">
+        <f>B41 &amp; "/time range/" &amp; B39 &amp; B38</f>
+        <v>$/time range/kWh</v>
+      </c>
+      <c r="W65" s="40" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C66" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="D66" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="E66" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="G66" s="40">
+        <v>-1</v>
+      </c>
+      <c r="K66" s="42">
+        <f>O106*B33</f>
+        <v>147.6443387634331</v>
+      </c>
+      <c r="L66" s="40" t="str">
+        <f>B41 &amp; "/time range/" &amp; B39</f>
+        <v>$/time range/kW</v>
+      </c>
+      <c r="M66" s="40">
+        <f>Q106</f>
+        <v>2.9999999999999999E-7</v>
+      </c>
+      <c r="N66" s="40" t="str">
+        <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
+        <v>$/kWh</v>
+      </c>
+      <c r="Q66" s="40">
+        <f>M106^0.5</f>
+        <v>0.9</v>
+      </c>
+      <c r="R66" s="40">
+        <f>Q66</f>
+        <v>0.9</v>
+      </c>
+      <c r="W66" s="40" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="G49" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="J49" s="42">
-        <f>N85*B33</f>
-        <v>135.46581245459663</v>
-      </c>
-      <c r="K49" s="41" t="str">
-        <f>B40 &amp; "/time range/" &amp; B39</f>
-        <v>$/time range/kW</v>
-      </c>
-      <c r="M49" s="41" t="str">
-        <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
-        <v>$/kWh</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" s="45" customFormat="1">
-      <c r="A50" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="D50" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="G50" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="J50" s="46">
-        <f>N86*B33</f>
-        <v>159.15693044316652</v>
-      </c>
-      <c r="K50" s="45" t="str">
-        <f>B40 &amp; "/time range/" &amp; B39</f>
-        <v>$/time range/kW</v>
-      </c>
-      <c r="M50" s="45" t="str">
-        <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
-        <v>$/kWh</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" s="41" customFormat="1">
-      <c r="A51" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="B51" s="41" t="s">
+      <c r="K67" s="45"/>
+    </row>
+    <row r="68" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C51" s="41" t="s">
+      <c r="C68" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="J51" s="42">
-        <f>N87*B33</f>
-        <v>112.24474894263096</v>
-      </c>
-      <c r="K51" s="41" t="str">
-        <f>B40 &amp; "/time range/" &amp; B39</f>
-        <v>$/time range/kW</v>
-      </c>
-      <c r="L51" s="41">
-        <f>I87 + J87/L87</f>
-        <v>1.6911456050362664E-2</v>
-      </c>
-      <c r="M51" s="41" t="str">
-        <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
-        <v>$/kWh</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" s="45" customFormat="1">
-      <c r="A52" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" s="45" t="s">
+      <c r="D68" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="E68" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="F68" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q68" s="40">
+        <v>0.54</v>
+      </c>
+      <c r="S68" s="40">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="T68" s="40" t="str">
+        <f>B40 &amp; "/" &amp;B39 &amp; B38</f>
+        <v>t/kWh</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="D69" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="G69" s="44">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B70" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D70" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="E70" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F70" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="K70" s="47">
+        <v>1000000</v>
+      </c>
+      <c r="Q70" s="40">
+        <v>1</v>
+      </c>
+      <c r="S70" s="40">
+        <v>-500</v>
+      </c>
+      <c r="T70" s="40" t="str">
+        <f xml:space="preserve"> B39 &amp; B38  &amp; "/" &amp;  B40</f>
+        <v>kWh/t</v>
+      </c>
+      <c r="W70" s="40" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B71" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D71" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="K71" s="48"/>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A77" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>84</v>
+      </c>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A80" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A81" s="11"/>
+      <c r="B81" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="D52" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="J52" s="47">
-        <f>N88*B33</f>
-        <v>280.93327462774823</v>
-      </c>
-      <c r="K52" s="45" t="str">
-        <f>B40 &amp; "/time range/" &amp; B39</f>
-        <v>$/time range/kW</v>
-      </c>
-      <c r="L52" s="45">
-        <f>I88 + J88/L88</f>
-        <v>1.8144865147936888E-2</v>
-      </c>
-      <c r="M52" s="45" t="str">
-        <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
-        <v>$/kWh</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" s="41" customFormat="1">
-      <c r="A53" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C53" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D53" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="J53" s="42">
-        <f>N89*B33</f>
-        <v>742.40076653499398</v>
-      </c>
-      <c r="K53" s="41" t="str">
-        <f>B40 &amp; "/time range/" &amp; B39</f>
-        <v>$/time range/kW</v>
-      </c>
-      <c r="L53" s="41">
-        <f>I89 + J89/L89</f>
-        <v>2.3458663758010111E-2</v>
-      </c>
-      <c r="M53" s="41" t="str">
-        <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
-        <v>$/kWh</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" s="45" customFormat="1">
-      <c r="A54" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="C54" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="D54" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="J54" s="46">
-        <f>N90*B33</f>
-        <v>501.59899872684895</v>
-      </c>
-      <c r="K54" s="45" t="str">
-        <f>B40 &amp; "/time range/" &amp; B39</f>
-        <v>$/time range/kW</v>
-      </c>
-      <c r="M54" s="45" t="str">
-        <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
-        <v>$/kWh</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" s="41" customFormat="1">
-      <c r="A55" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="B55" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="C55" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="D55" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="J55" s="42"/>
-    </row>
-    <row r="56" spans="1:20" s="45" customFormat="1">
-      <c r="A56" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="B56" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="C56" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="D56" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="J56" s="47">
-        <f>N92*B33</f>
-        <v>1883.019444812541</v>
-      </c>
-      <c r="K56" s="45" t="str">
-        <f>B40 &amp; "/time range/" &amp; B39</f>
-        <v>$/time range/kW</v>
-      </c>
-      <c r="M56" s="45" t="str">
-        <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
-        <v>$/kWh</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" s="41" customFormat="1">
-      <c r="A57" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="B57" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C57" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D57" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="J57" s="43">
-        <f>(N93+N94)*B33</f>
-        <v>56.563262262275956</v>
-      </c>
-      <c r="K57" s="41" t="str">
-        <f>B40 &amp; "/time range/" &amp; B39</f>
-        <v>$/time range/kW</v>
-      </c>
-      <c r="L57" s="41">
-        <f>P94</f>
-        <v>3.1E-6</v>
-      </c>
-      <c r="M57" s="41" t="str">
-        <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
-        <v>$/kWh</v>
-      </c>
-      <c r="N57" s="41">
-        <v>4</v>
-      </c>
-      <c r="O57" s="41" t="b">
-        <v>1</v>
-      </c>
-      <c r="P57" s="41">
-        <f>L94</f>
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" s="45" customFormat="1">
-      <c r="A58" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="B58" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="C58" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="E58" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="F58" s="45">
-        <v>0</v>
-      </c>
-      <c r="J58" s="46">
-        <f>N95*B33</f>
-        <v>153.0544177167759</v>
-      </c>
-      <c r="K58" s="45" t="str">
-        <f>B40 &amp; "/time range/" &amp; B39</f>
-        <v>$/time range/kW</v>
-      </c>
-      <c r="L58" s="45">
-        <f>P95</f>
-        <v>1.2999999999999998E-6</v>
-      </c>
-      <c r="M58" s="45" t="str">
-        <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
-        <v>$/kWh</v>
-      </c>
-      <c r="P58" s="45">
-        <f>L95</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" s="45" customFormat="1">
-      <c r="A59" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="B59" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C59" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="D59" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="J59" s="46">
-        <f>N96*B33</f>
-        <v>0.16397297656507703</v>
-      </c>
-      <c r="K59" s="45" t="str">
-        <f>B40 &amp; "/time range/" &amp; B39 &amp; B38</f>
-        <v>$/time range/kWh</v>
-      </c>
-      <c r="M59" s="45" t="str">
-        <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
-        <v>$/kWh</v>
-      </c>
-      <c r="R59" s="45">
-        <f>M96</f>
-        <v>4.1666666666666665E-5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" s="45" customFormat="1">
-      <c r="A60" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="B60" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="C60" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D60" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="E60" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="F60" s="45">
-        <v>0</v>
-      </c>
-      <c r="J60" s="46">
-        <f>N97*B33</f>
-        <v>129.12774868738202</v>
-      </c>
-      <c r="K60" s="45" t="str">
-        <f>B40 &amp; "/time range/" &amp; B39</f>
-        <v>$/time range/kW</v>
-      </c>
-      <c r="L60" s="45">
-        <f>P97</f>
-        <v>5.1249999999999993E-4</v>
-      </c>
-      <c r="M60" s="45" t="str">
-        <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
-        <v>$/kWh</v>
-      </c>
-      <c r="P60" s="45">
-        <f>L97</f>
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" s="41" customFormat="1">
-      <c r="A61" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="B61" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="C61" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="D61" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="J61" s="43">
-        <f>N98*B33</f>
-        <v>8.6253132060507376</v>
-      </c>
-      <c r="K61" s="41" t="str">
-        <f>B40 &amp; "/time range/" &amp; B39 &amp; B38</f>
-        <v>$/time range/kWh</v>
-      </c>
-      <c r="T61" s="41" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" s="41" customFormat="1">
-      <c r="A62" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="B62" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="C62" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="D62" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="E62" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="F62" s="41">
-        <v>-1</v>
-      </c>
-      <c r="J62" s="43">
-        <f>N99*B33</f>
-        <v>147.6443387634331</v>
-      </c>
-      <c r="K62" s="41" t="str">
-        <f>B40 &amp; "/time range/" &amp; B39</f>
-        <v>$/time range/kW</v>
-      </c>
-      <c r="L62" s="41">
-        <f>P99</f>
-        <v>2.9999999999999999E-7</v>
-      </c>
-      <c r="M62" s="41" t="str">
-        <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
-        <v>$/kWh</v>
-      </c>
-      <c r="P62" s="41">
-        <f>L99^0.5</f>
-        <v>0.9</v>
-      </c>
-      <c r="Q62" s="41">
-        <f>P62</f>
-        <v>0.9</v>
-      </c>
-      <c r="T62" s="41" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" s="45" customFormat="1">
-      <c r="A63" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="B63" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="C63" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="D63" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="E63" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="J63" s="46"/>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="A66" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="A68" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
-      <c r="A69" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
-      <c r="A70" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="M70" s="9"/>
-      <c r="N70" s="9"/>
-    </row>
-    <row r="71" spans="1:14">
-      <c r="A71" t="s">
-        <v>86</v>
-      </c>
-      <c r="M71" s="9"/>
-      <c r="N71" s="9"/>
-    </row>
-    <row r="73" spans="1:14">
-      <c r="A73" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-    </row>
-    <row r="74" spans="1:14">
-      <c r="A74" s="12"/>
-      <c r="B74" s="27" t="s">
+      <c r="C81" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A82" s="11"/>
+      <c r="B82" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="C74" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="11"/>
-      <c r="K74" s="11"/>
-      <c r="L74" s="11"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-    </row>
-    <row r="75" spans="1:14">
-      <c r="A75" s="12"/>
-      <c r="B75" s="27" t="s">
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A83" s="11"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="25"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+    </row>
+    <row r="84" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="11"/>
+      <c r="B84" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="C75" s="26" t="s">
+      <c r="C84" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="11"/>
-      <c r="K75" s="11"/>
-      <c r="L75" s="11"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-    </row>
-    <row r="76" spans="1:14">
-      <c r="A76" s="12"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="26"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
-      <c r="J76" s="11"/>
-      <c r="K76" s="11"/>
-      <c r="L76" s="11"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-    </row>
-    <row r="77" spans="1:14" ht="15" customHeight="1">
-      <c r="A77" s="12"/>
-      <c r="B77" s="27" t="s">
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="10"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A85" s="11"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="C77" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="11"/>
-      <c r="K77" s="11"/>
-      <c r="L77" s="11"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-    </row>
-    <row r="78" spans="1:14">
-      <c r="A78" s="12"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="11"/>
-      <c r="K78" s="11"/>
-      <c r="L78" s="11"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="A79" s="12"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="29"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="11"/>
-      <c r="K79" s="11"/>
-      <c r="L79" s="11"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-    </row>
-    <row r="80" spans="1:14" s="36" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A80" s="33"/>
-      <c r="B80" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="C80" s="35"/>
-      <c r="E80" s="37"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="37"/>
-      <c r="H80" s="37"/>
-      <c r="I80" s="37"/>
-      <c r="J80" s="37"/>
-      <c r="K80" s="37"/>
-      <c r="L80" s="37"/>
-      <c r="M80" s="38"/>
-      <c r="N80" s="38"/>
-    </row>
-    <row r="81" spans="1:17" ht="15" customHeight="1">
-      <c r="A81" s="12"/>
-      <c r="B81" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="C81" s="32">
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A86" s="11"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="28"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+    </row>
+    <row r="87" spans="1:20" s="35" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="32"/>
+      <c r="B87" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C87" s="34"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="36"/>
+      <c r="K87" s="36"/>
+      <c r="L87" s="36"/>
+      <c r="M87" s="36"/>
+      <c r="N87" s="37"/>
+      <c r="O87" s="37"/>
+    </row>
+    <row r="88" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="11"/>
+      <c r="B88" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C88" s="31">
         <v>1.02</v>
       </c>
-      <c r="D81" s="30"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="30"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="16"/>
-      <c r="J81" s="16"/>
-      <c r="K81" s="16"/>
-      <c r="L81" s="16"/>
-      <c r="M81" s="16"/>
-      <c r="N81" s="16"/>
-      <c r="O81" s="13"/>
-      <c r="P81" s="13"/>
-      <c r="Q81" s="14"/>
-    </row>
-    <row r="82" spans="1:17">
-      <c r="A82" s="12"/>
-      <c r="B82" s="16" t="str">
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
+      <c r="O88" s="15"/>
+      <c r="P88" s="12"/>
+      <c r="Q88" s="12"/>
+      <c r="R88" s="13"/>
+      <c r="S88" s="13"/>
+      <c r="T88" s="13"/>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A89" s="11"/>
+      <c r="B89" s="15" t="str">
         <f xml:space="preserve"> "Btu/" &amp; B39 &amp; B38</f>
         <v>Btu/kWh</v>
       </c>
-      <c r="C82" s="14">
+      <c r="C89" s="13">
         <v>3412.141633127942</v>
       </c>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="16"/>
-      <c r="K82" s="16"/>
-      <c r="L82" s="16"/>
-      <c r="M82" s="16"/>
-      <c r="N82" s="16"/>
-      <c r="O82" s="13"/>
-      <c r="P82" s="13"/>
-      <c r="Q82" s="14"/>
-    </row>
-    <row r="83" spans="1:17">
-      <c r="A83" s="12"/>
-      <c r="B83" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C83" s="14">
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="15"/>
+      <c r="L89" s="15"/>
+      <c r="M89" s="15"/>
+      <c r="N89" s="15"/>
+      <c r="O89" s="15"/>
+      <c r="P89" s="12"/>
+      <c r="Q89" s="12"/>
+      <c r="R89" s="13"/>
+      <c r="S89" s="13"/>
+      <c r="T89" s="13"/>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A90" s="11"/>
+      <c r="B90" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C90" s="13">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="16"/>
-      <c r="J83" s="16"/>
-      <c r="K83" s="16"/>
-      <c r="L83" s="16"/>
-      <c r="M83" s="16"/>
-      <c r="N83" s="16"/>
-      <c r="O83" s="16"/>
-      <c r="P83" s="16"/>
-      <c r="Q83" s="14"/>
-    </row>
-    <row r="84" spans="1:17" ht="60" customHeight="1">
-      <c r="A84" s="2"/>
-      <c r="B84" s="13" t="s">
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="15"/>
+      <c r="L90" s="15"/>
+      <c r="M90" s="15"/>
+      <c r="N90" s="15"/>
+      <c r="O90" s="15"/>
+      <c r="P90" s="15"/>
+      <c r="Q90" s="15"/>
+      <c r="R90" s="13"/>
+      <c r="S90" s="13"/>
+      <c r="T90" s="13"/>
+    </row>
+    <row r="91" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="2"/>
+      <c r="B91" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C84" s="19" t="str">
-        <f xml:space="preserve"> "Overnight cost [" &amp; B40 &amp; "/" &amp; B39 &amp; "]"</f>
+      <c r="C91" s="18" t="str">
+        <f xml:space="preserve"> "Overnight cost [" &amp; B41 &amp; "/" &amp; B39 &amp; "]"</f>
         <v>Overnight cost [$/kW]</v>
       </c>
-      <c r="D84" s="13" t="str">
-        <f xml:space="preserve"> "Fixed O&amp;M cost ["  &amp; B40 &amp; "/" &amp; B39 &amp; "year]"</f>
+      <c r="D91" s="12" t="str">
+        <f xml:space="preserve"> "Fixed O&amp;M cost ["  &amp; B41 &amp; "/" &amp; B39 &amp; "year]"</f>
         <v>Fixed O&amp;M cost [$/kWyear]</v>
       </c>
-      <c r="E84" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="F84" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G84" s="13" t="s">
+      <c r="E91" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="H84" s="17" t="str">
-        <f xml:space="preserve"> "Annual fixed costs [" &amp;B40 &amp; "/year]"</f>
+      <c r="H91" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I91" s="16" t="str">
+        <f xml:space="preserve"> "Annual fixed costs [" &amp;B41 &amp; "/year]"</f>
         <v>Annual fixed costs [$/year]</v>
       </c>
-      <c r="I84" s="13" t="str">
-        <f xml:space="preserve"> "Variable O&amp;M [" &amp; B40 &amp; "/" &amp; B39 &amp; B38 &amp; "]"</f>
+      <c r="J91" s="12" t="str">
+        <f xml:space="preserve"> "Variable O&amp;M [" &amp; B41 &amp; "/" &amp; B39 &amp; B38 &amp; "]"</f>
         <v>Variable O&amp;M [$/kWh]</v>
       </c>
-      <c r="J84" s="13" t="str">
-        <f xml:space="preserve"> "Fuel cost [" &amp; B40 &amp; "/" &amp; B39 &amp; B38 &amp; "]"</f>
+      <c r="K91" s="12" t="str">
+        <f xml:space="preserve"> "Fuel cost [" &amp; B41 &amp; "/" &amp; B39 &amp; B38 &amp; "]"</f>
         <v>Fuel cost [$/kWh]</v>
       </c>
-      <c r="K84" s="13" t="str">
+      <c r="L91" s="12" t="str">
         <f xml:space="preserve"> "Heat rate [btu/" &amp; B39 &amp; B38 &amp; "]"</f>
         <v>Heat rate [btu/kWh]</v>
       </c>
-      <c r="L84" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="M84" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="N84" s="19" t="s">
+      <c r="M91" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="N91" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="O91" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="O84" s="13"/>
-      <c r="P84" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" spans="1:17">
-      <c r="B85" s="14" t="s">
+      <c r="P91" s="12"/>
+      <c r="Q91" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="R91" s="12"/>
+      <c r="S91" s="12"/>
+      <c r="T91" s="12"/>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B92" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C85" s="20">
+      <c r="C92" s="19">
         <v>1391</v>
       </c>
-      <c r="D85" s="14">
+      <c r="D92" s="13">
         <v>23</v>
       </c>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14">
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13">
         <v>30</v>
       </c>
-      <c r="G85" s="14">
-        <f>C83*(1+C83)^F85/((1+C83)^F85-1)</f>
+      <c r="H92" s="13">
+        <f>C90*(1+C90)^G92/((1+C90)^G92-1)</f>
         <v>8.0586403511111196E-2</v>
       </c>
-      <c r="H85" s="18">
-        <f t="shared" ref="H85:H90" si="0">C85*G85+D85</f>
+      <c r="I92" s="17">
+        <f t="shared" ref="I92:I97" si="0">C92*H92+D92</f>
         <v>135.09568728395567</v>
       </c>
-      <c r="I85" s="14"/>
-      <c r="J85" s="14"/>
-      <c r="K85" s="14"/>
-      <c r="L85" s="14"/>
-      <c r="M85" s="14"/>
-      <c r="N85" s="20">
-        <f t="shared" ref="N85:N90" si="1">H85/8760</f>
+      <c r="J92" s="13"/>
+      <c r="K92" s="13"/>
+      <c r="L92" s="13"/>
+      <c r="M92" s="13"/>
+      <c r="N92" s="13"/>
+      <c r="O92" s="19">
+        <f t="shared" ref="O92:O97" si="1">I92/8760</f>
         <v>1.5421882110040601E-2</v>
       </c>
-      <c r="O85" s="14" t="str">
-        <f>B40&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
+      <c r="P92" s="13" t="str">
+        <f>B41&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
         <v>$/h/kW</v>
       </c>
-      <c r="P85" s="20"/>
-      <c r="Q85" s="14" t="str">
-        <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
+      <c r="Q92" s="19"/>
+      <c r="R92" s="13" t="str">
+        <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
-    </row>
-    <row r="86" spans="1:17">
-      <c r="B86" s="14" t="s">
+      <c r="S92" s="13"/>
+      <c r="T92" s="13"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B93" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C86" s="20">
+      <c r="C93" s="19">
         <v>1436</v>
       </c>
-      <c r="D86" s="14">
+      <c r="D93" s="13">
         <v>43</v>
       </c>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14">
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13">
         <v>30</v>
       </c>
-      <c r="G86" s="14">
-        <f>C83*(1+C83)^F86/((1+C83)^F86-1)</f>
+      <c r="H93" s="13">
+        <f>C90*(1+C90)^G93/((1+C90)^G93-1)</f>
         <v>8.0586403511111196E-2</v>
       </c>
-      <c r="H86" s="18">
+      <c r="I93" s="17">
         <f t="shared" si="0"/>
         <v>158.72207544195567</v>
       </c>
-      <c r="I86" s="14"/>
-      <c r="J86" s="14"/>
-      <c r="K86" s="24"/>
-      <c r="L86" s="14"/>
-      <c r="M86" s="14"/>
-      <c r="N86" s="20">
+      <c r="J93" s="13"/>
+      <c r="K93" s="13"/>
+      <c r="L93" s="23"/>
+      <c r="M93" s="13"/>
+      <c r="N93" s="13"/>
+      <c r="O93" s="19">
         <f t="shared" si="1"/>
         <v>1.8118958383784894E-2</v>
       </c>
-      <c r="O86" s="14" t="str">
-        <f>B40&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
+      <c r="P93" s="13" t="str">
+        <f>B41&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
         <v>$/h/kW</v>
       </c>
-      <c r="P86" s="20"/>
-      <c r="Q86" s="14" t="str">
-        <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
+      <c r="Q93" s="19"/>
+      <c r="R93" s="13" t="str">
+        <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
-    </row>
-    <row r="87" spans="1:17">
-      <c r="B87" s="14" t="s">
+      <c r="S93" s="13"/>
+      <c r="T93" s="13"/>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B94" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C87" s="20">
+      <c r="C94" s="19">
         <v>1054</v>
       </c>
-      <c r="D87" s="14">
+      <c r="D94" s="13">
         <v>27</v>
       </c>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14">
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13">
         <v>30</v>
       </c>
-      <c r="G87" s="14">
-        <f>C83*(1+C83)^F87/((1+C83)^F87-1)</f>
+      <c r="H94" s="13">
+        <f>C90*(1+C90)^G94/((1+C90)^G94-1)</f>
         <v>8.0586403511111196E-2</v>
       </c>
-      <c r="H87" s="18">
+      <c r="I94" s="17">
         <f t="shared" si="0"/>
         <v>111.93806930071121</v>
       </c>
-      <c r="I87" s="14">
+      <c r="J94" s="13">
         <v>2E-3</v>
       </c>
-      <c r="J87" s="14">
+      <c r="K94" s="13">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K87" s="14">
+      <c r="L94" s="13">
         <v>6360</v>
       </c>
-      <c r="L87" s="14">
-        <f>C82/K87</f>
+      <c r="M94" s="13">
+        <f>C89/L94</f>
         <v>0.53650025678112301</v>
       </c>
-      <c r="M87" s="14"/>
-      <c r="N87" s="20">
+      <c r="N94" s="13"/>
+      <c r="O94" s="19">
         <f t="shared" si="1"/>
         <v>1.2778318413323197E-2</v>
       </c>
-      <c r="O87" s="14" t="str">
-        <f>B40&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
+      <c r="P94" s="13" t="str">
+        <f>B41&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
         <v>$/h/kW</v>
       </c>
-      <c r="P87" s="20">
-        <f>I87+J87/L87</f>
+      <c r="Q94" s="19">
+        <f>J94+K94/M94</f>
         <v>1.6911456050362664E-2</v>
       </c>
-      <c r="Q87" s="14" t="str">
-        <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
+      <c r="R94" s="13" t="str">
+        <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
-    </row>
-    <row r="88" spans="1:17">
-      <c r="B88" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C88" s="20">
+      <c r="S94" s="13"/>
+      <c r="T94" s="13"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B95" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C95" s="19">
         <v>2670</v>
       </c>
-      <c r="D88" s="14">
+      <c r="D95" s="13">
         <v>65</v>
       </c>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14">
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13">
         <v>30</v>
       </c>
-      <c r="G88" s="14">
-        <f>C83*(1+C83)^F88/((1+C83)^F88-1)</f>
+      <c r="H95" s="13">
+        <f>C90*(1+C90)^G95/((1+C90)^G95-1)</f>
         <v>8.0586403511111196E-2</v>
       </c>
-      <c r="H88" s="18">
+      <c r="I95" s="17">
         <f t="shared" si="0"/>
         <v>280.16569737466693</v>
       </c>
-      <c r="I88" s="14">
+      <c r="J95" s="13">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="J88" s="14">
+      <c r="K95" s="13">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K88" s="14">
+      <c r="L95" s="13">
         <v>5180</v>
       </c>
-      <c r="L88" s="14">
-        <f>C82/K88</f>
+      <c r="M95" s="13">
+        <f>C89/L95</f>
         <v>0.65871460098995016</v>
       </c>
-      <c r="M88" s="14"/>
-      <c r="N88" s="20">
+      <c r="N95" s="13"/>
+      <c r="O95" s="19">
         <f t="shared" si="1"/>
         <v>3.1982385545053303E-2</v>
       </c>
-      <c r="O88" s="14" t="str">
-        <f>B40&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
+      <c r="P95" s="13" t="str">
+        <f>B41&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
         <v>$/h/kW</v>
       </c>
-      <c r="P88" s="20">
-        <f>I88+J88/L88</f>
+      <c r="Q95" s="19">
+        <f>J95+K95/M95</f>
         <v>1.8144865147936888E-2</v>
       </c>
-      <c r="Q88" s="14" t="str">
-        <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
+      <c r="R95" s="13" t="str">
+        <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
-    </row>
-    <row r="89" spans="1:17">
-      <c r="B89" s="14" t="s">
+      <c r="S95" s="13"/>
+      <c r="T95" s="13"/>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B96" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C89" s="20">
+      <c r="C96" s="19">
         <v>7388</v>
       </c>
-      <c r="D89" s="14">
+      <c r="D96" s="13">
         <v>145</v>
       </c>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14">
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13">
         <v>30</v>
       </c>
-      <c r="G89" s="14">
-        <f>C83*(1+C83)^F89/((1+C83)^F89-1)</f>
+      <c r="H96" s="13">
+        <f>C90*(1+C90)^G96/((1+C90)^G96-1)</f>
         <v>8.0586403511111196E-2</v>
       </c>
-      <c r="H89" s="18">
+      <c r="I96" s="17">
         <f t="shared" si="0"/>
         <v>740.37234914008957</v>
       </c>
-      <c r="I89" s="14">
+      <c r="J96" s="13">
         <v>2E-3</v>
       </c>
-      <c r="J89" s="14">
+      <c r="K96" s="13">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="K89" s="25">
+      <c r="L96" s="24">
         <v>10460</v>
       </c>
-      <c r="L89" s="14">
-        <f>C82/K89</f>
+      <c r="M96" s="13">
+        <f>C89/L96</f>
         <v>0.32620856913269042</v>
       </c>
-      <c r="M89" s="14"/>
-      <c r="N89" s="20">
+      <c r="N96" s="13"/>
+      <c r="O96" s="19">
         <f t="shared" si="1"/>
         <v>8.4517391454348126E-2</v>
       </c>
-      <c r="O89" s="14" t="str">
-        <f>B40&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
+      <c r="P96" s="13" t="str">
+        <f>B41&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
         <v>$/h/kW</v>
       </c>
-      <c r="P89" s="20">
-        <f>I89+J89/L89</f>
+      <c r="Q96" s="19">
+        <f>J96+K96/M96</f>
         <v>2.3458663758010111E-2</v>
       </c>
-      <c r="Q89" s="14" t="str">
-        <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
+      <c r="R96" s="13" t="str">
+        <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
-    </row>
-    <row r="90" spans="1:17">
-      <c r="B90" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="C90" s="20">
+      <c r="S96" s="13"/>
+      <c r="T96" s="13"/>
+    </row>
+    <row r="97" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B97" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C97" s="19">
         <v>4346</v>
       </c>
-      <c r="D90" s="14">
+      <c r="D97" s="13">
         <v>150</v>
       </c>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14">
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13">
         <v>30</v>
       </c>
-      <c r="G90" s="14">
-        <f>C83*(1+C83)^F89/((1+C83)^F89-1)</f>
+      <c r="H97" s="13">
+        <f>C90*(1+C90)^G96/((1+C90)^G96-1)</f>
         <v>8.0586403511111196E-2</v>
       </c>
-      <c r="H90" s="18">
+      <c r="I97" s="17">
         <f t="shared" si="0"/>
         <v>500.22850965928927</v>
       </c>
-      <c r="I90" s="14">
+      <c r="J97" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="J90" s="14">
+      <c r="K97" s="13">
         <v>0.25275123208355127</v>
       </c>
-      <c r="K90" s="25">
+      <c r="L97" s="24">
         <v>13500</v>
       </c>
-      <c r="L90" s="14">
-        <f>C82/K90</f>
+      <c r="M97" s="13">
+        <f>C89/L97</f>
         <v>0.25275123208355127</v>
       </c>
-      <c r="M90" s="14"/>
-      <c r="N90" s="20">
+      <c r="N97" s="13"/>
+      <c r="O97" s="19">
         <f t="shared" si="1"/>
         <v>5.7103711148320691E-2</v>
       </c>
-      <c r="O90" s="14" t="str">
-        <f>B40&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
+      <c r="P97" s="13" t="str">
+        <f>B41&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
         <v>$/h/kW</v>
       </c>
-      <c r="P90" s="20">
-        <f>I90+J90/L90</f>
+      <c r="Q97" s="19">
+        <f>J97+K97/M97</f>
         <v>1.0049999999999999</v>
       </c>
-      <c r="Q90" s="14" t="str">
-        <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
+      <c r="R97" s="13" t="str">
+        <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
-    </row>
-    <row r="91" spans="1:17">
-      <c r="B91" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C91" s="20"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="18"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="14"/>
-      <c r="K91" s="24"/>
-      <c r="L91" s="14"/>
-      <c r="M91" s="14"/>
-      <c r="N91" s="20"/>
-      <c r="O91" s="14" t="str">
-        <f>B40&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
+      <c r="S97" s="13"/>
+      <c r="T97" s="13"/>
+    </row>
+    <row r="98" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B98" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C98" s="19"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="13"/>
+      <c r="K98" s="13"/>
+      <c r="L98" s="23"/>
+      <c r="M98" s="13"/>
+      <c r="N98" s="13"/>
+      <c r="O98" s="19"/>
+      <c r="P98" s="13" t="str">
+        <f>B41&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
         <v>$/h/kW</v>
       </c>
-      <c r="P91" s="20"/>
-      <c r="Q91" s="14" t="str">
-        <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
+      <c r="Q98" s="19"/>
+      <c r="R98" s="13" t="str">
+        <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
-    </row>
-    <row r="92" spans="1:17">
-      <c r="B92" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C92" s="20">
+      <c r="S98" s="13"/>
+      <c r="T98" s="13"/>
+    </row>
+    <row r="99" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B99" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C99" s="19">
         <v>19977</v>
       </c>
-      <c r="D92" s="14">
+      <c r="D99" s="13">
         <v>268</v>
       </c>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14">
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13">
         <v>30</v>
       </c>
-      <c r="G92" s="14">
-        <f>C83*(1+C83)^F92/((1+C83)^F92-1)</f>
+      <c r="H99" s="13">
+        <f>C90*(1+C90)^G99/((1+C90)^G99-1)</f>
         <v>8.0586403511111196E-2</v>
       </c>
-      <c r="H92" s="18">
-        <f>C92*G92+D92</f>
+      <c r="I99" s="17">
+        <f>C99*H99+D99</f>
         <v>1877.8745829414684</v>
       </c>
-      <c r="I92" s="14"/>
-      <c r="J92" s="14"/>
-      <c r="K92" s="14"/>
-      <c r="L92" s="14"/>
-      <c r="M92" s="14"/>
-      <c r="N92" s="20">
-        <f>H92/8760</f>
+      <c r="J99" s="13"/>
+      <c r="K99" s="13"/>
+      <c r="L99" s="13"/>
+      <c r="M99" s="13"/>
+      <c r="N99" s="13"/>
+      <c r="O99" s="19">
+        <f>I99/8760</f>
         <v>0.21436924462802151</v>
       </c>
-      <c r="O92" s="14" t="str">
-        <f>B40&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
+      <c r="P99" s="13" t="str">
+        <f>B41&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
         <v>$/h/kW</v>
       </c>
-      <c r="P92" s="20"/>
-      <c r="Q92" s="14" t="str">
-        <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
+      <c r="Q99" s="19"/>
+      <c r="R99" s="13" t="str">
+        <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
-    </row>
-    <row r="93" spans="1:17">
-      <c r="B93" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C93" s="20">
-        <f>320*C81</f>
+      <c r="S99" s="13"/>
+      <c r="T99" s="13"/>
+    </row>
+    <row r="100" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B100" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C100" s="19">
+        <f>320*C88</f>
         <v>326.39999999999998</v>
       </c>
-      <c r="D93" s="14">
-        <f>0.0424*C93</f>
+      <c r="D100" s="13">
+        <f>0.0424*C100</f>
         <v>13.839359999999999</v>
       </c>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14">
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13">
         <v>30</v>
       </c>
-      <c r="G93" s="14">
-        <f>C83*(1+C83)^F93/((1+C83)^F93-1)</f>
+      <c r="H100" s="13">
+        <f>C90*(1+C90)^G100/((1+C90)^G100-1)</f>
         <v>8.0586403511111196E-2</v>
       </c>
-      <c r="H93" s="18">
-        <f>(C93+D93)*G93</f>
+      <c r="I100" s="17">
+        <f>(C100+D100)*H100</f>
         <v>27.418666355322223</v>
       </c>
-      <c r="I93" s="14"/>
-      <c r="J93" s="14"/>
-      <c r="K93" s="14"/>
-      <c r="L93" s="14"/>
-      <c r="M93" s="14"/>
-      <c r="N93" s="20">
-        <f>H93/8760</f>
+      <c r="J100" s="13"/>
+      <c r="K100" s="13"/>
+      <c r="L100" s="13"/>
+      <c r="M100" s="13"/>
+      <c r="N100" s="13"/>
+      <c r="O100" s="19">
+        <f>I100/8760</f>
         <v>3.1299847437582448E-3</v>
       </c>
-      <c r="O93" s="14" t="str">
-        <f>B40&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
+      <c r="P100" s="13" t="str">
+        <f>B41&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
         <v>$/h/kW</v>
       </c>
-      <c r="P93" s="20"/>
-      <c r="Q93" s="14" t="str">
-        <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
+      <c r="Q100" s="19"/>
+      <c r="R100" s="13" t="str">
+        <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
-    </row>
-    <row r="94" spans="1:17">
-      <c r="B94" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C94" s="20">
-        <f>246*C81</f>
+      <c r="S100" s="13"/>
+      <c r="T100" s="13"/>
+    </row>
+    <row r="101" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B101" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C101" s="19">
+        <f>246*C88</f>
         <v>250.92000000000002</v>
       </c>
-      <c r="D94" s="14">
-        <f>8.3*C81</f>
+      <c r="D101" s="13">
+        <f>8.3*C88</f>
         <v>8.4660000000000011</v>
       </c>
-      <c r="E94" s="39">
+      <c r="E101" s="38">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F94" s="14">
+      <c r="F101" s="38"/>
+      <c r="G101" s="13">
         <v>30</v>
       </c>
-      <c r="G94" s="14">
-        <f>C83*(1+C83)^F94/((1+C83)^F94-1)</f>
+      <c r="H101" s="13">
+        <f>C90*(1+C90)^G101/((1+C90)^G101-1)</f>
         <v>8.0586403511111196E-2</v>
       </c>
-      <c r="H94" s="18">
-        <f>(C94+E94*C94)*G94+D94</f>
+      <c r="I101" s="17">
+        <f>(C101+E101*C101)*H101+D101</f>
         <v>28.990051474543144</v>
       </c>
-      <c r="I94" s="14"/>
-      <c r="J94" s="14"/>
-      <c r="K94" s="14"/>
-      <c r="L94" s="14">
+      <c r="J101" s="13"/>
+      <c r="K101" s="13"/>
+      <c r="L101" s="13"/>
+      <c r="M101" s="13">
         <v>0.86</v>
       </c>
-      <c r="M94" s="14"/>
-      <c r="N94" s="20">
-        <f>H94/8760</f>
+      <c r="N101" s="13"/>
+      <c r="O101" s="19">
+        <f>I101/8760</f>
         <v>3.3093666066830074E-3</v>
       </c>
-      <c r="O94" s="14" t="str">
-        <f>B40&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
+      <c r="P101" s="13" t="str">
+        <f>B41&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
         <v>$/h/kW</v>
       </c>
-      <c r="P94" s="20">
+      <c r="Q101" s="19">
         <v>3.1E-6</v>
       </c>
-      <c r="Q94" s="14" t="str">
-        <f xml:space="preserve"> B40 &amp; "/" &amp; B39</f>
+      <c r="R101" s="13" t="str">
+        <f xml:space="preserve"> B41 &amp; "/" &amp; B39</f>
         <v>$/kW</v>
       </c>
-    </row>
-    <row r="95" spans="1:17">
-      <c r="B95" s="14" t="s">
+      <c r="S101" s="13"/>
+      <c r="T101" s="13"/>
+    </row>
+    <row r="102" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B102" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C95" s="20">
-        <f>1673*C81</f>
+      <c r="C102" s="19">
+        <f>1673*C88</f>
         <v>1706.46</v>
       </c>
-      <c r="D95" s="14">
-        <f>12.8*C81</f>
+      <c r="D102" s="13">
+        <f>12.8*C88</f>
         <v>13.056000000000001</v>
       </c>
-      <c r="E95" s="39">
+      <c r="E102" s="38">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F95" s="14">
+      <c r="F102" s="38"/>
+      <c r="G102" s="13">
         <v>30</v>
       </c>
-      <c r="G95" s="14">
-        <f>C83*(1+C83)^F94/((1+C83)^F94-1)</f>
+      <c r="H102" s="13">
+        <f>C90*(1+C90)^G101/((1+C90)^G101-1)</f>
         <v>8.0586403511111196E-2</v>
       </c>
-      <c r="H95" s="18">
-        <f t="shared" ref="H95:H99" si="2">(C95+E95*C95)*G95+D95</f>
+      <c r="I102" s="17">
+        <f t="shared" ref="I102:I106" si="2">(C102+E102*C102)*H102+D102</f>
         <v>152.63623624760439</v>
       </c>
-      <c r="I95" s="14"/>
-      <c r="J95" s="14"/>
-      <c r="K95" s="14"/>
-      <c r="L95" s="14">
+      <c r="J102" s="13"/>
+      <c r="K102" s="13"/>
+      <c r="L102" s="13"/>
+      <c r="M102" s="13">
         <v>0.5</v>
       </c>
-      <c r="M95" s="14"/>
-      <c r="N95" s="20">
-        <f t="shared" ref="N95:N99" si="3">H95/8760</f>
+      <c r="N102" s="13"/>
+      <c r="O102" s="19">
+        <f t="shared" ref="O102:O106" si="3">I102/8760</f>
         <v>1.742422788214662E-2</v>
       </c>
-      <c r="O95" s="14" t="str">
-        <f>B40&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
+      <c r="P102" s="13" t="str">
+        <f>B41&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
         <v>$/h/kW</v>
       </c>
-      <c r="P95" s="20">
+      <c r="Q102" s="19">
         <v>1.2999999999999998E-6</v>
       </c>
-      <c r="Q95" s="14" t="str">
-        <f xml:space="preserve"> B40 &amp; "/" &amp; B39</f>
+      <c r="R102" s="13" t="str">
+        <f xml:space="preserve"> B41 &amp; "/" &amp; B39</f>
         <v>$/kW</v>
       </c>
-    </row>
-    <row r="96" spans="1:17">
-      <c r="B96" s="14" t="s">
+      <c r="S102" s="13"/>
+      <c r="T102" s="13"/>
+    </row>
+    <row r="103" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B103" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C96" s="20">
-        <f>1.96*C81</f>
+      <c r="C103" s="19">
+        <f>1.96*C88</f>
         <v>1.9992000000000001</v>
       </c>
-      <c r="D96" s="14">
-        <f>1.5%*C96</f>
+      <c r="D103" s="13">
+        <f>1.5%*C103</f>
         <v>2.9988000000000001E-2</v>
       </c>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14">
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="13">
         <v>30</v>
       </c>
-      <c r="G96" s="14">
-        <f>C83*(1+C83)^F94/((1+C83)^F94-1)</f>
+      <c r="H103" s="13">
+        <f>C90*(1+C90)^G101/((1+C90)^G101-1)</f>
         <v>8.0586403511111196E-2</v>
       </c>
-      <c r="H96" s="18">
-        <f>(C96+D96)*G96</f>
+      <c r="I103" s="17">
+        <f>(C103+D103)*H103</f>
         <v>0.1635249629679047</v>
       </c>
-      <c r="I96" s="14"/>
-      <c r="J96" s="14"/>
-      <c r="K96" s="14"/>
-      <c r="L96" s="14"/>
-      <c r="M96" s="14">
+      <c r="J103" s="13"/>
+      <c r="K103" s="13"/>
+      <c r="L103" s="13"/>
+      <c r="M103" s="13"/>
+      <c r="N103" s="13">
         <f>0.1%/24</f>
         <v>4.1666666666666665E-5</v>
       </c>
-      <c r="N96" s="20">
+      <c r="O103" s="19">
         <f t="shared" si="3"/>
         <v>1.8667233215514235E-5</v>
       </c>
-      <c r="O96" s="14" t="str">
-        <f>B40&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
+      <c r="P103" s="13" t="str">
+        <f>B41&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
         <v>$/h/kW</v>
       </c>
-      <c r="P96" s="20"/>
-      <c r="Q96" s="14" t="str">
-        <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
+      <c r="Q103" s="19"/>
+      <c r="R103" s="13" t="str">
+        <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
-    </row>
-    <row r="97" spans="2:17">
-      <c r="B97" s="14" t="s">
+      <c r="S103" s="13"/>
+      <c r="T103" s="13"/>
+    </row>
+    <row r="104" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B104" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C97" s="20">
-        <f>1387*C81</f>
+      <c r="C104" s="19">
+        <f>1387*C88</f>
         <v>1414.74</v>
       </c>
-      <c r="D97" s="14">
-        <f>12.8*C81</f>
+      <c r="D104" s="13">
+        <f>12.8*C88</f>
         <v>13.056000000000001</v>
       </c>
-      <c r="E97" s="39">
+      <c r="E104" s="38">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F97" s="14">
+      <c r="F104" s="38"/>
+      <c r="G104" s="13">
         <v>30</v>
       </c>
-      <c r="G97" s="14">
-        <f>C83*(1+C83)^F94/((1+C83)^F94-1)</f>
+      <c r="H104" s="13">
+        <f>C90*(1+C90)^G101/((1+C90)^G101-1)</f>
         <v>8.0586403511111196E-2</v>
       </c>
-      <c r="H97" s="18">
+      <c r="I104" s="17">
         <f t="shared" si="2"/>
         <v>128.77494063085911</v>
       </c>
-      <c r="I97" s="14"/>
-      <c r="J97" s="14"/>
-      <c r="K97" s="14"/>
-      <c r="L97" s="14">
+      <c r="J104" s="13"/>
+      <c r="K104" s="13"/>
+      <c r="L104" s="13"/>
+      <c r="M104" s="13">
         <v>0.71</v>
       </c>
-      <c r="M97" s="14"/>
-      <c r="N97" s="20">
+      <c r="N104" s="13"/>
+      <c r="O104" s="19">
         <f t="shared" si="3"/>
         <v>1.4700335688454236E-2</v>
       </c>
-      <c r="O97" s="14" t="str">
-        <f>B40&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
+      <c r="P104" s="13" t="str">
+        <f>B41&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
         <v>$/h/kW</v>
       </c>
-      <c r="P97" s="20">
+      <c r="Q104" s="19">
         <v>5.1249999999999993E-4</v>
       </c>
-      <c r="Q97" s="14" t="str">
-        <f xml:space="preserve"> B40 &amp; "/" &amp; B39</f>
+      <c r="R104" s="13" t="str">
+        <f xml:space="preserve"> B41 &amp; "/" &amp; B39</f>
         <v>$/kW</v>
       </c>
-    </row>
-    <row r="98" spans="2:17">
-      <c r="B98" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C98" s="20">
-        <f>103.1*C81</f>
+      <c r="S104" s="13"/>
+      <c r="T104" s="13"/>
+    </row>
+    <row r="105" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B105" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C105" s="19">
+        <f>103.1*C88</f>
         <v>105.16199999999999</v>
       </c>
-      <c r="D98" s="14">
-        <f>1.5%*C98</f>
+      <c r="D105" s="13">
+        <f>1.5%*C105</f>
         <v>1.5774299999999999</v>
       </c>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14">
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13">
         <v>30</v>
       </c>
-      <c r="G98" s="14">
-        <f>C83*(1+C83)^F94/((1+C83)^F94-1)</f>
+      <c r="H105" s="13">
+        <f>C90*(1+C90)^G101/((1+C90)^G101-1)</f>
         <v>8.0586403511111196E-2</v>
       </c>
-      <c r="H98" s="18">
-        <f>(C98+D98)*G98</f>
+      <c r="I105" s="17">
+        <f>(C105+D105)*H105</f>
         <v>8.6017467765260083</v>
       </c>
-      <c r="I98" s="20"/>
-      <c r="J98" s="14"/>
-      <c r="K98" s="14"/>
-      <c r="L98" s="14"/>
-      <c r="M98" s="14"/>
-      <c r="N98" s="20">
+      <c r="J105" s="19"/>
+      <c r="K105" s="13"/>
+      <c r="L105" s="13"/>
+      <c r="M105" s="13"/>
+      <c r="N105" s="13"/>
+      <c r="O105" s="19">
         <f t="shared" si="3"/>
         <v>9.8193456353036631E-4</v>
       </c>
-      <c r="O98" s="14"/>
-      <c r="P98" s="20"/>
-      <c r="Q98" s="14" t="str">
-        <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
+      <c r="P105" s="13"/>
+      <c r="Q105" s="19"/>
+      <c r="R105" s="13" t="str">
+        <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
-    </row>
-    <row r="99" spans="2:17">
-      <c r="B99" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C99" s="20">
-        <f>1612*C81</f>
+      <c r="S105" s="13"/>
+      <c r="T105" s="13"/>
+    </row>
+    <row r="106" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B106" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C106" s="19">
+        <f>1612*C88</f>
         <v>1644.24</v>
       </c>
-      <c r="D99" s="14">
-        <f>12.5*C81</f>
+      <c r="D106" s="13">
+        <f>12.5*C88</f>
         <v>12.75</v>
       </c>
-      <c r="E99" s="39">
+      <c r="E106" s="38">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F99" s="14">
+      <c r="F106" s="38"/>
+      <c r="G106" s="13">
         <v>30</v>
       </c>
-      <c r="G99" s="14">
-        <f>C83*(1+C83)^F94/((1+C83)^F94-1)</f>
+      <c r="H106" s="13">
+        <f>C90*(1+C90)^G101/((1+C90)^G101-1)</f>
         <v>8.0586403511111196E-2</v>
       </c>
-      <c r="H99" s="18">
+      <c r="I106" s="17">
         <f t="shared" si="2"/>
         <v>147.24093893074613</v>
       </c>
-      <c r="I99" s="20"/>
-      <c r="J99" s="14"/>
-      <c r="K99" s="14"/>
-      <c r="L99" s="14">
+      <c r="J106" s="19"/>
+      <c r="K106" s="13"/>
+      <c r="L106" s="13"/>
+      <c r="M106" s="13">
         <v>0.81</v>
       </c>
-      <c r="M99" s="14"/>
-      <c r="N99" s="20">
+      <c r="N106" s="13"/>
+      <c r="O106" s="19">
         <f t="shared" si="3"/>
         <v>1.680832636195732E-2</v>
       </c>
-      <c r="O99" s="14"/>
-      <c r="P99" s="20">
+      <c r="P106" s="13"/>
+      <c r="Q106" s="19">
         <v>2.9999999999999999E-7</v>
       </c>
-      <c r="Q99" s="14" t="str">
-        <f xml:space="preserve"> B40 &amp; "/" &amp; B39</f>
+      <c r="R106" s="13" t="str">
+        <f xml:space="preserve"> B41 &amp; "/" &amp; B39</f>
         <v>$/kW</v>
       </c>
-    </row>
-    <row r="100" spans="2:17">
-      <c r="B100" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C100" s="20"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="20"/>
-      <c r="J100" s="14"/>
-      <c r="K100" s="14"/>
-      <c r="L100" s="14"/>
-      <c r="M100" s="14"/>
-      <c r="N100" s="20"/>
-      <c r="O100" s="14"/>
-      <c r="P100" s="20"/>
-      <c r="Q100" s="14" t="str">
-        <f xml:space="preserve"> B40 &amp; "/" &amp; B39 &amp; B38</f>
+      <c r="S106" s="13"/>
+      <c r="T106" s="13"/>
+    </row>
+    <row r="107" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B107" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C107" s="19"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13"/>
+      <c r="J107" s="19"/>
+      <c r="K107" s="13"/>
+      <c r="L107" s="13"/>
+      <c r="M107" s="13"/>
+      <c r="N107" s="13"/>
+      <c r="O107" s="19"/>
+      <c r="P107" s="13"/>
+      <c r="Q107" s="19"/>
+      <c r="R107" s="13" t="str">
+        <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
-    </row>
-    <row r="102" spans="2:17">
-      <c r="B102" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="103" spans="2:17" ht="15.75">
-      <c r="F103" s="23"/>
-      <c r="G103" s="23"/>
-      <c r="H103" s="23"/>
-      <c r="I103" s="23"/>
-      <c r="J103" s="23"/>
-      <c r="K103" s="23"/>
-      <c r="L103" s="23"/>
-      <c r="M103" s="23"/>
-      <c r="N103" s="23"/>
-      <c r="O103" s="23"/>
-      <c r="P103" s="23"/>
+      <c r="S107" s="13"/>
+      <c r="T107" s="13"/>
+    </row>
+    <row r="109" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="110" spans="2:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="G110" s="22"/>
+      <c r="H110" s="22"/>
+      <c r="I110" s="22"/>
+      <c r="J110" s="22"/>
+      <c r="K110" s="22"/>
+      <c r="L110" s="22"/>
+      <c r="M110" s="22"/>
+      <c r="N110" s="22"/>
+      <c r="O110" s="22"/>
+      <c r="P110" s="22"/>
+      <c r="Q110" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C74" r:id="rId1" display="https://atb.nrel.gov/" xr:uid="{FDAACE4C-EEBF-8245-B992-53B8086970DC}"/>
-    <hyperlink ref="C75" r:id="rId2" xr:uid="{CDACD0CF-3E87-1D48-85AE-004D57BDEA41}"/>
-    <hyperlink ref="C78" r:id="rId3" xr:uid="{53E5629A-906B-1C43-957A-88DBCCC90896}"/>
+    <hyperlink ref="C81" r:id="rId1" display="https://atb.nrel.gov/" xr:uid="{FDAACE4C-EEBF-8245-B992-53B8086970DC}"/>
+    <hyperlink ref="C82" r:id="rId2" xr:uid="{CDACD0CF-3E87-1D48-85AE-004D57BDEA41}"/>
+    <hyperlink ref="C85" r:id="rId3" xr:uid="{53E5629A-906B-1C43-957A-88DBCCC90896}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
   <ignoredErrors>
-    <ignoredError sqref="H96" formula="1"/>
+    <ignoredError sqref="I103" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/all_firm_case.xlsx
+++ b/all_firm_case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliciawongel/CLab/clab_all_firm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D0D9A9-8B85-EE4A-AC13-D51516FE16FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21631C0F-7CAD-9540-8EF6-438380F75BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="38400" windowHeight="21540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1600" yWindow="1580" windowWidth="32860" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case_input_intermodel_one_node_" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="152">
   <si>
     <t>Note that demand has no decisions.</t>
   </si>
@@ -273,9 +273,6 @@
     <t>$</t>
   </si>
   <si>
-    <t>Note: p_nom is a factor multiplied to the given capacity</t>
-  </si>
-  <si>
     <t>Cost calculations</t>
   </si>
   <si>
@@ -315,190 +312,187 @@
     <t>Note: this assumes time unit for dt is 'hour'</t>
   </si>
   <si>
+    <t>no_time_steps</t>
+  </si>
+  <si>
+    <t>total_hours</t>
+  </si>
+  <si>
+    <t>Everything outside of  the &lt;CASE_DATA&gt; or &lt;COMPONENT_DATA&gt;  flag is for notes, etc.</t>
+  </si>
+  <si>
+    <t>COMPONENT_DATA</t>
+  </si>
+  <si>
+    <t>END_COMPONENT_DATA</t>
+  </si>
+  <si>
+    <t>DAC</t>
+  </si>
+  <si>
+    <t>co2_stored</t>
+  </si>
+  <si>
+    <t>bioenergy</t>
+  </si>
+  <si>
+    <t>hydropower</t>
+  </si>
+  <si>
+    <t>geothermal</t>
+  </si>
+  <si>
+    <t>Variable cost</t>
+  </si>
+  <si>
+    <t>natgas_ccs</t>
+  </si>
+  <si>
+    <t>NREL (National Renewable Energy Laboratory). 2021. "2021 Annual Technology Baseline." Golden, CO: National Renewable Energy Laboratory. https://atb.nrel.gov/. </t>
+  </si>
+  <si>
+    <t>Source generation costs</t>
+  </si>
+  <si>
+    <t>Data generation costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://atb.nrel.gov/electricity/2022/data </t>
+  </si>
+  <si>
+    <t>Source storage costs</t>
+  </si>
+  <si>
+    <t>Hunter et al. Techno-Economic Analysis of Long-Duration Energy Storage and Flexible Power Generation Technologies to Support High-Variable Renewable Energy Grids. Joule 2021, 5 (8), 2077–2101.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doi.org/10.1016/j.joule.2021.06.018.</t>
+  </si>
+  <si>
+    <t>battery energy</t>
+  </si>
+  <si>
+    <t>battery power</t>
+  </si>
+  <si>
+    <t>All Costs in $2019 USD</t>
+  </si>
+  <si>
+    <t>2018 USD to 2019 USD</t>
+  </si>
+  <si>
+    <t>Other fixed cost* (% of capital cost)</t>
+  </si>
+  <si>
+    <t>* includes property, tax, insurance, licensing, permiting costs</t>
+  </si>
+  <si>
+    <t>pumped_hydro_storage energy</t>
+  </si>
+  <si>
+    <t>pumped_hydro_storage power</t>
+  </si>
+  <si>
+    <t>biopower</t>
+  </si>
+  <si>
+    <t>phs_power</t>
+  </si>
+  <si>
+    <t>#Link</t>
+  </si>
+  <si>
+    <t>US_capacity_solar_25pctTop_unnormalized.csv</t>
+  </si>
+  <si>
+    <t>US_capacity_wind_25pctTop_unnormalized.csv</t>
+  </si>
+  <si>
+    <t>US_demand_unnormalized.csv</t>
+  </si>
+  <si>
+    <t>all_firm_case</t>
+  </si>
+  <si>
+    <t>#Generator</t>
+  </si>
+  <si>
+    <t>Decay rate</t>
+  </si>
+  <si>
+    <t>/Volumes/Shared/Labs/Caldeira Lab/Everyone/energy_demand_capacity_data/US_solar_wind_demand/</t>
+  </si>
+  <si>
+    <t>p_min_pu</t>
+  </si>
+  <si>
+    <t>Note: p_min_mu sets uni/bidirectionality</t>
+  </si>
+  <si>
+    <t>h2o</t>
+  </si>
+  <si>
+    <t>Note: one way efficiency should be square root of round-trip efficiecy</t>
+  </si>
+  <si>
+    <t>Note: Be careful when designating storage costs that the source is for kWh stored and not what you get out after accounting for pump inefficiency.</t>
+  </si>
+  <si>
+    <t>phs_energy</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>co2_atmosphere</t>
+  </si>
+  <si>
+    <t>natgas_out</t>
+  </si>
+  <si>
+    <t>#StorageUnit</t>
+  </si>
+  <si>
+    <t>#Store</t>
+  </si>
+  <si>
+    <t>natgas_electricity</t>
+  </si>
+  <si>
+    <t>bus2</t>
+  </si>
+  <si>
+    <t>efficiency2</t>
+  </si>
+  <si>
+    <t>power_unit</t>
+  </si>
+  <si>
+    <t>mass_unit</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>co2_atmosphere_out</t>
+  </si>
+  <si>
+    <t>Note: Negative means it consumes</t>
+  </si>
+  <si>
     <t>2016-01-01 00:00:00</t>
   </si>
   <si>
-    <t>no_time_steps</t>
-  </si>
-  <si>
-    <t>total_hours</t>
-  </si>
-  <si>
-    <t>Everything outside of  the &lt;CASE_DATA&gt; or &lt;COMPONENT_DATA&gt;  flag is for notes, etc.</t>
-  </si>
-  <si>
-    <t>COMPONENT_DATA</t>
-  </si>
-  <si>
-    <t>END_COMPONENT_DATA</t>
-  </si>
-  <si>
-    <t>DAC</t>
-  </si>
-  <si>
-    <t>co2_stored</t>
-  </si>
-  <si>
-    <t>bioenergy</t>
-  </si>
-  <si>
-    <t>hydropower</t>
-  </si>
-  <si>
-    <t>geothermal</t>
-  </si>
-  <si>
-    <t>Variable cost</t>
-  </si>
-  <si>
-    <t>natgas_ccs</t>
-  </si>
-  <si>
-    <t>NREL (National Renewable Energy Laboratory). 2021. "2021 Annual Technology Baseline." Golden, CO: National Renewable Energy Laboratory. https://atb.nrel.gov/. </t>
-  </si>
-  <si>
-    <t>Source generation costs</t>
-  </si>
-  <si>
-    <t>Data generation costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://atb.nrel.gov/electricity/2022/data </t>
-  </si>
-  <si>
-    <t>Source storage costs</t>
-  </si>
-  <si>
-    <t>Hunter et al. Techno-Economic Analysis of Long-Duration Energy Storage and Flexible Power Generation Technologies to Support High-Variable Renewable Energy Grids. Joule 2021, 5 (8), 2077–2101.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://doi.org/10.1016/j.joule.2021.06.018.</t>
-  </si>
-  <si>
-    <t>battery energy</t>
-  </si>
-  <si>
-    <t>battery power</t>
-  </si>
-  <si>
-    <t>All Costs in $2019 USD</t>
-  </si>
-  <si>
-    <t>2018 USD to 2019 USD</t>
-  </si>
-  <si>
-    <t>Other fixed cost* (% of capital cost)</t>
-  </si>
-  <si>
-    <t>* includes property, tax, insurance, licensing, permiting costs</t>
-  </si>
-  <si>
-    <t>pumped_hydro_storage energy</t>
-  </si>
-  <si>
-    <t>pumped_hydro_storage power</t>
-  </si>
-  <si>
-    <t>biopower</t>
-  </si>
-  <si>
-    <t>phs_power</t>
-  </si>
-  <si>
-    <t>#Link</t>
-  </si>
-  <si>
-    <t>US_capacity_solar_25pctTop_unnormalized.csv</t>
-  </si>
-  <si>
-    <t>US_capacity_wind_25pctTop_unnormalized.csv</t>
-  </si>
-  <si>
-    <t>US_demand_unnormalized.csv</t>
-  </si>
-  <si>
-    <t>all_firm_case</t>
-  </si>
-  <si>
-    <t>#Generator</t>
-  </si>
-  <si>
-    <t>Decay rate</t>
-  </si>
-  <si>
-    <t>/Volumes/Shared/Labs/Caldeira Lab/Everyone/energy_demand_capacity_data/US_solar_wind_demand/</t>
-  </si>
-  <si>
-    <t>all_firm_all</t>
-  </si>
-  <si>
-    <t>p_min_pu</t>
-  </si>
-  <si>
-    <t>Note: p_min_mu sets uni/bidirectionality</t>
-  </si>
-  <si>
-    <t>h2o</t>
-  </si>
-  <si>
-    <t>Note: one way efficiency should be square root of round-trip efficiecy</t>
-  </si>
-  <si>
-    <t>Note: Be careful when designating storage costs that the source is for kWh stored and not what you get out after accounting for pump inefficiency.</t>
-  </si>
-  <si>
-    <t>phs_energy</t>
-  </si>
-  <si>
-    <t>electricity</t>
-  </si>
-  <si>
-    <t>Carrier</t>
-  </si>
-  <si>
-    <t>co2</t>
-  </si>
-  <si>
-    <t>co2_atmosphere</t>
-  </si>
-  <si>
-    <t>natgas_out</t>
-  </si>
-  <si>
-    <t>#StorageUnit</t>
-  </si>
-  <si>
-    <t>#Store</t>
-  </si>
-  <si>
-    <t>natgas_electricity</t>
-  </si>
-  <si>
-    <t>bus2</t>
-  </si>
-  <si>
-    <t>efficiency2</t>
-  </si>
-  <si>
-    <t>power_unit</t>
-  </si>
-  <si>
-    <t>mass_unit</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>GlobalConstraint</t>
-  </si>
-  <si>
-    <t>co2_emissions==0</t>
-  </si>
-  <si>
-    <t>co2_atmosphere_out</t>
-  </si>
-  <si>
-    <t>Note: Negative means it consumes</t>
+    <t>natgas_link</t>
+  </si>
+  <si>
+    <t>co2_storage</t>
+  </si>
+  <si>
+    <t>Note: p_nom is a factor multiplied to the given capacity, e_nom is assumed for stores</t>
+  </si>
+  <si>
+    <t>natgas_DAC</t>
   </si>
 </sst>
 </file>
@@ -1258,7 +1252,7 @@
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
+      <sheetData sheetId="2" refreshError="1">
         <row r="12">
           <cell r="B12">
             <v>3412.141633127942</v>
@@ -1568,10 +1562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W110"/>
+  <dimension ref="A1:W107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1619,7 +1613,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1869,7 +1863,7 @@
         <v>45</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1885,7 +1879,7 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1893,7 +1887,7 @@
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1901,7 +1895,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="D29" t="s">
         <v>46</v>
@@ -1912,12 +1906,12 @@
         <v>43</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1925,29 +1919,29 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B32" s="20">
         <f>(B30-B29)*24/B31</f>
         <v>8784</v>
       </c>
       <c r="D32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B33" s="20">
         <f>B32*B31</f>
         <v>8784</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -1958,7 +1952,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -1969,11 +1963,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -1982,25 +1976,25 @@
       </c>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>74</v>
       </c>
@@ -2009,199 +2003,245 @@
       </c>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s">
+        <v>129</v>
+      </c>
+      <c r="K44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>72</v>
+      </c>
+      <c r="J45" t="s">
         <v>150</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s">
-        <v>132</v>
-      </c>
-      <c r="K46" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D47" t="s">
-        <v>72</v>
-      </c>
-      <c r="J47" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q47" t="s">
+      <c r="Q45" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+    <row r="46" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B47" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D47" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J49" s="4" t="s">
+      <c r="I47" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K49" s="4" t="s">
+      <c r="J47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L49" s="4" t="s">
+      <c r="K47" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N49" s="4" t="s">
+      <c r="M47" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P49" s="4" t="s">
+      <c r="O47" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R49" s="5" t="s">
+      <c r="Q47" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5" t="s">
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="V49" s="5"/>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+      <c r="V47" s="5"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H51" s="2" t="s">
+      <c r="F49" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="I49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="J49" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="K49" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M51" s="2" t="s">
+      <c r="M49" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O51" s="2" t="s">
+      <c r="O49" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P51" s="2" t="s">
+      <c r="P49" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q51" s="2" t="s">
+      <c r="Q49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R51" s="2" t="s">
+      <c r="R49" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="S51" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="U51" s="2" t="s">
+      <c r="S49" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="U49" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="39" t="s">
+    <row r="50" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="40" t="s">
+      <c r="B50" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="40" t="s">
+      <c r="C50" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="H52" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="K52" s="41"/>
-      <c r="V52" s="40" t="str">
+      <c r="D50" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="H50" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="K50" s="41"/>
+      <c r="V50" s="40" t="str">
         <f xml:space="preserve"> 1 &amp; "/" &amp; B38</f>
         <v>1/h</v>
       </c>
-      <c r="W52" s="40" t="s">
+      <c r="W50" s="40" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="H51" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="K51" s="41">
+        <f>O89*B33</f>
+        <v>135.46581245459663</v>
+      </c>
+      <c r="L51" s="40" t="str">
+        <f>B41 &amp; "/time range/" &amp; B39</f>
+        <v>$/time range/kW</v>
+      </c>
+      <c r="N51" s="40" t="str">
+        <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
+        <v>$/kWh</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="B52" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="H52" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="K52" s="45">
+        <f>O90*B33</f>
+        <v>159.15693044316652</v>
+      </c>
+      <c r="L52" s="44" t="str">
+        <f>B41 &amp; "/time range/" &amp; B39</f>
+        <v>$/time range/kW</v>
+      </c>
+      <c r="N52" s="44" t="str">
+        <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
+        <v>$/kWh</v>
       </c>
     </row>
     <row r="53" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="39" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="H53" s="40" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="K53" s="41">
-        <f>O92*B33</f>
-        <v>135.46581245459663</v>
+        <f>O91*B33</f>
+        <v>112.24474894263096</v>
       </c>
       <c r="L53" s="40" t="str">
         <f>B41 &amp; "/time range/" &amp; B39</f>
         <v>$/time range/kW</v>
       </c>
+      <c r="M53" s="40">
+        <f>J91 + K91/M91</f>
+        <v>1.6911456050362664E-2</v>
+      </c>
       <c r="N53" s="40" t="str">
         <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
@@ -2209,28 +2249,29 @@
     </row>
     <row r="54" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="43" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B54" s="44" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="C54" s="44" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="D54" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="H54" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="K54" s="45">
-        <f>O93*B33</f>
-        <v>159.15693044316652</v>
+        <v>134</v>
+      </c>
+      <c r="K54" s="46">
+        <f>O92*B33</f>
+        <v>280.93327462774823</v>
       </c>
       <c r="L54" s="44" t="str">
         <f>B41 &amp; "/time range/" &amp; B39</f>
         <v>$/time range/kW</v>
       </c>
+      <c r="M54" s="44">
+        <f>J92 + K92/M92</f>
+        <v>1.8144865147936888E-2</v>
+      </c>
       <c r="N54" s="44" t="str">
         <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
@@ -2238,28 +2279,28 @@
     </row>
     <row r="55" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="39" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="K55" s="41">
-        <f>O94*B33</f>
-        <v>112.24474894263096</v>
+        <f>O93*B33</f>
+        <v>742.40076653499398</v>
       </c>
       <c r="L55" s="40" t="str">
         <f>B41 &amp; "/time range/" &amp; B39</f>
         <v>$/time range/kW</v>
       </c>
       <c r="M55" s="40">
-        <f>J94 + K94/M94</f>
-        <v>1.6911456050362664E-2</v>
+        <f>J93 + K93/M93</f>
+        <v>2.3458663758010111E-2</v>
       </c>
       <c r="N55" s="40" t="str">
         <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
@@ -2268,29 +2309,25 @@
     </row>
     <row r="56" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="43" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B56" s="44" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C56" s="44" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D56" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="K56" s="46">
-        <f>O95*B33</f>
-        <v>280.93327462774823</v>
+        <v>134</v>
+      </c>
+      <c r="K56" s="45">
+        <f>O94*B33</f>
+        <v>501.59899872684895</v>
       </c>
       <c r="L56" s="44" t="str">
         <f>B41 &amp; "/time range/" &amp; B39</f>
         <v>$/time range/kW</v>
       </c>
-      <c r="M56" s="44">
-        <f>J95 + K95/M95</f>
-        <v>1.8144865147936888E-2</v>
-      </c>
       <c r="N56" s="44" t="str">
         <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
@@ -2298,50 +2335,35 @@
     </row>
     <row r="57" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="39" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="K57" s="41">
-        <f>O96*B33</f>
-        <v>742.40076653499398</v>
-      </c>
-      <c r="L57" s="40" t="str">
-        <f>B41 &amp; "/time range/" &amp; B39</f>
-        <v>$/time range/kW</v>
-      </c>
-      <c r="M57" s="40">
-        <f>J96 + K96/M96</f>
-        <v>2.3458663758010111E-2</v>
-      </c>
-      <c r="N57" s="40" t="str">
-        <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
-        <v>$/kWh</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="K57" s="41"/>
     </row>
     <row r="58" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="43" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B58" s="44" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C58" s="44" t="s">
         <v>100</v>
       </c>
       <c r="D58" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="K58" s="45">
-        <f>O97*B33</f>
-        <v>501.59899872684895</v>
+        <v>134</v>
+      </c>
+      <c r="K58" s="46">
+        <f>O96*B33</f>
+        <v>1883.019444812541</v>
       </c>
       <c r="L58" s="44" t="str">
         <f>B41 &amp; "/time range/" &amp; B39</f>
@@ -2354,403 +2376,421 @@
     </row>
     <row r="59" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="39" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B59" s="40" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="K59" s="41"/>
+        <v>134</v>
+      </c>
+      <c r="K59" s="42">
+        <f>(O97+O98)*B33</f>
+        <v>56.563262262275956</v>
+      </c>
+      <c r="L59" s="40" t="str">
+        <f>B41 &amp; "/time range/" &amp; B39</f>
+        <v>$/time range/kW</v>
+      </c>
+      <c r="M59" s="40">
+        <f>Q98</f>
+        <v>3.1E-6</v>
+      </c>
+      <c r="N59" s="40" t="str">
+        <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
+        <v>$/kWh</v>
+      </c>
+      <c r="O59" s="40">
+        <v>4</v>
+      </c>
+      <c r="P59" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="40">
+        <f>M98</f>
+        <v>0.86</v>
+      </c>
     </row>
     <row r="60" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="43" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B60" s="44" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="C60" s="44" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="D60" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="K60" s="46">
+        <v>134</v>
+      </c>
+      <c r="E60" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G60" s="44">
+        <v>0</v>
+      </c>
+      <c r="K60" s="45">
         <f>O99*B33</f>
-        <v>1883.019444812541</v>
+        <v>153.0544177167759</v>
       </c>
       <c r="L60" s="44" t="str">
         <f>B41 &amp; "/time range/" &amp; B39</f>
         <v>$/time range/kW</v>
       </c>
+      <c r="M60" s="44">
+        <f>Q99</f>
+        <v>1.2999999999999998E-6</v>
+      </c>
       <c r="N60" s="44" t="str">
         <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
-    </row>
-    <row r="61" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="B61" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C61" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="D61" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="K61" s="42">
-        <f>(O100+O101)*B33</f>
-        <v>56.563262262275956</v>
-      </c>
-      <c r="L61" s="40" t="str">
-        <f>B41 &amp; "/time range/" &amp; B39</f>
-        <v>$/time range/kW</v>
-      </c>
-      <c r="M61" s="40">
-        <f>Q101</f>
-        <v>3.1E-6</v>
-      </c>
-      <c r="N61" s="40" t="str">
+      <c r="Q60" s="44">
+        <f>M99</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="B61" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="K61" s="45">
+        <f>O100*B33</f>
+        <v>0.16397297656507703</v>
+      </c>
+      <c r="L61" s="44" t="str">
+        <f>B41 &amp; "/time range/" &amp; B39 &amp; B38</f>
+        <v>$/time range/kWh</v>
+      </c>
+      <c r="N61" s="44" t="str">
         <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
-      <c r="O61" s="40">
-        <v>4</v>
-      </c>
-      <c r="P61" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="40">
-        <f>M101</f>
-        <v>0.86</v>
+      <c r="U61" s="44">
+        <f>N100</f>
+        <v>4.1666666666666665E-5</v>
       </c>
     </row>
     <row r="62" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B62" s="44" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C62" s="44" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D62" s="44" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="E62" s="44" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="G62" s="44">
         <v>0</v>
       </c>
       <c r="K62" s="45">
-        <f>O102*B33</f>
-        <v>153.0544177167759</v>
+        <f>O101*B33</f>
+        <v>129.12774868738202</v>
       </c>
       <c r="L62" s="44" t="str">
         <f>B41 &amp; "/time range/" &amp; B39</f>
         <v>$/time range/kW</v>
       </c>
       <c r="M62" s="44">
-        <f>Q102</f>
-        <v>1.2999999999999998E-6</v>
+        <f>Q101</f>
+        <v>5.1249999999999993E-4</v>
       </c>
       <c r="N62" s="44" t="str">
         <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
       <c r="Q62" s="44">
-        <f>M102</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="B63" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C63" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="D63" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="K63" s="45">
-        <f>O103*B33</f>
-        <v>0.16397297656507703</v>
-      </c>
-      <c r="L63" s="44" t="str">
+        <f>M101</f>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="B63" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D63" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="K63" s="42">
+        <f>O102*B33</f>
+        <v>8.6253132060507376</v>
+      </c>
+      <c r="L63" s="40" t="str">
         <f>B41 &amp; "/time range/" &amp; B39 &amp; B38</f>
         <v>$/time range/kWh</v>
       </c>
-      <c r="N63" s="44" t="str">
+      <c r="W63" s="40" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C64" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="D64" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="E64" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="G64" s="40">
+        <v>-1</v>
+      </c>
+      <c r="K64" s="42">
+        <f>O103*B33</f>
+        <v>147.6443387634331</v>
+      </c>
+      <c r="L64" s="40" t="str">
+        <f>B41 &amp; "/time range/" &amp; B39</f>
+        <v>$/time range/kW</v>
+      </c>
+      <c r="M64" s="40">
+        <f>Q103</f>
+        <v>2.9999999999999999E-7</v>
+      </c>
+      <c r="N64" s="40" t="str">
         <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
-      <c r="U63" s="44">
-        <f>N103</f>
-        <v>4.1666666666666665E-5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="B64" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C64" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="D64" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E64" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="G64" s="44">
-        <v>0</v>
-      </c>
-      <c r="K64" s="45">
-        <f>O104*B33</f>
-        <v>129.12774868738202</v>
-      </c>
-      <c r="L64" s="44" t="str">
-        <f>B41 &amp; "/time range/" &amp; B39</f>
-        <v>$/time range/kW</v>
-      </c>
-      <c r="M64" s="44">
-        <f>Q104</f>
-        <v>5.1249999999999993E-4</v>
-      </c>
-      <c r="N64" s="44" t="str">
-        <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
-        <v>$/kWh</v>
-      </c>
-      <c r="Q64" s="44">
-        <f>M104</f>
-        <v>0.71</v>
+      <c r="Q64" s="40">
+        <f>M103^0.5</f>
+        <v>0.9</v>
+      </c>
+      <c r="R64" s="40">
+        <f>Q64</f>
+        <v>0.9</v>
+      </c>
+      <c r="W64" s="40" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="39" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="B65" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="C65" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D65" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="C65" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="D65" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="K65" s="42">
-        <f>O105*B33</f>
-        <v>8.6253132060507376</v>
-      </c>
-      <c r="L65" s="40" t="str">
-        <f>B41 &amp; "/time range/" &amp; B39 &amp; B38</f>
-        <v>$/time range/kWh</v>
-      </c>
-      <c r="W65" s="40" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="B66" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="C66" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="D66" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="E66" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="G66" s="40">
-        <v>-1</v>
-      </c>
-      <c r="K66" s="42">
-        <f>O106*B33</f>
-        <v>147.6443387634331</v>
-      </c>
-      <c r="L66" s="40" t="str">
-        <f>B41 &amp; "/time range/" &amp; B39</f>
-        <v>$/time range/kW</v>
-      </c>
-      <c r="M66" s="40">
-        <f>Q106</f>
-        <v>2.9999999999999999E-7</v>
-      </c>
-      <c r="N66" s="40" t="str">
-        <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
-        <v>$/kWh</v>
-      </c>
-      <c r="Q66" s="40">
-        <f>M106^0.5</f>
-        <v>0.9</v>
-      </c>
-      <c r="R66" s="40">
-        <f>Q66</f>
-        <v>0.9</v>
-      </c>
-      <c r="W66" s="40" t="s">
+      <c r="E65" s="40" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="67" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="B67" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="K67" s="45"/>
-    </row>
-    <row r="68" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="B68" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C68" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D68" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="E68" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="F68" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q68" s="40">
+      <c r="F65" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q65" s="40">
         <v>0.54</v>
       </c>
-      <c r="S68" s="40">
+      <c r="S65" s="40">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="T68" s="40" t="str">
+      <c r="T65" s="40" t="str">
         <f>B40 &amp; "/" &amp;B39 &amp; B38</f>
         <v>t/kWh</v>
       </c>
     </row>
-    <row r="69" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="B69" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="D69" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="G69" s="44">
+    <row r="66" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="J66" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C67" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D67" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="E67" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="F67" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="G67" s="40">
         <v>-1</v>
       </c>
-    </row>
-    <row r="70" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="B70" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="D70" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="E70" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="F70" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="K70" s="47">
+      <c r="K67" s="47">
         <v>1000000</v>
       </c>
-      <c r="Q70" s="40">
+      <c r="Q67" s="40">
         <v>1</v>
       </c>
-      <c r="S70" s="40">
+      <c r="S67" s="40">
         <v>-500</v>
       </c>
-      <c r="T70" s="40" t="str">
+      <c r="T67" s="40" t="str">
         <f xml:space="preserve"> B39 &amp; B38  &amp; "/" &amp;  B40</f>
         <v>kWh/t</v>
       </c>
-      <c r="W70" s="40" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="B71" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="C71" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="D71" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="K71" s="48"/>
+      <c r="W67" s="40" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="D68" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="G68" s="44">
+        <v>-1</v>
+      </c>
+      <c r="K68" s="48"/>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>97</v>
-      </c>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A74" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>31</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A77" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="N77" s="9"/>
-      <c r="O77" s="9"/>
+      <c r="A77" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>84</v>
-      </c>
-      <c r="N78" s="9"/>
-      <c r="O78" s="9"/>
+      <c r="A78" s="11"/>
+      <c r="B78" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A79" s="11"/>
+      <c r="B79" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C79" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A80" s="11" t="s">
-        <v>79</v>
-      </c>
+      <c r="A80" s="11"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="25"/>
       <c r="E80" s="10"/>
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
@@ -2763,13 +2803,13 @@
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="11"/>
       <c r="B81" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C81" s="25" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="C81" s="27" t="s">
+        <v>108</v>
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
@@ -2785,11 +2825,9 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="11"/>
-      <c r="B82" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="C82" s="25" t="s">
-        <v>108</v>
+      <c r="B82" s="25"/>
+      <c r="C82" s="28" t="s">
+        <v>109</v>
       </c>
       <c r="E82" s="10"/>
       <c r="F82" s="10"/>
@@ -2805,8 +2843,8 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="25"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="28"/>
       <c r="E83" s="10"/>
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
@@ -2819,222 +2857,312 @@
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
     </row>
-    <row r="84" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="11"/>
-      <c r="B84" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="C84" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
-      <c r="K84" s="10"/>
-      <c r="L84" s="10"/>
-      <c r="M84" s="10"/>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20" s="35" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="32"/>
+      <c r="B84" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C84" s="34"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="36"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="36"/>
+      <c r="N84" s="37"/>
+      <c r="O84" s="37"/>
+    </row>
+    <row r="85" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11"/>
-      <c r="B85" s="25"/>
-      <c r="C85" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="10"/>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
+      <c r="B85" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C85" s="31">
+        <v>1.02</v>
+      </c>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
+      <c r="O85" s="15"/>
+      <c r="P85" s="12"/>
+      <c r="Q85" s="12"/>
+      <c r="R85" s="13"/>
+      <c r="S85" s="13"/>
+      <c r="T85" s="13"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="11"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="28"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
-      <c r="I86" s="10"/>
-      <c r="J86" s="10"/>
-      <c r="K86" s="10"/>
-      <c r="L86" s="10"/>
-      <c r="M86" s="10"/>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
-    </row>
-    <row r="87" spans="1:20" s="35" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="32"/>
-      <c r="B87" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="C87" s="34"/>
-      <c r="E87" s="36"/>
-      <c r="F87" s="36"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="36"/>
-      <c r="I87" s="36"/>
-      <c r="J87" s="36"/>
-      <c r="K87" s="36"/>
-      <c r="L87" s="36"/>
-      <c r="M87" s="36"/>
-      <c r="N87" s="37"/>
-      <c r="O87" s="37"/>
-    </row>
-    <row r="88" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="11"/>
-      <c r="B88" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="C88" s="31">
-        <v>1.02</v>
-      </c>
-      <c r="D88" s="29"/>
-      <c r="E88" s="29"/>
-      <c r="F88" s="29"/>
-      <c r="G88" s="29"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="15"/>
-      <c r="L88" s="15"/>
-      <c r="M88" s="15"/>
-      <c r="N88" s="15"/>
-      <c r="O88" s="15"/>
-      <c r="P88" s="12"/>
-      <c r="Q88" s="12"/>
-      <c r="R88" s="13"/>
-      <c r="S88" s="13"/>
-      <c r="T88" s="13"/>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A89" s="11"/>
-      <c r="B89" s="15" t="str">
+      <c r="B86" s="15" t="str">
         <f xml:space="preserve"> "Btu/" &amp; B39 &amp; B38</f>
         <v>Btu/kWh</v>
       </c>
-      <c r="C89" s="13">
+      <c r="C86" s="13">
         <v>3412.141633127942</v>
       </c>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="15"/>
-      <c r="L89" s="15"/>
-      <c r="M89" s="15"/>
-      <c r="N89" s="15"/>
-      <c r="O89" s="15"/>
-      <c r="P89" s="12"/>
-      <c r="Q89" s="12"/>
-      <c r="R89" s="13"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
+      <c r="O86" s="15"/>
+      <c r="P86" s="12"/>
+      <c r="Q86" s="12"/>
+      <c r="R86" s="13"/>
+      <c r="S86" s="13"/>
+      <c r="T86" s="13"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A87" s="11"/>
+      <c r="B87" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C87" s="13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
+      <c r="O87" s="15"/>
+      <c r="P87" s="15"/>
+      <c r="Q87" s="15"/>
+      <c r="R87" s="13"/>
+      <c r="S87" s="13"/>
+      <c r="T87" s="13"/>
+    </row>
+    <row r="88" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="2"/>
+      <c r="B88" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" s="18" t="str">
+        <f xml:space="preserve"> "Overnight cost [" &amp; B41 &amp; "/" &amp; B39 &amp; "]"</f>
+        <v>Overnight cost [$/kW]</v>
+      </c>
+      <c r="D88" s="12" t="str">
+        <f xml:space="preserve"> "Fixed O&amp;M cost ["  &amp; B41 &amp; "/" &amp; B39 &amp; "year]"</f>
+        <v>Fixed O&amp;M cost [$/kWyear]</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I88" s="16" t="str">
+        <f xml:space="preserve"> "Annual fixed costs [" &amp;B41 &amp; "/year]"</f>
+        <v>Annual fixed costs [$/year]</v>
+      </c>
+      <c r="J88" s="12" t="str">
+        <f xml:space="preserve"> "Variable O&amp;M [" &amp; B41 &amp; "/" &amp; B39 &amp; B38 &amp; "]"</f>
+        <v>Variable O&amp;M [$/kWh]</v>
+      </c>
+      <c r="K88" s="12" t="str">
+        <f xml:space="preserve"> "Fuel cost [" &amp; B41 &amp; "/" &amp; B39 &amp; B38 &amp; "]"</f>
+        <v>Fuel cost [$/kWh]</v>
+      </c>
+      <c r="L88" s="12" t="str">
+        <f xml:space="preserve"> "Heat rate [btu/" &amp; B39 &amp; B38 &amp; "]"</f>
+        <v>Heat rate [btu/kWh]</v>
+      </c>
+      <c r="M88" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="N88" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="O88" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="P88" s="12"/>
+      <c r="Q88" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="R88" s="12"/>
+      <c r="S88" s="12"/>
+      <c r="T88" s="12"/>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B89" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" s="19">
+        <v>1391</v>
+      </c>
+      <c r="D89" s="13">
+        <v>23</v>
+      </c>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13">
+        <v>30</v>
+      </c>
+      <c r="H89" s="13">
+        <f>C87*(1+C87)^G89/((1+C87)^G89-1)</f>
+        <v>8.0586403511111196E-2</v>
+      </c>
+      <c r="I89" s="17">
+        <f t="shared" ref="I89:I94" si="0">C89*H89+D89</f>
+        <v>135.09568728395567</v>
+      </c>
+      <c r="J89" s="13"/>
+      <c r="K89" s="13"/>
+      <c r="L89" s="13"/>
+      <c r="M89" s="13"/>
+      <c r="N89" s="13"/>
+      <c r="O89" s="19">
+        <f t="shared" ref="O89:O94" si="1">I89/8760</f>
+        <v>1.5421882110040601E-2</v>
+      </c>
+      <c r="P89" s="13" t="str">
+        <f>B41&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
+        <v>$/h/kW</v>
+      </c>
+      <c r="Q89" s="19"/>
+      <c r="R89" s="13" t="str">
+        <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
+        <v>$/kWh</v>
+      </c>
       <c r="S89" s="13"/>
       <c r="T89" s="13"/>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A90" s="11"/>
-      <c r="B90" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C90" s="13">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="15"/>
-      <c r="L90" s="15"/>
-      <c r="M90" s="15"/>
-      <c r="N90" s="15"/>
-      <c r="O90" s="15"/>
-      <c r="P90" s="15"/>
-      <c r="Q90" s="15"/>
-      <c r="R90" s="13"/>
+      <c r="B90" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90" s="19">
+        <v>1436</v>
+      </c>
+      <c r="D90" s="13">
+        <v>43</v>
+      </c>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13">
+        <v>30</v>
+      </c>
+      <c r="H90" s="13">
+        <f>C87*(1+C87)^G90/((1+C87)^G90-1)</f>
+        <v>8.0586403511111196E-2</v>
+      </c>
+      <c r="I90" s="17">
+        <f t="shared" si="0"/>
+        <v>158.72207544195567</v>
+      </c>
+      <c r="J90" s="13"/>
+      <c r="K90" s="13"/>
+      <c r="L90" s="23"/>
+      <c r="M90" s="13"/>
+      <c r="N90" s="13"/>
+      <c r="O90" s="19">
+        <f t="shared" si="1"/>
+        <v>1.8118958383784894E-2</v>
+      </c>
+      <c r="P90" s="13" t="str">
+        <f>B41&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
+        <v>$/h/kW</v>
+      </c>
+      <c r="Q90" s="19"/>
+      <c r="R90" s="13" t="str">
+        <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
+        <v>$/kWh</v>
+      </c>
       <c r="S90" s="13"/>
       <c r="T90" s="13"/>
     </row>
-    <row r="91" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="2"/>
-      <c r="B91" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C91" s="18" t="str">
-        <f xml:space="preserve"> "Overnight cost [" &amp; B41 &amp; "/" &amp; B39 &amp; "]"</f>
-        <v>Overnight cost [$/kW]</v>
-      </c>
-      <c r="D91" s="12" t="str">
-        <f xml:space="preserve"> "Fixed O&amp;M cost ["  &amp; B41 &amp; "/" &amp; B39 &amp; "year]"</f>
-        <v>Fixed O&amp;M cost [$/kWyear]</v>
-      </c>
-      <c r="E91" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="H91" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="I91" s="16" t="str">
-        <f xml:space="preserve"> "Annual fixed costs [" &amp;B41 &amp; "/year]"</f>
-        <v>Annual fixed costs [$/year]</v>
-      </c>
-      <c r="J91" s="12" t="str">
-        <f xml:space="preserve"> "Variable O&amp;M [" &amp; B41 &amp; "/" &amp; B39 &amp; B38 &amp; "]"</f>
-        <v>Variable O&amp;M [$/kWh]</v>
-      </c>
-      <c r="K91" s="12" t="str">
-        <f xml:space="preserve"> "Fuel cost [" &amp; B41 &amp; "/" &amp; B39 &amp; B38 &amp; "]"</f>
-        <v>Fuel cost [$/kWh]</v>
-      </c>
-      <c r="L91" s="12" t="str">
-        <f xml:space="preserve"> "Heat rate [btu/" &amp; B39 &amp; B38 &amp; "]"</f>
-        <v>Heat rate [btu/kWh]</v>
-      </c>
-      <c r="M91" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N91" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="O91" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="P91" s="12"/>
-      <c r="Q91" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="R91" s="12"/>
-      <c r="S91" s="12"/>
-      <c r="T91" s="12"/>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B91" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C91" s="19">
+        <v>1054</v>
+      </c>
+      <c r="D91" s="13">
+        <v>27</v>
+      </c>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13">
+        <v>30</v>
+      </c>
+      <c r="H91" s="13">
+        <f>C87*(1+C87)^G91/((1+C87)^G91-1)</f>
+        <v>8.0586403511111196E-2</v>
+      </c>
+      <c r="I91" s="17">
+        <f t="shared" si="0"/>
+        <v>111.93806930071121</v>
+      </c>
+      <c r="J91" s="13">
+        <v>2E-3</v>
+      </c>
+      <c r="K91" s="13">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L91" s="13">
+        <v>6360</v>
+      </c>
+      <c r="M91" s="13">
+        <f>C86/L91</f>
+        <v>0.53650025678112301</v>
+      </c>
+      <c r="N91" s="13"/>
+      <c r="O91" s="19">
+        <f t="shared" si="1"/>
+        <v>1.2778318413323197E-2</v>
+      </c>
+      <c r="P91" s="13" t="str">
+        <f>B41&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
+        <v>$/h/kW</v>
+      </c>
+      <c r="Q91" s="19">
+        <f>J91+K91/M91</f>
+        <v>1.6911456050362664E-2</v>
+      </c>
+      <c r="R91" s="13" t="str">
+        <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
+        <v>$/kWh</v>
+      </c>
+      <c r="S91" s="13"/>
+      <c r="T91" s="13"/>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B92" s="13" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="C92" s="19">
-        <v>1391</v>
+        <v>2670</v>
       </c>
       <c r="D92" s="13">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="E92" s="13"/>
       <c r="F92" s="13"/>
@@ -3042,27 +3170,39 @@
         <v>30</v>
       </c>
       <c r="H92" s="13">
-        <f>C90*(1+C90)^G92/((1+C90)^G92-1)</f>
+        <f>C87*(1+C87)^G92/((1+C87)^G92-1)</f>
         <v>8.0586403511111196E-2</v>
       </c>
       <c r="I92" s="17">
-        <f t="shared" ref="I92:I97" si="0">C92*H92+D92</f>
-        <v>135.09568728395567</v>
-      </c>
-      <c r="J92" s="13"/>
-      <c r="K92" s="13"/>
-      <c r="L92" s="13"/>
-      <c r="M92" s="13"/>
+        <f t="shared" si="0"/>
+        <v>280.16569737466693</v>
+      </c>
+      <c r="J92" s="13">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K92" s="13">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L92" s="13">
+        <v>5180</v>
+      </c>
+      <c r="M92" s="13">
+        <f>C86/L92</f>
+        <v>0.65871460098995016</v>
+      </c>
       <c r="N92" s="13"/>
       <c r="O92" s="19">
-        <f t="shared" ref="O92:O97" si="1">I92/8760</f>
-        <v>1.5421882110040601E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.1982385545053303E-2</v>
       </c>
       <c r="P92" s="13" t="str">
         <f>B41&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
         <v>$/h/kW</v>
       </c>
-      <c r="Q92" s="19"/>
+      <c r="Q92" s="19">
+        <f>J92+K92/M92</f>
+        <v>1.8144865147936888E-2</v>
+      </c>
       <c r="R92" s="13" t="str">
         <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
@@ -3072,13 +3212,13 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B93" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C93" s="19">
-        <v>1436</v>
+        <v>7388</v>
       </c>
       <c r="D93" s="13">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="E93" s="13"/>
       <c r="F93" s="13"/>
@@ -3086,27 +3226,39 @@
         <v>30</v>
       </c>
       <c r="H93" s="13">
-        <f>C90*(1+C90)^G93/((1+C90)^G93-1)</f>
+        <f>C87*(1+C87)^G93/((1+C87)^G93-1)</f>
         <v>8.0586403511111196E-2</v>
       </c>
       <c r="I93" s="17">
         <f t="shared" si="0"/>
-        <v>158.72207544195567</v>
-      </c>
-      <c r="J93" s="13"/>
-      <c r="K93" s="13"/>
-      <c r="L93" s="23"/>
-      <c r="M93" s="13"/>
+        <v>740.37234914008957</v>
+      </c>
+      <c r="J93" s="13">
+        <v>2E-3</v>
+      </c>
+      <c r="K93" s="13">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L93" s="24">
+        <v>10460</v>
+      </c>
+      <c r="M93" s="13">
+        <f>C86/L93</f>
+        <v>0.32620856913269042</v>
+      </c>
       <c r="N93" s="13"/>
       <c r="O93" s="19">
         <f t="shared" si="1"/>
-        <v>1.8118958383784894E-2</v>
+        <v>8.4517391454348126E-2</v>
       </c>
       <c r="P93" s="13" t="str">
         <f>B41&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
         <v>$/h/kW</v>
       </c>
-      <c r="Q93" s="19"/>
+      <c r="Q93" s="19">
+        <f>J93+K93/M93</f>
+        <v>2.3458663758010111E-2</v>
+      </c>
       <c r="R93" s="13" t="str">
         <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
@@ -3116,13 +3268,13 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B94" s="13" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="C94" s="19">
-        <v>1054</v>
+        <v>4346</v>
       </c>
       <c r="D94" s="13">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="E94" s="13"/>
       <c r="F94" s="13"/>
@@ -3130,30 +3282,30 @@
         <v>30</v>
       </c>
       <c r="H94" s="13">
-        <f>C90*(1+C90)^G94/((1+C90)^G94-1)</f>
+        <f>C87*(1+C87)^G93/((1+C87)^G93-1)</f>
         <v>8.0586403511111196E-2</v>
       </c>
       <c r="I94" s="17">
         <f t="shared" si="0"/>
-        <v>111.93806930071121</v>
+        <v>500.22850965928927</v>
       </c>
       <c r="J94" s="13">
-        <v>2E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="K94" s="13">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="L94" s="13">
-        <v>6360</v>
+        <v>0.25275123208355127</v>
+      </c>
+      <c r="L94" s="24">
+        <v>13500</v>
       </c>
       <c r="M94" s="13">
-        <f>C89/L94</f>
-        <v>0.53650025678112301</v>
+        <f>C86/L94</f>
+        <v>0.25275123208355127</v>
       </c>
       <c r="N94" s="13"/>
       <c r="O94" s="19">
         <f t="shared" si="1"/>
-        <v>1.2778318413323197E-2</v>
+        <v>5.7103711148320691E-2</v>
       </c>
       <c r="P94" s="13" t="str">
         <f>B41&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
@@ -3161,7 +3313,7 @@
       </c>
       <c r="Q94" s="19">
         <f>J94+K94/M94</f>
-        <v>1.6911456050362664E-2</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="R94" s="13" t="str">
         <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
@@ -3172,53 +3324,26 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B95" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C95" s="19">
-        <v>2670</v>
-      </c>
-      <c r="D95" s="13">
-        <v>65</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C95" s="19"/>
+      <c r="D95" s="13"/>
       <c r="E95" s="13"/>
       <c r="F95" s="13"/>
-      <c r="G95" s="13">
-        <v>30</v>
-      </c>
-      <c r="H95" s="13">
-        <f>C90*(1+C90)^G95/((1+C90)^G95-1)</f>
-        <v>8.0586403511111196E-2</v>
-      </c>
-      <c r="I95" s="17">
-        <f t="shared" si="0"/>
-        <v>280.16569737466693</v>
-      </c>
-      <c r="J95" s="13">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="K95" s="13">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="L95" s="13">
-        <v>5180</v>
-      </c>
-      <c r="M95" s="13">
-        <f>C89/L95</f>
-        <v>0.65871460098995016</v>
-      </c>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="13"/>
+      <c r="K95" s="13"/>
+      <c r="L95" s="23"/>
+      <c r="M95" s="13"/>
       <c r="N95" s="13"/>
-      <c r="O95" s="19">
-        <f t="shared" si="1"/>
-        <v>3.1982385545053303E-2</v>
-      </c>
+      <c r="O95" s="19"/>
       <c r="P95" s="13" t="str">
         <f>B41&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
         <v>$/h/kW</v>
       </c>
-      <c r="Q95" s="19">
-        <f>J95+K95/M95</f>
-        <v>1.8144865147936888E-2</v>
-      </c>
+      <c r="Q95" s="19"/>
       <c r="R95" s="13" t="str">
         <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
@@ -3228,13 +3353,13 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B96" s="13" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="C96" s="19">
-        <v>7388</v>
+        <v>19977</v>
       </c>
       <c r="D96" s="13">
-        <v>145</v>
+        <v>268</v>
       </c>
       <c r="E96" s="13"/>
       <c r="F96" s="13"/>
@@ -3242,39 +3367,27 @@
         <v>30</v>
       </c>
       <c r="H96" s="13">
-        <f>C90*(1+C90)^G96/((1+C90)^G96-1)</f>
+        <f>C87*(1+C87)^G96/((1+C87)^G96-1)</f>
         <v>8.0586403511111196E-2</v>
       </c>
       <c r="I96" s="17">
-        <f t="shared" si="0"/>
-        <v>740.37234914008957</v>
-      </c>
-      <c r="J96" s="13">
-        <v>2E-3</v>
-      </c>
-      <c r="K96" s="13">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="L96" s="24">
-        <v>10460</v>
-      </c>
-      <c r="M96" s="13">
-        <f>C89/L96</f>
-        <v>0.32620856913269042</v>
-      </c>
+        <f>C96*H96+D96</f>
+        <v>1877.8745829414684</v>
+      </c>
+      <c r="J96" s="13"/>
+      <c r="K96" s="13"/>
+      <c r="L96" s="13"/>
+      <c r="M96" s="13"/>
       <c r="N96" s="13"/>
       <c r="O96" s="19">
-        <f t="shared" si="1"/>
-        <v>8.4517391454348126E-2</v>
+        <f>I96/8760</f>
+        <v>0.21436924462802151</v>
       </c>
       <c r="P96" s="13" t="str">
         <f>B41&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
         <v>$/h/kW</v>
       </c>
-      <c r="Q96" s="19">
-        <f>J96+K96/M96</f>
-        <v>2.3458663758010111E-2</v>
-      </c>
+      <c r="Q96" s="19"/>
       <c r="R96" s="13" t="str">
         <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
@@ -3284,13 +3397,15 @@
     </row>
     <row r="97" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B97" s="13" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C97" s="19">
-        <v>4346</v>
+        <f>320*C85</f>
+        <v>326.39999999999998</v>
       </c>
       <c r="D97" s="13">
-        <v>150</v>
+        <f>0.0424*C97</f>
+        <v>13.839359999999999</v>
       </c>
       <c r="E97" s="13"/>
       <c r="F97" s="13"/>
@@ -3298,39 +3413,27 @@
         <v>30</v>
       </c>
       <c r="H97" s="13">
-        <f>C90*(1+C90)^G96/((1+C90)^G96-1)</f>
+        <f>C87*(1+C87)^G97/((1+C87)^G97-1)</f>
         <v>8.0586403511111196E-2</v>
       </c>
       <c r="I97" s="17">
-        <f t="shared" si="0"/>
-        <v>500.22850965928927</v>
-      </c>
-      <c r="J97" s="13">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="K97" s="13">
-        <v>0.25275123208355127</v>
-      </c>
-      <c r="L97" s="24">
-        <v>13500</v>
-      </c>
-      <c r="M97" s="13">
-        <f>C89/L97</f>
-        <v>0.25275123208355127</v>
-      </c>
+        <f>(C97+D97)*H97</f>
+        <v>27.418666355322223</v>
+      </c>
+      <c r="J97" s="13"/>
+      <c r="K97" s="13"/>
+      <c r="L97" s="13"/>
+      <c r="M97" s="13"/>
       <c r="N97" s="13"/>
       <c r="O97" s="19">
-        <f t="shared" si="1"/>
-        <v>5.7103711148320691E-2</v>
+        <f>I97/8760</f>
+        <v>3.1299847437582448E-3</v>
       </c>
       <c r="P97" s="13" t="str">
         <f>B41&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
         <v>$/h/kW</v>
       </c>
-      <c r="Q97" s="19">
-        <f>J97+K97/M97</f>
-        <v>1.0049999999999999</v>
-      </c>
+      <c r="Q97" s="19"/>
       <c r="R97" s="13" t="str">
         <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
@@ -3340,88 +3443,119 @@
     </row>
     <row r="98" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B98" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C98" s="19"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
-      <c r="I98" s="17"/>
+        <v>111</v>
+      </c>
+      <c r="C98" s="19">
+        <f>246*C85</f>
+        <v>250.92000000000002</v>
+      </c>
+      <c r="D98" s="13">
+        <f>8.3*C85</f>
+        <v>8.4660000000000011</v>
+      </c>
+      <c r="E98" s="38">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F98" s="38"/>
+      <c r="G98" s="13">
+        <v>30</v>
+      </c>
+      <c r="H98" s="13">
+        <f>C87*(1+C87)^G98/((1+C87)^G98-1)</f>
+        <v>8.0586403511111196E-2</v>
+      </c>
+      <c r="I98" s="17">
+        <f>(C98+E98*C98)*H98+D98</f>
+        <v>28.990051474543144</v>
+      </c>
       <c r="J98" s="13"/>
       <c r="K98" s="13"/>
-      <c r="L98" s="23"/>
-      <c r="M98" s="13"/>
+      <c r="L98" s="13"/>
+      <c r="M98" s="13">
+        <v>0.86</v>
+      </c>
       <c r="N98" s="13"/>
-      <c r="O98" s="19"/>
+      <c r="O98" s="19">
+        <f>I98/8760</f>
+        <v>3.3093666066830074E-3</v>
+      </c>
       <c r="P98" s="13" t="str">
         <f>B41&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
         <v>$/h/kW</v>
       </c>
-      <c r="Q98" s="19"/>
+      <c r="Q98" s="19">
+        <v>3.1E-6</v>
+      </c>
       <c r="R98" s="13" t="str">
-        <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
-        <v>$/kWh</v>
+        <f xml:space="preserve"> B41 &amp; "/" &amp; B39</f>
+        <v>$/kW</v>
       </c>
       <c r="S98" s="13"/>
       <c r="T98" s="13"/>
     </row>
     <row r="99" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B99" s="13" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="C99" s="19">
-        <v>19977</v>
+        <f>1673*C85</f>
+        <v>1706.46</v>
       </c>
       <c r="D99" s="13">
-        <v>268</v>
-      </c>
-      <c r="E99" s="13"/>
-      <c r="F99" s="13"/>
+        <f>12.8*C85</f>
+        <v>13.056000000000001</v>
+      </c>
+      <c r="E99" s="38">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F99" s="38"/>
       <c r="G99" s="13">
         <v>30</v>
       </c>
       <c r="H99" s="13">
-        <f>C90*(1+C90)^G99/((1+C90)^G99-1)</f>
+        <f>C87*(1+C87)^G98/((1+C87)^G98-1)</f>
         <v>8.0586403511111196E-2</v>
       </c>
       <c r="I99" s="17">
-        <f>C99*H99+D99</f>
-        <v>1877.8745829414684</v>
+        <f t="shared" ref="I99:I103" si="2">(C99+E99*C99)*H99+D99</f>
+        <v>152.63623624760439</v>
       </c>
       <c r="J99" s="13"/>
       <c r="K99" s="13"/>
       <c r="L99" s="13"/>
-      <c r="M99" s="13"/>
+      <c r="M99" s="13">
+        <v>0.5</v>
+      </c>
       <c r="N99" s="13"/>
       <c r="O99" s="19">
-        <f>I99/8760</f>
-        <v>0.21436924462802151</v>
+        <f t="shared" ref="O99:O103" si="3">I99/8760</f>
+        <v>1.742422788214662E-2</v>
       </c>
       <c r="P99" s="13" t="str">
         <f>B41&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
         <v>$/h/kW</v>
       </c>
-      <c r="Q99" s="19"/>
+      <c r="Q99" s="19">
+        <v>1.2999999999999998E-6</v>
+      </c>
       <c r="R99" s="13" t="str">
-        <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
-        <v>$/kWh</v>
+        <f xml:space="preserve"> B41 &amp; "/" &amp; B39</f>
+        <v>$/kW</v>
       </c>
       <c r="S99" s="13"/>
       <c r="T99" s="13"/>
     </row>
     <row r="100" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B100" s="13" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="C100" s="19">
-        <f>320*C88</f>
-        <v>326.39999999999998</v>
+        <f>1.96*C85</f>
+        <v>1.9992000000000001</v>
       </c>
       <c r="D100" s="13">
-        <f>0.0424*C100</f>
-        <v>13.839359999999999</v>
+        <f>1.5%*C100</f>
+        <v>2.9988000000000001E-2</v>
       </c>
       <c r="E100" s="13"/>
       <c r="F100" s="13"/>
@@ -3429,21 +3563,24 @@
         <v>30</v>
       </c>
       <c r="H100" s="13">
-        <f>C90*(1+C90)^G100/((1+C90)^G100-1)</f>
+        <f>C87*(1+C87)^G98/((1+C87)^G98-1)</f>
         <v>8.0586403511111196E-2</v>
       </c>
       <c r="I100" s="17">
         <f>(C100+D100)*H100</f>
-        <v>27.418666355322223</v>
+        <v>0.1635249629679047</v>
       </c>
       <c r="J100" s="13"/>
       <c r="K100" s="13"/>
       <c r="L100" s="13"/>
       <c r="M100" s="13"/>
-      <c r="N100" s="13"/>
+      <c r="N100" s="13">
+        <f>0.1%/24</f>
+        <v>4.1666666666666665E-5</v>
+      </c>
       <c r="O100" s="19">
-        <f>I100/8760</f>
-        <v>3.1299847437582448E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.8667233215514235E-5</v>
       </c>
       <c r="P100" s="13" t="str">
         <f>B41&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
@@ -3459,15 +3596,15 @@
     </row>
     <row r="101" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B101" s="13" t="s">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="C101" s="19">
-        <f>246*C88</f>
-        <v>250.92000000000002</v>
+        <f>1387*C85</f>
+        <v>1414.74</v>
       </c>
       <c r="D101" s="13">
-        <f>8.3*C88</f>
-        <v>8.4660000000000011</v>
+        <f>12.8*C85</f>
+        <v>13.056000000000001</v>
       </c>
       <c r="E101" s="38">
         <v>1.4999999999999999E-2</v>
@@ -3477,30 +3614,30 @@
         <v>30</v>
       </c>
       <c r="H101" s="13">
-        <f>C90*(1+C90)^G101/((1+C90)^G101-1)</f>
+        <f>C87*(1+C87)^G98/((1+C87)^G98-1)</f>
         <v>8.0586403511111196E-2</v>
       </c>
       <c r="I101" s="17">
-        <f>(C101+E101*C101)*H101+D101</f>
-        <v>28.990051474543144</v>
+        <f t="shared" si="2"/>
+        <v>128.77494063085911</v>
       </c>
       <c r="J101" s="13"/>
       <c r="K101" s="13"/>
       <c r="L101" s="13"/>
       <c r="M101" s="13">
-        <v>0.86</v>
+        <v>0.71</v>
       </c>
       <c r="N101" s="13"/>
       <c r="O101" s="19">
-        <f>I101/8760</f>
-        <v>3.3093666066830074E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.4700335688454236E-2</v>
       </c>
       <c r="P101" s="13" t="str">
         <f>B41&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
         <v>$/h/kW</v>
       </c>
       <c r="Q101" s="19">
-        <v>3.1E-6</v>
+        <v>5.1249999999999993E-4</v>
       </c>
       <c r="R101" s="13" t="str">
         <f xml:space="preserve"> B41 &amp; "/" &amp; B39</f>
@@ -3511,303 +3648,150 @@
     </row>
     <row r="102" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B102" s="13" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="C102" s="19">
-        <f>1673*C88</f>
-        <v>1706.46</v>
+        <f>103.1*C85</f>
+        <v>105.16199999999999</v>
       </c>
       <c r="D102" s="13">
-        <f>12.8*C88</f>
-        <v>13.056000000000001</v>
-      </c>
-      <c r="E102" s="38">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F102" s="38"/>
+        <f>1.5%*C102</f>
+        <v>1.5774299999999999</v>
+      </c>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
       <c r="G102" s="13">
         <v>30</v>
       </c>
       <c r="H102" s="13">
-        <f>C90*(1+C90)^G101/((1+C90)^G101-1)</f>
+        <f>C87*(1+C87)^G98/((1+C87)^G98-1)</f>
         <v>8.0586403511111196E-2</v>
       </c>
       <c r="I102" s="17">
-        <f t="shared" ref="I102:I106" si="2">(C102+E102*C102)*H102+D102</f>
-        <v>152.63623624760439</v>
-      </c>
-      <c r="J102" s="13"/>
+        <f>(C102+D102)*H102</f>
+        <v>8.6017467765260083</v>
+      </c>
+      <c r="J102" s="19"/>
       <c r="K102" s="13"/>
       <c r="L102" s="13"/>
-      <c r="M102" s="13">
-        <v>0.5</v>
-      </c>
+      <c r="M102" s="13"/>
       <c r="N102" s="13"/>
       <c r="O102" s="19">
-        <f t="shared" ref="O102:O106" si="3">I102/8760</f>
-        <v>1.742422788214662E-2</v>
-      </c>
-      <c r="P102" s="13" t="str">
-        <f>B41&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
-        <v>$/h/kW</v>
-      </c>
-      <c r="Q102" s="19">
-        <v>1.2999999999999998E-6</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>9.8193456353036631E-4</v>
+      </c>
+      <c r="P102" s="13"/>
+      <c r="Q102" s="19"/>
       <c r="R102" s="13" t="str">
+        <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
+        <v>$/kWh</v>
+      </c>
+      <c r="S102" s="13"/>
+      <c r="T102" s="13"/>
+    </row>
+    <row r="103" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B103" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C103" s="19">
+        <f>1612*C85</f>
+        <v>1644.24</v>
+      </c>
+      <c r="D103" s="13">
+        <f>12.5*C85</f>
+        <v>12.75</v>
+      </c>
+      <c r="E103" s="38">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F103" s="38"/>
+      <c r="G103" s="13">
+        <v>30</v>
+      </c>
+      <c r="H103" s="13">
+        <f>C87*(1+C87)^G98/((1+C87)^G98-1)</f>
+        <v>8.0586403511111196E-2</v>
+      </c>
+      <c r="I103" s="17">
+        <f t="shared" si="2"/>
+        <v>147.24093893074613</v>
+      </c>
+      <c r="J103" s="19"/>
+      <c r="K103" s="13"/>
+      <c r="L103" s="13"/>
+      <c r="M103" s="13">
+        <v>0.81</v>
+      </c>
+      <c r="N103" s="13"/>
+      <c r="O103" s="19">
+        <f t="shared" si="3"/>
+        <v>1.680832636195732E-2</v>
+      </c>
+      <c r="P103" s="13"/>
+      <c r="Q103" s="19">
+        <v>2.9999999999999999E-7</v>
+      </c>
+      <c r="R103" s="13" t="str">
         <f xml:space="preserve"> B41 &amp; "/" &amp; B39</f>
         <v>$/kW</v>
       </c>
-      <c r="S102" s="13"/>
-      <c r="T102" s="13"/>
-    </row>
-    <row r="103" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B103" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C103" s="19">
-        <f>1.96*C88</f>
-        <v>1.9992000000000001</v>
-      </c>
-      <c r="D103" s="13">
-        <f>1.5%*C103</f>
-        <v>2.9988000000000001E-2</v>
-      </c>
-      <c r="E103" s="13"/>
-      <c r="F103" s="13"/>
-      <c r="G103" s="13">
-        <v>30</v>
-      </c>
-      <c r="H103" s="13">
-        <f>C90*(1+C90)^G101/((1+C90)^G101-1)</f>
-        <v>8.0586403511111196E-2</v>
-      </c>
-      <c r="I103" s="17">
-        <f>(C103+D103)*H103</f>
-        <v>0.1635249629679047</v>
-      </c>
-      <c r="J103" s="13"/>
-      <c r="K103" s="13"/>
-      <c r="L103" s="13"/>
-      <c r="M103" s="13"/>
-      <c r="N103" s="13">
-        <f>0.1%/24</f>
-        <v>4.1666666666666665E-5</v>
-      </c>
-      <c r="O103" s="19">
-        <f t="shared" si="3"/>
-        <v>1.8667233215514235E-5</v>
-      </c>
-      <c r="P103" s="13" t="str">
-        <f>B41&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
-        <v>$/h/kW</v>
-      </c>
-      <c r="Q103" s="19"/>
-      <c r="R103" s="13" t="str">
+      <c r="S103" s="13"/>
+      <c r="T103" s="13"/>
+    </row>
+    <row r="104" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B104" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C104" s="19"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="13"/>
+      <c r="I104" s="13"/>
+      <c r="J104" s="19"/>
+      <c r="K104" s="13"/>
+      <c r="L104" s="13"/>
+      <c r="M104" s="13"/>
+      <c r="N104" s="13"/>
+      <c r="O104" s="19"/>
+      <c r="P104" s="13"/>
+      <c r="Q104" s="19"/>
+      <c r="R104" s="13" t="str">
         <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
         <v>$/kWh</v>
       </c>
-      <c r="S103" s="13"/>
-      <c r="T103" s="13"/>
-    </row>
-    <row r="104" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B104" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C104" s="19">
-        <f>1387*C88</f>
-        <v>1414.74</v>
-      </c>
-      <c r="D104" s="13">
-        <f>12.8*C88</f>
-        <v>13.056000000000001</v>
-      </c>
-      <c r="E104" s="38">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F104" s="38"/>
-      <c r="G104" s="13">
-        <v>30</v>
-      </c>
-      <c r="H104" s="13">
-        <f>C90*(1+C90)^G101/((1+C90)^G101-1)</f>
-        <v>8.0586403511111196E-2</v>
-      </c>
-      <c r="I104" s="17">
-        <f t="shared" si="2"/>
-        <v>128.77494063085911</v>
-      </c>
-      <c r="J104" s="13"/>
-      <c r="K104" s="13"/>
-      <c r="L104" s="13"/>
-      <c r="M104" s="13">
-        <v>0.71</v>
-      </c>
-      <c r="N104" s="13"/>
-      <c r="O104" s="19">
-        <f t="shared" si="3"/>
-        <v>1.4700335688454236E-2</v>
-      </c>
-      <c r="P104" s="13" t="str">
-        <f>B41&amp;"/"&amp;B38&amp;"/"&amp;B39</f>
-        <v>$/h/kW</v>
-      </c>
-      <c r="Q104" s="19">
-        <v>5.1249999999999993E-4</v>
-      </c>
-      <c r="R104" s="13" t="str">
-        <f xml:space="preserve"> B41 &amp; "/" &amp; B39</f>
-        <v>$/kW</v>
-      </c>
       <c r="S104" s="13"/>
       <c r="T104" s="13"/>
     </row>
-    <row r="105" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B105" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C105" s="19">
-        <f>103.1*C88</f>
-        <v>105.16199999999999</v>
-      </c>
-      <c r="D105" s="13">
-        <f>1.5%*C105</f>
-        <v>1.5774299999999999</v>
-      </c>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13">
-        <v>30</v>
-      </c>
-      <c r="H105" s="13">
-        <f>C90*(1+C90)^G101/((1+C90)^G101-1)</f>
-        <v>8.0586403511111196E-2</v>
-      </c>
-      <c r="I105" s="17">
-        <f>(C105+D105)*H105</f>
-        <v>8.6017467765260083</v>
-      </c>
-      <c r="J105" s="19"/>
-      <c r="K105" s="13"/>
-      <c r="L105" s="13"/>
-      <c r="M105" s="13"/>
-      <c r="N105" s="13"/>
-      <c r="O105" s="19">
-        <f t="shared" si="3"/>
-        <v>9.8193456353036631E-4</v>
-      </c>
-      <c r="P105" s="13"/>
-      <c r="Q105" s="19"/>
-      <c r="R105" s="13" t="str">
-        <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
-        <v>$/kWh</v>
-      </c>
-      <c r="S105" s="13"/>
-      <c r="T105" s="13"/>
-    </row>
     <row r="106" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B106" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C106" s="19">
-        <f>1612*C88</f>
-        <v>1644.24</v>
-      </c>
-      <c r="D106" s="13">
-        <f>12.5*C88</f>
-        <v>12.75</v>
-      </c>
-      <c r="E106" s="38">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F106" s="38"/>
-      <c r="G106" s="13">
-        <v>30</v>
-      </c>
-      <c r="H106" s="13">
-        <f>C90*(1+C90)^G101/((1+C90)^G101-1)</f>
-        <v>8.0586403511111196E-2</v>
-      </c>
-      <c r="I106" s="17">
-        <f t="shared" si="2"/>
-        <v>147.24093893074613</v>
-      </c>
-      <c r="J106" s="19"/>
-      <c r="K106" s="13"/>
-      <c r="L106" s="13"/>
-      <c r="M106" s="13">
-        <v>0.81</v>
-      </c>
-      <c r="N106" s="13"/>
-      <c r="O106" s="19">
-        <f t="shared" si="3"/>
-        <v>1.680832636195732E-2</v>
-      </c>
-      <c r="P106" s="13"/>
-      <c r="Q106" s="19">
-        <v>2.9999999999999999E-7</v>
-      </c>
-      <c r="R106" s="13" t="str">
-        <f xml:space="preserve"> B41 &amp; "/" &amp; B39</f>
-        <v>$/kW</v>
-      </c>
-      <c r="S106" s="13"/>
-      <c r="T106" s="13"/>
-    </row>
-    <row r="107" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B107" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C107" s="19"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="19"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="19"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="19"/>
-      <c r="R107" s="13" t="str">
-        <f xml:space="preserve"> B41 &amp; "/" &amp; B39 &amp; B38</f>
-        <v>$/kWh</v>
-      </c>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-    </row>
-    <row r="109" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B109" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="110" spans="2:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="G110" s="22"/>
-      <c r="H110" s="22"/>
-      <c r="I110" s="22"/>
-      <c r="J110" s="22"/>
-      <c r="K110" s="22"/>
-      <c r="L110" s="22"/>
-      <c r="M110" s="22"/>
-      <c r="N110" s="22"/>
-      <c r="O110" s="22"/>
-      <c r="P110" s="22"/>
-      <c r="Q110" s="22"/>
+      <c r="B106" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="107" spans="2:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="G107" s="22"/>
+      <c r="H107" s="22"/>
+      <c r="I107" s="22"/>
+      <c r="J107" s="22"/>
+      <c r="K107" s="22"/>
+      <c r="L107" s="22"/>
+      <c r="M107" s="22"/>
+      <c r="N107" s="22"/>
+      <c r="O107" s="22"/>
+      <c r="P107" s="22"/>
+      <c r="Q107" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C81" r:id="rId1" display="https://atb.nrel.gov/" xr:uid="{FDAACE4C-EEBF-8245-B992-53B8086970DC}"/>
-    <hyperlink ref="C82" r:id="rId2" xr:uid="{CDACD0CF-3E87-1D48-85AE-004D57BDEA41}"/>
-    <hyperlink ref="C85" r:id="rId3" xr:uid="{53E5629A-906B-1C43-957A-88DBCCC90896}"/>
+    <hyperlink ref="C78" r:id="rId1" display="https://atb.nrel.gov/" xr:uid="{FDAACE4C-EEBF-8245-B992-53B8086970DC}"/>
+    <hyperlink ref="C79" r:id="rId2" xr:uid="{CDACD0CF-3E87-1D48-85AE-004D57BDEA41}"/>
+    <hyperlink ref="C82" r:id="rId3" xr:uid="{53E5629A-906B-1C43-957A-88DBCCC90896}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
   <ignoredErrors>
-    <ignoredError sqref="I103" formula="1"/>
+    <ignoredError sqref="I100" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/all_firm_case.xlsx
+++ b/all_firm_case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliciawongel/CLab/clab_all_firm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D6D682-5E9F-F94A-AAAB-4B1C20D293AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A518DBE9-0653-054B-83C5-35EB6425716E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="1760" windowWidth="32860" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1560" windowWidth="32860" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case_input_intermodel_one_node_" sheetId="1" r:id="rId1"/>
@@ -369,9 +369,6 @@
     <t>Note: p_nom is a factor multiplied to the given capacity, e_nom is assumed for stores</t>
   </si>
   <si>
-    <t>natgas_DAC</t>
-  </si>
-  <si>
     <t>costs_path</t>
   </si>
   <si>
@@ -439,6 +436,9 @@
   </si>
   <si>
     <t>PHS</t>
+  </si>
+  <si>
+    <t>all_firm</t>
   </si>
 </sst>
 </file>
@@ -1396,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1723,10 +1723,10 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="23" t="s">
         <v>111</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1750,7 +1750,7 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1809,7 +1809,7 @@
         <v>43</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
         <v>47</v>
@@ -1844,7 +1844,7 @@
         <v>102</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C40" s="1"/>
     </row>
@@ -1879,7 +1879,7 @@
         <v>18</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G45" t="s">
         <v>93</v>
@@ -1963,7 +1963,7 @@
         <v>100</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>92</v>
@@ -1999,7 +1999,7 @@
         <v>101</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="W50" s="2" t="s">
         <v>27</v>
@@ -2055,7 +2055,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>97</v>
@@ -2078,7 +2078,7 @@
         <v>45</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>99</v>
@@ -2121,7 +2121,7 @@
         <v>31</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K56" s="15"/>
       <c r="L56" s="14" t="str">
@@ -2138,7 +2138,7 @@
         <v>45</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>97</v>
@@ -2158,7 +2158,7 @@
         <v>45</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>97</v>
@@ -2195,10 +2195,10 @@
     </row>
     <row r="60" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>97</v>
@@ -2250,7 +2250,7 @@
         <v>74</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>35</v>
@@ -2274,7 +2274,7 @@
         <v>73</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C63" s="18" t="s">
         <v>35</v>
@@ -2297,10 +2297,10 @@
     </row>
     <row r="64" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C64" s="14" t="s">
         <v>97</v>
@@ -2352,7 +2352,7 @@
         <v>73</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C66" s="18" t="s">
         <v>99</v>
@@ -2381,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="S66" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T66" s="18" t="str">
         <f>B41 &amp; "/" &amp;B40 &amp; B39</f>
@@ -2415,7 +2415,7 @@
         <v>73</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="18" t="s">
         <v>105</v>
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="S68" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T68" s="18" t="str">
         <f xml:space="preserve"> B40 &amp; B39  &amp; "/" &amp;  B41</f>
@@ -2480,16 +2480,16 @@
         <v>73</v>
       </c>
       <c r="B70" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C70" s="14" t="s">
         <v>126</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>127</v>
       </c>
       <c r="D70" s="14" t="s">
         <v>97</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K70" s="21"/>
       <c r="L70" s="14" t="str">
@@ -2506,7 +2506,7 @@
         <v>73</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>105</v>
@@ -2518,7 +2518,7 @@
         <v>97</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K71" s="21"/>
       <c r="L71" s="14" t="str">
@@ -2530,14 +2530,14 @@
         <v>$/MWh</v>
       </c>
       <c r="S71" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T71" s="14" t="str">
         <f xml:space="preserve"> B40 &amp; B39  &amp; "/" &amp;  B41</f>
         <v>MWh/t</v>
       </c>
       <c r="U71" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V71" s="14" t="str">
         <f xml:space="preserve"> B40 &amp; B39  &amp; "/" &amp;  B41</f>

--- a/all_firm_case.xlsx
+++ b/all_firm_case.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliciawongel/CLab/clab_all_firm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC407D7-9002-974D-8416-E494C1796097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA64321-580B-6F42-B022-E7DD136808A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="4140" windowWidth="34940" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -288,9 +288,6 @@
     <t>US_demand_unnormalized.csv</t>
   </si>
   <si>
-    <t>all_firm_case</t>
-  </si>
-  <si>
     <t>/Volumes/Shared/Labs/Caldeira Lab/Everyone/energy_demand_capacity_data/US_solar_wind_demand/</t>
   </si>
   <si>
@@ -600,9 +597,6 @@
     <t>CO2 emissions</t>
   </si>
   <si>
-    <t>Variable cost [€-MWh]</t>
-  </si>
-  <si>
     <t>tCO2/MWh</t>
   </si>
   <si>
@@ -619,6 +613,12 @@
   </si>
   <si>
     <t>natgas_wCCS_out</t>
+  </si>
+  <si>
+    <t>Variable cost [€/MWh]</t>
+  </si>
+  <si>
+    <t>all_firm_case_currency_converted</t>
   </si>
 </sst>
 </file>
@@ -1292,7 +1292,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1449,7 +1449,6 @@
     <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1525,7 +1524,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Storage Techs"/>
@@ -1846,10 +1845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z124"/>
+  <dimension ref="A1:Z125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116:XFD116"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2174,18 +2173,18 @@
         <v>39</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>101</v>
-      </c>
       <c r="F26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2201,7 +2200,7 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2209,7 +2208,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2217,7 +2216,7 @@
         <v>36</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" t="s">
         <v>40</v>
@@ -2228,7 +2227,7 @@
         <v>37</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2265,10 +2264,10 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" s="73" t="s">
         <v>157</v>
-      </c>
-      <c r="B36" s="73" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
@@ -2276,7 +2275,7 @@
         <v>42</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D37" t="s">
         <v>46</v>
@@ -2308,19 +2307,19 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="C42" s="1"/>
     </row>
@@ -2329,11 +2328,11 @@
         <v>64</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
@@ -2349,16 +2348,16 @@
         <v>18</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K46" t="s">
         <v>69</v>
       </c>
       <c r="P46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
@@ -2366,7 +2365,7 @@
         <v>62</v>
       </c>
       <c r="J47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R47" t="s">
         <v>61</v>
@@ -2453,7 +2452,7 @@
         <v>76</v>
       </c>
       <c r="P50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:26" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -2464,7 +2463,7 @@
         <v>21</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>22</v>
@@ -2473,13 +2472,13 @@
         <v>33</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>43</v>
@@ -2497,7 +2496,7 @@
         <v>25</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R51" s="2" t="s">
         <v>26</v>
@@ -2512,7 +2511,7 @@
         <v>60</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X51" s="2" t="s">
         <v>27</v>
@@ -2527,7 +2526,7 @@
       </c>
       <c r="C52" s="21"/>
       <c r="D52" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E52" s="21"/>
       <c r="F52" s="21"/>
@@ -2564,11 +2563,11 @@
         <v>44</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -2590,7 +2589,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
@@ -2607,11 +2606,11 @@
         <v>44</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C54" s="22"/>
       <c r="D54" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
@@ -2633,7 +2632,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P54" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q54" s="22"/>
       <c r="R54" s="22"/>
@@ -2650,13 +2649,13 @@
         <v>44</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E55" s="18"/>
       <c r="F55" s="18"/>
@@ -2667,7 +2666,7 @@
       <c r="K55" s="18"/>
       <c r="L55" s="85">
         <f>M114*B33</f>
-        <v>163392.13449645168</v>
+        <v>143326.43376881725</v>
       </c>
       <c r="M55" s="18" t="str">
         <f>B43 &amp; "/time range/" &amp; B41</f>
@@ -2675,14 +2674,14 @@
       </c>
       <c r="N55" s="18">
         <f>P114</f>
-        <v>40.714285714285708</v>
+        <v>39.223057644110277</v>
       </c>
       <c r="O55" s="18" t="str">
         <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
         <v>€/MWh</v>
       </c>
       <c r="P55" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q55" s="18"/>
       <c r="R55" s="18"/>
@@ -2699,19 +2698,19 @@
         <v>70</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G56" s="18"/>
       <c r="H56" s="18"/>
@@ -2733,7 +2732,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P56" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q56" s="18"/>
       <c r="R56" s="18"/>
@@ -2743,7 +2742,7 @@
       </c>
       <c r="U56" s="18"/>
       <c r="V56" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W56" s="18" t="str">
         <f>B42 &amp; "/" &amp;B41 &amp; B40</f>
@@ -2757,13 +2756,13 @@
         <v>44</v>
       </c>
       <c r="B57" s="76" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C57" s="76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D57" s="76" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E57" s="76"/>
       <c r="F57" s="76"/>
@@ -2783,7 +2782,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P57" s="76" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q57" s="76"/>
       <c r="R57" s="76"/>
@@ -2800,19 +2799,19 @@
         <v>70</v>
       </c>
       <c r="B58" s="76" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C58" s="76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D58" s="76" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E58" s="76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F58" s="76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G58" s="76"/>
       <c r="H58" s="76"/>
@@ -2834,7 +2833,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P58" s="76" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q58" s="76"/>
       <c r="R58" s="76"/>
@@ -2844,7 +2843,7 @@
       </c>
       <c r="U58" s="76"/>
       <c r="V58" s="75" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="W58" s="76" t="str">
         <f>B42 &amp; "/" &amp;B41 &amp; B40</f>
@@ -2858,13 +2857,13 @@
         <v>44</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
@@ -2874,23 +2873,23 @@
       <c r="J59" s="13"/>
       <c r="K59" s="13"/>
       <c r="L59" s="89">
-        <f>M117*B33</f>
-        <v>463994.87451959722</v>
+        <f>M118*B33</f>
+        <v>407013.04782420816</v>
       </c>
       <c r="M59" s="13" t="str">
         <f>B43 &amp; "/time range/" &amp; B41</f>
         <v>€/time range/MW</v>
       </c>
       <c r="N59" s="13">
-        <f>P117</f>
-        <v>16600</v>
+        <f>P118</f>
+        <v>14.561403508771932</v>
       </c>
       <c r="O59" s="13" t="str">
         <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
         <v>€/MWh</v>
       </c>
       <c r="P59" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q59" s="13"/>
       <c r="R59" s="13"/>
@@ -2907,19 +2906,19 @@
         <v>70</v>
       </c>
       <c r="B60" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D60" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="C60" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>191</v>
-      </c>
       <c r="E60" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
@@ -2941,15 +2940,15 @@
         <v>€/MWh</v>
       </c>
       <c r="P60" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q60" s="13"/>
       <c r="R60" s="13"/>
       <c r="S60" s="13"/>
       <c r="T60" s="13"/>
       <c r="U60" s="13"/>
-      <c r="V60" s="90">
-        <f>Q117</f>
+      <c r="V60" s="13">
+        <f>Q118</f>
         <v>-1.22</v>
       </c>
       <c r="W60" s="13" t="str">
@@ -2970,7 +2969,7 @@
         <v>79</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E61" s="24"/>
       <c r="F61" s="24"/>
@@ -2990,7 +2989,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P61" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q61" s="24"/>
       <c r="R61" s="24"/>
@@ -3007,19 +3006,19 @@
         <v>70</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C62" s="24" t="s">
         <v>79</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G62" s="24"/>
       <c r="H62" s="24"/>
@@ -3041,7 +3040,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P62" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q62" s="24"/>
       <c r="R62" s="24"/>
@@ -3051,7 +3050,7 @@
       </c>
       <c r="U62" s="24"/>
       <c r="V62" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="W62" s="24" t="str">
         <f>B42 &amp; "/" &amp;B41 &amp; B40</f>
@@ -3069,7 +3068,7 @@
       </c>
       <c r="C63" s="35"/>
       <c r="D63" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E63" s="35"/>
       <c r="F63" s="35"/>
@@ -3089,7 +3088,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P63" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q63" s="35"/>
       <c r="R63" s="35"/>
@@ -3106,11 +3105,11 @@
         <v>44</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C64" s="15"/>
       <c r="D64" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
@@ -3130,7 +3129,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P64" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q64" s="15"/>
       <c r="R64" s="15"/>
@@ -3144,14 +3143,14 @@
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C65" s="26"/>
       <c r="D65" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E65" s="26"/>
       <c r="F65" s="26"/>
@@ -3176,7 +3175,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P65" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q65" s="26"/>
       <c r="R65" s="26">
@@ -3200,10 +3199,10 @@
         <v>32</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E66" s="28" t="s">
         <v>34</v>
@@ -3227,7 +3226,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P66" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q66" s="28"/>
       <c r="R66" s="28"/>
@@ -3244,10 +3243,10 @@
         <v>71</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D67" s="28" t="s">
         <v>34</v>
@@ -3270,7 +3269,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P67" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q67" s="28"/>
       <c r="R67" s="28"/>
@@ -3289,16 +3288,16 @@
         <v>70</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D68" s="28" t="s">
         <v>34</v>
       </c>
       <c r="E68" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F68" s="28"/>
       <c r="G68" s="28"/>
@@ -3317,7 +3316,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P68" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q68" s="28"/>
       <c r="R68" s="28"/>
@@ -3334,16 +3333,16 @@
         <v>70</v>
       </c>
       <c r="B69" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C69" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F69" s="30"/>
       <c r="G69" s="30">
@@ -3355,7 +3354,7 @@
       <c r="K69" s="30"/>
       <c r="L69" s="31">
         <f>M112*B34</f>
-        <v>146504.14624940392</v>
+        <v>128512.40899070518</v>
       </c>
       <c r="M69" s="30" t="str">
         <f>B43 &amp; "/time range/" &amp; B41</f>
@@ -3363,14 +3362,14 @@
       </c>
       <c r="N69" s="30">
         <f>P112</f>
-        <v>2.9999999999999997E-4</v>
+        <v>2.631578947368421E-4</v>
       </c>
       <c r="O69" s="30" t="str">
         <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
         <v>€/MWh</v>
       </c>
       <c r="P69" s="30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q69" s="30"/>
       <c r="R69" s="30"/>
@@ -3382,7 +3381,7 @@
       <c r="X69" s="30"/>
       <c r="Y69" s="30"/>
       <c r="Z69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.2">
@@ -3390,13 +3389,13 @@
         <v>71</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C70" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E70" s="30"/>
       <c r="F70" s="30"/>
@@ -3407,7 +3406,7 @@
       <c r="K70" s="30"/>
       <c r="L70" s="31">
         <f>M111*B34</f>
-        <v>8456.1894176967999</v>
+        <v>7417.7100155235103</v>
       </c>
       <c r="M70" s="30" t="str">
         <f>B43 &amp; "/time range/" &amp; B41 &amp; B40</f>
@@ -3419,7 +3418,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P70" s="30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q70" s="30"/>
       <c r="R70" s="30"/>
@@ -3431,7 +3430,7 @@
       <c r="X70" s="30"/>
       <c r="Y70" s="30"/>
       <c r="Z70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.2">
@@ -3439,11 +3438,11 @@
         <v>71</v>
       </c>
       <c r="B71" s="62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C71" s="62"/>
       <c r="D71" s="62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E71" s="62"/>
       <c r="F71" s="62"/>
@@ -3453,8 +3452,8 @@
       <c r="J71" s="62"/>
       <c r="K71" s="62"/>
       <c r="L71" s="80">
-        <f>H120/8784*B34</f>
-        <v>250000</v>
+        <f>H121/8784*B34</f>
+        <v>219298.24561403508</v>
       </c>
       <c r="M71" s="62" t="str">
         <f>B43 &amp; "/time range/" &amp; B41</f>
@@ -3466,7 +3465,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P71" s="62" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q71" s="62">
         <v>-1</v>
@@ -3485,11 +3484,11 @@
         <v>71</v>
       </c>
       <c r="B72" s="64" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C72" s="64"/>
       <c r="D72" s="64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E72" s="64"/>
       <c r="F72" s="64"/>
@@ -3499,8 +3498,8 @@
       <c r="J72" s="64"/>
       <c r="K72" s="64"/>
       <c r="L72" s="81">
-        <f>H120/8784*B34</f>
-        <v>250000</v>
+        <f>H121/8784*B34</f>
+        <v>219298.24561403508</v>
       </c>
       <c r="M72" s="64" t="str">
         <f>B43 &amp; "/time range/" &amp; B41</f>
@@ -3512,7 +3511,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P72" s="64" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q72" s="64"/>
       <c r="R72" s="64"/>
@@ -3529,11 +3528,11 @@
         <v>44</v>
       </c>
       <c r="B73" s="72" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C73" s="72"/>
       <c r="D73" s="72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E73" s="72"/>
       <c r="F73" s="72"/>
@@ -3548,15 +3547,15 @@
         <v>€/time range/MW</v>
       </c>
       <c r="N73" s="72">
-        <f>P119</f>
-        <v>10000</v>
+        <f>P120</f>
+        <v>8771.9298245614045</v>
       </c>
       <c r="O73" s="72" t="str">
         <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
         <v>€/MWh</v>
       </c>
       <c r="P73" s="72" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Q73" s="72"/>
       <c r="R73" s="72"/>
@@ -3573,17 +3572,17 @@
         <v>70</v>
       </c>
       <c r="B74" s="70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C74" s="70"/>
       <c r="D74" s="70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E74" s="70" t="s">
         <v>78</v>
       </c>
       <c r="F74" s="70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G74" s="70"/>
       <c r="H74" s="70"/>
@@ -3601,7 +3600,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P74" s="70" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q74" s="70"/>
       <c r="R74" s="70"/>
@@ -3609,7 +3608,7 @@
       <c r="T74" s="70"/>
       <c r="U74" s="70"/>
       <c r="V74" s="69" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="W74" s="70" t="str">
         <f xml:space="preserve"> B41 &amp; B40  &amp; "/" &amp;  B42</f>
@@ -3623,11 +3622,11 @@
         <v>71</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C75" s="33"/>
       <c r="D75" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E75" s="33"/>
       <c r="F75" s="33"/>
@@ -3649,7 +3648,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P75" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q75" s="33"/>
       <c r="R75" s="33"/>
@@ -3666,7 +3665,7 @@
         <v>71</v>
       </c>
       <c r="B76" s="67" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C76" s="67"/>
       <c r="D76" s="67" t="s">
@@ -3687,7 +3686,7 @@
       <c r="N76" s="67"/>
       <c r="O76" s="67"/>
       <c r="P76" s="67" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q76" s="67"/>
       <c r="R76" s="67"/>
@@ -3724,22 +3723,22 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E88" s="36"/>
       <c r="F88" s="36"/>
@@ -3755,10 +3754,10 @@
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" s="37"/>
       <c r="B89" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E89" s="36"/>
       <c r="F89" s="36"/>
@@ -3775,7 +3774,7 @@
       <c r="A90" s="37"/>
       <c r="B90" s="39"/>
       <c r="C90" s="41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E90" s="36"/>
       <c r="F90" s="36"/>
@@ -3806,10 +3805,10 @@
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="37"/>
       <c r="B92" s="38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C92" s="68" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E92" s="36"/>
       <c r="F92" s="36"/>
@@ -3826,7 +3825,7 @@
       <c r="A93" s="37"/>
       <c r="B93" s="38"/>
       <c r="C93" s="79" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E93" s="36"/>
       <c r="F93" s="36"/>
@@ -3857,10 +3856,10 @@
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" s="37"/>
       <c r="B95" s="38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C95" s="86" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E95" s="36"/>
       <c r="F95" s="36"/>
@@ -3877,7 +3876,7 @@
       <c r="A96" s="37"/>
       <c r="B96" s="38"/>
       <c r="C96" s="79" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E96" s="36"/>
       <c r="F96" s="36"/>
@@ -3913,10 +3912,10 @@
     <row r="98" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="37"/>
       <c r="B98" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E98" s="36"/>
       <c r="F98" s="36"/>
@@ -3933,7 +3932,7 @@
       <c r="A99" s="37"/>
       <c r="B99" s="38"/>
       <c r="C99" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E99" s="36"/>
       <c r="F99" s="36"/>
@@ -3964,10 +3963,10 @@
     <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="37"/>
       <c r="B101" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C101" s="86" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E101" s="36"/>
       <c r="F101" s="36"/>
@@ -3984,7 +3983,7 @@
       <c r="A102" s="37"/>
       <c r="B102" s="38"/>
       <c r="C102" s="65" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E102" s="36"/>
       <c r="F102" s="36"/>
@@ -4013,10 +4012,10 @@
     <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="37"/>
       <c r="B104" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C104" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F104" s="36"/>
       <c r="G104" s="36"/>
@@ -4032,7 +4031,7 @@
       <c r="A105" s="37"/>
       <c r="B105" s="38"/>
       <c r="C105" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F105" s="36"/>
       <c r="G105" s="36"/>
@@ -4075,7 +4074,7 @@
     <row r="108" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="37"/>
       <c r="B108" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C108" s="43">
         <v>1.1399999999999999</v>
@@ -4099,7 +4098,7 @@
     <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" s="37"/>
       <c r="B109" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C109" s="45">
         <v>7.0000000000000007E-2</v>
@@ -4134,13 +4133,13 @@
         <v>Fixed O&amp;M cost [€/MWyear]</v>
       </c>
       <c r="E110" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="F110" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="F110" s="47" t="s">
+      <c r="G110" s="47" t="s">
         <v>126</v>
-      </c>
-      <c r="G110" s="47" t="s">
-        <v>127</v>
       </c>
       <c r="H110" s="49" t="str">
         <f xml:space="preserve"> "Annual fixed costs [" &amp;B43 &amp; "/year]"</f>
@@ -4155,27 +4154,27 @@
         <v>Fuel cost [€/MWh]</v>
       </c>
       <c r="K110" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="L110" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="L110" s="46" t="s">
+      <c r="M110" s="48" t="s">
         <v>129</v>
-      </c>
-      <c r="M110" s="48" t="s">
-        <v>130</v>
       </c>
       <c r="N110" s="47"/>
       <c r="O110" s="47"/>
       <c r="P110" s="48" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q110" s="88" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R110" s="87"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B111" s="45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C111" s="50">
         <f>103100</f>
@@ -4202,8 +4201,8 @@
       <c r="K111" s="45"/>
       <c r="L111" s="45"/>
       <c r="M111" s="50">
-        <f>H111/8760</f>
-        <v>0.96268094463761389</v>
+        <f>H111/8760/C108</f>
+        <v>0.84445696898036315</v>
       </c>
       <c r="N111" s="45" t="str">
         <f>B43 &amp; "/" &amp; B40 &amp; "/" &amp; B41</f>
@@ -4216,7 +4215,7 @@
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B112" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C112" s="45">
         <f>1612000</f>
@@ -4247,8 +4246,8 @@
       </c>
       <c r="L112" s="45"/>
       <c r="M112" s="50">
-        <f t="shared" ref="M112:M117" si="0">H112/8760</f>
-        <v>16.678523024749989</v>
+        <f>H112/8760/C108</f>
+        <v>14.630283355043851</v>
       </c>
       <c r="N112" s="45" t="str">
         <f>B43 &amp; "/" &amp; B40 &amp; "/" &amp; B41</f>
@@ -4256,7 +4255,8 @@
       </c>
       <c r="O112" s="45"/>
       <c r="P112" s="50">
-        <v>2.9999999999999997E-4</v>
+        <f>0.0003/C108</f>
+        <v>2.631578947368421E-4</v>
       </c>
       <c r="Q112" s="87"/>
       <c r="R112" s="87"/>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="114" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B114" s="51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C114" s="45">
         <v>1969000</v>
@@ -4303,7 +4303,7 @@
         <v>162945.70789946683</v>
       </c>
       <c r="I114" s="45">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J114" s="45">
         <v>20</v>
@@ -4313,8 +4313,8 @@
       </c>
       <c r="L114" s="45"/>
       <c r="M114" s="50">
-        <f t="shared" si="0"/>
-        <v>18.601108207701692</v>
+        <f>H114/8760/C108</f>
+        <v>16.31676158570324</v>
       </c>
       <c r="N114" s="45" t="str">
         <f>B43 &amp; "/" &amp; B40 &amp; "/" &amp; B41</f>
@@ -4322,15 +4322,15 @@
       </c>
       <c r="O114" s="51"/>
       <c r="P114" s="45">
-        <f>I114+J114/K114</f>
-        <v>40.714285714285708</v>
+        <f>(I114+J114/K114)/C108</f>
+        <v>39.223057644110277</v>
       </c>
       <c r="Q114" s="87"/>
       <c r="R114" s="87"/>
     </row>
     <row r="115" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B115" s="45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C115" s="45"/>
       <c r="D115" s="45"/>
@@ -4351,91 +4351,114 @@
     </row>
     <row r="116" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B116" s="45"/>
-      <c r="C116" s="45"/>
-      <c r="D116" s="45"/>
+      <c r="C116" s="45">
+        <v>965000</v>
+      </c>
+      <c r="D116" s="45">
+        <v>27000</v>
+      </c>
       <c r="E116" s="52"/>
-      <c r="F116" s="45"/>
-      <c r="G116" s="45"/>
-      <c r="H116" s="51"/>
-      <c r="I116" s="45"/>
-      <c r="J116" s="45"/>
-      <c r="K116" s="45"/>
+      <c r="F116" s="45">
+        <v>30</v>
+      </c>
+      <c r="G116" s="45">
+        <f>C109*(1+C109)^F116/((1+C109)^F116-1)</f>
+        <v>8.0586403511111196E-2</v>
+      </c>
+      <c r="H116" s="51">
+        <f t="shared" ref="H116" si="0">(C116+D116)*G116</f>
+        <v>79941.712283022309</v>
+      </c>
+      <c r="I116" s="45">
+        <v>2</v>
+      </c>
+      <c r="J116" s="45">
+        <v>8</v>
+      </c>
+      <c r="K116" s="45">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="L116" s="45"/>
-      <c r="M116" s="50"/>
+      <c r="M116" s="50">
+        <f>H116/8760/C108</f>
+        <v>8.0050581073281979</v>
+      </c>
       <c r="N116" s="45"/>
       <c r="O116" s="45"/>
-      <c r="P116" s="45"/>
+      <c r="P116" s="45">
+        <f>(I116+J116/K116)/C108</f>
+        <v>14.285714285714286</v>
+      </c>
       <c r="Q116" s="87"/>
       <c r="R116" s="87"/>
     </row>
     <row r="117" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B117" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="C117" s="45">
-        <v>5580000</v>
-      </c>
-      <c r="D117" s="45">
-        <v>162000</v>
-      </c>
+      <c r="B117" s="45"/>
+      <c r="C117" s="45"/>
+      <c r="D117" s="45"/>
       <c r="E117" s="52"/>
-      <c r="F117" s="45">
-        <v>30</v>
-      </c>
-      <c r="G117" s="45">
-        <f>C109*(1+C109)^F117/((1+C109)^F117-1)</f>
-        <v>8.0586403511111196E-2</v>
-      </c>
-      <c r="H117" s="51">
-        <f t="shared" ref="H117" si="1">(C117+D117)*G117</f>
-        <v>462727.12896080047</v>
-      </c>
+      <c r="F117" s="45"/>
+      <c r="G117" s="45"/>
+      <c r="H117" s="51"/>
       <c r="I117" s="45"/>
       <c r="J117" s="45"/>
       <c r="K117" s="45"/>
       <c r="L117" s="45"/>
-      <c r="M117" s="50">
-        <f t="shared" si="0"/>
-        <v>52.822731616529737</v>
-      </c>
-      <c r="N117" s="45" t="str">
-        <f>B43 &amp; "/" &amp; B40 &amp; "/" &amp; B41</f>
-        <v>€/h/MW</v>
-      </c>
+      <c r="M117" s="50"/>
+      <c r="N117" s="45"/>
       <c r="O117" s="45"/>
-      <c r="P117" s="45">
-        <v>16600</v>
-      </c>
-      <c r="Q117" s="87">
-        <v>-1.22</v>
-      </c>
-      <c r="R117" s="87" t="s">
-        <v>188</v>
-      </c>
+      <c r="P117" s="45"/>
+      <c r="Q117" s="87"/>
+      <c r="R117" s="87"/>
     </row>
     <row r="118" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B118" s="45"/>
-      <c r="C118" s="45"/>
-      <c r="D118" s="45"/>
+      <c r="B118" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="C118" s="45">
+        <v>5580000</v>
+      </c>
+      <c r="D118" s="45">
+        <v>162000</v>
+      </c>
       <c r="E118" s="52"/>
-      <c r="F118" s="45"/>
-      <c r="G118" s="45"/>
-      <c r="H118" s="45"/>
+      <c r="F118" s="45">
+        <v>30</v>
+      </c>
+      <c r="G118" s="45">
+        <f>C109*(1+C109)^F118/((1+C109)^F118-1)</f>
+        <v>8.0586403511111196E-2</v>
+      </c>
+      <c r="H118" s="51">
+        <f t="shared" ref="H118" si="1">(C118+D118)*G118</f>
+        <v>462727.12896080047</v>
+      </c>
       <c r="I118" s="45"/>
       <c r="J118" s="45"/>
       <c r="K118" s="45"/>
       <c r="L118" s="45"/>
-      <c r="M118" s="45"/>
-      <c r="N118" s="45"/>
+      <c r="M118" s="50">
+        <f>H118/8760/C108</f>
+        <v>46.335729488183986</v>
+      </c>
+      <c r="N118" s="45" t="str">
+        <f>B43 &amp; "/" &amp; B40 &amp; "/" &amp; B41</f>
+        <v>€/h/MW</v>
+      </c>
       <c r="O118" s="45"/>
-      <c r="P118" s="45"/>
-      <c r="Q118" s="87"/>
-      <c r="R118" s="87"/>
+      <c r="P118" s="45">
+        <f>16.6/C108</f>
+        <v>14.561403508771932</v>
+      </c>
+      <c r="Q118" s="87">
+        <v>-1.22</v>
+      </c>
+      <c r="R118" s="87" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="119" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B119" s="45" t="s">
-        <v>156</v>
-      </c>
+      <c r="B119" s="45"/>
       <c r="C119" s="45"/>
       <c r="D119" s="45"/>
       <c r="E119" s="52"/>
@@ -4449,24 +4472,20 @@
       <c r="M119" s="45"/>
       <c r="N119" s="45"/>
       <c r="O119" s="45"/>
-      <c r="P119" s="45">
-        <v>10000</v>
-      </c>
+      <c r="P119" s="45"/>
       <c r="Q119" s="87"/>
       <c r="R119" s="87"/>
     </row>
     <row r="120" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B120" s="45" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C120" s="45"/>
       <c r="D120" s="45"/>
       <c r="E120" s="52"/>
       <c r="F120" s="45"/>
       <c r="G120" s="45"/>
-      <c r="H120" s="45">
-        <v>250000</v>
-      </c>
+      <c r="H120" s="45"/>
       <c r="I120" s="45"/>
       <c r="J120" s="45"/>
       <c r="K120" s="45"/>
@@ -4474,17 +4493,44 @@
       <c r="M120" s="45"/>
       <c r="N120" s="45"/>
       <c r="O120" s="45"/>
-      <c r="P120" s="45"/>
+      <c r="P120" s="45">
+        <f>10000/C108</f>
+        <v>8771.9298245614045</v>
+      </c>
       <c r="Q120" s="87"/>
       <c r="R120" s="87"/>
     </row>
-    <row r="122" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B122" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="124" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="I124" s="8"/>
+    <row r="121" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B121" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="C121" s="45"/>
+      <c r="D121" s="45"/>
+      <c r="E121" s="52"/>
+      <c r="F121" s="45"/>
+      <c r="G121" s="45"/>
+      <c r="H121" s="45">
+        <f>250000/C108</f>
+        <v>219298.24561403511</v>
+      </c>
+      <c r="I121" s="45"/>
+      <c r="J121" s="45"/>
+      <c r="K121" s="45"/>
+      <c r="L121" s="45"/>
+      <c r="M121" s="45"/>
+      <c r="N121" s="45"/>
+      <c r="O121" s="45"/>
+      <c r="P121" s="45"/>
+      <c r="Q121" s="87"/>
+      <c r="R121" s="87"/>
+    </row>
+    <row r="123" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="125" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="I125" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>

--- a/all_firm_case.xlsx
+++ b/all_firm_case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliciawongel/CLab/clab_all_firm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliciawongel/Library/Group Containers/G69SCX94XU.duck/Library/Application Support/duck/Volumes.noindex/DPB-DGE Data Transfer Node/nobackup/scratch/awongel/clab_all_firm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA64321-580B-6F42-B022-E7DD136808A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD4D686-A7DD-774C-9F77-24E46BF2C77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="4140" windowWidth="34940" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case_input_intermodel_one_node_" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="197">
   <si>
     <t>Note that demand has no decisions.</t>
   </si>
@@ -288,9 +288,6 @@
     <t>US_demand_unnormalized.csv</t>
   </si>
   <si>
-    <t>/Volumes/Shared/Labs/Caldeira Lab/Everyone/energy_demand_capacity_data/US_solar_wind_demand/</t>
-  </si>
-  <si>
     <t>p_min_pu</t>
   </si>
   <si>
@@ -342,283 +339,295 @@
     <t>https://raw.githubusercontent.com/PyPSA/technology-data/master/outputs/costs_2020.csv</t>
   </si>
   <si>
+    <t>direct air capture</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>onwind</t>
+  </si>
+  <si>
+    <t>Note: To use PyPSA default costs, use same technology names as in costs_path</t>
+  </si>
+  <si>
+    <t>hydro</t>
+  </si>
+  <si>
+    <t>fuel cell</t>
+  </si>
+  <si>
+    <t>battery storage</t>
+  </si>
+  <si>
+    <t>co2_emissions</t>
+  </si>
+  <si>
+    <t>2017-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>CO2 storage tank</t>
+  </si>
+  <si>
+    <t>hydrogen storage underground</t>
+  </si>
+  <si>
+    <t>solar-utility</t>
+  </si>
+  <si>
+    <t>Note: costing for nuclear heat has to be for kWh thermal (or other energy unit)</t>
+  </si>
+  <si>
+    <t>Note: % indicates addition to standard PyPSA name which stands before the %</t>
+  </si>
+  <si>
+    <t>CCGT % link</t>
+  </si>
+  <si>
+    <t>phs power</t>
+  </si>
+  <si>
+    <t>phs energy</t>
+  </si>
+  <si>
+    <t>Cost calculations</t>
+  </si>
+  <si>
+    <t>Hunter et al. Techno-Economic Analysis of Long-Duration Energy Storage and Flexible Power Generation Technologies to Support High-Variable Renewable Energy Grids. Joule 2021, 5 (8), 2077–2101.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doi.org/10.1016/j.joule.2021.06.018.</t>
+  </si>
+  <si>
+    <t>Discount rate</t>
+  </si>
+  <si>
+    <t>Other fixed cost* (% of capital cost)</t>
+  </si>
+  <si>
+    <t>Lifetime [years]</t>
+  </si>
+  <si>
+    <t>Capital recovery factor [%/year]</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Decay rate</t>
+  </si>
+  <si>
+    <t>Hourly fixed costs</t>
+  </si>
+  <si>
+    <t>pumped_hydro_storage energy</t>
+  </si>
+  <si>
+    <t>pumped_hydro_storage power</t>
+  </si>
+  <si>
+    <t>* includes property, tax, insurance, licensing, permiting costs</t>
+  </si>
+  <si>
+    <t>carrier</t>
+  </si>
+  <si>
+    <t>Note: carrier allows to group different technologies</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
+  </si>
+  <si>
+    <t>phs</t>
+  </si>
+  <si>
+    <t>natgas</t>
+  </si>
+  <si>
+    <t>load shifting forward</t>
+  </si>
+  <si>
+    <t>load shifting backward</t>
+  </si>
+  <si>
+    <t>Note: cost per energy stored for Store/StoragUnit</t>
+  </si>
+  <si>
+    <t>p_max_pu</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>Source load shifting costs</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.20357/B7MS40</t>
+  </si>
+  <si>
+    <t>Gerke et al. The California Demand Response Potential Study, Phase 3: Final Report on the Shift Resource through 2030.</t>
+  </si>
+  <si>
+    <t>https://github.com/PyPSA/technology-data/blob/master/outputs/costs_2020.csv</t>
+  </si>
+  <si>
+    <t>PyPSA technology data</t>
+  </si>
+  <si>
+    <t>Source PHS costs</t>
+  </si>
+  <si>
+    <t>Source all other costs</t>
+  </si>
+  <si>
+    <t>Source natural gas CCS costs</t>
+  </si>
+  <si>
+    <t>natural gas with CCS</t>
+  </si>
+  <si>
+    <t>(NG combined cycle 95% CCS (H-frame basis -&gt; 2nd Gen Tech)), Moderate</t>
+  </si>
+  <si>
+    <t>co2 atmosphere</t>
+  </si>
+  <si>
+    <t>load shedding</t>
+  </si>
+  <si>
+    <t>solver</t>
+  </si>
+  <si>
+    <t>gurobi</t>
+  </si>
+  <si>
+    <t>CCGT % wCCS</t>
+  </si>
+  <si>
+    <t>CCGT % link wCCS</t>
+  </si>
+  <si>
+    <t>.05*co2_emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCGT </t>
+  </si>
+  <si>
+    <t>load shifting</t>
+  </si>
+  <si>
+    <t>geothermal % link</t>
+  </si>
+  <si>
+    <t>geoth_out</t>
+  </si>
+  <si>
+    <t>-1*energy-input</t>
+  </si>
+  <si>
+    <t>natgas_wCCS</t>
+  </si>
+  <si>
+    <t>Note: Path to PyPSA database</t>
+  </si>
+  <si>
+    <t>Data source</t>
+  </si>
+  <si>
+    <t>PyPSA DB</t>
+  </si>
+  <si>
+    <t>Hunter et al</t>
+  </si>
+  <si>
+    <t>Gerke et al</t>
+  </si>
+  <si>
+    <t>NREL</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>€</t>
+  </si>
+  <si>
+    <t>Note: 2020 €</t>
+  </si>
+  <si>
+    <t>2020 €/$</t>
+  </si>
+  <si>
+    <t>BECCS</t>
+  </si>
+  <si>
+    <t>Source lost load</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.tej.2022.107187</t>
+  </si>
+  <si>
+    <t>Gorman. The quest to quantify the value of lost load: A critical review of the economics of power outages</t>
+  </si>
+  <si>
+    <t>https://atb-archive.nrel.gov/electricity/2020/data.php</t>
+  </si>
+  <si>
+    <t>NREL (National Renewable Energy Laboratory). 2020. "2020 Annual Technology Baseline."</t>
+  </si>
+  <si>
+    <t>Source BECCS</t>
+  </si>
+  <si>
+    <t>https://www.nrel.gov/docs/fy22osti/81644.pdf</t>
+  </si>
+  <si>
+    <t>CO2 emissions</t>
+  </si>
+  <si>
+    <t>tCO2/MWh</t>
+  </si>
+  <si>
+    <t>BECCS % link</t>
+  </si>
+  <si>
+    <t>beccs</t>
+  </si>
+  <si>
+    <t>beccs_out</t>
+  </si>
+  <si>
+    <t>Gorman</t>
+  </si>
+  <si>
+    <t>natgas_wCCS_out</t>
+  </si>
+  <si>
+    <t>Variable cost [€/MWh]</t>
+  </si>
+  <si>
+    <t>/carnegie/data/Shared/Labs/Caldeira Lab/Everyone/energy_demand_capacity_data/US_solar_wind_demand/</t>
+  </si>
+  <si>
+    <t>StorageUnit</t>
+  </si>
+  <si>
+    <t>all_firm</t>
+  </si>
+  <si>
+    <t>(1.14)</t>
+  </si>
+  <si>
+    <t>#Generator</t>
+  </si>
+  <si>
+    <t>#Link</t>
+  </si>
+  <si>
+    <t>all_firm_case_cost_removal_no_geo_hydro</t>
+  </si>
+  <si>
     <t>info</t>
-  </si>
-  <si>
-    <t>direct air capture</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>onwind</t>
-  </si>
-  <si>
-    <t>Note: To use PyPSA default costs, use same technology names as in costs_path</t>
-  </si>
-  <si>
-    <t>hydro</t>
-  </si>
-  <si>
-    <t>fuel cell</t>
-  </si>
-  <si>
-    <t>battery storage</t>
-  </si>
-  <si>
-    <t>StorageUnit</t>
-  </si>
-  <si>
-    <t>co2_emissions</t>
-  </si>
-  <si>
-    <t>2017-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>CO2 storage tank</t>
-  </si>
-  <si>
-    <t>hydrogen storage underground</t>
-  </si>
-  <si>
-    <t>solar-utility</t>
-  </si>
-  <si>
-    <t>Note: costing for nuclear heat has to be for kWh thermal (or other energy unit)</t>
-  </si>
-  <si>
-    <t>Note: % indicates addition to standard PyPSA name which stands before the %</t>
-  </si>
-  <si>
-    <t>CCGT % link</t>
-  </si>
-  <si>
-    <t>phs power</t>
-  </si>
-  <si>
-    <t>phs energy</t>
-  </si>
-  <si>
-    <t>Cost calculations</t>
-  </si>
-  <si>
-    <t>Hunter et al. Techno-Economic Analysis of Long-Duration Energy Storage and Flexible Power Generation Technologies to Support High-Variable Renewable Energy Grids. Joule 2021, 5 (8), 2077–2101.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://doi.org/10.1016/j.joule.2021.06.018.</t>
-  </si>
-  <si>
-    <t>Discount rate</t>
-  </si>
-  <si>
-    <t>Other fixed cost* (% of capital cost)</t>
-  </si>
-  <si>
-    <t>Lifetime [years]</t>
-  </si>
-  <si>
-    <t>Capital recovery factor [%/year]</t>
-  </si>
-  <si>
-    <t>Efficiency</t>
-  </si>
-  <si>
-    <t>Decay rate</t>
-  </si>
-  <si>
-    <t>Hourly fixed costs</t>
-  </si>
-  <si>
-    <t>pumped_hydro_storage energy</t>
-  </si>
-  <si>
-    <t>pumped_hydro_storage power</t>
-  </si>
-  <si>
-    <t>* includes property, tax, insurance, licensing, permiting costs</t>
-  </si>
-  <si>
-    <t>carrier</t>
-  </si>
-  <si>
-    <t>Note: carrier allows to group different technologies</t>
-  </si>
-  <si>
-    <t>hydrogen</t>
-  </si>
-  <si>
-    <t>phs</t>
-  </si>
-  <si>
-    <t>natgas</t>
-  </si>
-  <si>
-    <t>load shifting forward</t>
-  </si>
-  <si>
-    <t>load shifting backward</t>
-  </si>
-  <si>
-    <t>Note: cost per energy stored for Store/StoragUnit</t>
-  </si>
-  <si>
-    <t>p_max_pu</t>
-  </si>
-  <si>
-    <t>sign</t>
-  </si>
-  <si>
-    <t>all_firm</t>
-  </si>
-  <si>
-    <t>Source load shifting costs</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.20357/B7MS40</t>
-  </si>
-  <si>
-    <t>Gerke et al. The California Demand Response Potential Study, Phase 3: Final Report on the Shift Resource through 2030.</t>
-  </si>
-  <si>
-    <t>https://github.com/PyPSA/technology-data/blob/master/outputs/costs_2020.csv</t>
-  </si>
-  <si>
-    <t>PyPSA technology data</t>
-  </si>
-  <si>
-    <t>Source PHS costs</t>
-  </si>
-  <si>
-    <t>Source all other costs</t>
-  </si>
-  <si>
-    <t>Source natural gas CCS costs</t>
-  </si>
-  <si>
-    <t>natural gas with CCS</t>
-  </si>
-  <si>
-    <t>(NG combined cycle 95% CCS (H-frame basis -&gt; 2nd Gen Tech)), Moderate</t>
-  </si>
-  <si>
-    <t>co2 atmosphere</t>
-  </si>
-  <si>
-    <t>load shedding</t>
-  </si>
-  <si>
-    <t>solver</t>
-  </si>
-  <si>
-    <t>gurobi</t>
-  </si>
-  <si>
-    <t>CCGT % wCCS</t>
-  </si>
-  <si>
-    <t>CCGT % link wCCS</t>
-  </si>
-  <si>
-    <t>.05*co2_emissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCGT </t>
-  </si>
-  <si>
-    <t>load shifting</t>
-  </si>
-  <si>
-    <t>geothermal % link</t>
-  </si>
-  <si>
-    <t>geoth_out</t>
-  </si>
-  <si>
-    <t>-1*energy-input</t>
-  </si>
-  <si>
-    <t>natgas_wCCS</t>
-  </si>
-  <si>
-    <t>Note: Path to PyPSA database</t>
-  </si>
-  <si>
-    <t>Data source</t>
-  </si>
-  <si>
-    <t>PyPSA DB</t>
-  </si>
-  <si>
-    <t>Hunter et al</t>
-  </si>
-  <si>
-    <t>Gerke et al</t>
-  </si>
-  <si>
-    <t>NREL</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>€</t>
-  </si>
-  <si>
-    <t>Note: 2020 €</t>
-  </si>
-  <si>
-    <t>2020 €/$</t>
-  </si>
-  <si>
-    <t>BECCS</t>
-  </si>
-  <si>
-    <t>Source lost load</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.tej.2022.107187</t>
-  </si>
-  <si>
-    <t>Gorman. The quest to quantify the value of lost load: A critical review of the economics of power outages</t>
-  </si>
-  <si>
-    <t>https://atb-archive.nrel.gov/electricity/2020/data.php</t>
-  </si>
-  <si>
-    <t>NREL (National Renewable Energy Laboratory). 2020. "2020 Annual Technology Baseline."</t>
-  </si>
-  <si>
-    <t>Source BECCS</t>
-  </si>
-  <si>
-    <t>https://www.nrel.gov/docs/fy22osti/81644.pdf</t>
-  </si>
-  <si>
-    <t>CO2 emissions</t>
-  </si>
-  <si>
-    <t>tCO2/MWh</t>
-  </si>
-  <si>
-    <t>BECCS % link</t>
-  </si>
-  <si>
-    <t>beccs</t>
-  </si>
-  <si>
-    <t>beccs_out</t>
-  </si>
-  <si>
-    <t>Gorman</t>
-  </si>
-  <si>
-    <t>natgas_wCCS_out</t>
-  </si>
-  <si>
-    <t>Variable cost [€/MWh]</t>
-  </si>
-  <si>
-    <t>all_firm_case_currency_converted</t>
   </si>
 </sst>
 </file>
@@ -1292,7 +1301,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1449,6 +1458,9 @@
     <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="19" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1526,6 +1538,9 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Storage Techs"/>
       <sheetName val="Gravitational"/>
@@ -1533,7 +1548,13 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="24">
+          <cell r="B24">
+            <v>3.1299847437582448E-3</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="12">
@@ -1847,8 +1868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2173,18 +2194,18 @@
         <v>39</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>83</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>100</v>
-      </c>
       <c r="F26" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2200,7 +2221,7 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2208,7 +2229,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2216,7 +2237,7 @@
         <v>36</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
         <v>40</v>
@@ -2227,7 +2248,7 @@
         <v>37</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2264,10 +2285,10 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B36" s="73" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
@@ -2275,7 +2296,7 @@
         <v>42</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>101</v>
+        <v>196</v>
       </c>
       <c r="D37" t="s">
         <v>46</v>
@@ -2307,19 +2328,19 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="C42" s="1"/>
     </row>
@@ -2328,11 +2349,11 @@
         <v>64</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
@@ -2348,16 +2369,16 @@
         <v>18</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K46" t="s">
         <v>69</v>
       </c>
       <c r="P46" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
@@ -2365,7 +2386,7 @@
         <v>62</v>
       </c>
       <c r="J47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R47" t="s">
         <v>61</v>
@@ -2452,7 +2473,7 @@
         <v>76</v>
       </c>
       <c r="P50" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:26" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -2463,7 +2484,7 @@
         <v>21</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>22</v>
@@ -2472,13 +2493,13 @@
         <v>33</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>43</v>
@@ -2496,7 +2517,7 @@
         <v>25</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="R51" s="2" t="s">
         <v>26</v>
@@ -2511,7 +2532,7 @@
         <v>60</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X51" s="2" t="s">
         <v>27</v>
@@ -2526,7 +2547,7 @@
       </c>
       <c r="C52" s="21"/>
       <c r="D52" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E52" s="21"/>
       <c r="F52" s="21"/>
@@ -2563,11 +2584,11 @@
         <v>44</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -2589,7 +2610,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
@@ -2606,11 +2627,11 @@
         <v>44</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C54" s="22"/>
       <c r="D54" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
@@ -2632,7 +2653,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P54" s="22" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q54" s="22"/>
       <c r="R54" s="22"/>
@@ -2649,13 +2670,13 @@
         <v>44</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E55" s="18"/>
       <c r="F55" s="18"/>
@@ -2666,7 +2687,7 @@
       <c r="K55" s="18"/>
       <c r="L55" s="85">
         <f>M114*B33</f>
-        <v>143326.43376881725</v>
+        <v>163392.13449645168</v>
       </c>
       <c r="M55" s="18" t="str">
         <f>B43 &amp; "/time range/" &amp; B41</f>
@@ -2674,14 +2695,14 @@
       </c>
       <c r="N55" s="18">
         <f>P114</f>
-        <v>39.223057644110277</v>
+        <v>43.894285714285708</v>
       </c>
       <c r="O55" s="18" t="str">
         <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
         <v>€/MWh</v>
       </c>
       <c r="P55" s="18" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q55" s="18"/>
       <c r="R55" s="18"/>
@@ -2698,19 +2719,19 @@
         <v>70</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G56" s="18"/>
       <c r="H56" s="18"/>
@@ -2732,7 +2753,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P56" s="18" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q56" s="18"/>
       <c r="R56" s="18"/>
@@ -2742,7 +2763,7 @@
       </c>
       <c r="U56" s="18"/>
       <c r="V56" s="17" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="W56" s="18" t="str">
         <f>B42 &amp; "/" &amp;B41 &amp; B40</f>
@@ -2756,13 +2777,13 @@
         <v>44</v>
       </c>
       <c r="B57" s="76" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C57" s="76" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D57" s="76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E57" s="76"/>
       <c r="F57" s="76"/>
@@ -2782,7 +2803,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P57" s="76" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q57" s="76"/>
       <c r="R57" s="76"/>
@@ -2799,19 +2820,19 @@
         <v>70</v>
       </c>
       <c r="B58" s="76" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C58" s="76" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D58" s="76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E58" s="76" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F58" s="76" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G58" s="76"/>
       <c r="H58" s="76"/>
@@ -2833,7 +2854,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P58" s="76" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q58" s="76"/>
       <c r="R58" s="76"/>
@@ -2843,7 +2864,7 @@
       </c>
       <c r="U58" s="76"/>
       <c r="V58" s="75" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="W58" s="76" t="str">
         <f>B42 &amp; "/" &amp;B41 &amp; B40</f>
@@ -2857,13 +2878,13 @@
         <v>44</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
@@ -2874,7 +2895,7 @@
       <c r="K59" s="13"/>
       <c r="L59" s="89">
         <f>M118*B33</f>
-        <v>407013.04782420816</v>
+        <v>463994.87451959722</v>
       </c>
       <c r="M59" s="13" t="str">
         <f>B43 &amp; "/time range/" &amp; B41</f>
@@ -2882,14 +2903,14 @@
       </c>
       <c r="N59" s="13">
         <f>P118</f>
-        <v>14.561403508771932</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="O59" s="13" t="str">
         <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
         <v>€/MWh</v>
       </c>
       <c r="P59" s="13" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q59" s="13"/>
       <c r="R59" s="13"/>
@@ -2906,19 +2927,19 @@
         <v>70</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
@@ -2940,7 +2961,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P60" s="13" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q60" s="13"/>
       <c r="R60" s="13"/>
@@ -2960,7 +2981,7 @@
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="23" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="B61" s="24" t="s">
         <v>79</v>
@@ -2969,7 +2990,7 @@
         <v>79</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E61" s="24"/>
       <c r="F61" s="24"/>
@@ -2989,7 +3010,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P61" s="24" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q61" s="24"/>
       <c r="R61" s="24"/>
@@ -3003,22 +3024,22 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" s="23" t="s">
-        <v>70</v>
+        <v>194</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C62" s="24" t="s">
         <v>79</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G62" s="24"/>
       <c r="H62" s="24"/>
@@ -3040,7 +3061,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P62" s="24" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q62" s="24"/>
       <c r="R62" s="24"/>
@@ -3050,7 +3071,7 @@
       </c>
       <c r="U62" s="24"/>
       <c r="V62" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="W62" s="24" t="str">
         <f>B42 &amp; "/" &amp;B41 &amp; B40</f>
@@ -3068,7 +3089,7 @@
       </c>
       <c r="C63" s="35"/>
       <c r="D63" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E63" s="35"/>
       <c r="F63" s="35"/>
@@ -3088,7 +3109,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P63" s="35" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q63" s="35"/>
       <c r="R63" s="35"/>
@@ -3102,14 +3123,14 @@
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C64" s="15"/>
       <c r="D64" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
@@ -3129,7 +3150,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P64" s="15" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q64" s="15"/>
       <c r="R64" s="15"/>
@@ -3143,14 +3164,14 @@
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" s="25" t="s">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C65" s="26"/>
       <c r="D65" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E65" s="26"/>
       <c r="F65" s="26"/>
@@ -3175,7 +3196,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P65" s="26" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q65" s="26"/>
       <c r="R65" s="26">
@@ -3199,10 +3220,10 @@
         <v>32</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E66" s="28" t="s">
         <v>34</v>
@@ -3226,7 +3247,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P66" s="28" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q66" s="28"/>
       <c r="R66" s="28"/>
@@ -3243,10 +3264,10 @@
         <v>71</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D67" s="28" t="s">
         <v>34</v>
@@ -3269,11 +3290,13 @@
         <v>€/MWh</v>
       </c>
       <c r="P67" s="28" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q67" s="28"/>
       <c r="R67" s="28"/>
-      <c r="S67" s="28"/>
+      <c r="S67" s="28" t="b">
+        <v>1</v>
+      </c>
       <c r="T67" s="28"/>
       <c r="U67" s="28"/>
       <c r="V67" s="27"/>
@@ -3288,16 +3311,16 @@
         <v>70</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D68" s="28" t="s">
         <v>34</v>
       </c>
       <c r="E68" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F68" s="28"/>
       <c r="G68" s="28"/>
@@ -3316,7 +3339,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P68" s="28" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q68" s="28"/>
       <c r="R68" s="28"/>
@@ -3333,16 +3356,16 @@
         <v>70</v>
       </c>
       <c r="B69" s="30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C69" s="30" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F69" s="30"/>
       <c r="G69" s="30">
@@ -3354,7 +3377,7 @@
       <c r="K69" s="30"/>
       <c r="L69" s="31">
         <f>M112*B34</f>
-        <v>128512.40899070518</v>
+        <v>144749.35172885595</v>
       </c>
       <c r="M69" s="30" t="str">
         <f>B43 &amp; "/time range/" &amp; B41</f>
@@ -3362,14 +3385,14 @@
       </c>
       <c r="N69" s="30">
         <f>P112</f>
-        <v>2.631578947368421E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="O69" s="30" t="str">
         <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
         <v>€/MWh</v>
       </c>
       <c r="P69" s="30" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q69" s="30"/>
       <c r="R69" s="30"/>
@@ -3381,7 +3404,7 @@
       <c r="X69" s="30"/>
       <c r="Y69" s="30"/>
       <c r="Z69" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.2">
@@ -3389,13 +3412,13 @@
         <v>71</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C70" s="30" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E70" s="30"/>
       <c r="F70" s="30"/>
@@ -3406,7 +3429,7 @@
       <c r="K70" s="30"/>
       <c r="L70" s="31">
         <f>M111*B34</f>
-        <v>7417.7100155235103</v>
+        <v>8456.1894176967999</v>
       </c>
       <c r="M70" s="30" t="str">
         <f>B43 &amp; "/time range/" &amp; B41 &amp; B40</f>
@@ -3418,7 +3441,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P70" s="30" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q70" s="30"/>
       <c r="R70" s="30"/>
@@ -3430,7 +3453,7 @@
       <c r="X70" s="30"/>
       <c r="Y70" s="30"/>
       <c r="Z70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.2">
@@ -3438,11 +3461,11 @@
         <v>71</v>
       </c>
       <c r="B71" s="62" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C71" s="62"/>
       <c r="D71" s="62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E71" s="62"/>
       <c r="F71" s="62"/>
@@ -3453,7 +3476,7 @@
       <c r="K71" s="62"/>
       <c r="L71" s="80">
         <f>H121/8784*B34</f>
-        <v>219298.24561403508</v>
+        <v>250000</v>
       </c>
       <c r="M71" s="62" t="str">
         <f>B43 &amp; "/time range/" &amp; B41</f>
@@ -3465,7 +3488,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P71" s="62" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q71" s="62">
         <v>-1</v>
@@ -3484,11 +3507,11 @@
         <v>71</v>
       </c>
       <c r="B72" s="64" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C72" s="64"/>
       <c r="D72" s="64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E72" s="64"/>
       <c r="F72" s="64"/>
@@ -3499,7 +3522,7 @@
       <c r="K72" s="64"/>
       <c r="L72" s="81">
         <f>H121/8784*B34</f>
-        <v>219298.24561403508</v>
+        <v>250000</v>
       </c>
       <c r="M72" s="64" t="str">
         <f>B43 &amp; "/time range/" &amp; B41</f>
@@ -3511,7 +3534,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P72" s="64" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q72" s="64"/>
       <c r="R72" s="64"/>
@@ -3528,11 +3551,11 @@
         <v>44</v>
       </c>
       <c r="B73" s="72" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C73" s="72"/>
       <c r="D73" s="72" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E73" s="72"/>
       <c r="F73" s="72"/>
@@ -3548,14 +3571,14 @@
       </c>
       <c r="N73" s="72">
         <f>P120</f>
-        <v>8771.9298245614045</v>
+        <v>10000</v>
       </c>
       <c r="O73" s="72" t="str">
         <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
         <v>€/MWh</v>
       </c>
       <c r="P73" s="72" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q73" s="72"/>
       <c r="R73" s="72"/>
@@ -3572,17 +3595,17 @@
         <v>70</v>
       </c>
       <c r="B74" s="70" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C74" s="70"/>
       <c r="D74" s="70" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E74" s="70" t="s">
         <v>78</v>
       </c>
       <c r="F74" s="70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G74" s="70"/>
       <c r="H74" s="70"/>
@@ -3600,7 +3623,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P74" s="70" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q74" s="70"/>
       <c r="R74" s="70"/>
@@ -3608,7 +3631,7 @@
       <c r="T74" s="70"/>
       <c r="U74" s="70"/>
       <c r="V74" s="69" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="W74" s="70" t="str">
         <f xml:space="preserve"> B41 &amp; B40  &amp; "/" &amp;  B42</f>
@@ -3622,11 +3645,11 @@
         <v>71</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C75" s="33"/>
       <c r="D75" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E75" s="33"/>
       <c r="F75" s="33"/>
@@ -3648,7 +3671,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P75" s="33" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Q75" s="33"/>
       <c r="R75" s="33"/>
@@ -3665,7 +3688,7 @@
         <v>71</v>
       </c>
       <c r="B76" s="67" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C76" s="67"/>
       <c r="D76" s="67" t="s">
@@ -3686,7 +3709,7 @@
       <c r="N76" s="67"/>
       <c r="O76" s="67"/>
       <c r="P76" s="67" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q76" s="67"/>
       <c r="R76" s="67"/>
@@ -3723,22 +3746,22 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="37" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E88" s="36"/>
       <c r="F88" s="36"/>
@@ -3754,10 +3777,10 @@
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" s="37"/>
       <c r="B89" s="38" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E89" s="36"/>
       <c r="F89" s="36"/>
@@ -3774,7 +3797,7 @@
       <c r="A90" s="37"/>
       <c r="B90" s="39"/>
       <c r="C90" s="41" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E90" s="36"/>
       <c r="F90" s="36"/>
@@ -3805,10 +3828,10 @@
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="37"/>
       <c r="B92" s="38" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C92" s="68" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E92" s="36"/>
       <c r="F92" s="36"/>
@@ -3825,7 +3848,7 @@
       <c r="A93" s="37"/>
       <c r="B93" s="38"/>
       <c r="C93" s="79" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E93" s="36"/>
       <c r="F93" s="36"/>
@@ -3856,10 +3879,10 @@
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" s="37"/>
       <c r="B95" s="38" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C95" s="86" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E95" s="36"/>
       <c r="F95" s="36"/>
@@ -3876,7 +3899,7 @@
       <c r="A96" s="37"/>
       <c r="B96" s="38"/>
       <c r="C96" s="79" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E96" s="36"/>
       <c r="F96" s="36"/>
@@ -3912,10 +3935,10 @@
     <row r="98" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="37"/>
       <c r="B98" s="38" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C98" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E98" s="36"/>
       <c r="F98" s="36"/>
@@ -3932,7 +3955,7 @@
       <c r="A99" s="37"/>
       <c r="B99" s="38"/>
       <c r="C99" s="65" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E99" s="36"/>
       <c r="F99" s="36"/>
@@ -3963,10 +3986,10 @@
     <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="37"/>
       <c r="B101" s="38" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C101" s="86" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E101" s="36"/>
       <c r="F101" s="36"/>
@@ -3983,7 +4006,7 @@
       <c r="A102" s="37"/>
       <c r="B102" s="38"/>
       <c r="C102" s="65" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E102" s="36"/>
       <c r="F102" s="36"/>
@@ -4012,10 +4035,10 @@
     <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="37"/>
       <c r="B104" s="38" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C104" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F104" s="36"/>
       <c r="G104" s="36"/>
@@ -4031,7 +4054,7 @@
       <c r="A105" s="37"/>
       <c r="B105" s="38"/>
       <c r="C105" s="39" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F105" s="36"/>
       <c r="G105" s="36"/>
@@ -4074,12 +4097,14 @@
     <row r="108" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="37"/>
       <c r="B108" s="42" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C108" s="43">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="D108" s="44"/>
+        <v>1</v>
+      </c>
+      <c r="D108" s="90" t="s">
+        <v>192</v>
+      </c>
       <c r="E108" s="44"/>
       <c r="F108" s="44"/>
       <c r="G108" s="45"/>
@@ -4098,7 +4123,7 @@
     <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" s="37"/>
       <c r="B109" s="46" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C109" s="45">
         <v>7.0000000000000007E-2</v>
@@ -4133,13 +4158,13 @@
         <v>Fixed O&amp;M cost [€/MWyear]</v>
       </c>
       <c r="E110" s="47" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F110" s="47" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G110" s="47" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H110" s="49" t="str">
         <f xml:space="preserve"> "Annual fixed costs [" &amp;B43 &amp; "/year]"</f>
@@ -4154,27 +4179,27 @@
         <v>Fuel cost [€/MWh]</v>
       </c>
       <c r="K110" s="46" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L110" s="46" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M110" s="48" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N110" s="47"/>
       <c r="O110" s="47"/>
       <c r="P110" s="48" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q110" s="88" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="R110" s="87"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B111" s="45" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C111" s="50">
         <f>103100</f>
@@ -4202,7 +4227,7 @@
       <c r="L111" s="45"/>
       <c r="M111" s="50">
         <f>H111/8760/C108</f>
-        <v>0.84445696898036315</v>
+        <v>0.96268094463761389</v>
       </c>
       <c r="N111" s="45" t="str">
         <f>B43 &amp; "/" &amp; B40 &amp; "/" &amp; B41</f>
@@ -4215,7 +4240,7 @@
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B112" s="51" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C112" s="45">
         <f>1612000</f>
@@ -4223,7 +4248,7 @@
       </c>
       <c r="D112" s="45">
         <f>12500*C108</f>
-        <v>14249.999999999998</v>
+        <v>12500</v>
       </c>
       <c r="E112" s="52">
         <v>1.4999999999999999E-2</v>
@@ -4237,7 +4262,7 @@
       </c>
       <c r="H112" s="51">
         <f>((C112+E112*C112)*G112+D112)</f>
-        <v>146103.86169680991</v>
+        <v>144353.86169680991</v>
       </c>
       <c r="I112" s="50"/>
       <c r="J112" s="45"/>
@@ -4247,7 +4272,7 @@
       <c r="L112" s="45"/>
       <c r="M112" s="50">
         <f>H112/8760/C108</f>
-        <v>14.630283355043851</v>
+        <v>16.478751335252273</v>
       </c>
       <c r="N112" s="45" t="str">
         <f>B43 &amp; "/" &amp; B40 &amp; "/" &amp; B41</f>
@@ -4256,7 +4281,7 @@
       <c r="O112" s="45"/>
       <c r="P112" s="50">
         <f>0.0003/C108</f>
-        <v>2.631578947368421E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="Q112" s="87"/>
       <c r="R112" s="87"/>
@@ -4282,7 +4307,7 @@
     </row>
     <row r="114" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B114" s="51" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C114" s="45">
         <v>1969000</v>
@@ -4303,7 +4328,8 @@
         <v>162945.70789946683</v>
       </c>
       <c r="I114" s="45">
-        <v>9</v>
+        <f>2*4.09</f>
+        <v>8.18</v>
       </c>
       <c r="J114" s="45">
         <v>20</v>
@@ -4314,7 +4340,7 @@
       <c r="L114" s="45"/>
       <c r="M114" s="50">
         <f>H114/8760/C108</f>
-        <v>16.31676158570324</v>
+        <v>18.601108207701692</v>
       </c>
       <c r="N114" s="45" t="str">
         <f>B43 &amp; "/" &amp; B40 &amp; "/" &amp; B41</f>
@@ -4323,14 +4349,14 @@
       <c r="O114" s="51"/>
       <c r="P114" s="45">
         <f>(I114+J114/K114)/C108</f>
-        <v>39.223057644110277</v>
+        <v>43.894285714285708</v>
       </c>
       <c r="Q114" s="87"/>
       <c r="R114" s="87"/>
     </row>
     <row r="115" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B115" s="45" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C115" s="45"/>
       <c r="D115" s="45"/>
@@ -4381,13 +4407,13 @@
       <c r="L116" s="45"/>
       <c r="M116" s="50">
         <f>H116/8760/C108</f>
-        <v>8.0050581073281979</v>
+        <v>9.1257662423541444</v>
       </c>
       <c r="N116" s="45"/>
       <c r="O116" s="45"/>
       <c r="P116" s="45">
         <f>(I116+J116/K116)/C108</f>
-        <v>14.285714285714286</v>
+        <v>16.285714285714285</v>
       </c>
       <c r="Q116" s="87"/>
       <c r="R116" s="87"/>
@@ -4413,7 +4439,7 @@
     </row>
     <row r="118" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B118" s="45" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C118" s="45">
         <v>5580000</v>
@@ -4439,7 +4465,7 @@
       <c r="L118" s="45"/>
       <c r="M118" s="50">
         <f>H118/8760/C108</f>
-        <v>46.335729488183986</v>
+        <v>52.822731616529737</v>
       </c>
       <c r="N118" s="45" t="str">
         <f>B43 &amp; "/" &amp; B40 &amp; "/" &amp; B41</f>
@@ -4448,13 +4474,13 @@
       <c r="O118" s="45"/>
       <c r="P118" s="45">
         <f>16.6/C108</f>
-        <v>14.561403508771932</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="Q118" s="87">
         <v>-1.22</v>
       </c>
       <c r="R118" s="87" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="119" spans="2:18" x14ac:dyDescent="0.2">
@@ -4478,7 +4504,7 @@
     </row>
     <row r="120" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B120" s="45" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C120" s="45"/>
       <c r="D120" s="45"/>
@@ -4495,14 +4521,14 @@
       <c r="O120" s="45"/>
       <c r="P120" s="45">
         <f>10000/C108</f>
-        <v>8771.9298245614045</v>
+        <v>10000</v>
       </c>
       <c r="Q120" s="87"/>
       <c r="R120" s="87"/>
     </row>
     <row r="121" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B121" s="45" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C121" s="45"/>
       <c r="D121" s="45"/>
@@ -4511,7 +4537,7 @@
       <c r="G121" s="45"/>
       <c r="H121" s="45">
         <f>250000/C108</f>
-        <v>219298.24561403511</v>
+        <v>250000</v>
       </c>
       <c r="I121" s="45"/>
       <c r="J121" s="45"/>
@@ -4526,7 +4552,7 @@
     </row>
     <row r="123" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="125" spans="2:18" x14ac:dyDescent="0.2">

--- a/all_firm_case.xlsx
+++ b/all_firm_case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliciawongel/Library/Group Containers/G69SCX94XU.duck/Library/Application Support/duck/Volumes.noindex/DPB-DGE Data Transfer Node/nobackup/scratch/awongel/clab_all_firm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD4D686-A7DD-774C-9F77-24E46BF2C77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F43B06-2F5E-D541-9EBD-2F88236B9065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="36340" windowHeight="20800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case_input_intermodel_one_node_" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="269">
   <si>
     <t>Note that demand has no decisions.</t>
   </si>
@@ -336,9 +336,6 @@
     <t>costs_path</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/PyPSA/technology-data/master/outputs/costs_2020.csv</t>
-  </si>
-  <si>
     <t>direct air capture</t>
   </si>
   <si>
@@ -360,7 +357,7 @@
     <t>battery storage</t>
   </si>
   <si>
-    <t>co2_emissions</t>
+    <t>StorageUnit</t>
   </si>
   <si>
     <t>2017-01-01 00:00:00</t>
@@ -384,21 +381,9 @@
     <t>CCGT % link</t>
   </si>
   <si>
-    <t>phs power</t>
-  </si>
-  <si>
-    <t>phs energy</t>
-  </si>
-  <si>
     <t>Cost calculations</t>
   </si>
   <si>
-    <t>Hunter et al. Techno-Economic Analysis of Long-Duration Energy Storage and Flexible Power Generation Technologies to Support High-Variable Renewable Energy Grids. Joule 2021, 5 (8), 2077–2101.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://doi.org/10.1016/j.joule.2021.06.018.</t>
-  </si>
-  <si>
     <t>Discount rate</t>
   </si>
   <si>
@@ -435,12 +420,6 @@
     <t>Note: carrier allows to group different technologies</t>
   </si>
   <si>
-    <t>hydrogen</t>
-  </si>
-  <si>
-    <t>phs</t>
-  </si>
-  <si>
     <t>natgas</t>
   </si>
   <si>
@@ -474,9 +453,6 @@
     <t>PyPSA technology data</t>
   </si>
   <si>
-    <t>Source PHS costs</t>
-  </si>
-  <si>
     <t>Source all other costs</t>
   </si>
   <si>
@@ -507,9 +483,6 @@
     <t>CCGT % link wCCS</t>
   </si>
   <si>
-    <t>.05*co2_emissions</t>
-  </si>
-  <si>
     <t xml:space="preserve">CCGT </t>
   </si>
   <si>
@@ -522,9 +495,6 @@
     <t>geoth_out</t>
   </si>
   <si>
-    <t>-1*energy-input</t>
-  </si>
-  <si>
     <t>natgas_wCCS</t>
   </si>
   <si>
@@ -537,9 +507,6 @@
     <t>PyPSA DB</t>
   </si>
   <si>
-    <t>Hunter et al</t>
-  </si>
-  <si>
     <t>Gerke et al</t>
   </si>
   <si>
@@ -606,28 +573,277 @@
     <t>Variable cost [€/MWh]</t>
   </si>
   <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>db</t>
+  </si>
+  <si>
+    <t>.05*db_co2_emissions</t>
+  </si>
+  <si>
+    <t>db_co2_emissions</t>
+  </si>
+  <si>
+    <t>-1*db_energy-input</t>
+  </si>
+  <si>
+    <t>Compressed-Air-Adiabatic-bicharger</t>
+  </si>
+  <si>
+    <t>Compressed-Air-Adiabatic-store</t>
+  </si>
+  <si>
+    <t>comp_air</t>
+  </si>
+  <si>
+    <t>compressed_air_store</t>
+  </si>
+  <si>
+    <t>all_firm</t>
+  </si>
+  <si>
+    <t>all_firm_case_all_stores</t>
+  </si>
+  <si>
     <t>/carnegie/data/Shared/Labs/Caldeira Lab/Everyone/energy_demand_capacity_data/US_solar_wind_demand/</t>
   </si>
   <si>
-    <t>StorageUnit</t>
-  </si>
-  <si>
-    <t>all_firm</t>
-  </si>
-  <si>
-    <t>(1.14)</t>
-  </si>
-  <si>
-    <t>#Generator</t>
-  </si>
-  <si>
-    <t>#Link</t>
-  </si>
-  <si>
-    <t>all_firm_case_cost_removal_no_geo_hydro</t>
-  </si>
-  <si>
-    <t>info</t>
+    <t>Pumped-Storage-Hydro-bicharger</t>
+  </si>
+  <si>
+    <t>Pumped-Storage-Hydro-store</t>
+  </si>
+  <si>
+    <t>Vanadium-Redox-Flow-bicharger</t>
+  </si>
+  <si>
+    <t>Vanadium-Redox-Flow-store</t>
+  </si>
+  <si>
+    <t>redox_store</t>
+  </si>
+  <si>
+    <t>vanadium</t>
+  </si>
+  <si>
+    <t>Zn-Air-bicharger</t>
+  </si>
+  <si>
+    <t>Zn-Air-store</t>
+  </si>
+  <si>
+    <t>zn_air_store</t>
+  </si>
+  <si>
+    <t>zn_air</t>
+  </si>
+  <si>
+    <t>Sand-charger</t>
+  </si>
+  <si>
+    <t>Sand-store</t>
+  </si>
+  <si>
+    <t>Sand-discharger</t>
+  </si>
+  <si>
+    <t>sand_store</t>
+  </si>
+  <si>
+    <t>sand</t>
+  </si>
+  <si>
+    <t>Concrete-charger</t>
+  </si>
+  <si>
+    <t>Concrete-store</t>
+  </si>
+  <si>
+    <t>Concrete-discharger</t>
+  </si>
+  <si>
+    <t>concrete_store</t>
+  </si>
+  <si>
+    <t>concrete</t>
+  </si>
+  <si>
+    <t>Lead-Acid-bicharger</t>
+  </si>
+  <si>
+    <t>Gravity-Brick-bicharger</t>
+  </si>
+  <si>
+    <t>Gravity-Brick-store</t>
+  </si>
+  <si>
+    <t>gravity_brick_store</t>
+  </si>
+  <si>
+    <t>grav_brick</t>
+  </si>
+  <si>
+    <t>Gravity-Water-Aboveground-bicharger</t>
+  </si>
+  <si>
+    <t>Gravity-Water-Aboveground-store</t>
+  </si>
+  <si>
+    <t>gravity_aboveground_store</t>
+  </si>
+  <si>
+    <t>grav_abo_ground</t>
+  </si>
+  <si>
+    <t>Gravity-Water-Underground-bicharger</t>
+  </si>
+  <si>
+    <t>Gravity-Water-Underground-store</t>
+  </si>
+  <si>
+    <t>gravity_underground_store</t>
+  </si>
+  <si>
+    <t>grav_und_ground</t>
+  </si>
+  <si>
+    <t>HighT-Molten-Salt-charger</t>
+  </si>
+  <si>
+    <t>HighT-Molten-Salt-discharger</t>
+  </si>
+  <si>
+    <t>HighT-Molten-Salt-store</t>
+  </si>
+  <si>
+    <t>highT_salt</t>
+  </si>
+  <si>
+    <t>Liquid-Air-charger</t>
+  </si>
+  <si>
+    <t>Liquid-Air-discharger</t>
+  </si>
+  <si>
+    <t>Liquid-Air-store</t>
+  </si>
+  <si>
+    <t>highT_molten_salt_store</t>
+  </si>
+  <si>
+    <t>phs_store</t>
+  </si>
+  <si>
+    <t>hydrogen_store</t>
+  </si>
+  <si>
+    <t>liquid_air_store</t>
+  </si>
+  <si>
+    <t>liquid_air</t>
+  </si>
+  <si>
+    <t>LowT-Molten-Salt-charger</t>
+  </si>
+  <si>
+    <t>lowT_molten_salt_store</t>
+  </si>
+  <si>
+    <t>lowT_salt</t>
+  </si>
+  <si>
+    <t>Pumped-Heat-charger</t>
+  </si>
+  <si>
+    <t>Pumped-Heat-store</t>
+  </si>
+  <si>
+    <t>Pumped-Heat-discharger</t>
+  </si>
+  <si>
+    <t>pumped_heat_store</t>
+  </si>
+  <si>
+    <t>pumped_heat</t>
+  </si>
+  <si>
+    <t>Lead-Acid-store</t>
+  </si>
+  <si>
+    <t>lead_acid_store</t>
+  </si>
+  <si>
+    <t>lead_acid</t>
+  </si>
+  <si>
+    <t>Lithium-Ion-LFP-bicharger</t>
+  </si>
+  <si>
+    <t>lithium_ion_lfp_store</t>
+  </si>
+  <si>
+    <t>lithium_ion_lfp</t>
+  </si>
+  <si>
+    <t>Lithium-Ion-NMC-bicharger</t>
+  </si>
+  <si>
+    <t>lithium_ion_nmc_store</t>
+  </si>
+  <si>
+    <t>lithium_ion_nmc</t>
+  </si>
+  <si>
+    <t>Ni-Zn-bicharger</t>
+  </si>
+  <si>
+    <t>ni_zn_store</t>
+  </si>
+  <si>
+    <t>ni_zn</t>
+  </si>
+  <si>
+    <t>Zn-Br-Flow-bicharger</t>
+  </si>
+  <si>
+    <t>Zn-Br-Flow-store</t>
+  </si>
+  <si>
+    <t>zn_br_flow</t>
+  </si>
+  <si>
+    <t>zn_br_flow_store</t>
+  </si>
+  <si>
+    <t>Zn-Br-Nonflow-bicharger</t>
+  </si>
+  <si>
+    <t>Zn-Br-Nonflow-store</t>
+  </si>
+  <si>
+    <t>zn_br_nonflow_store</t>
+  </si>
+  <si>
+    <t>zn_br_nonflow</t>
+  </si>
+  <si>
+    <t>LowT-Molten-Salt-store</t>
+  </si>
+  <si>
+    <t>LowT-Molten-Salt-discharger</t>
+  </si>
+  <si>
+    <t>Lithium-Ion-LFP-store</t>
+  </si>
+  <si>
+    <t>Lithium-Ion-NMC-store</t>
+  </si>
+  <si>
+    <t>Ni-Zn-store</t>
+  </si>
+  <si>
+    <t>clab_pypsa/utilities/costs_2020.csv</t>
   </si>
 </sst>
 </file>
@@ -820,7 +1036,7 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="53">
+  <fills count="59">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1120,6 +1336,42 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBC4C3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9385"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -1301,7 +1553,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1458,8 +1710,83 @@
     <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="11" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="47" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="48" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1512,16 +1839,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9385"/>
+      <color rgb="FFEFFEB1"/>
+      <color rgb="FFFFCFE9"/>
+      <color rgb="FFFBC4C3"/>
       <color rgb="FFC6E0B4"/>
       <color rgb="FFFD5646"/>
-      <color rgb="FFEFFEB1"/>
       <color rgb="FFFF6654"/>
-      <color rgb="FFFF9385"/>
       <color rgb="FFFFA58D"/>
       <color rgb="FFFF8B87"/>
-      <color rgb="FFFFCFE9"/>
       <color rgb="FFCD6CBA"/>
-      <color rgb="FFFBC4C3"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1866,17 +2193,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z125"/>
+  <dimension ref="A1:Z167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
     <col min="6" max="6" width="18.1640625" customWidth="1"/>
@@ -1892,9 +2219,9 @@
     <col min="17" max="17" width="11.5" customWidth="1"/>
     <col min="18" max="18" width="18.6640625" customWidth="1"/>
     <col min="19" max="19" width="11.5" customWidth="1"/>
-    <col min="20" max="20" width="15.33203125" customWidth="1"/>
+    <col min="20" max="20" width="8.5" customWidth="1"/>
     <col min="21" max="21" width="12.6640625" customWidth="1"/>
-    <col min="22" max="22" width="7.6640625" customWidth="1"/>
+    <col min="22" max="22" width="17.83203125" customWidth="1"/>
     <col min="23" max="23" width="14.1640625" customWidth="1"/>
     <col min="24" max="24" width="12.33203125" customWidth="1"/>
   </cols>
@@ -2201,11 +2528,11 @@
       <c r="A26" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>99</v>
+      <c r="B26" s="86" t="s">
+        <v>268</v>
       </c>
       <c r="F26" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2221,7 +2548,7 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2229,7 +2556,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2248,7 +2575,7 @@
         <v>37</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2285,10 +2612,10 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B36" s="73" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
@@ -2296,7 +2623,7 @@
         <v>42</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="D37" t="s">
         <v>46</v>
@@ -2331,7 +2658,7 @@
         <v>92</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C41" s="1"/>
     </row>
@@ -2349,11 +2676,11 @@
         <v>64</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
@@ -2369,7 +2696,7 @@
         <v>18</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G46" t="s">
         <v>84</v>
@@ -2378,7 +2705,7 @@
         <v>69</v>
       </c>
       <c r="P46" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
@@ -2421,7 +2748,7 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
     </row>
-    <row r="49" spans="1:26" s="36" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>4</v>
       </c>
@@ -2473,7 +2800,7 @@
         <v>76</v>
       </c>
       <c r="P50" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:26" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -2484,7 +2811,7 @@
         <v>21</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>22</v>
@@ -2499,7 +2826,7 @@
         <v>83</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>43</v>
@@ -2517,7 +2844,7 @@
         <v>25</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R51" s="2" t="s">
         <v>26</v>
@@ -2566,7 +2893,7 @@
       <c r="Q52" s="21"/>
       <c r="R52" s="21"/>
       <c r="S52" s="21"/>
-      <c r="T52" s="21"/>
+      <c r="T52" s="53"/>
       <c r="U52" s="21"/>
       <c r="V52" s="20"/>
       <c r="W52" s="21"/>
@@ -2584,7 +2911,7 @@
         <v>44</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3" t="s">
@@ -2599,23 +2926,27 @@
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
-      <c r="L53" s="54"/>
+      <c r="L53" s="54" t="s">
+        <v>179</v>
+      </c>
       <c r="M53" s="3" t="str">
         <f>B43 &amp; "/time range/" &amp; B41</f>
         <v>€/time range/MW</v>
       </c>
-      <c r="N53" s="3"/>
+      <c r="N53" s="90" t="s">
+        <v>179</v>
+      </c>
       <c r="O53" s="3" t="str">
         <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
         <v>€/MWh</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
+      <c r="T53" s="54"/>
       <c r="U53" s="3"/>
       <c r="V53" s="19"/>
       <c r="W53" s="3"/>
@@ -2627,7 +2958,7 @@
         <v>44</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C54" s="22"/>
       <c r="D54" s="22" t="s">
@@ -2642,23 +2973,27 @@
       </c>
       <c r="J54" s="22"/>
       <c r="K54" s="22"/>
-      <c r="L54" s="55"/>
+      <c r="L54" s="55" t="s">
+        <v>179</v>
+      </c>
       <c r="M54" s="22" t="str">
         <f>B43 &amp; "/time range/" &amp; B41</f>
         <v>€/time range/MW</v>
       </c>
-      <c r="N54" s="22"/>
+      <c r="N54" s="91" t="s">
+        <v>179</v>
+      </c>
       <c r="O54" s="22" t="str">
         <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
         <v>€/MWh</v>
       </c>
       <c r="P54" s="22" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="Q54" s="22"/>
       <c r="R54" s="22"/>
       <c r="S54" s="22"/>
-      <c r="T54" s="22"/>
+      <c r="T54" s="55"/>
       <c r="U54" s="22"/>
       <c r="V54" s="10"/>
       <c r="W54" s="22"/>
@@ -2670,13 +3005,13 @@
         <v>44</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="E55" s="18"/>
       <c r="F55" s="18"/>
@@ -2686,28 +3021,30 @@
       <c r="J55" s="18"/>
       <c r="K55" s="18"/>
       <c r="L55" s="85">
-        <f>M114*B33</f>
-        <v>163392.13449645168</v>
+        <f>M156*B33</f>
+        <v>143326.43376881725</v>
       </c>
       <c r="M55" s="18" t="str">
         <f>B43 &amp; "/time range/" &amp; B41</f>
         <v>€/time range/MW</v>
       </c>
-      <c r="N55" s="18">
-        <f>P114</f>
-        <v>43.894285714285708</v>
+      <c r="N55" s="93">
+        <f>P156</f>
+        <v>39.223057644110277</v>
       </c>
       <c r="O55" s="18" t="str">
         <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
         <v>€/MWh</v>
       </c>
       <c r="P55" s="18" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="Q55" s="18"/>
       <c r="R55" s="18"/>
       <c r="S55" s="18"/>
-      <c r="T55" s="18"/>
+      <c r="T55" s="93" t="s">
+        <v>179</v>
+      </c>
       <c r="U55" s="18"/>
       <c r="V55" s="17"/>
       <c r="W55" s="18"/>
@@ -2719,13 +3056,13 @@
         <v>70</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="E56" s="18" t="s">
         <v>88</v>
@@ -2745,7 +3082,7 @@
         <f>B43 &amp; "/time range/" &amp; B41</f>
         <v>€/time range/MW</v>
       </c>
-      <c r="N56" s="18">
+      <c r="N56" s="93">
         <v>0</v>
       </c>
       <c r="O56" s="18" t="str">
@@ -2753,17 +3090,17 @@
         <v>€/MWh</v>
       </c>
       <c r="P56" s="18" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="Q56" s="18"/>
       <c r="R56" s="18"/>
       <c r="S56" s="18"/>
-      <c r="T56" s="18">
+      <c r="T56" s="93">
         <v>1</v>
       </c>
       <c r="U56" s="18"/>
       <c r="V56" s="17" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="W56" s="18" t="str">
         <f>B42 &amp; "/" &amp;B41 &amp; B40</f>
@@ -2777,10 +3114,10 @@
         <v>44</v>
       </c>
       <c r="B57" s="76" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C57" s="76" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D57" s="76" t="s">
         <v>89</v>
@@ -2792,23 +3129,29 @@
       <c r="I57" s="76"/>
       <c r="J57" s="76"/>
       <c r="K57" s="76"/>
-      <c r="L57" s="77"/>
+      <c r="L57" s="77" t="s">
+        <v>179</v>
+      </c>
       <c r="M57" s="76" t="str">
         <f>B43 &amp; "/time range/" &amp; B41</f>
         <v>€/time range/MW</v>
       </c>
-      <c r="N57" s="76"/>
+      <c r="N57" s="77" t="s">
+        <v>179</v>
+      </c>
       <c r="O57" s="76" t="str">
         <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
         <v>€/MWh</v>
       </c>
       <c r="P57" s="76" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="Q57" s="76"/>
       <c r="R57" s="76"/>
       <c r="S57" s="76"/>
-      <c r="T57" s="76"/>
+      <c r="T57" s="77" t="s">
+        <v>179</v>
+      </c>
       <c r="U57" s="76"/>
       <c r="V57" s="75"/>
       <c r="W57" s="76"/>
@@ -2820,10 +3163,10 @@
         <v>70</v>
       </c>
       <c r="B58" s="76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C58" s="76" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D58" s="76" t="s">
         <v>89</v>
@@ -2846,7 +3189,7 @@
         <f>B43 &amp; "/time range/" &amp; B41</f>
         <v>€/time range/MW</v>
       </c>
-      <c r="N58" s="76">
+      <c r="N58" s="77">
         <v>0</v>
       </c>
       <c r="O58" s="76" t="str">
@@ -2854,17 +3197,17 @@
         <v>€/MWh</v>
       </c>
       <c r="P58" s="76" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="Q58" s="76"/>
       <c r="R58" s="76"/>
       <c r="S58" s="76"/>
-      <c r="T58" s="76">
+      <c r="T58" s="77">
         <v>1</v>
       </c>
       <c r="U58" s="76"/>
       <c r="V58" s="75" t="s">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="W58" s="76" t="str">
         <f>B42 &amp; "/" &amp;B41 &amp; B40</f>
@@ -2878,13 +3221,13 @@
         <v>44</v>
       </c>
       <c r="B59" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C59" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C59" s="13" t="s">
-        <v>184</v>
-      </c>
       <c r="D59" s="13" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
@@ -2894,28 +3237,28 @@
       <c r="J59" s="13"/>
       <c r="K59" s="13"/>
       <c r="L59" s="89">
-        <f>M118*B33</f>
-        <v>463994.87451959722</v>
+        <f>M160*B33</f>
+        <v>407013.04782420816</v>
       </c>
       <c r="M59" s="13" t="str">
         <f>B43 &amp; "/time range/" &amp; B41</f>
         <v>€/time range/MW</v>
       </c>
-      <c r="N59" s="13">
-        <f>P118</f>
-        <v>16.600000000000001</v>
+      <c r="N59" s="56">
+        <f>P160</f>
+        <v>14.561403508771932</v>
       </c>
       <c r="O59" s="13" t="str">
         <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
         <v>€/MWh</v>
       </c>
       <c r="P59" s="13" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="Q59" s="13"/>
       <c r="R59" s="13"/>
       <c r="S59" s="13"/>
-      <c r="T59" s="13"/>
+      <c r="T59" s="56"/>
       <c r="U59" s="13"/>
       <c r="V59" s="12"/>
       <c r="W59" s="13"/>
@@ -2927,13 +3270,13 @@
         <v>70</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E60" s="13" t="s">
         <v>88</v>
@@ -2953,7 +3296,7 @@
         <f>B43 &amp; "/time range/" &amp; B41</f>
         <v>€/time range/MW</v>
       </c>
-      <c r="N60" s="13">
+      <c r="N60" s="56">
         <v>0</v>
       </c>
       <c r="O60" s="13" t="str">
@@ -2961,15 +3304,15 @@
         <v>€/MWh</v>
       </c>
       <c r="P60" s="13" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="Q60" s="13"/>
       <c r="R60" s="13"/>
       <c r="S60" s="13"/>
-      <c r="T60" s="13"/>
+      <c r="T60" s="56"/>
       <c r="U60" s="13"/>
       <c r="V60" s="13">
-        <f>Q118</f>
+        <f>Q160</f>
         <v>-1.22</v>
       </c>
       <c r="W60" s="13" t="str">
@@ -2981,7 +3324,7 @@
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="23" t="s">
-        <v>193</v>
+        <v>44</v>
       </c>
       <c r="B61" s="24" t="s">
         <v>79</v>
@@ -2990,7 +3333,7 @@
         <v>79</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E61" s="24"/>
       <c r="F61" s="24"/>
@@ -2999,23 +3342,29 @@
       <c r="I61" s="24"/>
       <c r="J61" s="24"/>
       <c r="K61" s="24"/>
-      <c r="L61" s="57"/>
+      <c r="L61" s="57" t="s">
+        <v>179</v>
+      </c>
       <c r="M61" s="24" t="str">
         <f>B43 &amp; "/time range/" &amp; B41</f>
         <v>€/time range/MW</v>
       </c>
-      <c r="N61" s="24"/>
+      <c r="N61" s="94" t="s">
+        <v>179</v>
+      </c>
       <c r="O61" s="24" t="str">
         <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
         <v>€/MWh</v>
       </c>
       <c r="P61" s="24" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="Q61" s="24"/>
       <c r="R61" s="24"/>
       <c r="S61" s="24"/>
-      <c r="T61" s="24"/>
+      <c r="T61" s="57" t="s">
+        <v>179</v>
+      </c>
       <c r="U61" s="24"/>
       <c r="V61" s="23"/>
       <c r="W61" s="24"/>
@@ -3024,16 +3373,16 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" s="23" t="s">
-        <v>194</v>
+        <v>70</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C62" s="24" t="s">
         <v>79</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E62" s="24" t="s">
         <v>88</v>
@@ -3053,7 +3402,7 @@
         <f>B43 &amp; "/time range/" &amp; B41</f>
         <v>€/time range/MW</v>
       </c>
-      <c r="N62" s="24">
+      <c r="N62" s="57">
         <v>0</v>
       </c>
       <c r="O62" s="24" t="str">
@@ -3061,17 +3410,17 @@
         <v>€/MWh</v>
       </c>
       <c r="P62" s="24" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="Q62" s="24"/>
       <c r="R62" s="24"/>
       <c r="S62" s="24"/>
-      <c r="T62" s="24">
+      <c r="T62" s="57">
         <v>1</v>
       </c>
       <c r="U62" s="24"/>
       <c r="V62" s="23" t="s">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="W62" s="24" t="str">
         <f>B42 &amp; "/" &amp;B41 &amp; B40</f>
@@ -3098,23 +3447,29 @@
       <c r="I63" s="35"/>
       <c r="J63" s="35"/>
       <c r="K63" s="35"/>
-      <c r="L63" s="78"/>
+      <c r="L63" s="78" t="s">
+        <v>179</v>
+      </c>
       <c r="M63" s="35" t="str">
         <f>B43 &amp; "/time range/" &amp; B41</f>
         <v>€/time range/MW</v>
       </c>
-      <c r="N63" s="35"/>
+      <c r="N63" s="95" t="s">
+        <v>179</v>
+      </c>
       <c r="O63" s="35" t="str">
         <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
         <v>€/MWh</v>
       </c>
       <c r="P63" s="35" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="Q63" s="35"/>
       <c r="R63" s="35"/>
       <c r="S63" s="35"/>
-      <c r="T63" s="35"/>
+      <c r="T63" s="95" t="s">
+        <v>179</v>
+      </c>
       <c r="U63" s="35"/>
       <c r="V63" s="34"/>
       <c r="W63" s="35"/>
@@ -3123,10 +3478,10 @@
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>193</v>
+        <v>44</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C64" s="15"/>
       <c r="D64" s="15" t="s">
@@ -3139,1433 +3494,3292 @@
       <c r="I64" s="15"/>
       <c r="J64" s="15"/>
       <c r="K64" s="15"/>
-      <c r="L64" s="58"/>
+      <c r="L64" s="58" t="s">
+        <v>179</v>
+      </c>
       <c r="M64" s="15" t="str">
         <f>B43 &amp; "/time range/" &amp; B41</f>
         <v>€/time range/MW</v>
       </c>
-      <c r="N64" s="15"/>
+      <c r="N64" s="96" t="s">
+        <v>179</v>
+      </c>
       <c r="O64" s="15" t="str">
         <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
         <v>€/MWh</v>
       </c>
       <c r="P64" s="15" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="Q64" s="15"/>
       <c r="R64" s="15"/>
       <c r="S64" s="15"/>
-      <c r="T64" s="15"/>
+      <c r="T64" s="58" t="s">
+        <v>179</v>
+      </c>
       <c r="U64" s="15"/>
       <c r="V64" s="14"/>
       <c r="W64" s="15"/>
       <c r="X64" s="15"/>
       <c r="Y64" s="15"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A65" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="B65" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26" t="s">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A65" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" s="62"/>
+      <c r="D65" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="26"/>
-      <c r="K65" s="26"/>
-      <c r="L65" s="59" t="str">
-        <f xml:space="preserve"> R65&amp;"*capital_cost"</f>
-        <v>6*capital_cost</v>
-      </c>
-      <c r="M65" s="26" t="str">
+      <c r="E65" s="62"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="62"/>
+      <c r="H65" s="62"/>
+      <c r="I65" s="62"/>
+      <c r="J65" s="62"/>
+      <c r="K65" s="62"/>
+      <c r="L65" s="80">
+        <f>H163/8784*B34</f>
+        <v>219298.24561403508</v>
+      </c>
+      <c r="M65" s="62" t="str">
         <f>B43 &amp; "/time range/" &amp; B41</f>
         <v>€/time range/MW</v>
       </c>
-      <c r="N65" s="26">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="O65" s="26" t="str">
+      <c r="N65" s="100"/>
+      <c r="O65" s="62" t="str">
         <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
         <v>€/MWh</v>
       </c>
-      <c r="P65" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q65" s="26"/>
-      <c r="R65" s="26">
-        <v>6</v>
-      </c>
-      <c r="S65" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="T65" s="26"/>
-      <c r="U65" s="26"/>
-      <c r="V65" s="25"/>
-      <c r="W65" s="26"/>
-      <c r="X65" s="26"/>
-      <c r="Y65" s="26"/>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A66" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B66" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C66" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="D66" s="28" t="s">
+      <c r="P65" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q65" s="62">
+        <v>-1</v>
+      </c>
+      <c r="R65" s="62"/>
+      <c r="S65" s="62"/>
+      <c r="T65" s="105"/>
+      <c r="U65" s="62"/>
+      <c r="V65" s="61"/>
+      <c r="W65" s="62"/>
+      <c r="X65" s="62"/>
+      <c r="Y65" s="62"/>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A66" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" s="64"/>
+      <c r="D66" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="E66" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
-      <c r="K66" s="28"/>
-      <c r="L66" s="60"/>
-      <c r="M66" s="28" t="str">
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="64"/>
+      <c r="I66" s="64"/>
+      <c r="J66" s="64"/>
+      <c r="K66" s="64"/>
+      <c r="L66" s="81">
+        <f>H163/8784*B34</f>
+        <v>219298.24561403508</v>
+      </c>
+      <c r="M66" s="64" t="str">
         <f>B43 &amp; "/time range/" &amp; B41</f>
         <v>€/time range/MW</v>
       </c>
-      <c r="N66" s="28">
-        <v>0.02</v>
-      </c>
-      <c r="O66" s="28" t="str">
+      <c r="N66" s="101"/>
+      <c r="O66" s="64" t="str">
         <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
         <v>€/MWh</v>
       </c>
-      <c r="P66" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q66" s="28"/>
-      <c r="R66" s="28"/>
-      <c r="S66" s="28"/>
-      <c r="T66" s="28"/>
-      <c r="U66" s="28"/>
-      <c r="V66" s="27"/>
-      <c r="W66" s="28"/>
-      <c r="X66" s="28"/>
-      <c r="Y66" s="28"/>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A67" s="27" t="s">
+      <c r="P66" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q66" s="64"/>
+      <c r="R66" s="64"/>
+      <c r="S66" s="64"/>
+      <c r="T66" s="106"/>
+      <c r="U66" s="64"/>
+      <c r="V66" s="63"/>
+      <c r="W66" s="64"/>
+      <c r="X66" s="64"/>
+      <c r="Y66" s="64"/>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A67" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="72"/>
+      <c r="H67" s="72"/>
+      <c r="I67" s="72"/>
+      <c r="J67" s="72"/>
+      <c r="K67" s="72"/>
+      <c r="L67" s="82"/>
+      <c r="M67" s="72" t="str">
+        <f>B43 &amp; "/time range/" &amp; B41</f>
+        <v>€/time range/MW</v>
+      </c>
+      <c r="N67" s="102">
+        <f>P162</f>
+        <v>8771.9298245614045</v>
+      </c>
+      <c r="O67" s="72" t="str">
+        <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
+        <v>€/MWh</v>
+      </c>
+      <c r="P67" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q67" s="72"/>
+      <c r="R67" s="72"/>
+      <c r="S67" s="72"/>
+      <c r="T67" s="102"/>
+      <c r="U67" s="72"/>
+      <c r="V67" s="71"/>
+      <c r="W67" s="72"/>
+      <c r="X67" s="72"/>
+      <c r="Y67" s="72"/>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A68" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="C68" s="70"/>
+      <c r="D68" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="E68" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="F68" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="G68" s="70"/>
+      <c r="H68" s="70"/>
+      <c r="I68" s="70"/>
+      <c r="J68" s="70"/>
+      <c r="K68" s="70"/>
+      <c r="L68" s="83" t="s">
+        <v>179</v>
+      </c>
+      <c r="M68" s="70" t="str">
+        <f>B43 &amp; "/time range/" &amp; B41</f>
+        <v>€/time range/MW</v>
+      </c>
+      <c r="N68" s="103" t="s">
+        <v>179</v>
+      </c>
+      <c r="O68" s="70" t="str">
+        <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
+        <v>€/MWh</v>
+      </c>
+      <c r="P68" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q68" s="70"/>
+      <c r="R68" s="70"/>
+      <c r="S68" s="70"/>
+      <c r="T68" s="83"/>
+      <c r="U68" s="70"/>
+      <c r="V68" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="W68" s="70" t="str">
+        <f xml:space="preserve"> B41 &amp; B40  &amp; "/" &amp;  B42</f>
+        <v>MWh/t</v>
+      </c>
+      <c r="X68" s="70"/>
+      <c r="Y68" s="70"/>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A69" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C67" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="D67" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="60"/>
-      <c r="M67" s="28" t="str">
+      <c r="B69" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="33">
+        <v>0</v>
+      </c>
+      <c r="L69" s="84"/>
+      <c r="M69" s="33" t="str">
+        <f>B43 &amp; "/time range/" &amp; B41</f>
+        <v>€/time range/MW</v>
+      </c>
+      <c r="N69" s="84"/>
+      <c r="O69" s="33" t="str">
+        <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
+        <v>€/MWh</v>
+      </c>
+      <c r="P69" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q69" s="33"/>
+      <c r="R69" s="33"/>
+      <c r="S69" s="33"/>
+      <c r="T69" s="84"/>
+      <c r="U69" s="33"/>
+      <c r="V69" s="32"/>
+      <c r="W69" s="33"/>
+      <c r="X69" s="33"/>
+      <c r="Y69" s="33"/>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A70" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="67"/>
+      <c r="J70" s="67"/>
+      <c r="K70" s="67"/>
+      <c r="L70" s="92" t="s">
+        <v>179</v>
+      </c>
+      <c r="M70" s="67" t="str">
+        <f>B43 &amp; "/time range/" &amp; "CO2"</f>
+        <v>€/time range/CO2</v>
+      </c>
+      <c r="N70" s="104" t="s">
+        <v>179</v>
+      </c>
+      <c r="O70" s="67"/>
+      <c r="P70" s="67" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q70" s="67"/>
+      <c r="R70" s="67"/>
+      <c r="S70" s="67"/>
+      <c r="T70" s="92"/>
+      <c r="U70" s="67"/>
+      <c r="V70" s="66"/>
+      <c r="W70" s="67"/>
+      <c r="X70" s="67"/>
+      <c r="Y70" s="67"/>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A71" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="26"/>
+      <c r="L71" s="59" t="str">
+        <f xml:space="preserve"> R71&amp;"*db_capital_cost"</f>
+        <v>6*db_capital_cost</v>
+      </c>
+      <c r="M71" s="26" t="str">
+        <f>B43 &amp; "/time range/" &amp; B41</f>
+        <v>€/time range/MW</v>
+      </c>
+      <c r="N71" s="59">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O71" s="26" t="str">
+        <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
+        <v>€/MWh</v>
+      </c>
+      <c r="P71" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q71" s="26"/>
+      <c r="R71" s="26">
+        <v>6</v>
+      </c>
+      <c r="S71" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="T71" s="59"/>
+      <c r="U71" s="26"/>
+      <c r="V71" s="25"/>
+      <c r="W71" s="26"/>
+      <c r="X71" s="26"/>
+      <c r="Y71" s="26"/>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A72" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="C72" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="D72" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="E72" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="F72" s="45"/>
+      <c r="G72" s="45">
+        <v>-1</v>
+      </c>
+      <c r="H72" s="45"/>
+      <c r="I72" s="45"/>
+      <c r="J72" s="45"/>
+      <c r="K72" s="45"/>
+      <c r="L72" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="M72" s="45"/>
+      <c r="N72" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="O72" s="45"/>
+      <c r="P72" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q72" s="45"/>
+      <c r="R72" s="45"/>
+      <c r="S72" s="45"/>
+      <c r="T72" s="45"/>
+      <c r="U72" s="45"/>
+      <c r="V72" s="45"/>
+      <c r="W72" s="45"/>
+      <c r="X72" s="45"/>
+      <c r="Y72" s="45"/>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A73" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="C73" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="D73" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="E73" s="45"/>
+      <c r="F73" s="45"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="45"/>
+      <c r="I73" s="45"/>
+      <c r="J73" s="45"/>
+      <c r="K73" s="45"/>
+      <c r="L73" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="M73" s="45"/>
+      <c r="N73" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="O73" s="45"/>
+      <c r="P73" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q73" s="45"/>
+      <c r="R73" s="45"/>
+      <c r="S73" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="T73" s="45"/>
+      <c r="U73" s="45"/>
+      <c r="V73" s="45"/>
+      <c r="W73" s="45"/>
+      <c r="X73" s="45"/>
+      <c r="Y73" s="45"/>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A74" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74" s="72" t="s">
+        <v>246</v>
+      </c>
+      <c r="C74" s="72" t="s">
+        <v>247</v>
+      </c>
+      <c r="D74" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="E74" s="72" t="s">
+        <v>248</v>
+      </c>
+      <c r="F74" s="72"/>
+      <c r="G74" s="72">
+        <v>-1</v>
+      </c>
+      <c r="H74" s="72"/>
+      <c r="I74" s="72"/>
+      <c r="J74" s="72"/>
+      <c r="K74" s="72"/>
+      <c r="L74" s="102" t="s">
+        <v>179</v>
+      </c>
+      <c r="M74" s="72"/>
+      <c r="N74" s="102" t="s">
+        <v>179</v>
+      </c>
+      <c r="O74" s="72"/>
+      <c r="P74" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q74" s="72"/>
+      <c r="R74" s="72"/>
+      <c r="S74" s="72"/>
+      <c r="T74" s="72"/>
+      <c r="U74" s="72"/>
+      <c r="V74" s="72"/>
+      <c r="W74" s="72"/>
+      <c r="X74" s="72"/>
+      <c r="Y74" s="72"/>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A75" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B75" s="72" t="s">
+        <v>265</v>
+      </c>
+      <c r="C75" s="72" t="s">
+        <v>247</v>
+      </c>
+      <c r="D75" s="72" t="s">
+        <v>248</v>
+      </c>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="72"/>
+      <c r="H75" s="72"/>
+      <c r="I75" s="72"/>
+      <c r="J75" s="72"/>
+      <c r="K75" s="72"/>
+      <c r="L75" s="102" t="s">
+        <v>179</v>
+      </c>
+      <c r="M75" s="72"/>
+      <c r="N75" s="102" t="s">
+        <v>179</v>
+      </c>
+      <c r="O75" s="72"/>
+      <c r="P75" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q75" s="72"/>
+      <c r="R75" s="72"/>
+      <c r="S75" s="72" t="b">
+        <v>1</v>
+      </c>
+      <c r="T75" s="72"/>
+      <c r="U75" s="72"/>
+      <c r="V75" s="72"/>
+      <c r="W75" s="72"/>
+      <c r="X75" s="72"/>
+      <c r="Y75" s="72"/>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A76" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="M76" s="15"/>
+      <c r="N76" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q76" s="15"/>
+      <c r="R76" s="15"/>
+      <c r="S76" s="15"/>
+      <c r="T76" s="15"/>
+      <c r="U76" s="15"/>
+      <c r="V76" s="15"/>
+      <c r="W76" s="15"/>
+      <c r="X76" s="15"/>
+      <c r="Y76" s="15"/>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A77" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="M77" s="15"/>
+      <c r="N77" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q77" s="15"/>
+      <c r="R77" s="15"/>
+      <c r="S77" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="T77" s="15"/>
+      <c r="U77" s="15"/>
+      <c r="V77" s="15"/>
+      <c r="W77" s="15"/>
+      <c r="X77" s="15"/>
+      <c r="Y77" s="15"/>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A78" s="116" t="s">
+        <v>70</v>
+      </c>
+      <c r="B78" s="116" t="s">
+        <v>252</v>
+      </c>
+      <c r="C78" s="116" t="s">
+        <v>253</v>
+      </c>
+      <c r="D78" s="116" t="s">
+        <v>88</v>
+      </c>
+      <c r="E78" s="116" t="s">
+        <v>254</v>
+      </c>
+      <c r="F78" s="116"/>
+      <c r="G78" s="116">
+        <v>-1</v>
+      </c>
+      <c r="H78" s="116"/>
+      <c r="I78" s="116"/>
+      <c r="J78" s="116"/>
+      <c r="K78" s="116"/>
+      <c r="L78" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="M78" s="116"/>
+      <c r="N78" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="O78" s="116"/>
+      <c r="P78" s="116" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q78" s="116"/>
+      <c r="R78" s="116"/>
+      <c r="S78" s="116"/>
+      <c r="T78" s="116"/>
+      <c r="U78" s="116"/>
+      <c r="V78" s="116"/>
+      <c r="W78" s="116"/>
+      <c r="X78" s="116"/>
+      <c r="Y78" s="116"/>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A79" s="116" t="s">
+        <v>71</v>
+      </c>
+      <c r="B79" s="116" t="s">
+        <v>267</v>
+      </c>
+      <c r="C79" s="116" t="s">
+        <v>253</v>
+      </c>
+      <c r="D79" s="116" t="s">
+        <v>254</v>
+      </c>
+      <c r="E79" s="116"/>
+      <c r="F79" s="116"/>
+      <c r="G79" s="116"/>
+      <c r="H79" s="116"/>
+      <c r="I79" s="116"/>
+      <c r="J79" s="116"/>
+      <c r="K79" s="116"/>
+      <c r="L79" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="M79" s="116"/>
+      <c r="N79" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="O79" s="116"/>
+      <c r="P79" s="116" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q79" s="116"/>
+      <c r="R79" s="116"/>
+      <c r="S79" s="116" t="b">
+        <v>1</v>
+      </c>
+      <c r="T79" s="116"/>
+      <c r="U79" s="116"/>
+      <c r="V79" s="116"/>
+      <c r="W79" s="116"/>
+      <c r="X79" s="116"/>
+      <c r="Y79" s="116"/>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A80" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B80" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="C80" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D80" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E80" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="F80" s="35"/>
+      <c r="G80" s="35">
+        <v>-1</v>
+      </c>
+      <c r="H80" s="35"/>
+      <c r="I80" s="35"/>
+      <c r="J80" s="35"/>
+      <c r="K80" s="35"/>
+      <c r="L80" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="M80" s="35"/>
+      <c r="N80" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="O80" s="35"/>
+      <c r="P80" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q80" s="35"/>
+      <c r="R80" s="35"/>
+      <c r="S80" s="35"/>
+      <c r="T80" s="35"/>
+      <c r="U80" s="35"/>
+      <c r="V80" s="35"/>
+      <c r="W80" s="35"/>
+      <c r="X80" s="35"/>
+      <c r="Y80" s="35"/>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A81" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B81" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="C81" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D81" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="35"/>
+      <c r="J81" s="35"/>
+      <c r="K81" s="35"/>
+      <c r="L81" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="M81" s="35"/>
+      <c r="N81" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="O81" s="35"/>
+      <c r="P81" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q81" s="35"/>
+      <c r="R81" s="35"/>
+      <c r="S81" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="T81" s="35"/>
+      <c r="U81" s="35"/>
+      <c r="V81" s="35"/>
+      <c r="W81" s="35"/>
+      <c r="X81" s="35"/>
+      <c r="Y81" s="35"/>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A82" s="118" t="s">
+        <v>70</v>
+      </c>
+      <c r="B82" s="118" t="s">
+        <v>196</v>
+      </c>
+      <c r="C82" s="118" t="s">
+        <v>198</v>
+      </c>
+      <c r="D82" s="118" t="s">
+        <v>88</v>
+      </c>
+      <c r="E82" s="118" t="s">
+        <v>199</v>
+      </c>
+      <c r="F82" s="118"/>
+      <c r="G82" s="118">
+        <v>-1</v>
+      </c>
+      <c r="H82" s="118"/>
+      <c r="I82" s="118"/>
+      <c r="J82" s="118"/>
+      <c r="K82" s="118"/>
+      <c r="L82" s="119" t="s">
+        <v>179</v>
+      </c>
+      <c r="M82" s="118"/>
+      <c r="N82" s="119" t="s">
+        <v>179</v>
+      </c>
+      <c r="O82" s="118"/>
+      <c r="P82" s="118" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q82" s="118"/>
+      <c r="R82" s="118"/>
+      <c r="S82" s="118"/>
+      <c r="T82" s="118"/>
+      <c r="U82" s="118"/>
+      <c r="V82" s="118"/>
+      <c r="W82" s="118"/>
+      <c r="X82" s="118"/>
+      <c r="Y82" s="118"/>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A83" s="118" t="s">
+        <v>71</v>
+      </c>
+      <c r="B83" s="118" t="s">
+        <v>197</v>
+      </c>
+      <c r="C83" s="118" t="s">
+        <v>198</v>
+      </c>
+      <c r="D83" s="118" t="s">
+        <v>199</v>
+      </c>
+      <c r="E83" s="118"/>
+      <c r="F83" s="118"/>
+      <c r="G83" s="118"/>
+      <c r="H83" s="118"/>
+      <c r="I83" s="118"/>
+      <c r="J83" s="118"/>
+      <c r="K83" s="118"/>
+      <c r="L83" s="119" t="s">
+        <v>179</v>
+      </c>
+      <c r="M83" s="118"/>
+      <c r="N83" s="119" t="s">
+        <v>179</v>
+      </c>
+      <c r="O83" s="118"/>
+      <c r="P83" s="118" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q83" s="118"/>
+      <c r="R83" s="118"/>
+      <c r="S83" s="118" t="b">
+        <v>1</v>
+      </c>
+      <c r="T83" s="118"/>
+      <c r="U83" s="118"/>
+      <c r="V83" s="118"/>
+      <c r="W83" s="118"/>
+      <c r="X83" s="118"/>
+      <c r="Y83" s="118"/>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="M84" s="3"/>
+      <c r="N84" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
+      <c r="X84" s="3"/>
+      <c r="Y84" s="3"/>
+      <c r="Z84" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="M85" s="3"/>
+      <c r="N85" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T85" s="3"/>
+      <c r="U85" s="3"/>
+      <c r="V85" s="3"/>
+      <c r="W85" s="3"/>
+      <c r="X85" s="3"/>
+      <c r="Y85" s="3"/>
+      <c r="Z85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A86" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B86" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="C86" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="D86" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="E86" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="F86" s="45"/>
+      <c r="G86" s="45">
+        <v>-1</v>
+      </c>
+      <c r="H86" s="45"/>
+      <c r="I86" s="45"/>
+      <c r="J86" s="45"/>
+      <c r="K86" s="45"/>
+      <c r="L86" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="M86" s="45"/>
+      <c r="N86" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="O86" s="45"/>
+      <c r="P86" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q86" s="45"/>
+      <c r="R86" s="45"/>
+      <c r="S86" s="45"/>
+      <c r="T86" s="45"/>
+      <c r="U86" s="45"/>
+      <c r="V86" s="45"/>
+      <c r="W86" s="45"/>
+      <c r="X86" s="45"/>
+      <c r="Y86" s="45"/>
+      <c r="Z86" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A87" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B87" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="C87" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="D87" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="E87" s="45"/>
+      <c r="F87" s="45"/>
+      <c r="G87" s="45"/>
+      <c r="H87" s="45"/>
+      <c r="I87" s="45"/>
+      <c r="J87" s="45"/>
+      <c r="K87" s="45"/>
+      <c r="L87" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="M87" s="45"/>
+      <c r="N87" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="O87" s="45"/>
+      <c r="P87" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q87" s="45"/>
+      <c r="R87" s="45"/>
+      <c r="S87" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="T87" s="45"/>
+      <c r="U87" s="45"/>
+      <c r="V87" s="45"/>
+      <c r="W87" s="45"/>
+      <c r="X87" s="45"/>
+      <c r="Y87" s="45"/>
+      <c r="Z87" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A88" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B88" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="C88" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="D88" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E88" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="F88" s="35"/>
+      <c r="G88" s="35">
+        <v>-1</v>
+      </c>
+      <c r="H88" s="35"/>
+      <c r="I88" s="35"/>
+      <c r="J88" s="35"/>
+      <c r="K88" s="35"/>
+      <c r="L88" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="M88" s="35"/>
+      <c r="N88" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="O88" s="35"/>
+      <c r="P88" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q88" s="35"/>
+      <c r="R88" s="35"/>
+      <c r="S88" s="35"/>
+      <c r="T88" s="35"/>
+      <c r="U88" s="35"/>
+      <c r="V88" s="35"/>
+      <c r="W88" s="35"/>
+      <c r="X88" s="35"/>
+      <c r="Y88" s="35"/>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A89" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B89" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="C89" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="D89" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="E89" s="35"/>
+      <c r="F89" s="35"/>
+      <c r="G89" s="35"/>
+      <c r="H89" s="35"/>
+      <c r="I89" s="35"/>
+      <c r="J89" s="35"/>
+      <c r="K89" s="35"/>
+      <c r="L89" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="M89" s="35"/>
+      <c r="N89" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="O89" s="35"/>
+      <c r="P89" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q89" s="35"/>
+      <c r="R89" s="35"/>
+      <c r="S89" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="T89" s="35"/>
+      <c r="U89" s="35"/>
+      <c r="V89" s="35"/>
+      <c r="W89" s="35"/>
+      <c r="X89" s="35"/>
+      <c r="Y89" s="35"/>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A90" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="B90" s="112" t="s">
+        <v>211</v>
+      </c>
+      <c r="C90" s="112" t="s">
+        <v>213</v>
+      </c>
+      <c r="D90" s="112" t="s">
+        <v>88</v>
+      </c>
+      <c r="E90" s="112" t="s">
+        <v>214</v>
+      </c>
+      <c r="F90" s="112"/>
+      <c r="G90" s="112">
+        <v>-1</v>
+      </c>
+      <c r="H90" s="112"/>
+      <c r="I90" s="112"/>
+      <c r="J90" s="112"/>
+      <c r="K90" s="112"/>
+      <c r="L90" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="M90" s="112"/>
+      <c r="N90" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="O90" s="112"/>
+      <c r="P90" s="112" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q90" s="112"/>
+      <c r="R90" s="112"/>
+      <c r="S90" s="112"/>
+      <c r="T90" s="112"/>
+      <c r="U90" s="112"/>
+      <c r="V90" s="112"/>
+      <c r="W90" s="112"/>
+      <c r="X90" s="112"/>
+      <c r="Y90" s="112"/>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A91" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="B91" s="112" t="s">
+        <v>212</v>
+      </c>
+      <c r="C91" s="112" t="s">
+        <v>213</v>
+      </c>
+      <c r="D91" s="112" t="s">
+        <v>214</v>
+      </c>
+      <c r="E91" s="112"/>
+      <c r="F91" s="112"/>
+      <c r="G91" s="112"/>
+      <c r="H91" s="112"/>
+      <c r="I91" s="112"/>
+      <c r="J91" s="112"/>
+      <c r="K91" s="112"/>
+      <c r="L91" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="M91" s="112"/>
+      <c r="N91" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="O91" s="112"/>
+      <c r="P91" s="112" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q91" s="112"/>
+      <c r="R91" s="112"/>
+      <c r="S91" s="112" t="b">
+        <v>1</v>
+      </c>
+      <c r="T91" s="112"/>
+      <c r="U91" s="112"/>
+      <c r="V91" s="112"/>
+      <c r="W91" s="112"/>
+      <c r="X91" s="112"/>
+      <c r="Y91" s="112"/>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A92" s="114" t="s">
+        <v>70</v>
+      </c>
+      <c r="B92" s="114" t="s">
+        <v>215</v>
+      </c>
+      <c r="C92" s="114" t="s">
+        <v>217</v>
+      </c>
+      <c r="D92" s="114" t="s">
+        <v>88</v>
+      </c>
+      <c r="E92" s="114" t="s">
+        <v>218</v>
+      </c>
+      <c r="F92" s="114"/>
+      <c r="G92" s="114">
+        <v>-1</v>
+      </c>
+      <c r="H92" s="114"/>
+      <c r="I92" s="114"/>
+      <c r="J92" s="114"/>
+      <c r="K92" s="114"/>
+      <c r="L92" s="115" t="s">
+        <v>179</v>
+      </c>
+      <c r="M92" s="114"/>
+      <c r="N92" s="115" t="s">
+        <v>179</v>
+      </c>
+      <c r="O92" s="114"/>
+      <c r="P92" s="114" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q92" s="114"/>
+      <c r="R92" s="114"/>
+      <c r="S92" s="114"/>
+      <c r="T92" s="114"/>
+      <c r="U92" s="114"/>
+      <c r="V92" s="114"/>
+      <c r="W92" s="114"/>
+      <c r="X92" s="114"/>
+      <c r="Y92" s="114"/>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A93" s="114" t="s">
+        <v>71</v>
+      </c>
+      <c r="B93" s="114" t="s">
+        <v>216</v>
+      </c>
+      <c r="C93" s="114" t="s">
+        <v>217</v>
+      </c>
+      <c r="D93" s="114" t="s">
+        <v>218</v>
+      </c>
+      <c r="E93" s="114"/>
+      <c r="F93" s="114"/>
+      <c r="G93" s="114"/>
+      <c r="H93" s="114"/>
+      <c r="I93" s="114"/>
+      <c r="J93" s="114"/>
+      <c r="K93" s="114"/>
+      <c r="L93" s="115" t="s">
+        <v>179</v>
+      </c>
+      <c r="M93" s="114"/>
+      <c r="N93" s="115" t="s">
+        <v>179</v>
+      </c>
+      <c r="O93" s="114"/>
+      <c r="P93" s="114" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q93" s="114"/>
+      <c r="R93" s="114"/>
+      <c r="S93" s="114" t="b">
+        <v>1</v>
+      </c>
+      <c r="T93" s="114"/>
+      <c r="U93" s="114"/>
+      <c r="V93" s="114"/>
+      <c r="W93" s="114"/>
+      <c r="X93" s="114"/>
+      <c r="Y93" s="114"/>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A94" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B94" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="C94" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="D94" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E94" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="F94" s="35"/>
+      <c r="G94" s="35">
+        <v>-1</v>
+      </c>
+      <c r="H94" s="35"/>
+      <c r="I94" s="35"/>
+      <c r="J94" s="35"/>
+      <c r="K94" s="35"/>
+      <c r="L94" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="M94" s="35"/>
+      <c r="N94" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="O94" s="35"/>
+      <c r="P94" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q94" s="35"/>
+      <c r="R94" s="35"/>
+      <c r="S94" s="35"/>
+      <c r="T94" s="35"/>
+      <c r="U94" s="35"/>
+      <c r="V94" s="35"/>
+      <c r="W94" s="35"/>
+      <c r="X94" s="35"/>
+      <c r="Y94" s="35"/>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A95" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B95" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="C95" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="D95" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="E95" s="35"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="35"/>
+      <c r="J95" s="35"/>
+      <c r="K95" s="35"/>
+      <c r="L95" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="M95" s="35"/>
+      <c r="N95" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="O95" s="35"/>
+      <c r="P95" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q95" s="35"/>
+      <c r="R95" s="35"/>
+      <c r="S95" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="T95" s="35"/>
+      <c r="U95" s="35"/>
+      <c r="V95" s="35"/>
+      <c r="W95" s="35"/>
+      <c r="X95" s="35"/>
+      <c r="Y95" s="35"/>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A96" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B96" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="C96" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="D96" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E96" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="F96" s="30"/>
+      <c r="G96" s="30">
+        <v>-1</v>
+      </c>
+      <c r="H96" s="30"/>
+      <c r="I96" s="30"/>
+      <c r="J96" s="30"/>
+      <c r="K96" s="30"/>
+      <c r="L96" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="M96" s="30" t="str">
+        <f>B43 &amp; "/time range/" &amp; B41</f>
+        <v>€/time range/MW</v>
+      </c>
+      <c r="N96" s="98" t="s">
+        <v>179</v>
+      </c>
+      <c r="O96" s="30" t="str">
+        <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
+        <v>€/MWh</v>
+      </c>
+      <c r="P96" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q96" s="30"/>
+      <c r="R96" s="30"/>
+      <c r="S96" s="30"/>
+      <c r="T96" s="98"/>
+      <c r="U96" s="30"/>
+      <c r="V96" s="29"/>
+      <c r="W96" s="30"/>
+      <c r="X96" s="30"/>
+      <c r="Y96" s="30"/>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A97" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B97" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="C97" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="D97" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E97" s="30"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="30"/>
+      <c r="I97" s="30"/>
+      <c r="J97" s="30"/>
+      <c r="K97" s="30"/>
+      <c r="L97" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="M97" s="30" t="str">
         <f>B43 &amp; "/time range/" &amp; B41 &amp; B40</f>
         <v>€/time range/MWh</v>
       </c>
-      <c r="N67" s="28"/>
-      <c r="O67" s="28" t="str">
+      <c r="N97" s="99" t="s">
+        <v>179</v>
+      </c>
+      <c r="O97" s="30" t="str">
         <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
         <v>€/MWh</v>
       </c>
-      <c r="P67" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q67" s="28"/>
-      <c r="R67" s="28"/>
-      <c r="S67" s="28" t="b">
+      <c r="P97" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q97" s="30"/>
+      <c r="R97" s="30"/>
+      <c r="S97" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="T67" s="28"/>
-      <c r="U67" s="28"/>
-      <c r="V67" s="27"/>
-      <c r="W67" s="28"/>
-      <c r="X67" s="74">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="Y67" s="28"/>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A68" s="27" t="s">
+      <c r="T97" s="98"/>
+      <c r="U97" s="30"/>
+      <c r="V97" s="29"/>
+      <c r="W97" s="30"/>
+      <c r="X97" s="30"/>
+      <c r="Y97" s="30"/>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A98" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B68" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C68" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="D68" s="28" t="s">
+      <c r="B98" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C98" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="D98" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E98" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E68" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
-      <c r="K68" s="28"/>
-      <c r="L68" s="60"/>
-      <c r="M68" s="28" t="str">
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="28"/>
+      <c r="K98" s="28"/>
+      <c r="L98" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="M98" s="28" t="str">
         <f>B43 &amp; "/time range/" &amp; B41</f>
         <v>€/time range/MW</v>
       </c>
-      <c r="N68" s="28"/>
-      <c r="O68" s="28" t="str">
+      <c r="N98" s="60">
+        <v>0.02</v>
+      </c>
+      <c r="O98" s="28" t="str">
         <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
         <v>€/MWh</v>
       </c>
-      <c r="P68" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q68" s="28"/>
-      <c r="R68" s="28"/>
-      <c r="S68" s="28"/>
-      <c r="T68" s="28"/>
-      <c r="U68" s="28"/>
-      <c r="V68" s="27"/>
-      <c r="W68" s="28"/>
-      <c r="X68" s="28"/>
-      <c r="Y68" s="28"/>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A69" s="29" t="s">
+      <c r="P98" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q98" s="28"/>
+      <c r="R98" s="28"/>
+      <c r="S98" s="28"/>
+      <c r="T98" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="U98" s="28"/>
+      <c r="V98" s="27"/>
+      <c r="W98" s="28"/>
+      <c r="X98" s="28"/>
+      <c r="Y98" s="28"/>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A99" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B99" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C99" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="D99" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E99" s="28"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="28"/>
+      <c r="I99" s="28"/>
+      <c r="J99" s="28"/>
+      <c r="K99" s="28"/>
+      <c r="L99" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="M99" s="28" t="str">
+        <f>B43 &amp; "/time range/" &amp; B41 &amp; B40</f>
+        <v>€/time range/MWh</v>
+      </c>
+      <c r="N99" s="97" t="s">
+        <v>179</v>
+      </c>
+      <c r="O99" s="28" t="str">
+        <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
+        <v>€/MWh</v>
+      </c>
+      <c r="P99" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q99" s="28"/>
+      <c r="R99" s="28"/>
+      <c r="S99" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="T99" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="U99" s="28"/>
+      <c r="V99" s="27"/>
+      <c r="W99" s="28"/>
+      <c r="X99" s="74">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="Y99" s="28"/>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A100" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B69" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="C69" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="D69" s="30" t="s">
+      <c r="B100" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C100" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="D100" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E100" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="E69" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30">
-        <v>-1</v>
-      </c>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="30"/>
-      <c r="K69" s="30"/>
-      <c r="L69" s="31">
-        <f>M112*B34</f>
-        <v>144749.35172885595</v>
-      </c>
-      <c r="M69" s="30" t="str">
+      <c r="F100" s="28"/>
+      <c r="G100" s="28"/>
+      <c r="H100" s="28"/>
+      <c r="I100" s="28"/>
+      <c r="J100" s="28"/>
+      <c r="K100" s="28"/>
+      <c r="L100" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="M100" s="28" t="str">
         <f>B43 &amp; "/time range/" &amp; B41</f>
         <v>€/time range/MW</v>
       </c>
-      <c r="N69" s="30">
-        <f>P112</f>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="O69" s="30" t="str">
+      <c r="N100" s="60">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O100" s="28" t="str">
         <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
         <v>€/MWh</v>
       </c>
-      <c r="P69" s="30" t="s">
+      <c r="P100" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q100" s="28"/>
+      <c r="R100" s="28"/>
+      <c r="S100" s="28"/>
+      <c r="T100" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="U100" s="28"/>
+      <c r="V100" s="27"/>
+      <c r="W100" s="28"/>
+      <c r="X100" s="28"/>
+      <c r="Y100" s="28"/>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A101" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="B101" s="110" t="s">
+        <v>205</v>
+      </c>
+      <c r="C101" s="110" t="s">
+        <v>208</v>
+      </c>
+      <c r="D101" s="110" t="s">
+        <v>88</v>
+      </c>
+      <c r="E101" s="110" t="s">
+        <v>209</v>
+      </c>
+      <c r="F101" s="110"/>
+      <c r="G101" s="110"/>
+      <c r="H101" s="110"/>
+      <c r="I101" s="110"/>
+      <c r="J101" s="110"/>
+      <c r="K101" s="110"/>
+      <c r="L101" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="M101" s="110"/>
+      <c r="N101" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="O101" s="110"/>
+      <c r="P101" s="110" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q101" s="110"/>
+      <c r="R101" s="110"/>
+      <c r="S101" s="110"/>
+      <c r="T101" s="110"/>
+      <c r="U101" s="110"/>
+      <c r="V101" s="110"/>
+      <c r="W101" s="110"/>
+      <c r="X101" s="110"/>
+      <c r="Y101" s="110"/>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A102" s="110" t="s">
+        <v>71</v>
+      </c>
+      <c r="B102" s="110" t="s">
+        <v>206</v>
+      </c>
+      <c r="C102" s="110" t="s">
+        <v>208</v>
+      </c>
+      <c r="D102" s="110" t="s">
+        <v>209</v>
+      </c>
+      <c r="E102" s="110"/>
+      <c r="F102" s="110"/>
+      <c r="G102" s="110"/>
+      <c r="H102" s="110"/>
+      <c r="I102" s="110"/>
+      <c r="J102" s="110"/>
+      <c r="K102" s="110"/>
+      <c r="L102" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="M102" s="110"/>
+      <c r="N102" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="O102" s="110"/>
+      <c r="P102" s="110" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q102" s="110"/>
+      <c r="R102" s="110"/>
+      <c r="S102" s="110" t="b">
+        <v>1</v>
+      </c>
+      <c r="T102" s="110"/>
+      <c r="U102" s="110"/>
+      <c r="V102" s="110"/>
+      <c r="W102" s="110"/>
+      <c r="X102" s="110"/>
+      <c r="Y102" s="110"/>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A103" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="B103" s="110" t="s">
+        <v>207</v>
+      </c>
+      <c r="C103" s="110" t="s">
+        <v>208</v>
+      </c>
+      <c r="D103" s="110" t="s">
+        <v>209</v>
+      </c>
+      <c r="E103" s="110" t="s">
+        <v>88</v>
+      </c>
+      <c r="F103" s="110"/>
+      <c r="G103" s="110"/>
+      <c r="H103" s="110"/>
+      <c r="I103" s="110"/>
+      <c r="J103" s="110"/>
+      <c r="K103" s="110"/>
+      <c r="L103" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="M103" s="110"/>
+      <c r="N103" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="O103" s="110"/>
+      <c r="P103" s="110" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q103" s="110"/>
+      <c r="R103" s="110"/>
+      <c r="S103" s="110"/>
+      <c r="T103" s="110"/>
+      <c r="U103" s="110"/>
+      <c r="V103" s="110"/>
+      <c r="W103" s="110"/>
+      <c r="X103" s="110"/>
+      <c r="Y103" s="110"/>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A104" s="108" t="s">
+        <v>70</v>
+      </c>
+      <c r="B104" s="108" t="s">
+        <v>223</v>
+      </c>
+      <c r="C104" s="108" t="s">
+        <v>230</v>
+      </c>
+      <c r="D104" s="108" t="s">
+        <v>88</v>
+      </c>
+      <c r="E104" s="108" t="s">
+        <v>226</v>
+      </c>
+      <c r="F104" s="108"/>
+      <c r="G104" s="108"/>
+      <c r="H104" s="108"/>
+      <c r="I104" s="108"/>
+      <c r="J104" s="108"/>
+      <c r="K104" s="108"/>
+      <c r="L104" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="M104" s="108"/>
+      <c r="N104" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="O104" s="108"/>
+      <c r="P104" s="108" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q104" s="108"/>
+      <c r="R104" s="108"/>
+      <c r="S104" s="108"/>
+      <c r="T104" s="108"/>
+      <c r="U104" s="108"/>
+      <c r="V104" s="108"/>
+      <c r="W104" s="108"/>
+      <c r="X104" s="108"/>
+      <c r="Y104" s="108"/>
+    </row>
+    <row r="105" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="108" t="s">
+        <v>71</v>
+      </c>
+      <c r="B105" s="108" t="s">
+        <v>225</v>
+      </c>
+      <c r="C105" s="108" t="s">
+        <v>230</v>
+      </c>
+      <c r="D105" s="108" t="s">
+        <v>226</v>
+      </c>
+      <c r="E105" s="108"/>
+      <c r="F105" s="108"/>
+      <c r="G105" s="108"/>
+      <c r="H105" s="108"/>
+      <c r="I105" s="108"/>
+      <c r="J105" s="108"/>
+      <c r="K105" s="108"/>
+      <c r="L105" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="M105" s="108"/>
+      <c r="N105" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="O105" s="108"/>
+      <c r="P105" s="108" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q105" s="108"/>
+      <c r="R105" s="108"/>
+      <c r="S105" s="108" t="b">
+        <v>1</v>
+      </c>
+      <c r="T105" s="108"/>
+      <c r="U105" s="108"/>
+      <c r="V105" s="108"/>
+      <c r="W105" s="108"/>
+      <c r="X105" s="108"/>
+      <c r="Y105" s="108"/>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A106" s="108" t="s">
+        <v>70</v>
+      </c>
+      <c r="B106" s="108" t="s">
+        <v>224</v>
+      </c>
+      <c r="C106" s="108" t="s">
+        <v>230</v>
+      </c>
+      <c r="D106" s="108" t="s">
+        <v>226</v>
+      </c>
+      <c r="E106" s="108" t="s">
+        <v>88</v>
+      </c>
+      <c r="F106" s="108"/>
+      <c r="G106" s="108"/>
+      <c r="H106" s="108"/>
+      <c r="I106" s="108"/>
+      <c r="J106" s="108"/>
+      <c r="K106" s="108"/>
+      <c r="L106" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="M106" s="108"/>
+      <c r="N106" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="O106" s="108"/>
+      <c r="P106" s="108" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q106" s="108"/>
+      <c r="R106" s="108"/>
+      <c r="S106" s="108"/>
+      <c r="T106" s="108"/>
+      <c r="U106" s="108"/>
+      <c r="V106" s="108"/>
+      <c r="W106" s="108"/>
+      <c r="X106" s="108"/>
+      <c r="Y106" s="108"/>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A107" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B107" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="C107" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="D107" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="E107" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="F107" s="45"/>
+      <c r="G107" s="45"/>
+      <c r="H107" s="45"/>
+      <c r="I107" s="45"/>
+      <c r="J107" s="45"/>
+      <c r="K107" s="45"/>
+      <c r="L107" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="M107" s="45"/>
+      <c r="N107" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="O107" s="45"/>
+      <c r="P107" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q107" s="45"/>
+      <c r="R107" s="45"/>
+      <c r="S107" s="45"/>
+      <c r="T107" s="45"/>
+      <c r="U107" s="45"/>
+      <c r="V107" s="45"/>
+      <c r="W107" s="45"/>
+      <c r="X107" s="45"/>
+      <c r="Y107" s="45"/>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A108" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B108" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="C108" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="D108" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="E108" s="45"/>
+      <c r="F108" s="45"/>
+      <c r="G108" s="45"/>
+      <c r="H108" s="45"/>
+      <c r="I108" s="45"/>
+      <c r="J108" s="45"/>
+      <c r="K108" s="45"/>
+      <c r="L108" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="M108" s="45"/>
+      <c r="N108" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="O108" s="45"/>
+      <c r="P108" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q108" s="45"/>
+      <c r="R108" s="45"/>
+      <c r="S108" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="T108" s="45"/>
+      <c r="U108" s="45"/>
+      <c r="V108" s="45"/>
+      <c r="W108" s="45"/>
+      <c r="X108" s="45"/>
+      <c r="Y108" s="45"/>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A109" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B109" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="C109" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="D109" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="E109" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F109" s="45"/>
+      <c r="G109" s="45"/>
+      <c r="H109" s="45"/>
+      <c r="I109" s="45"/>
+      <c r="J109" s="45"/>
+      <c r="K109" s="45"/>
+      <c r="L109" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="M109" s="45"/>
+      <c r="N109" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="O109" s="45"/>
+      <c r="P109" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q109" s="45"/>
+      <c r="R109" s="45"/>
+      <c r="S109" s="45"/>
+      <c r="T109" s="45"/>
+      <c r="U109" s="45"/>
+      <c r="V109" s="45"/>
+      <c r="W109" s="45"/>
+      <c r="X109" s="45"/>
+      <c r="Y109" s="45"/>
+    </row>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A110" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B110" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="C110" s="70" t="s">
+        <v>236</v>
+      </c>
+      <c r="D110" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="E110" s="70" t="s">
+        <v>237</v>
+      </c>
+      <c r="F110" s="70"/>
+      <c r="G110" s="70"/>
+      <c r="H110" s="70"/>
+      <c r="I110" s="70"/>
+      <c r="J110" s="70"/>
+      <c r="K110" s="70"/>
+      <c r="L110" s="83" t="s">
+        <v>179</v>
+      </c>
+      <c r="M110" s="70"/>
+      <c r="N110" s="83" t="s">
+        <v>179</v>
+      </c>
+      <c r="O110" s="70"/>
+      <c r="P110" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q110" s="70"/>
+      <c r="R110" s="70"/>
+      <c r="S110" s="70"/>
+      <c r="T110" s="70"/>
+      <c r="U110" s="70"/>
+      <c r="V110" s="70"/>
+      <c r="W110" s="70"/>
+      <c r="X110" s="70"/>
+      <c r="Y110" s="70"/>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A111" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B111" s="70" t="s">
+        <v>263</v>
+      </c>
+      <c r="C111" s="70" t="s">
+        <v>236</v>
+      </c>
+      <c r="D111" s="70" t="s">
+        <v>237</v>
+      </c>
+      <c r="E111" s="70"/>
+      <c r="F111" s="70"/>
+      <c r="G111" s="70"/>
+      <c r="H111" s="70"/>
+      <c r="I111" s="70"/>
+      <c r="J111" s="70"/>
+      <c r="K111" s="70"/>
+      <c r="L111" s="83" t="s">
+        <v>179</v>
+      </c>
+      <c r="M111" s="70"/>
+      <c r="N111" s="83" t="s">
+        <v>179</v>
+      </c>
+      <c r="O111" s="70"/>
+      <c r="P111" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q111" s="70"/>
+      <c r="R111" s="70"/>
+      <c r="S111" s="70" t="b">
+        <v>1</v>
+      </c>
+      <c r="T111" s="70"/>
+      <c r="U111" s="70"/>
+      <c r="V111" s="70"/>
+      <c r="W111" s="70"/>
+      <c r="X111" s="70"/>
+      <c r="Y111" s="70"/>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A112" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B112" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="C112" s="70" t="s">
+        <v>236</v>
+      </c>
+      <c r="D112" s="70" t="s">
+        <v>237</v>
+      </c>
+      <c r="E112" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="F112" s="70"/>
+      <c r="G112" s="70"/>
+      <c r="H112" s="70"/>
+      <c r="I112" s="70"/>
+      <c r="J112" s="70"/>
+      <c r="K112" s="70"/>
+      <c r="L112" s="83" t="s">
+        <v>179</v>
+      </c>
+      <c r="M112" s="70"/>
+      <c r="N112" s="83" t="s">
+        <v>179</v>
+      </c>
+      <c r="O112" s="70"/>
+      <c r="P112" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q112" s="70"/>
+      <c r="R112" s="70"/>
+      <c r="S112" s="70"/>
+      <c r="T112" s="70"/>
+      <c r="U112" s="70"/>
+      <c r="V112" s="70"/>
+      <c r="W112" s="70"/>
+      <c r="X112" s="70"/>
+      <c r="Y112" s="70"/>
+    </row>
+    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A113" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="D113" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E113" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="F113" s="15"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="15"/>
+      <c r="K113" s="15"/>
+      <c r="L113" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="M113" s="15"/>
+      <c r="N113" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="O113" s="15"/>
+      <c r="P113" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q113" s="15"/>
+      <c r="R113" s="15"/>
+      <c r="S113" s="15"/>
+      <c r="T113" s="15"/>
+      <c r="U113" s="15"/>
+      <c r="V113" s="15"/>
+      <c r="W113" s="15"/>
+      <c r="X113" s="15"/>
+      <c r="Y113" s="15"/>
+    </row>
+    <row r="114" spans="1:25" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="C114" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="D114" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="15"/>
+      <c r="K114" s="15"/>
+      <c r="L114" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="M114" s="15"/>
+      <c r="N114" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="O114" s="15"/>
+      <c r="P114" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q114" s="15"/>
+      <c r="R114" s="15"/>
+      <c r="S114" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="T114" s="15"/>
+      <c r="U114" s="15"/>
+      <c r="V114" s="15"/>
+      <c r="W114" s="15"/>
+      <c r="X114" s="15"/>
+      <c r="Y114" s="15"/>
+    </row>
+    <row r="115" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="C115" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="D115" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E115" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F115" s="15"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="15"/>
+      <c r="K115" s="15"/>
+      <c r="L115" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="M115" s="15"/>
+      <c r="N115" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="O115" s="15"/>
+      <c r="P115" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q115" s="15"/>
+      <c r="R115" s="15"/>
+      <c r="S115" s="15"/>
+      <c r="T115" s="15"/>
+      <c r="U115" s="15"/>
+      <c r="V115" s="15"/>
+      <c r="W115" s="15"/>
+      <c r="X115" s="15"/>
+      <c r="Y115" s="15"/>
+    </row>
+    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A116" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D116" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E116" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="13"/>
+      <c r="I116" s="13"/>
+      <c r="J116" s="13"/>
+      <c r="K116" s="13"/>
+      <c r="L116" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="M116" s="13"/>
+      <c r="N116" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="O116" s="13"/>
+      <c r="P116" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q116" s="13"/>
+      <c r="R116" s="13"/>
+      <c r="S116" s="13"/>
+      <c r="T116" s="13"/>
+      <c r="U116" s="13"/>
+      <c r="V116" s="13"/>
+      <c r="W116" s="13"/>
+      <c r="X116" s="13"/>
+      <c r="Y116" s="13"/>
+    </row>
+    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A117" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D117" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="13"/>
+      <c r="I117" s="13"/>
+      <c r="J117" s="13"/>
+      <c r="K117" s="13"/>
+      <c r="L117" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="M117" s="13"/>
+      <c r="N117" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="O117" s="13"/>
+      <c r="P117" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q117" s="13"/>
+      <c r="R117" s="13"/>
+      <c r="S117" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="T117" s="13"/>
+      <c r="U117" s="13"/>
+      <c r="V117" s="13"/>
+      <c r="W117" s="13"/>
+      <c r="X117" s="13"/>
+      <c r="Y117" s="13"/>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A118" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E118" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F118" s="13"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="13"/>
+      <c r="I118" s="13"/>
+      <c r="J118" s="13"/>
+      <c r="K118" s="13"/>
+      <c r="L118" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="M118" s="13"/>
+      <c r="N118" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="O118" s="13"/>
+      <c r="P118" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q118" s="13"/>
+      <c r="R118" s="13"/>
+      <c r="S118" s="13"/>
+      <c r="T118" s="13"/>
+      <c r="U118" s="13"/>
+      <c r="V118" s="13"/>
+      <c r="W118" s="13"/>
+      <c r="X118" s="13"/>
+      <c r="Y118" s="13"/>
+    </row>
+    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>66</v>
+      </c>
+      <c r="O124" s="9"/>
+      <c r="P124" s="9"/>
+      <c r="Q124" s="9"/>
+    </row>
+    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A130" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="E130" s="36"/>
+      <c r="F130" s="36"/>
+      <c r="G130" s="36"/>
+      <c r="H130" s="36"/>
+      <c r="I130" s="36"/>
+      <c r="J130" s="36"/>
+      <c r="K130" s="36"/>
+      <c r="L130" s="36"/>
+      <c r="M130" s="2"/>
+      <c r="N130" s="2"/>
+    </row>
+    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A131" s="37"/>
+      <c r="B131" s="38"/>
+      <c r="C131" s="40"/>
+      <c r="E131" s="36"/>
+      <c r="F131" s="36"/>
+      <c r="G131" s="36"/>
+      <c r="H131" s="36"/>
+      <c r="I131" s="36"/>
+      <c r="J131" s="36"/>
+      <c r="K131" s="36"/>
+      <c r="L131" s="36"/>
+      <c r="M131" s="2"/>
+      <c r="N131" s="2"/>
+    </row>
+    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A132" s="37"/>
+      <c r="B132" s="39"/>
+      <c r="C132" s="41"/>
+      <c r="E132" s="36"/>
+      <c r="F132" s="36"/>
+      <c r="G132" s="36"/>
+      <c r="H132" s="36"/>
+      <c r="I132" s="36"/>
+      <c r="J132" s="36"/>
+      <c r="K132" s="36"/>
+      <c r="L132" s="36"/>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
+    </row>
+    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A133" s="37"/>
+      <c r="B133" s="39"/>
+      <c r="C133" s="41"/>
+      <c r="E133" s="36"/>
+      <c r="F133" s="36"/>
+      <c r="G133" s="36"/>
+      <c r="H133" s="36"/>
+      <c r="I133" s="36"/>
+      <c r="J133" s="36"/>
+      <c r="K133" s="36"/>
+      <c r="L133" s="36"/>
+      <c r="M133" s="2"/>
+      <c r="N133" s="2"/>
+    </row>
+    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A134" s="37"/>
+      <c r="B134" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C134" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="E134" s="36"/>
+      <c r="F134" s="36"/>
+      <c r="G134" s="36"/>
+      <c r="H134" s="36"/>
+      <c r="I134" s="36"/>
+      <c r="J134" s="36"/>
+      <c r="K134" s="36"/>
+      <c r="L134" s="36"/>
+      <c r="M134" s="2"/>
+      <c r="N134" s="2"/>
+    </row>
+    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A135" s="37"/>
+      <c r="B135" s="38"/>
+      <c r="C135" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="Q69" s="30"/>
-      <c r="R69" s="30"/>
-      <c r="S69" s="30"/>
-      <c r="T69" s="30"/>
-      <c r="U69" s="30"/>
-      <c r="V69" s="29"/>
-      <c r="W69" s="30"/>
-      <c r="X69" s="30"/>
-      <c r="Y69" s="30"/>
-      <c r="Z69" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A70" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="C70" s="30" t="s">
+      <c r="E135" s="36"/>
+      <c r="F135" s="36"/>
+      <c r="G135" s="36"/>
+      <c r="H135" s="36"/>
+      <c r="I135" s="36"/>
+      <c r="J135" s="36"/>
+      <c r="K135" s="36"/>
+      <c r="L135" s="36"/>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2"/>
+    </row>
+    <row r="136" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A136" s="37"/>
+      <c r="B136" s="38"/>
+      <c r="C136" s="79"/>
+      <c r="E136" s="36"/>
+      <c r="F136" s="36"/>
+      <c r="G136" s="36"/>
+      <c r="H136" s="36"/>
+      <c r="I136" s="36"/>
+      <c r="J136" s="36"/>
+      <c r="K136" s="36"/>
+      <c r="L136" s="36"/>
+      <c r="M136" s="2"/>
+      <c r="N136" s="2"/>
+    </row>
+    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A137" s="37"/>
+      <c r="B137" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="C137" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="E137" s="36"/>
+      <c r="F137" s="36"/>
+      <c r="G137" s="36"/>
+      <c r="H137" s="36"/>
+      <c r="I137" s="36"/>
+      <c r="J137" s="36"/>
+      <c r="K137" s="36"/>
+      <c r="L137" s="36"/>
+      <c r="M137" s="2"/>
+      <c r="N137" s="2"/>
+    </row>
+    <row r="138" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A138" s="37"/>
+      <c r="B138" s="38"/>
+      <c r="C138" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="E138" s="36"/>
+      <c r="F138" s="36"/>
+      <c r="G138" s="36"/>
+      <c r="H138" s="36"/>
+      <c r="I138" s="36"/>
+      <c r="J138" s="36"/>
+      <c r="K138" s="36"/>
+      <c r="L138" s="36"/>
+      <c r="M138" s="2"/>
+      <c r="N138" s="2"/>
+    </row>
+    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A139" s="37"/>
+      <c r="B139" s="39"/>
+      <c r="C139" s="41"/>
+      <c r="E139" s="36"/>
+      <c r="F139" s="36"/>
+      <c r="G139" s="36"/>
+      <c r="H139" s="36"/>
+      <c r="I139" s="36"/>
+      <c r="J139" s="36"/>
+      <c r="K139" s="36"/>
+      <c r="L139" s="36"/>
+      <c r="M139" s="2"/>
+      <c r="N139" s="2"/>
+      <c r="S139" s="11"/>
+      <c r="T139" s="11"/>
+      <c r="U139" s="11"/>
+      <c r="V139" s="11"/>
+      <c r="W139" s="11"/>
+      <c r="X139" s="11"/>
+      <c r="Y139" s="11"/>
+    </row>
+    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A140" s="37"/>
+      <c r="B140" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="D70" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="30"/>
-      <c r="J70" s="30"/>
-      <c r="K70" s="30"/>
-      <c r="L70" s="31">
-        <f>M111*B34</f>
-        <v>8456.1894176967999</v>
-      </c>
-      <c r="M70" s="30" t="str">
-        <f>B43 &amp; "/time range/" &amp; B41 &amp; B40</f>
-        <v>€/time range/MWh</v>
-      </c>
-      <c r="N70" s="30"/>
-      <c r="O70" s="30" t="str">
-        <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
-        <v>€/MWh</v>
-      </c>
-      <c r="P70" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q70" s="30"/>
-      <c r="R70" s="30"/>
-      <c r="S70" s="30"/>
-      <c r="T70" s="30"/>
-      <c r="U70" s="30"/>
-      <c r="V70" s="29"/>
-      <c r="W70" s="30"/>
-      <c r="X70" s="30"/>
-      <c r="Y70" s="30"/>
-      <c r="Z70" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A71" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" s="62" t="s">
+      <c r="C140" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="62"/>
-      <c r="D71" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="E71" s="62"/>
-      <c r="F71" s="62"/>
-      <c r="G71" s="62"/>
-      <c r="H71" s="62"/>
-      <c r="I71" s="62"/>
-      <c r="J71" s="62"/>
-      <c r="K71" s="62"/>
-      <c r="L71" s="80">
-        <f>H121/8784*B34</f>
-        <v>250000</v>
-      </c>
-      <c r="M71" s="62" t="str">
-        <f>B43 &amp; "/time range/" &amp; B41</f>
-        <v>€/time range/MW</v>
-      </c>
-      <c r="N71" s="62"/>
-      <c r="O71" s="62" t="str">
-        <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
-        <v>€/MWh</v>
-      </c>
-      <c r="P71" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q71" s="62">
-        <v>-1</v>
-      </c>
-      <c r="R71" s="62"/>
-      <c r="S71" s="62"/>
-      <c r="T71" s="62"/>
-      <c r="U71" s="62"/>
-      <c r="V71" s="61"/>
-      <c r="W71" s="62"/>
-      <c r="X71" s="62"/>
-      <c r="Y71" s="62"/>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A72" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72" s="64" t="s">
+      <c r="E140" s="36"/>
+      <c r="F140" s="36"/>
+      <c r="G140" s="36"/>
+      <c r="H140" s="36"/>
+      <c r="I140" s="36"/>
+      <c r="J140" s="36"/>
+      <c r="K140" s="36"/>
+      <c r="L140" s="36"/>
+      <c r="M140" s="2"/>
+      <c r="N140" s="2"/>
+    </row>
+    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A141" s="37"/>
+      <c r="B141" s="38"/>
+      <c r="C141" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="E141" s="36"/>
+      <c r="F141" s="36"/>
+      <c r="G141" s="36"/>
+      <c r="H141" s="36"/>
+      <c r="I141" s="36"/>
+      <c r="J141" s="36"/>
+      <c r="K141" s="36"/>
+      <c r="L141" s="36"/>
+      <c r="M141" s="2"/>
+      <c r="N141" s="2"/>
+    </row>
+    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A142" s="37"/>
+      <c r="B142" s="38"/>
+      <c r="C142" s="65"/>
+      <c r="E142" s="36"/>
+      <c r="F142" s="36"/>
+      <c r="G142" s="36"/>
+      <c r="H142" s="36"/>
+      <c r="I142" s="36"/>
+      <c r="J142" s="36"/>
+      <c r="K142" s="36"/>
+      <c r="L142" s="36"/>
+      <c r="M142" s="2"/>
+      <c r="N142" s="2"/>
+    </row>
+    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A143" s="37"/>
+      <c r="B143" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="C143" s="86" t="s">
+        <v>165</v>
+      </c>
+      <c r="E143" s="36"/>
+      <c r="F143" s="36"/>
+      <c r="G143" s="36"/>
+      <c r="H143" s="36"/>
+      <c r="I143" s="36"/>
+      <c r="J143" s="36"/>
+      <c r="K143" s="36"/>
+      <c r="L143" s="36"/>
+      <c r="M143" s="2"/>
+      <c r="N143" s="2"/>
+    </row>
+    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A144" s="37"/>
+      <c r="B144" s="38"/>
+      <c r="C144" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="E144" s="36"/>
+      <c r="F144" s="36"/>
+      <c r="G144" s="36"/>
+      <c r="H144" s="36"/>
+      <c r="I144" s="36"/>
+      <c r="J144" s="36"/>
+      <c r="K144" s="36"/>
+      <c r="L144" s="36"/>
+      <c r="M144" s="2"/>
+      <c r="N144" s="2"/>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A145" s="37"/>
+      <c r="E145" s="36"/>
+      <c r="F145" s="36"/>
+      <c r="G145" s="36"/>
+      <c r="H145" s="36"/>
+      <c r="I145" s="36"/>
+      <c r="J145" s="36"/>
+      <c r="K145" s="36"/>
+      <c r="L145" s="36"/>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2"/>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A146" s="37"/>
+      <c r="B146" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C146" t="s">
+        <v>137</v>
+      </c>
+      <c r="F146" s="36"/>
+      <c r="G146" s="36"/>
+      <c r="H146" s="36"/>
+      <c r="I146" s="36"/>
+      <c r="J146" s="36"/>
+      <c r="K146" s="36"/>
+      <c r="L146" s="36"/>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2"/>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A147" s="37"/>
+      <c r="B147" s="38"/>
+      <c r="C147" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="C72" s="64"/>
-      <c r="D72" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="64"/>
-      <c r="I72" s="64"/>
-      <c r="J72" s="64"/>
-      <c r="K72" s="64"/>
-      <c r="L72" s="81">
-        <f>H121/8784*B34</f>
-        <v>250000</v>
-      </c>
-      <c r="M72" s="64" t="str">
-        <f>B43 &amp; "/time range/" &amp; B41</f>
-        <v>€/time range/MW</v>
-      </c>
-      <c r="N72" s="64"/>
-      <c r="O72" s="64" t="str">
-        <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
-        <v>€/MWh</v>
-      </c>
-      <c r="P72" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q72" s="64"/>
-      <c r="R72" s="64"/>
-      <c r="S72" s="64"/>
-      <c r="T72" s="64"/>
-      <c r="U72" s="64"/>
-      <c r="V72" s="63"/>
-      <c r="W72" s="64"/>
-      <c r="X72" s="64"/>
-      <c r="Y72" s="64"/>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A73" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="B73" s="72" t="s">
-        <v>151</v>
-      </c>
-      <c r="C73" s="72"/>
-      <c r="D73" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="E73" s="72"/>
-      <c r="F73" s="72"/>
-      <c r="G73" s="72"/>
-      <c r="H73" s="72"/>
-      <c r="I73" s="72"/>
-      <c r="J73" s="72"/>
-      <c r="K73" s="72"/>
-      <c r="L73" s="82"/>
-      <c r="M73" s="72" t="str">
-        <f>B43 &amp; "/time range/" &amp; B41</f>
-        <v>€/time range/MW</v>
-      </c>
-      <c r="N73" s="72">
-        <f>P120</f>
-        <v>10000</v>
-      </c>
-      <c r="O73" s="72" t="str">
-        <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
-        <v>€/MWh</v>
-      </c>
-      <c r="P73" s="72" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q73" s="72"/>
-      <c r="R73" s="72"/>
-      <c r="S73" s="72"/>
-      <c r="T73" s="72"/>
-      <c r="U73" s="72"/>
-      <c r="V73" s="71"/>
-      <c r="W73" s="72"/>
-      <c r="X73" s="72"/>
-      <c r="Y73" s="72"/>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A74" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="B74" s="70" t="s">
-        <v>100</v>
-      </c>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="E74" s="70" t="s">
-        <v>78</v>
-      </c>
-      <c r="F74" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="G74" s="70"/>
-      <c r="H74" s="70"/>
-      <c r="I74" s="70"/>
-      <c r="J74" s="70"/>
-      <c r="K74" s="70"/>
-      <c r="L74" s="83"/>
-      <c r="M74" s="70" t="str">
-        <f>B43 &amp; "/time range/" &amp; B41</f>
-        <v>€/time range/MW</v>
-      </c>
-      <c r="N74" s="70"/>
-      <c r="O74" s="70" t="str">
-        <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
-        <v>€/MWh</v>
-      </c>
-      <c r="P74" s="70" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q74" s="70"/>
-      <c r="R74" s="70"/>
-      <c r="S74" s="70"/>
-      <c r="T74" s="70"/>
-      <c r="U74" s="70"/>
-      <c r="V74" s="69" t="s">
+      <c r="F147" s="36"/>
+      <c r="G147" s="36"/>
+      <c r="H147" s="36"/>
+      <c r="I147" s="36"/>
+      <c r="J147" s="36"/>
+      <c r="K147" s="36"/>
+      <c r="L147" s="36"/>
+      <c r="M147" s="2"/>
+      <c r="N147" s="2"/>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A148" s="37"/>
+      <c r="B148" s="38"/>
+      <c r="C148" s="39"/>
+      <c r="F148" s="36"/>
+      <c r="G148" s="36"/>
+      <c r="H148" s="36"/>
+      <c r="I148" s="36"/>
+      <c r="J148" s="36"/>
+      <c r="K148" s="36"/>
+      <c r="L148" s="36"/>
+      <c r="M148" s="2"/>
+      <c r="N148" s="2"/>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A149" s="37"/>
+      <c r="B149" s="39"/>
+      <c r="E149" s="36"/>
+      <c r="F149" s="36"/>
+      <c r="G149" s="36"/>
+      <c r="H149" s="36"/>
+      <c r="I149" s="36"/>
+      <c r="J149" s="36"/>
+      <c r="K149" s="36"/>
+      <c r="L149" s="36"/>
+      <c r="M149" s="2"/>
+      <c r="N149" s="2"/>
+    </row>
+    <row r="150" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A150" s="37"/>
+      <c r="B150" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="W74" s="70" t="str">
-        <f xml:space="preserve"> B41 &amp; B40  &amp; "/" &amp;  B42</f>
-        <v>MWh/t</v>
-      </c>
-      <c r="X74" s="70"/>
-      <c r="Y74" s="70"/>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A75" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="B75" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="E75" s="33"/>
-      <c r="F75" s="33"/>
-      <c r="G75" s="33"/>
-      <c r="H75" s="33"/>
-      <c r="I75" s="33"/>
-      <c r="J75" s="33"/>
-      <c r="K75" s="33">
-        <v>0</v>
-      </c>
-      <c r="L75" s="84"/>
-      <c r="M75" s="33" t="str">
-        <f>B43 &amp; "/time range/" &amp; B41</f>
-        <v>€/time range/MW</v>
-      </c>
-      <c r="N75" s="33"/>
-      <c r="O75" s="33" t="str">
-        <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
-        <v>€/MWh</v>
-      </c>
-      <c r="P75" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q75" s="33"/>
-      <c r="R75" s="33"/>
-      <c r="S75" s="33"/>
-      <c r="T75" s="33"/>
-      <c r="U75" s="33"/>
-      <c r="V75" s="32"/>
-      <c r="W75" s="33"/>
-      <c r="X75" s="33"/>
-      <c r="Y75" s="33"/>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A76" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="B76" s="67" t="s">
-        <v>109</v>
-      </c>
-      <c r="C76" s="67"/>
-      <c r="D76" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="E76" s="67"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="67"/>
-      <c r="H76" s="67"/>
-      <c r="I76" s="67"/>
-      <c r="J76" s="67"/>
-      <c r="K76" s="67"/>
-      <c r="L76" s="67"/>
-      <c r="M76" s="67" t="str">
-        <f>B43 &amp; "/time range/" &amp; "CO2"</f>
-        <v>€/time range/CO2</v>
-      </c>
-      <c r="N76" s="67"/>
-      <c r="O76" s="67"/>
-      <c r="P76" s="67" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q76" s="67"/>
-      <c r="R76" s="67"/>
-      <c r="S76" s="67"/>
-      <c r="T76" s="67"/>
-      <c r="U76" s="67"/>
-      <c r="V76" s="66"/>
-      <c r="W76" s="67"/>
-      <c r="X76" s="67"/>
-      <c r="Y76" s="67"/>
-    </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>66</v>
-      </c>
-      <c r="O82" s="9"/>
-      <c r="P82" s="9"/>
-      <c r="Q82" s="9"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="E88" s="36"/>
-      <c r="F88" s="36"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="36"/>
-      <c r="J88" s="36"/>
-      <c r="K88" s="36"/>
-      <c r="L88" s="36"/>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A89" s="37"/>
-      <c r="B89" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="C89" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="E89" s="36"/>
-      <c r="F89" s="36"/>
-      <c r="G89" s="36"/>
-      <c r="H89" s="36"/>
-      <c r="I89" s="36"/>
-      <c r="J89" s="36"/>
-      <c r="K89" s="36"/>
-      <c r="L89" s="36"/>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A90" s="37"/>
-      <c r="B90" s="39"/>
-      <c r="C90" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="E90" s="36"/>
-      <c r="F90" s="36"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="36"/>
-      <c r="I90" s="36"/>
-      <c r="J90" s="36"/>
-      <c r="K90" s="36"/>
-      <c r="L90" s="36"/>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A91" s="37"/>
-      <c r="B91" s="39"/>
-      <c r="C91" s="41"/>
-      <c r="E91" s="36"/>
-      <c r="F91" s="36"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="36"/>
-      <c r="I91" s="36"/>
-      <c r="J91" s="36"/>
-      <c r="K91" s="36"/>
-      <c r="L91" s="36"/>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A92" s="37"/>
-      <c r="B92" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92" s="68" t="s">
-        <v>178</v>
-      </c>
-      <c r="E92" s="36"/>
-      <c r="F92" s="36"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
-      <c r="J92" s="36"/>
-      <c r="K92" s="36"/>
-      <c r="L92" s="36"/>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A93" s="37"/>
-      <c r="B93" s="38"/>
-      <c r="C93" s="79" t="s">
-        <v>177</v>
-      </c>
-      <c r="E93" s="36"/>
-      <c r="F93" s="36"/>
-      <c r="G93" s="36"/>
-      <c r="H93" s="36"/>
-      <c r="I93" s="36"/>
-      <c r="J93" s="36"/>
-      <c r="K93" s="36"/>
-      <c r="L93" s="36"/>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A94" s="37"/>
-      <c r="B94" s="38"/>
-      <c r="C94" s="79"/>
-      <c r="E94" s="36"/>
-      <c r="F94" s="36"/>
-      <c r="G94" s="36"/>
-      <c r="H94" s="36"/>
-      <c r="I94" s="36"/>
-      <c r="J94" s="36"/>
-      <c r="K94" s="36"/>
-      <c r="L94" s="36"/>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A95" s="37"/>
-      <c r="B95" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="C95" s="86" t="s">
-        <v>168</v>
-      </c>
-      <c r="E95" s="36"/>
-      <c r="F95" s="36"/>
-      <c r="G95" s="36"/>
-      <c r="H95" s="36"/>
-      <c r="I95" s="36"/>
-      <c r="J95" s="36"/>
-      <c r="K95" s="36"/>
-      <c r="L95" s="36"/>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A96" s="37"/>
-      <c r="B96" s="38"/>
-      <c r="C96" s="79" t="s">
-        <v>180</v>
-      </c>
-      <c r="E96" s="36"/>
-      <c r="F96" s="36"/>
-      <c r="G96" s="36"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
-      <c r="J96" s="36"/>
-      <c r="K96" s="36"/>
-      <c r="L96" s="36"/>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
-    </row>
-    <row r="97" spans="1:18" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="37"/>
-      <c r="B97" s="39"/>
-      <c r="C97" s="41"/>
-      <c r="D97"/>
-      <c r="E97" s="36"/>
-      <c r="F97" s="36"/>
-      <c r="G97" s="36"/>
-      <c r="H97" s="36"/>
-      <c r="I97" s="36"/>
-      <c r="J97" s="36"/>
-      <c r="K97" s="36"/>
-      <c r="L97" s="36"/>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
-      <c r="O97"/>
-      <c r="P97"/>
-      <c r="Q97"/>
-      <c r="R97"/>
-    </row>
-    <row r="98" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="37"/>
-      <c r="B98" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="C98" t="s">
-        <v>142</v>
-      </c>
-      <c r="E98" s="36"/>
-      <c r="F98" s="36"/>
-      <c r="G98" s="36"/>
-      <c r="H98" s="36"/>
-      <c r="I98" s="36"/>
-      <c r="J98" s="36"/>
-      <c r="K98" s="36"/>
-      <c r="L98" s="36"/>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A99" s="37"/>
-      <c r="B99" s="38"/>
-      <c r="C99" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="E99" s="36"/>
-      <c r="F99" s="36"/>
-      <c r="G99" s="36"/>
-      <c r="H99" s="36"/>
-      <c r="I99" s="36"/>
-      <c r="J99" s="36"/>
-      <c r="K99" s="36"/>
-      <c r="L99" s="36"/>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A100" s="37"/>
-      <c r="B100" s="38"/>
-      <c r="C100" s="65"/>
-      <c r="E100" s="36"/>
-      <c r="F100" s="36"/>
-      <c r="G100" s="36"/>
-      <c r="H100" s="36"/>
-      <c r="I100" s="36"/>
-      <c r="J100" s="36"/>
-      <c r="K100" s="36"/>
-      <c r="L100" s="36"/>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A101" s="37"/>
-      <c r="B101" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="C101" s="86" t="s">
-        <v>176</v>
-      </c>
-      <c r="E101" s="36"/>
-      <c r="F101" s="36"/>
-      <c r="G101" s="36"/>
-      <c r="H101" s="36"/>
-      <c r="I101" s="36"/>
-      <c r="J101" s="36"/>
-      <c r="K101" s="36"/>
-      <c r="L101" s="36"/>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A102" s="37"/>
-      <c r="B102" s="38"/>
-      <c r="C102" s="65" t="s">
-        <v>175</v>
-      </c>
-      <c r="E102" s="36"/>
-      <c r="F102" s="36"/>
-      <c r="G102" s="36"/>
-      <c r="H102" s="36"/>
-      <c r="I102" s="36"/>
-      <c r="J102" s="36"/>
-      <c r="K102" s="36"/>
-      <c r="L102" s="36"/>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A103" s="37"/>
-      <c r="E103" s="36"/>
-      <c r="F103" s="36"/>
-      <c r="G103" s="36"/>
-      <c r="H103" s="36"/>
-      <c r="I103" s="36"/>
-      <c r="J103" s="36"/>
-      <c r="K103" s="36"/>
-      <c r="L103" s="36"/>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A104" s="37"/>
-      <c r="B104" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="C104" t="s">
-        <v>144</v>
-      </c>
-      <c r="F104" s="36"/>
-      <c r="G104" s="36"/>
-      <c r="H104" s="36"/>
-      <c r="I104" s="36"/>
-      <c r="J104" s="36"/>
-      <c r="K104" s="36"/>
-      <c r="L104" s="36"/>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A105" s="37"/>
-      <c r="B105" s="38"/>
-      <c r="C105" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="F105" s="36"/>
-      <c r="G105" s="36"/>
-      <c r="H105" s="36"/>
-      <c r="I105" s="36"/>
-      <c r="J105" s="36"/>
-      <c r="K105" s="36"/>
-      <c r="L105" s="36"/>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A106" s="37"/>
-      <c r="B106" s="38"/>
-      <c r="C106" s="39"/>
-      <c r="F106" s="36"/>
-      <c r="G106" s="36"/>
-      <c r="H106" s="36"/>
-      <c r="I106" s="36"/>
-      <c r="J106" s="36"/>
-      <c r="K106" s="36"/>
-      <c r="L106" s="36"/>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A107" s="37"/>
-      <c r="B107" s="39"/>
-      <c r="E107" s="36"/>
-      <c r="F107" s="36"/>
-      <c r="G107" s="36"/>
-      <c r="H107" s="36"/>
-      <c r="I107" s="36"/>
-      <c r="J107" s="36"/>
-      <c r="K107" s="36"/>
-      <c r="L107" s="36"/>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
-    </row>
-    <row r="108" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="37"/>
-      <c r="B108" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="C108" s="43">
-        <v>1</v>
-      </c>
-      <c r="D108" s="90" t="s">
-        <v>192</v>
-      </c>
-      <c r="E108" s="44"/>
-      <c r="F108" s="44"/>
-      <c r="G108" s="45"/>
-      <c r="H108" s="46"/>
-      <c r="I108" s="46"/>
-      <c r="J108" s="46"/>
-      <c r="K108" s="46"/>
-      <c r="L108" s="46"/>
-      <c r="M108" s="46"/>
-      <c r="N108" s="47"/>
-      <c r="O108" s="47"/>
-      <c r="P108" s="47"/>
-      <c r="Q108" s="87"/>
-      <c r="R108" s="87"/>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A109" s="37"/>
-      <c r="B109" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="C109" s="45">
+      <c r="C150" s="43">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D150" s="44"/>
+      <c r="E150" s="44"/>
+      <c r="F150" s="44"/>
+      <c r="G150" s="45"/>
+      <c r="H150" s="46"/>
+      <c r="I150" s="46"/>
+      <c r="J150" s="46"/>
+      <c r="K150" s="46"/>
+      <c r="L150" s="46"/>
+      <c r="M150" s="46"/>
+      <c r="N150" s="47"/>
+      <c r="O150" s="47"/>
+      <c r="P150" s="47"/>
+      <c r="Q150" s="87"/>
+      <c r="R150" s="87"/>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A151" s="37"/>
+      <c r="B151" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="C151" s="45">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D109" s="46"/>
-      <c r="E109" s="46"/>
-      <c r="F109" s="46"/>
-      <c r="G109" s="46"/>
-      <c r="H109" s="46"/>
-      <c r="I109" s="46"/>
-      <c r="J109" s="46"/>
-      <c r="K109" s="46"/>
-      <c r="L109" s="46"/>
-      <c r="M109" s="46"/>
-      <c r="N109" s="46"/>
-      <c r="O109" s="46"/>
-      <c r="P109" s="46"/>
-      <c r="Q109" s="87"/>
-      <c r="R109" s="87"/>
-    </row>
-    <row r="110" spans="1:18" ht="48" x14ac:dyDescent="0.2">
-      <c r="A110" s="2"/>
-      <c r="B110" s="47" t="s">
+      <c r="D151" s="46"/>
+      <c r="E151" s="46"/>
+      <c r="F151" s="46"/>
+      <c r="G151" s="46"/>
+      <c r="H151" s="46"/>
+      <c r="I151" s="46"/>
+      <c r="J151" s="46"/>
+      <c r="K151" s="46"/>
+      <c r="L151" s="46"/>
+      <c r="M151" s="46"/>
+      <c r="N151" s="46"/>
+      <c r="O151" s="46"/>
+      <c r="P151" s="46"/>
+      <c r="Q151" s="87"/>
+      <c r="R151" s="87"/>
+    </row>
+    <row r="152" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+      <c r="A152" s="2"/>
+      <c r="B152" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C110" s="48" t="str">
+      <c r="C152" s="48" t="str">
         <f xml:space="preserve"> "Overnight cost [" &amp; B43 &amp; "/" &amp; B41 &amp; "]"</f>
         <v>Overnight cost [€/MW]</v>
       </c>
-      <c r="D110" s="47" t="str">
+      <c r="D152" s="47" t="str">
         <f xml:space="preserve"> "Fixed O&amp;M cost ["  &amp; B43 &amp; "/" &amp; B41 &amp; "year]"</f>
         <v>Fixed O&amp;M cost [€/MWyear]</v>
       </c>
-      <c r="E110" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="F110" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="G110" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="H110" s="49" t="str">
+      <c r="E152" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="F152" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="G152" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="H152" s="49" t="str">
         <f xml:space="preserve"> "Annual fixed costs [" &amp;B43 &amp; "/year]"</f>
         <v>Annual fixed costs [€/year]</v>
       </c>
-      <c r="I110" s="47" t="str">
+      <c r="I152" s="47" t="str">
         <f xml:space="preserve"> "Variable O&amp;M [" &amp; B43 &amp; "/" &amp; B41 &amp; B40 &amp; "]"</f>
         <v>Variable O&amp;M [€/MWh]</v>
       </c>
-      <c r="J110" s="47" t="str">
+      <c r="J152" s="47" t="str">
         <f xml:space="preserve"> "Fuel cost [" &amp; B43 &amp; "/" &amp; B41 &amp; B40 &amp; "]"</f>
         <v>Fuel cost [€/MWh]</v>
       </c>
-      <c r="K110" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="L110" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="M110" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="N110" s="47"/>
-      <c r="O110" s="47"/>
-      <c r="P110" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q110" s="88" t="s">
-        <v>181</v>
-      </c>
-      <c r="R110" s="87"/>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B111" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="C111" s="50">
+      <c r="K152" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="L152" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="M152" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="N152" s="47"/>
+      <c r="O152" s="47"/>
+      <c r="P152" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q152" s="88" t="s">
+        <v>170</v>
+      </c>
+      <c r="R152" s="87"/>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B153" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="C153" s="50">
         <f>103100</f>
         <v>103100</v>
       </c>
-      <c r="D111" s="45">
-        <f>1.5%*C111</f>
+      <c r="D153" s="45">
+        <f>1.5%*C153</f>
         <v>1546.5</v>
       </c>
-      <c r="E111" s="45"/>
-      <c r="F111" s="45">
+      <c r="E153" s="45"/>
+      <c r="F153" s="45">
         <v>30</v>
       </c>
-      <c r="G111" s="45">
-        <f>C109*(1+C109)^F111/((1+C109)^F111-1)</f>
+      <c r="G153" s="45">
+        <f>C151*(1+C151)^F153/((1+C151)^F153-1)</f>
         <v>8.0586403511111196E-2</v>
       </c>
-      <c r="H111" s="51">
-        <f>(C111+D111)*G111</f>
+      <c r="H153" s="51">
+        <f>(C153+D153)*G153</f>
         <v>8433.0850750254976</v>
       </c>
-      <c r="I111" s="50"/>
-      <c r="J111" s="45"/>
-      <c r="K111" s="45"/>
-      <c r="L111" s="45"/>
-      <c r="M111" s="50">
-        <f>H111/8760/C108</f>
-        <v>0.96268094463761389</v>
-      </c>
-      <c r="N111" s="45" t="str">
+      <c r="I153" s="50"/>
+      <c r="J153" s="45"/>
+      <c r="K153" s="45"/>
+      <c r="L153" s="45"/>
+      <c r="M153" s="50">
+        <f>H153/8760/C150</f>
+        <v>0.84445696898036315</v>
+      </c>
+      <c r="N153" s="45" t="str">
         <f>B43 &amp; "/" &amp; B40 &amp; "/" &amp; B41</f>
         <v>€/h/MW</v>
       </c>
-      <c r="O111" s="45"/>
-      <c r="P111" s="50"/>
-      <c r="Q111" s="87"/>
-      <c r="R111" s="87"/>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B112" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="C112" s="45">
+      <c r="O153" s="45"/>
+      <c r="P153" s="50"/>
+      <c r="Q153" s="87"/>
+      <c r="R153" s="87"/>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B154" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C154" s="45">
         <f>1612000</f>
         <v>1612000</v>
       </c>
-      <c r="D112" s="45">
-        <f>12500*C108</f>
-        <v>12500</v>
-      </c>
-      <c r="E112" s="52">
+      <c r="D154" s="45">
+        <f>12500*C150</f>
+        <v>14249.999999999998</v>
+      </c>
+      <c r="E154" s="52">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F112" s="45">
+      <c r="F154" s="45">
         <v>30</v>
       </c>
-      <c r="G112" s="45">
-        <f>C109*(1+C109)^F112/((1+C109)^F112-1)</f>
+      <c r="G154" s="45">
+        <f>C151*(1+C151)^F154/((1+C151)^F154-1)</f>
         <v>8.0586403511111196E-2</v>
       </c>
-      <c r="H112" s="51">
-        <f>((C112+E112*C112)*G112+D112)</f>
-        <v>144353.86169680991</v>
-      </c>
-      <c r="I112" s="50"/>
-      <c r="J112" s="45"/>
-      <c r="K112" s="45">
+      <c r="H154" s="51">
+        <f>((C154+E154*C154)*G154+D154)</f>
+        <v>146103.86169680991</v>
+      </c>
+      <c r="I154" s="50"/>
+      <c r="J154" s="45"/>
+      <c r="K154" s="45">
         <v>0.81</v>
       </c>
-      <c r="L112" s="45"/>
-      <c r="M112" s="50">
-        <f>H112/8760/C108</f>
-        <v>16.478751335252273</v>
-      </c>
-      <c r="N112" s="45" t="str">
+      <c r="L154" s="45"/>
+      <c r="M154" s="50">
+        <f>H154/8760/C150</f>
+        <v>14.630283355043851</v>
+      </c>
+      <c r="N154" s="45" t="str">
         <f>B43 &amp; "/" &amp; B40 &amp; "/" &amp; B41</f>
         <v>€/h/MW</v>
       </c>
-      <c r="O112" s="45"/>
-      <c r="P112" s="50">
-        <f>0.0003/C108</f>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="Q112" s="87"/>
-      <c r="R112" s="87"/>
-    </row>
-    <row r="113" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B113" s="51"/>
-      <c r="C113" s="45"/>
-      <c r="D113" s="45"/>
-      <c r="E113" s="52"/>
-      <c r="F113" s="45"/>
-      <c r="G113" s="45"/>
-      <c r="H113" s="51"/>
-      <c r="I113" s="45"/>
-      <c r="J113" s="45"/>
-      <c r="K113" s="45"/>
-      <c r="L113" s="45"/>
-      <c r="M113" s="50"/>
-      <c r="N113" s="45"/>
-      <c r="O113" s="51"/>
-      <c r="P113" s="45"/>
-      <c r="Q113" s="87"/>
-      <c r="R113" s="87"/>
-    </row>
-    <row r="114" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B114" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="C114" s="45">
+      <c r="O154" s="45"/>
+      <c r="P154" s="50">
+        <f>0.0003/C150</f>
+        <v>2.631578947368421E-4</v>
+      </c>
+      <c r="Q154" s="87"/>
+      <c r="R154" s="87"/>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B155" s="51"/>
+      <c r="C155" s="45"/>
+      <c r="D155" s="45"/>
+      <c r="E155" s="52"/>
+      <c r="F155" s="45"/>
+      <c r="G155" s="45"/>
+      <c r="H155" s="51"/>
+      <c r="I155" s="45"/>
+      <c r="J155" s="45"/>
+      <c r="K155" s="45"/>
+      <c r="L155" s="45"/>
+      <c r="M155" s="50"/>
+      <c r="N155" s="45"/>
+      <c r="O155" s="51"/>
+      <c r="P155" s="45"/>
+      <c r="Q155" s="87"/>
+      <c r="R155" s="87"/>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B156" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="C156" s="45">
         <v>1969000</v>
       </c>
-      <c r="D114" s="45">
+      <c r="D156" s="45">
         <v>53000</v>
       </c>
-      <c r="E114" s="52"/>
-      <c r="F114" s="45">
+      <c r="E156" s="52"/>
+      <c r="F156" s="45">
         <v>30</v>
       </c>
-      <c r="G114" s="45">
-        <f>C109*(1+C109)^F114/((1+C109)^F114-1)</f>
+      <c r="G156" s="45">
+        <f>C151*(1+C151)^F156/((1+C151)^F156-1)</f>
         <v>8.0586403511111196E-2</v>
       </c>
-      <c r="H114" s="51">
-        <f>(C114+D114)*G114</f>
+      <c r="H156" s="51">
+        <f>(C156+D156)*G156</f>
         <v>162945.70789946683</v>
       </c>
-      <c r="I114" s="45">
-        <f>2*4.09</f>
-        <v>8.18</v>
-      </c>
-      <c r="J114" s="45">
+      <c r="I156" s="45">
+        <v>9</v>
+      </c>
+      <c r="J156" s="45">
         <v>20</v>
       </c>
-      <c r="K114" s="45">
+      <c r="K156" s="45">
         <v>0.56000000000000005</v>
       </c>
-      <c r="L114" s="45"/>
-      <c r="M114" s="50">
-        <f>H114/8760/C108</f>
-        <v>18.601108207701692</v>
-      </c>
-      <c r="N114" s="45" t="str">
+      <c r="L156" s="45"/>
+      <c r="M156" s="50">
+        <f>H156/8760/C150</f>
+        <v>16.31676158570324</v>
+      </c>
+      <c r="N156" s="45" t="str">
         <f>B43 &amp; "/" &amp; B40 &amp; "/" &amp; B41</f>
         <v>€/h/MW</v>
       </c>
-      <c r="O114" s="51"/>
-      <c r="P114" s="45">
-        <f>(I114+J114/K114)/C108</f>
-        <v>43.894285714285708</v>
-      </c>
-      <c r="Q114" s="87"/>
-      <c r="R114" s="87"/>
-    </row>
-    <row r="115" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B115" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="C115" s="45"/>
-      <c r="D115" s="45"/>
-      <c r="E115" s="52"/>
-      <c r="F115" s="45"/>
-      <c r="G115" s="45"/>
-      <c r="H115" s="51"/>
-      <c r="I115" s="45"/>
-      <c r="J115" s="45"/>
-      <c r="K115" s="45"/>
-      <c r="L115" s="45"/>
-      <c r="M115" s="50"/>
-      <c r="N115" s="45"/>
-      <c r="O115" s="45"/>
-      <c r="P115" s="45"/>
-      <c r="Q115" s="87"/>
-      <c r="R115" s="87"/>
-    </row>
-    <row r="116" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B116" s="45"/>
-      <c r="C116" s="45">
+      <c r="O156" s="51"/>
+      <c r="P156" s="45">
+        <f>(I156+J156/K156)/C150</f>
+        <v>39.223057644110277</v>
+      </c>
+      <c r="Q156" s="87"/>
+      <c r="R156" s="87"/>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B157" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C157" s="45"/>
+      <c r="D157" s="45"/>
+      <c r="E157" s="52"/>
+      <c r="F157" s="45"/>
+      <c r="G157" s="45"/>
+      <c r="H157" s="51"/>
+      <c r="I157" s="45"/>
+      <c r="J157" s="45"/>
+      <c r="K157" s="45"/>
+      <c r="L157" s="45"/>
+      <c r="M157" s="50"/>
+      <c r="N157" s="45"/>
+      <c r="O157" s="45"/>
+      <c r="P157" s="45"/>
+      <c r="Q157" s="87"/>
+      <c r="R157" s="87"/>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B158" s="45"/>
+      <c r="C158" s="45">
         <v>965000</v>
       </c>
-      <c r="D116" s="45">
+      <c r="D158" s="45">
         <v>27000</v>
       </c>
-      <c r="E116" s="52"/>
-      <c r="F116" s="45">
+      <c r="E158" s="52"/>
+      <c r="F158" s="45">
         <v>30</v>
       </c>
-      <c r="G116" s="45">
-        <f>C109*(1+C109)^F116/((1+C109)^F116-1)</f>
+      <c r="G158" s="45">
+        <f>C151*(1+C151)^F158/((1+C151)^F158-1)</f>
         <v>8.0586403511111196E-2</v>
       </c>
-      <c r="H116" s="51">
-        <f t="shared" ref="H116" si="0">(C116+D116)*G116</f>
+      <c r="H158" s="51">
+        <f>(C158+D158)*G158</f>
         <v>79941.712283022309</v>
       </c>
-      <c r="I116" s="45">
+      <c r="I158" s="45">
         <v>2</v>
       </c>
-      <c r="J116" s="45">
+      <c r="J158" s="45">
         <v>8</v>
       </c>
-      <c r="K116" s="45">
+      <c r="K158" s="45">
         <v>0.56000000000000005</v>
       </c>
-      <c r="L116" s="45"/>
-      <c r="M116" s="50">
-        <f>H116/8760/C108</f>
-        <v>9.1257662423541444</v>
-      </c>
-      <c r="N116" s="45"/>
-      <c r="O116" s="45"/>
-      <c r="P116" s="45">
-        <f>(I116+J116/K116)/C108</f>
-        <v>16.285714285714285</v>
-      </c>
-      <c r="Q116" s="87"/>
-      <c r="R116" s="87"/>
-    </row>
-    <row r="117" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B117" s="45"/>
-      <c r="C117" s="45"/>
-      <c r="D117" s="45"/>
-      <c r="E117" s="52"/>
-      <c r="F117" s="45"/>
-      <c r="G117" s="45"/>
-      <c r="H117" s="51"/>
-      <c r="I117" s="45"/>
-      <c r="J117" s="45"/>
-      <c r="K117" s="45"/>
-      <c r="L117" s="45"/>
-      <c r="M117" s="50"/>
-      <c r="N117" s="45"/>
-      <c r="O117" s="45"/>
-      <c r="P117" s="45"/>
-      <c r="Q117" s="87"/>
-      <c r="R117" s="87"/>
-    </row>
-    <row r="118" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B118" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="C118" s="45">
+      <c r="L158" s="45"/>
+      <c r="M158" s="50">
+        <f>H158/8760/C150</f>
+        <v>8.0050581073281979</v>
+      </c>
+      <c r="N158" s="45"/>
+      <c r="O158" s="45"/>
+      <c r="P158" s="45">
+        <f>(I158+J158/K158)/C150</f>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="Q158" s="87"/>
+      <c r="R158" s="87"/>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B159" s="45"/>
+      <c r="C159" s="45"/>
+      <c r="D159" s="45"/>
+      <c r="E159" s="52"/>
+      <c r="F159" s="45"/>
+      <c r="G159" s="45"/>
+      <c r="H159" s="51"/>
+      <c r="I159" s="45"/>
+      <c r="J159" s="45"/>
+      <c r="K159" s="45"/>
+      <c r="L159" s="45"/>
+      <c r="M159" s="50"/>
+      <c r="N159" s="45"/>
+      <c r="O159" s="45"/>
+      <c r="P159" s="45"/>
+      <c r="Q159" s="87"/>
+      <c r="R159" s="87"/>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B160" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="C160" s="45">
         <v>5580000</v>
       </c>
-      <c r="D118" s="45">
+      <c r="D160" s="45">
         <v>162000</v>
       </c>
-      <c r="E118" s="52"/>
-      <c r="F118" s="45">
+      <c r="E160" s="52"/>
+      <c r="F160" s="45">
         <v>30</v>
       </c>
-      <c r="G118" s="45">
-        <f>C109*(1+C109)^F118/((1+C109)^F118-1)</f>
+      <c r="G160" s="45">
+        <f>C151*(1+C151)^F160/((1+C151)^F160-1)</f>
         <v>8.0586403511111196E-2</v>
       </c>
-      <c r="H118" s="51">
-        <f t="shared" ref="H118" si="1">(C118+D118)*G118</f>
+      <c r="H160" s="51">
+        <f>(C160+D160)*G160</f>
         <v>462727.12896080047</v>
       </c>
-      <c r="I118" s="45"/>
-      <c r="J118" s="45"/>
-      <c r="K118" s="45"/>
-      <c r="L118" s="45"/>
-      <c r="M118" s="50">
-        <f>H118/8760/C108</f>
-        <v>52.822731616529737</v>
-      </c>
-      <c r="N118" s="45" t="str">
+      <c r="I160" s="45"/>
+      <c r="J160" s="45"/>
+      <c r="K160" s="45"/>
+      <c r="L160" s="45"/>
+      <c r="M160" s="50">
+        <f>H160/8760/C150</f>
+        <v>46.335729488183986</v>
+      </c>
+      <c r="N160" s="45" t="str">
         <f>B43 &amp; "/" &amp; B40 &amp; "/" &amp; B41</f>
         <v>€/h/MW</v>
       </c>
-      <c r="O118" s="45"/>
-      <c r="P118" s="45">
-        <f>16.6/C108</f>
-        <v>16.600000000000001</v>
-      </c>
-      <c r="Q118" s="87">
+      <c r="O160" s="45"/>
+      <c r="P160" s="45">
+        <f>16.6/C150</f>
+        <v>14.561403508771932</v>
+      </c>
+      <c r="Q160" s="87">
         <v>-1.22</v>
       </c>
-      <c r="R118" s="87" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="119" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B119" s="45"/>
-      <c r="C119" s="45"/>
-      <c r="D119" s="45"/>
-      <c r="E119" s="52"/>
-      <c r="F119" s="45"/>
-      <c r="G119" s="45"/>
-      <c r="H119" s="45"/>
-      <c r="I119" s="45"/>
-      <c r="J119" s="45"/>
-      <c r="K119" s="45"/>
-      <c r="L119" s="45"/>
-      <c r="M119" s="45"/>
-      <c r="N119" s="45"/>
-      <c r="O119" s="45"/>
-      <c r="P119" s="45"/>
-      <c r="Q119" s="87"/>
-      <c r="R119" s="87"/>
-    </row>
-    <row r="120" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B120" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="C120" s="45"/>
-      <c r="D120" s="45"/>
-      <c r="E120" s="52"/>
-      <c r="F120" s="45"/>
-      <c r="G120" s="45"/>
-      <c r="H120" s="45"/>
-      <c r="I120" s="45"/>
-      <c r="J120" s="45"/>
-      <c r="K120" s="45"/>
-      <c r="L120" s="45"/>
-      <c r="M120" s="45"/>
-      <c r="N120" s="45"/>
-      <c r="O120" s="45"/>
-      <c r="P120" s="45">
-        <f>10000/C108</f>
-        <v>10000</v>
-      </c>
-      <c r="Q120" s="87"/>
-      <c r="R120" s="87"/>
-    </row>
-    <row r="121" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B121" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="C121" s="45"/>
-      <c r="D121" s="45"/>
-      <c r="E121" s="52"/>
-      <c r="F121" s="45"/>
-      <c r="G121" s="45"/>
-      <c r="H121" s="45">
-        <f>250000/C108</f>
-        <v>250000</v>
-      </c>
-      <c r="I121" s="45"/>
-      <c r="J121" s="45"/>
-      <c r="K121" s="45"/>
-      <c r="L121" s="45"/>
-      <c r="M121" s="45"/>
-      <c r="N121" s="45"/>
-      <c r="O121" s="45"/>
-      <c r="P121" s="45"/>
-      <c r="Q121" s="87"/>
-      <c r="R121" s="87"/>
-    </row>
-    <row r="123" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B123" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="125" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="I125" s="8"/>
+      <c r="R160" s="87" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="161" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B161" s="45"/>
+      <c r="C161" s="45"/>
+      <c r="D161" s="45"/>
+      <c r="E161" s="52"/>
+      <c r="F161" s="45"/>
+      <c r="G161" s="45"/>
+      <c r="H161" s="45"/>
+      <c r="I161" s="45"/>
+      <c r="J161" s="45"/>
+      <c r="K161" s="45"/>
+      <c r="L161" s="45"/>
+      <c r="M161" s="45"/>
+      <c r="N161" s="45"/>
+      <c r="O161" s="45"/>
+      <c r="P161" s="45"/>
+      <c r="Q161" s="87"/>
+      <c r="R161" s="87"/>
+    </row>
+    <row r="162" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B162" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="C162" s="45"/>
+      <c r="D162" s="45"/>
+      <c r="E162" s="52"/>
+      <c r="F162" s="45"/>
+      <c r="G162" s="45"/>
+      <c r="H162" s="45"/>
+      <c r="I162" s="45"/>
+      <c r="J162" s="45"/>
+      <c r="K162" s="45"/>
+      <c r="L162" s="45"/>
+      <c r="M162" s="45"/>
+      <c r="N162" s="45"/>
+      <c r="O162" s="45"/>
+      <c r="P162" s="45">
+        <f>10000/C150</f>
+        <v>8771.9298245614045</v>
+      </c>
+      <c r="Q162" s="87"/>
+      <c r="R162" s="87"/>
+    </row>
+    <row r="163" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B163" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="C163" s="45"/>
+      <c r="D163" s="45"/>
+      <c r="E163" s="52"/>
+      <c r="F163" s="45"/>
+      <c r="G163" s="45"/>
+      <c r="H163" s="45">
+        <f>250000/C150</f>
+        <v>219298.24561403511</v>
+      </c>
+      <c r="I163" s="45"/>
+      <c r="J163" s="45"/>
+      <c r="K163" s="45"/>
+      <c r="L163" s="45"/>
+      <c r="M163" s="45"/>
+      <c r="N163" s="45"/>
+      <c r="O163" s="45"/>
+      <c r="P163" s="45"/>
+      <c r="Q163" s="87"/>
+      <c r="R163" s="87"/>
+    </row>
+    <row r="165" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B165" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="167" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="I167" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C90" r:id="rId1" xr:uid="{7E7F7A7C-890D-0E40-A83F-FA5282D3540A}"/>
-    <hyperlink ref="C99" r:id="rId2" xr:uid="{6CD367E7-01A2-7E42-B77E-D24EE280FB31}"/>
-    <hyperlink ref="C102" r:id="rId3" tooltip="Persistent link using digital object identifier" xr:uid="{A940AA27-0F2E-054F-87F5-05988AF7C9B4}"/>
+    <hyperlink ref="C141" r:id="rId1" xr:uid="{6CD367E7-01A2-7E42-B77E-D24EE280FB31}"/>
+    <hyperlink ref="C144" r:id="rId2" tooltip="Persistent link using digital object identifier" xr:uid="{A940AA27-0F2E-054F-87F5-05988AF7C9B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
--- a/all_firm_case.xlsx
+++ b/all_firm_case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliciawongel/Library/Group Containers/G69SCX94XU.duck/Library/Application Support/duck/Volumes.noindex/DPB-DGE Data Transfer Node/nobackup/scratch/awongel/clab_all_firm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F43B06-2F5E-D541-9EBD-2F88236B9065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D8CD35-41DD-3E43-BFEC-056472B91414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="36340" windowHeight="20800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case_input_intermodel_one_node_" sheetId="1" r:id="rId1"/>
@@ -603,12 +603,6 @@
     <t>all_firm</t>
   </si>
   <si>
-    <t>all_firm_case_all_stores</t>
-  </si>
-  <si>
-    <t>/carnegie/data/Shared/Labs/Caldeira Lab/Everyone/energy_demand_capacity_data/US_solar_wind_demand/</t>
-  </si>
-  <si>
     <t>Pumped-Storage-Hydro-bicharger</t>
   </si>
   <si>
@@ -843,7 +837,13 @@
     <t>Ni-Zn-store</t>
   </si>
   <si>
-    <t>clab_pypsa/utilities/costs_2020.csv</t>
+    <t>all_firm_case</t>
+  </si>
+  <si>
+    <t>/input_data/costs_2020.csv</t>
+  </si>
+  <si>
+    <t>/input_data/</t>
   </si>
 </sst>
 </file>
@@ -2195,8 +2195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2521,7 +2521,7 @@
         <v>39</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2529,9 +2529,9 @@
         <v>98</v>
       </c>
       <c r="B26" s="86" t="s">
-        <v>268</v>
-      </c>
-      <c r="F26" t="s">
+        <v>267</v>
+      </c>
+      <c r="G26" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2548,7 +2548,7 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>188</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -3851,16 +3851,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="45" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C72" s="45" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D72" s="45" t="s">
         <v>88</v>
       </c>
       <c r="E72" s="45" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F72" s="45"/>
       <c r="G72" s="45">
@@ -3896,13 +3896,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="C73" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="D73" s="45" t="s">
         <v>243</v>
-      </c>
-      <c r="C73" s="45" t="s">
-        <v>244</v>
-      </c>
-      <c r="D73" s="45" t="s">
-        <v>245</v>
       </c>
       <c r="E73" s="45"/>
       <c r="F73" s="45"/>
@@ -3939,16 +3939,16 @@
         <v>70</v>
       </c>
       <c r="B74" s="72" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C74" s="72" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D74" s="72" t="s">
         <v>88</v>
       </c>
       <c r="E74" s="72" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F74" s="72"/>
       <c r="G74" s="72">
@@ -3984,13 +3984,13 @@
         <v>71</v>
       </c>
       <c r="B75" s="72" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C75" s="72" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D75" s="72" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E75" s="72"/>
       <c r="F75" s="72"/>
@@ -4027,16 +4027,16 @@
         <v>70</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>88</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F76" s="15"/>
       <c r="G76" s="15">
@@ -4072,13 +4072,13 @@
         <v>71</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E77" s="15"/>
       <c r="F77" s="15"/>
@@ -4115,16 +4115,16 @@
         <v>70</v>
       </c>
       <c r="B78" s="116" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C78" s="116" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D78" s="116" t="s">
         <v>88</v>
       </c>
       <c r="E78" s="116" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F78" s="116"/>
       <c r="G78" s="116">
@@ -4160,13 +4160,13 @@
         <v>71</v>
       </c>
       <c r="B79" s="116" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C79" s="116" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D79" s="116" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E79" s="116"/>
       <c r="F79" s="116"/>
@@ -4203,16 +4203,16 @@
         <v>70</v>
       </c>
       <c r="B80" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="C80" s="35" t="s">
         <v>192</v>
-      </c>
-      <c r="C80" s="35" t="s">
-        <v>194</v>
       </c>
       <c r="D80" s="35" t="s">
         <v>88</v>
       </c>
       <c r="E80" s="35" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F80" s="35"/>
       <c r="G80" s="35">
@@ -4248,13 +4248,13 @@
         <v>71</v>
       </c>
       <c r="B81" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="C81" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="D81" s="35" t="s">
         <v>193</v>
-      </c>
-      <c r="C81" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="D81" s="35" t="s">
-        <v>195</v>
       </c>
       <c r="E81" s="35"/>
       <c r="F81" s="35"/>
@@ -4291,16 +4291,16 @@
         <v>70</v>
       </c>
       <c r="B82" s="118" t="s">
+        <v>194</v>
+      </c>
+      <c r="C82" s="118" t="s">
         <v>196</v>
-      </c>
-      <c r="C82" s="118" t="s">
-        <v>198</v>
       </c>
       <c r="D82" s="118" t="s">
         <v>88</v>
       </c>
       <c r="E82" s="118" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F82" s="118"/>
       <c r="G82" s="118">
@@ -4336,13 +4336,13 @@
         <v>71</v>
       </c>
       <c r="B83" s="118" t="s">
+        <v>195</v>
+      </c>
+      <c r="C83" s="118" t="s">
+        <v>196</v>
+      </c>
+      <c r="D83" s="118" t="s">
         <v>197</v>
-      </c>
-      <c r="C83" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="D83" s="118" t="s">
-        <v>199</v>
       </c>
       <c r="E83" s="118"/>
       <c r="F83" s="118"/>
@@ -4379,16 +4379,16 @@
         <v>70</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>88</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3">
@@ -4427,13 +4427,13 @@
         <v>71</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>258</v>
-      </c>
       <c r="D85" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
@@ -4473,16 +4473,16 @@
         <v>70</v>
       </c>
       <c r="B86" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="C86" s="45" t="s">
         <v>259</v>
-      </c>
-      <c r="C86" s="45" t="s">
-        <v>261</v>
       </c>
       <c r="D86" s="45" t="s">
         <v>88</v>
       </c>
       <c r="E86" s="45" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F86" s="45"/>
       <c r="G86" s="45">
@@ -4521,13 +4521,13 @@
         <v>71</v>
       </c>
       <c r="B87" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="C87" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="D87" s="45" t="s">
         <v>260</v>
-      </c>
-      <c r="C87" s="45" t="s">
-        <v>261</v>
-      </c>
-      <c r="D87" s="45" t="s">
-        <v>262</v>
       </c>
       <c r="E87" s="45"/>
       <c r="F87" s="45"/>
@@ -4655,16 +4655,16 @@
         <v>70</v>
       </c>
       <c r="B90" s="112" t="s">
+        <v>209</v>
+      </c>
+      <c r="C90" s="112" t="s">
         <v>211</v>
-      </c>
-      <c r="C90" s="112" t="s">
-        <v>213</v>
       </c>
       <c r="D90" s="112" t="s">
         <v>88</v>
       </c>
       <c r="E90" s="112" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F90" s="112"/>
       <c r="G90" s="112">
@@ -4700,13 +4700,13 @@
         <v>71</v>
       </c>
       <c r="B91" s="112" t="s">
+        <v>210</v>
+      </c>
+      <c r="C91" s="112" t="s">
+        <v>211</v>
+      </c>
+      <c r="D91" s="112" t="s">
         <v>212</v>
-      </c>
-      <c r="C91" s="112" t="s">
-        <v>213</v>
-      </c>
-      <c r="D91" s="112" t="s">
-        <v>214</v>
       </c>
       <c r="E91" s="112"/>
       <c r="F91" s="112"/>
@@ -4743,16 +4743,16 @@
         <v>70</v>
       </c>
       <c r="B92" s="114" t="s">
+        <v>213</v>
+      </c>
+      <c r="C92" s="114" t="s">
         <v>215</v>
-      </c>
-      <c r="C92" s="114" t="s">
-        <v>217</v>
       </c>
       <c r="D92" s="114" t="s">
         <v>88</v>
       </c>
       <c r="E92" s="114" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F92" s="114"/>
       <c r="G92" s="114">
@@ -4788,13 +4788,13 @@
         <v>71</v>
       </c>
       <c r="B93" s="114" t="s">
+        <v>214</v>
+      </c>
+      <c r="C93" s="114" t="s">
+        <v>215</v>
+      </c>
+      <c r="D93" s="114" t="s">
         <v>216</v>
-      </c>
-      <c r="C93" s="114" t="s">
-        <v>217</v>
-      </c>
-      <c r="D93" s="114" t="s">
-        <v>218</v>
       </c>
       <c r="E93" s="114"/>
       <c r="F93" s="114"/>
@@ -4831,16 +4831,16 @@
         <v>70</v>
       </c>
       <c r="B94" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="C94" s="35" t="s">
         <v>219</v>
-      </c>
-      <c r="C94" s="35" t="s">
-        <v>221</v>
       </c>
       <c r="D94" s="35" t="s">
         <v>88</v>
       </c>
       <c r="E94" s="35" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F94" s="35"/>
       <c r="G94" s="35">
@@ -4876,13 +4876,13 @@
         <v>71</v>
       </c>
       <c r="B95" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="C95" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D95" s="35" t="s">
         <v>220</v>
-      </c>
-      <c r="C95" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="D95" s="35" t="s">
-        <v>222</v>
       </c>
       <c r="E95" s="35"/>
       <c r="F95" s="35"/>
@@ -4919,10 +4919,10 @@
         <v>70</v>
       </c>
       <c r="B96" s="30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C96" s="30" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D96" s="30" t="s">
         <v>88</v>
@@ -4970,10 +4970,10 @@
         <v>71</v>
       </c>
       <c r="B97" s="30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C97" s="30" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D97" s="30" t="s">
         <v>85</v>
@@ -5022,7 +5022,7 @@
         <v>32</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D98" s="28" t="s">
         <v>88</v>
@@ -5073,7 +5073,7 @@
         <v>109</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D99" s="28" t="s">
         <v>34</v>
@@ -5126,7 +5126,7 @@
         <v>104</v>
       </c>
       <c r="C100" s="28" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D100" s="28" t="s">
         <v>34</v>
@@ -5174,16 +5174,16 @@
         <v>70</v>
       </c>
       <c r="B101" s="110" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C101" s="110" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D101" s="110" t="s">
         <v>88</v>
       </c>
       <c r="E101" s="110" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F101" s="110"/>
       <c r="G101" s="110"/>
@@ -5217,13 +5217,13 @@
         <v>71</v>
       </c>
       <c r="B102" s="110" t="s">
+        <v>204</v>
+      </c>
+      <c r="C102" s="110" t="s">
         <v>206</v>
       </c>
-      <c r="C102" s="110" t="s">
-        <v>208</v>
-      </c>
       <c r="D102" s="110" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E102" s="110"/>
       <c r="F102" s="110"/>
@@ -5260,13 +5260,13 @@
         <v>70</v>
       </c>
       <c r="B103" s="110" t="s">
+        <v>205</v>
+      </c>
+      <c r="C103" s="110" t="s">
+        <v>206</v>
+      </c>
+      <c r="D103" s="110" t="s">
         <v>207</v>
-      </c>
-      <c r="C103" s="110" t="s">
-        <v>208</v>
-      </c>
-      <c r="D103" s="110" t="s">
-        <v>209</v>
       </c>
       <c r="E103" s="110" t="s">
         <v>88</v>
@@ -5303,16 +5303,16 @@
         <v>70</v>
       </c>
       <c r="B104" s="108" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C104" s="108" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D104" s="108" t="s">
         <v>88</v>
       </c>
       <c r="E104" s="108" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F104" s="108"/>
       <c r="G104" s="108"/>
@@ -5346,13 +5346,13 @@
         <v>71</v>
       </c>
       <c r="B105" s="108" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C105" s="108" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D105" s="108" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E105" s="108"/>
       <c r="F105" s="108"/>
@@ -5389,13 +5389,13 @@
         <v>70</v>
       </c>
       <c r="B106" s="108" t="s">
+        <v>222</v>
+      </c>
+      <c r="C106" s="108" t="s">
+        <v>228</v>
+      </c>
+      <c r="D106" s="108" t="s">
         <v>224</v>
-      </c>
-      <c r="C106" s="108" t="s">
-        <v>230</v>
-      </c>
-      <c r="D106" s="108" t="s">
-        <v>226</v>
       </c>
       <c r="E106" s="108" t="s">
         <v>88</v>
@@ -5432,16 +5432,16 @@
         <v>70</v>
       </c>
       <c r="B107" s="45" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C107" s="45" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D107" s="45" t="s">
         <v>88</v>
       </c>
       <c r="E107" s="45" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F107" s="45"/>
       <c r="G107" s="45"/>
@@ -5475,13 +5475,13 @@
         <v>71</v>
       </c>
       <c r="B108" s="45" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C108" s="45" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D108" s="45" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E108" s="45"/>
       <c r="F108" s="45"/>
@@ -5518,13 +5518,13 @@
         <v>70</v>
       </c>
       <c r="B109" s="45" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C109" s="45" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D109" s="45" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E109" s="45" t="s">
         <v>88</v>
@@ -5561,16 +5561,16 @@
         <v>70</v>
       </c>
       <c r="B110" s="70" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C110" s="70" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D110" s="70" t="s">
         <v>88</v>
       </c>
       <c r="E110" s="70" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F110" s="70"/>
       <c r="G110" s="70"/>
@@ -5604,13 +5604,13 @@
         <v>71</v>
       </c>
       <c r="B111" s="70" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C111" s="70" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D111" s="70" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E111" s="70"/>
       <c r="F111" s="70"/>
@@ -5647,13 +5647,13 @@
         <v>70</v>
       </c>
       <c r="B112" s="70" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C112" s="70" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D112" s="70" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E112" s="70" t="s">
         <v>88</v>
@@ -5690,16 +5690,16 @@
         <v>70</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D113" s="15" t="s">
         <v>88</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F113" s="15"/>
       <c r="G113" s="15"/>
@@ -5733,13 +5733,13 @@
         <v>71</v>
       </c>
       <c r="B114" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="C114" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="C114" s="15" t="s">
-        <v>241</v>
-      </c>
       <c r="D114" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E114" s="15"/>
       <c r="F114" s="15"/>
@@ -5776,13 +5776,13 @@
         <v>70</v>
       </c>
       <c r="B115" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C115" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="D115" s="15" t="s">
         <v>240</v>
-      </c>
-      <c r="C115" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="D115" s="15" t="s">
-        <v>242</v>
       </c>
       <c r="E115" s="15" t="s">
         <v>88</v>
@@ -5819,16 +5819,16 @@
         <v>70</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D116" s="13" t="s">
         <v>88</v>
       </c>
       <c r="E116" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F116" s="13"/>
       <c r="G116" s="13"/>
@@ -5862,13 +5862,13 @@
         <v>71</v>
       </c>
       <c r="B117" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C117" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C117" s="13" t="s">
-        <v>203</v>
-      </c>
       <c r="D117" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E117" s="13"/>
       <c r="F117" s="13"/>
@@ -5905,13 +5905,13 @@
         <v>70</v>
       </c>
       <c r="B118" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="D118" s="13" t="s">
         <v>202</v>
-      </c>
-      <c r="C118" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="D118" s="13" t="s">
-        <v>204</v>
       </c>
       <c r="E118" s="13" t="s">
         <v>88</v>

--- a/all_firm_case.xlsx
+++ b/all_firm_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliciawongel/Library/Group Containers/G69SCX94XU.duck/Library/Application Support/duck/Volumes.noindex/DPB-DGE Data Transfer Node/nobackup/scratch/awongel/clab_all_firm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D8CD35-41DD-3E43-BFEC-056472B91414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576B084B-7F4D-CA4F-842A-5F81702B9AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -840,10 +840,10 @@
     <t>all_firm_case</t>
   </si>
   <si>
-    <t>/input_data/costs_2020.csv</t>
-  </si>
-  <si>
-    <t>/input_data/</t>
+    <t>input_data/</t>
+  </si>
+  <si>
+    <t>input_data/costs_2020.csv</t>
   </si>
 </sst>
 </file>
@@ -2196,7 +2196,7 @@
   <dimension ref="A1:Z167"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2521,7 +2521,7 @@
         <v>39</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2529,7 +2529,7 @@
         <v>98</v>
       </c>
       <c r="B26" s="86" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G26" t="s">
         <v>153</v>
